--- a/docs/跨线运行SPCK曲线定义组.xlsx
+++ b/docs/跨线运行SPCK曲线定义组.xlsx
@@ -8,13 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchDocuments\ROS2WithSPCK\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF4275A9-0BB9-4591-8407-CC636065B9B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8B1BE4-CC03-442F-9504-DC681676E9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="3120" windowWidth="16440" windowHeight="28440" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="自定义线路" sheetId="1" r:id="rId1"/>
+    <sheet name="原人工拟合曲线-欠超高过大" sheetId="2" r:id="rId1"/>
+    <sheet name="自定义线路" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'原人工拟合曲线-欠超高过大'!$A$1:$N$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">自定义线路!$A$1:$N$85</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,13 +41,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="34">
   <si>
     <t>线路分段</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>线路类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -110,12 +111,79 @@
     <t>SPCK中不使用该段曲线</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>H_Par1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_Par2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H_Par3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CST</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平面线路类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高线路类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>运行速度kmph</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已越过虹桥2号航站楼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>曲线方向</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠超高mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未平衡加速度g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最小曲线半径2000米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>困难条件半径最小1300m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +208,51 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,8 +277,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -190,50 +337,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -249,13 +359,109 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -591,59 +797,112 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6356CB-F0F5-4EF9-8834-D5D350C95BD2}">
-  <dimension ref="A1:F101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9EB4C0-8E58-4720-B55B-8C44D5B2F684}">
+  <dimension ref="A1:Q97"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView topLeftCell="A68" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="5" width="8.4140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.58203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="14" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="14" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="5"/>
+    <col min="15" max="15" width="24.08203125" style="5" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="3">
         <v>300</v>
       </c>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="9">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I9" si="0">C2</f>
+        <v>300</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="3">
         <f>55/2</f>
@@ -657,15 +916,35 @@
         <v>-1500</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <f>J4</f>
+        <v>-54</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4" s="3">
         <v>138.893</v>
@@ -673,17 +952,40 @@
       <c r="D4" s="3">
         <v>-1500</v>
       </c>
-      <c r="E4" s="3"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="0"/>
+        <v>138.893</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-54</v>
+      </c>
+      <c r="K4" s="15"/>
+      <c r="L4" s="12">
+        <f>G4*G4/ABS(D4)*11.8-ABS(J4)</f>
+        <v>-3.6533333333333289</v>
+      </c>
+      <c r="M4" s="12">
+        <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
+        <v>-2.4405599392574098E-3</v>
+      </c>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="3">
         <f>C3</f>
@@ -696,28 +998,65 @@
       <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F5" s="15"/>
+      <c r="G5" s="9">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="J5" s="3">
+        <f>J4</f>
+        <v>-54</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="29"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="4">
         <v>250</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="9">
+        <v>80</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="4">
         <f>85/2</f>
@@ -730,14 +1069,34 @@
         <f>D8</f>
         <v>650</v>
       </c>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F7" s="15"/>
+      <c r="G7" s="9">
+        <v>80</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0</v>
+      </c>
+      <c r="K7" s="4">
+        <f>J8</f>
+        <v>120</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4">
         <v>565.17399999999998</v>
@@ -745,17 +1104,40 @@
       <c r="D8" s="4">
         <v>650</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="4">
+        <f t="shared" si="0"/>
+        <v>565.17399999999998</v>
+      </c>
+      <c r="J8" s="4">
+        <v>120</v>
+      </c>
+      <c r="K8" s="15"/>
+      <c r="L8" s="13">
+        <f>G8*G8/ABS(D8)*11.8-ABS(J8)</f>
+        <v>-3.8153846153846018</v>
+      </c>
+      <c r="M8" s="13">
+        <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
+        <v>-2.5551383213632678E-3</v>
+      </c>
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="4">
         <f>C7</f>
@@ -768,28 +1150,65 @@
       <c r="E9" s="4">
         <v>0</v>
       </c>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F9" s="15"/>
+      <c r="G9" s="9">
+        <v>80</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="4">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="J9" s="4">
+        <f>J8</f>
+        <v>120</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="3">
         <v>50</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="9">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" ref="I10:I73" si="1">C10</f>
+        <v>50</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="3">
         <f>75/2</f>
@@ -802,14 +1221,34 @@
         <f>D12</f>
         <v>-550</v>
       </c>
-      <c r="F11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="15"/>
+      <c r="G11" s="9">
+        <v>80</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="3">
+        <f>J12</f>
+        <v>120</v>
+      </c>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="3">
         <v>257.29700000000003</v>
@@ -817,17 +1256,40 @@
       <c r="D12" s="3">
         <v>-550</v>
       </c>
-      <c r="E12" s="3"/>
+      <c r="E12" s="15"/>
       <c r="F12" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>257.29700000000003</v>
+      </c>
+      <c r="J12" s="3">
+        <v>120</v>
+      </c>
+      <c r="K12" s="15"/>
+      <c r="L12" s="12">
+        <f>G12*G12/ABS(D12)*11.8-ABS(J12)</f>
+        <v>17.309090909090912</v>
+      </c>
+      <c r="M12" s="12">
+        <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
+        <v>1.1525745620207042E-2</v>
+      </c>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="3">
         <f>C11</f>
@@ -840,30 +1302,67 @@
       <c r="E13" s="3">
         <v>0</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="15"/>
+      <c r="G13" s="9">
+        <v>80</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>37.5</v>
+      </c>
+      <c r="J13" s="3">
+        <f>J12</f>
+        <v>120</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="4">
         <v>950</v>
       </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9">
+        <v>80</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="1"/>
+        <v>950</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="4">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4">
         <v>80</v>
@@ -875,14 +1374,34 @@
         <f>D16</f>
         <v>450</v>
       </c>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F15" s="15"/>
+      <c r="G15" s="9">
+        <v>80</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f>J16</f>
+        <v>110</v>
+      </c>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4">
         <v>800</v>
@@ -890,17 +1409,40 @@
       <c r="D16" s="4">
         <v>450</v>
       </c>
-      <c r="E16" s="4"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9">
+        <v>80</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="J16" s="4">
+        <v>110</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="18">
+        <f>G16*G16/ABS(D16)*11.8-ABS(J16)</f>
+        <v>57.822222222222223</v>
+      </c>
+      <c r="M16" s="18">
+        <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
+        <v>3.8531466869141953E-2</v>
+      </c>
+      <c r="N16" s="30"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4">
         <f>C15</f>
@@ -913,28 +1455,67 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="4"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F17" s="15"/>
+      <c r="G17" s="9">
+        <v>80</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J17" s="4">
+        <f>J16</f>
+        <v>110</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="30"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="3">
         <v>50</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="9">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="3">
         <v>100</v>
@@ -946,14 +1527,34 @@
         <f>D20</f>
         <v>-600</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F19" s="15"/>
+      <c r="G19" s="9">
+        <v>100</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f>J20</f>
+        <v>-120</v>
+      </c>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="3">
         <v>150</v>
@@ -961,15 +1562,38 @@
       <c r="D20" s="3">
         <v>-600</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="9">
+        <v>100</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-120</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="12">
+        <f>G20*G20/ABS(D20)*11.8-ABS(J20)</f>
+        <v>76.666666666666686</v>
+      </c>
+      <c r="M20" s="12">
+        <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
+        <v>5.1091562737275734E-2</v>
+      </c>
+      <c r="N20" s="29"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="3">
         <v>100</v>
@@ -981,28 +1605,65 @@
       <c r="E21" s="3">
         <v>0</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F21" s="15"/>
+      <c r="G21" s="9">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
+        <f>J20</f>
+        <v>-120</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="29"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="4">
         <v>500</v>
       </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="7">
+        <v>100</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="4">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="4">
         <v>150</v>
@@ -1014,14 +1675,34 @@
         <f>D24</f>
         <v>2000</v>
       </c>
-      <c r="F23" s="4"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F23" s="15"/>
+      <c r="G23" s="7">
+        <v>100</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f>J24</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="30"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="4">
         <v>700</v>
@@ -1029,15 +1710,38 @@
       <c r="D24" s="4">
         <v>2000</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="7">
+        <v>100</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="1"/>
+        <v>700</v>
+      </c>
+      <c r="J24" s="4">
+        <v>0</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="18">
+        <f>G24*G24/ABS(D24)*11.8-ABS(J24)</f>
+        <v>59</v>
+      </c>
+      <c r="M24" s="18">
+        <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
+        <v>3.9327468821182723E-2</v>
+      </c>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="4">
         <f>C23</f>
@@ -1050,28 +1754,65 @@
       <c r="E25" s="4">
         <v>0</v>
       </c>
-      <c r="F25" s="4"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F25" s="15"/>
+      <c r="G25" s="7">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J25" s="4">
+        <f>J24</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="30"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="3">
         <v>50</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="7">
+        <v>160</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="3">
         <v>40</v>
@@ -1083,30 +1824,78 @@
         <f>D28</f>
         <v>-700</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="F27" s="15"/>
+      <c r="G27" s="7">
+        <v>160</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f>J28</f>
+        <v>-120</v>
+      </c>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C28" s="3">
+      <c r="B28" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="19">
         <v>300</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="19">
         <v>-700</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="21">
+        <v>160</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="19">
+        <f t="shared" si="1"/>
+        <v>300</v>
+      </c>
+      <c r="J28" s="19">
+        <v>-120</v>
+      </c>
+      <c r="K28" s="20"/>
+      <c r="L28" s="22">
+        <f>G28*G28/ABS(D28)*11.8-ABS(J28)</f>
+        <v>311.54285714285714</v>
+      </c>
+      <c r="M28" s="22">
+        <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
+        <v>0.20765234337779359</v>
+      </c>
+      <c r="N28" s="29"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="3">
         <f>C27</f>
@@ -1119,28 +1908,65 @@
       <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="3"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F29" s="15"/>
+      <c r="G29" s="7">
+        <v>160</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J29" s="3">
+        <f>J28</f>
+        <v>-120</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C30" s="4">
         <v>80</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="7">
+        <v>160</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="4">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" s="4">
         <v>50</v>
@@ -1152,30 +1978,78 @@
         <f>D32</f>
         <v>-750</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
+      <c r="F31" s="15"/>
+      <c r="G31" s="7">
+        <v>160</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <f>J32</f>
+        <v>-66.66</v>
+      </c>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="30"/>
+    </row>
+    <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C32" s="4">
-        <v>200</v>
-      </c>
-      <c r="D32" s="4">
+      <c r="B32" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="25">
+        <v>200</v>
+      </c>
+      <c r="D32" s="25">
         <v>-750</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="21">
+        <v>160</v>
+      </c>
+      <c r="H32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="25">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J32" s="25">
+        <v>-66.66</v>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="26">
+        <f>G32*G32/ABS(D32)*11.8-ABS(J32)</f>
+        <v>336.11333333333334</v>
+      </c>
+      <c r="M32" s="26">
+        <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
+        <v>0.22403552048594069</v>
+      </c>
+      <c r="N32" s="30"/>
+      <c r="O32" s="23"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="4">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" s="4">
         <v>50</v>
@@ -1187,30 +2061,67 @@
       <c r="E33" s="4">
         <v>0</v>
       </c>
-      <c r="F33" s="4"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F33" s="15"/>
+      <c r="G33" s="7">
+        <v>160</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J33" s="4">
+        <f>J32</f>
+        <v>-66.66</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="30"/>
+    </row>
+    <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" s="3">
         <v>2000</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
       <c r="F34" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7">
+        <v>180</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C35" s="3">
         <v>100</v>
@@ -1222,14 +2133,34 @@
         <f>D36</f>
         <v>3000</v>
       </c>
-      <c r="F35" s="3"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F35" s="15"/>
+      <c r="G35" s="7">
+        <v>180</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <f>J36</f>
+        <v>90</v>
+      </c>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="30"/>
+    </row>
+    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C36" s="3">
         <v>360</v>
@@ -1237,15 +2168,38 @@
       <c r="D36" s="3">
         <v>3000</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="7">
+        <v>180</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="J36" s="3">
+        <v>90</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="12">
+        <f>G36*G36/ABS(D36)*11.8-ABS(J36)</f>
+        <v>37.440000000000012</v>
+      </c>
+      <c r="M36" s="12">
+        <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
+        <v>2.4947332653754678E-2</v>
+      </c>
+      <c r="N36" s="30"/>
+    </row>
+    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C37" s="3">
         <f>C35</f>
@@ -1258,30 +2212,67 @@
       <c r="E37" s="3">
         <v>0</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F37" s="15"/>
+      <c r="G37" s="7">
+        <v>180</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J37" s="3">
+        <f>J36</f>
+        <v>90</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="16"/>
+      <c r="M37" s="16"/>
+      <c r="N37" s="30"/>
+    </row>
+    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" s="4">
         <v>50</v>
       </c>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
       <c r="F38" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="G38" s="8">
+        <v>180</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="16"/>
+      <c r="M38" s="16"/>
+      <c r="N38" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="4">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" s="4">
         <v>50</v>
@@ -1293,14 +2284,34 @@
         <f>D40</f>
         <v>-2150</v>
       </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F39" s="15"/>
+      <c r="G39" s="8">
+        <v>180</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f>J40</f>
+        <v>-120</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C40" s="4">
         <v>420</v>
@@ -1308,15 +2319,38 @@
       <c r="D40" s="4">
         <v>-2150</v>
       </c>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="8">
+        <v>180</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="1"/>
+        <v>420</v>
+      </c>
+      <c r="J40" s="4">
+        <v>-120</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="18">
+        <f>G40*G40/ABS(D40)*11.8-ABS(J40)</f>
+        <v>57.823255813953494</v>
+      </c>
+      <c r="M40" s="18">
+        <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
+        <v>3.8531161842448383E-2</v>
+      </c>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C41" s="4">
         <f>C39</f>
@@ -1329,28 +2363,65 @@
       <c r="E41" s="4">
         <v>0</v>
       </c>
-      <c r="F41" s="4"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F41" s="15"/>
+      <c r="G41" s="8">
+        <v>180</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J41" s="4">
+        <f>J40</f>
+        <v>-120</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="3">
         <v>3000</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="8">
+        <v>200</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16"/>
+      <c r="N42" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" s="3">
         <v>150</v>
@@ -1362,14 +2433,34 @@
         <f>D44</f>
         <v>3800</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F43" s="15"/>
+      <c r="G43" s="8">
+        <v>200</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <f>J44</f>
+        <v>80</v>
+      </c>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16"/>
+      <c r="N43" s="30"/>
+    </row>
+    <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C44" s="3">
         <v>800</v>
@@ -1377,15 +2468,38 @@
       <c r="D44" s="3">
         <v>3800</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="8">
+        <v>200</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="J44" s="3">
+        <v>80</v>
+      </c>
+      <c r="K44" s="15"/>
+      <c r="L44" s="12">
+        <f>G44*G44/ABS(D44)*11.8-ABS(J44)</f>
+        <v>44.210526315789494</v>
+      </c>
+      <c r="M44" s="12">
+        <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
+        <v>2.9461337869156605E-2</v>
+      </c>
+      <c r="N44" s="30"/>
+    </row>
+    <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C45" s="3">
         <f>C43</f>
@@ -1398,28 +2512,65 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F45" s="15"/>
+      <c r="G45" s="8">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J45" s="3">
+        <f>J44</f>
+        <v>80</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="30"/>
+    </row>
+    <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="4">
         <v>400</v>
       </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="8">
+        <v>200</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="4">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C47" s="4">
         <v>100</v>
@@ -1431,14 +2582,34 @@
         <f>D48</f>
         <v>-20000</v>
       </c>
-      <c r="F47" s="4"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F47" s="15"/>
+      <c r="G47" s="8">
+        <v>200</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f>J48</f>
+        <v>-60</v>
+      </c>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C48" s="4">
         <v>200</v>
@@ -1446,15 +2617,38 @@
       <c r="D48" s="4">
         <v>-20000</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="8">
+        <v>200</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+      <c r="J48" s="4">
+        <v>-60</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="L48" s="18">
+        <f>G48*G48/ABS(D48)*11.8-ABS(J48)</f>
+        <v>-36.4</v>
+      </c>
+      <c r="M48" s="18">
+        <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
+        <v>-2.4269012471526914E-2</v>
+      </c>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C49" s="4">
         <f>C47</f>
@@ -1467,28 +2661,65 @@
       <c r="E49" s="4">
         <v>0</v>
       </c>
-      <c r="F49" s="4"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F49" s="15"/>
+      <c r="G49" s="8">
+        <v>200</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J49" s="4">
+        <f>J48</f>
+        <v>-60</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="29"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C50" s="3">
         <v>120</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="8">
+        <v>200</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" s="3">
         <v>100</v>
@@ -1500,30 +2731,78 @@
         <f>D52</f>
         <v>1600</v>
       </c>
-      <c r="F51" s="3"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="F51" s="15"/>
+      <c r="G51" s="8">
+        <v>200</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <f>J52</f>
+        <v>120</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="30"/>
+    </row>
+    <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="19">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C52" s="3">
+      <c r="B52" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="19">
         <v>1000</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="19">
         <v>1600</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E52" s="20"/>
+      <c r="F52" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="27">
+        <v>200</v>
+      </c>
+      <c r="H52" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="19">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="J52" s="19">
+        <v>120</v>
+      </c>
+      <c r="K52" s="20"/>
+      <c r="L52" s="22">
+        <f>G52*G52/ABS(D52)*11.8-ABS(J52)</f>
+        <v>175</v>
+      </c>
+      <c r="M52" s="22">
+        <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
+        <v>0.1166373441059136</v>
+      </c>
+      <c r="N52" s="30"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C53" s="3">
         <f>C51</f>
@@ -1536,28 +2815,65 @@
       <c r="E53" s="3">
         <v>0</v>
       </c>
-      <c r="F53" s="3"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F53" s="15"/>
+      <c r="G53" s="8">
+        <v>200</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J53" s="3">
+        <f>J52</f>
+        <v>120</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="30"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C54" s="4">
         <v>50</v>
       </c>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="8">
+        <v>200</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="4">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C55" s="4">
         <v>50</v>
@@ -1569,30 +2885,78 @@
         <f>D56</f>
         <v>1500</v>
       </c>
-      <c r="F55" s="4"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A56" s="4">
+      <c r="F55" s="15"/>
+      <c r="G55" s="8">
+        <v>200</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J55" s="4">
+        <v>0</v>
+      </c>
+      <c r="K55" s="4">
+        <f>J56</f>
+        <v>150</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="30"/>
+    </row>
+    <row r="56" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="25">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="B56" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="25">
         <v>280</v>
       </c>
-      <c r="D56" s="4">
+      <c r="D56" s="25">
         <v>1500</v>
       </c>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E56" s="20"/>
+      <c r="F56" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G56" s="27">
+        <v>200</v>
+      </c>
+      <c r="H56" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="25">
+        <f t="shared" si="1"/>
+        <v>280</v>
+      </c>
+      <c r="J56" s="25">
+        <v>150</v>
+      </c>
+      <c r="K56" s="20"/>
+      <c r="L56" s="26">
+        <f>G56*G56/ABS(D56)*11.8-ABS(J56)</f>
+        <v>164.66666666666669</v>
+      </c>
+      <c r="M56" s="26">
+        <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
+        <v>0.10974650037964118</v>
+      </c>
+      <c r="N56" s="30"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="4">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C57" s="4">
         <f>C55</f>
@@ -1605,28 +2969,65 @@
       <c r="E57" s="4">
         <v>0</v>
       </c>
-      <c r="F57" s="4"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F57" s="15"/>
+      <c r="G57" s="8">
+        <v>200</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J57" s="4">
+        <f>J56</f>
+        <v>150</v>
+      </c>
+      <c r="K57" s="4">
+        <v>0</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="30"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C58" s="3">
         <v>50</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="8">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" s="3">
         <v>50</v>
@@ -1638,30 +3039,78 @@
         <f>D60</f>
         <v>2100</v>
       </c>
-      <c r="F59" s="3"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
+      <c r="F59" s="15"/>
+      <c r="G59" s="8">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <f>J60</f>
+        <v>150</v>
+      </c>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="30"/>
+    </row>
+    <row r="60" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="19">
         <v>59</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C60" s="3">
+      <c r="B60" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="19">
         <v>450</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="19">
         <v>2100</v>
       </c>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E60" s="20"/>
+      <c r="F60" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="G60" s="27">
+        <v>200</v>
+      </c>
+      <c r="H60" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="19">
+        <f t="shared" si="1"/>
+        <v>450</v>
+      </c>
+      <c r="J60" s="19">
+        <v>150</v>
+      </c>
+      <c r="K60" s="20"/>
+      <c r="L60" s="22">
+        <f>G60*G60/ABS(D60)*11.8-ABS(J60)</f>
+        <v>74.761904761904788</v>
+      </c>
+      <c r="M60" s="22">
+        <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
+        <v>4.9818928842600835E-2</v>
+      </c>
+      <c r="N60" s="30"/>
+      <c r="O60" s="23"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="23"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C61" s="3">
         <f>C59</f>
@@ -1674,28 +3123,65 @@
       <c r="E61" s="3">
         <v>0</v>
       </c>
-      <c r="F61" s="3"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F61" s="15"/>
+      <c r="G61" s="8">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J61" s="3">
+        <f>J60</f>
+        <v>150</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16"/>
+      <c r="N61" s="30"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="4">
         <v>100</v>
       </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="8">
+        <v>200</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="4">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" s="4">
         <v>50</v>
@@ -1707,14 +3193,34 @@
         <f>D64</f>
         <v>-3300</v>
       </c>
-      <c r="F63" s="4"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F63" s="15"/>
+      <c r="G63" s="8">
+        <v>200</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J63" s="4">
+        <v>0</v>
+      </c>
+      <c r="K63" s="4">
+        <f>J64</f>
+        <v>-100</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="29"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C64" s="4">
         <v>150</v>
@@ -1722,15 +3228,38 @@
       <c r="D64" s="4">
         <v>-3300</v>
       </c>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="8">
+        <v>200</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="J64" s="4">
+        <v>-100</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="18">
+        <f>G64*G64/ABS(D64)*11.8-ABS(J64)</f>
+        <v>43.030303030303031</v>
+      </c>
+      <c r="M64" s="18">
+        <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
+        <v>2.8672651687715683E-2</v>
+      </c>
+      <c r="N64" s="29"/>
+    </row>
+    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" s="4">
         <f>C63</f>
@@ -1743,30 +3272,67 @@
       <c r="E65" s="4">
         <v>0</v>
       </c>
-      <c r="F65" s="4"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F65" s="15"/>
+      <c r="G65" s="8">
+        <v>200</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="4">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="J65" s="4">
+        <f>J64</f>
+        <v>-100</v>
+      </c>
+      <c r="K65" s="4">
+        <v>0</v>
+      </c>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16"/>
+      <c r="N65" s="29"/>
+    </row>
+    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C66" s="3">
         <v>800</v>
       </c>
-      <c r="D66" s="3"/>
-      <c r="E66" s="3"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
       <c r="F66" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="G66" s="8">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="J66" s="3"/>
+      <c r="K66" s="3"/>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16"/>
+      <c r="N66" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" s="3">
         <v>100</v>
@@ -1778,14 +3344,34 @@
         <f>D68</f>
         <v>3500</v>
       </c>
-      <c r="F67" s="3"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F67" s="15"/>
+      <c r="G67" s="8">
+        <v>200</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <f>J68</f>
+        <v>80</v>
+      </c>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16"/>
+      <c r="N67" s="30"/>
+    </row>
+    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C68" s="3">
         <v>800</v>
@@ -1793,15 +3379,38 @@
       <c r="D68" s="3">
         <v>3500</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="8">
+        <v>200</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="1"/>
+        <v>800</v>
+      </c>
+      <c r="J68" s="3">
+        <v>80</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="12">
+        <f>G68*G68/ABS(D68)*11.8-ABS(J68)</f>
+        <v>54.857142857142861</v>
+      </c>
+      <c r="M68" s="12">
+        <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
+        <v>3.6558023972227162E-2</v>
+      </c>
+      <c r="N68" s="30"/>
+    </row>
+    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C69" s="3">
         <f>C67</f>
@@ -1814,28 +3423,65 @@
       <c r="E69" s="3">
         <v>0</v>
       </c>
-      <c r="F69" s="3"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F69" s="15"/>
+      <c r="G69" s="8">
+        <v>200</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J69" s="3">
+        <f>J68</f>
+        <v>80</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16"/>
+      <c r="N69" s="30"/>
+    </row>
+    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C70" s="4">
         <v>250</v>
       </c>
-      <c r="D70" s="4"/>
-      <c r="E70" s="4"/>
-      <c r="F70" s="4"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="8">
+        <v>200</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="4">
+        <f t="shared" si="1"/>
+        <v>250</v>
+      </c>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16"/>
+      <c r="N70" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="4">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C71" s="4">
         <v>80</v>
@@ -1847,14 +3493,34 @@
         <f>D72</f>
         <v>-10500</v>
       </c>
-      <c r="F71" s="4"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F71" s="15"/>
+      <c r="G71" s="8">
+        <v>200</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J71" s="4">
+        <v>0</v>
+      </c>
+      <c r="K71" s="4">
+        <f>J72</f>
+        <v>-60</v>
+      </c>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="29"/>
+    </row>
+    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C72" s="4">
         <v>100</v>
@@ -1862,15 +3528,38 @@
       <c r="D72" s="4">
         <v>-10500</v>
       </c>
-      <c r="E72" s="4"/>
-      <c r="F72" s="4"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="8">
+        <v>200</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="J72" s="4">
+        <v>-60</v>
+      </c>
+      <c r="K72" s="15"/>
+      <c r="L72" s="18">
+        <f>G72*G72/ABS(D72)*11.8-ABS(J72)</f>
+        <v>-15.047619047619044</v>
+      </c>
+      <c r="M72" s="18">
+        <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
+        <v>-1.0036214231479833E-2</v>
+      </c>
+      <c r="N72" s="29"/>
+    </row>
+    <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" s="4">
         <f>C71</f>
@@ -1883,28 +3572,65 @@
       <c r="E73" s="4">
         <v>0</v>
       </c>
-      <c r="F73" s="4"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F73" s="15"/>
+      <c r="G73" s="8">
+        <v>200</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="4">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="J73" s="4">
+        <f>J72</f>
+        <v>-60</v>
+      </c>
+      <c r="K73" s="4">
+        <v>0</v>
+      </c>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16"/>
+      <c r="N73" s="29"/>
+    </row>
+    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C74" s="3">
         <v>2500</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="8">
+        <v>200</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" ref="I74:I97" si="2">C74</f>
+        <v>2500</v>
+      </c>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16"/>
+      <c r="N74" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C75" s="3">
         <v>150</v>
@@ -1916,14 +3642,34 @@
         <f>D76</f>
         <v>-10000</v>
       </c>
-      <c r="F75" s="3"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F75" s="15"/>
+      <c r="G75" s="8">
+        <v>200</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <f>J76</f>
+        <v>-70</v>
+      </c>
+      <c r="L75" s="15"/>
+      <c r="M75" s="16"/>
+      <c r="N75" s="29"/>
+    </row>
+    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C76" s="3">
         <v>2000</v>
@@ -1931,15 +3677,38 @@
       <c r="D76" s="3">
         <v>-10000</v>
       </c>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="8">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-70</v>
+      </c>
+      <c r="K76" s="15"/>
+      <c r="L76" s="12">
+        <f>G76*G76/ABS(D76)*11.8-ABS(J76)</f>
+        <v>-22.799999999999997</v>
+      </c>
+      <c r="M76" s="12">
+        <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
+        <v>-1.5204691609720496E-2</v>
+      </c>
+      <c r="N76" s="29"/>
+    </row>
+    <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C77" s="3">
         <v>150</v>
@@ -1951,28 +3720,65 @@
       <c r="E77" s="3">
         <v>0</v>
       </c>
-      <c r="F77" s="3"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F77" s="15"/>
+      <c r="G77" s="8">
+        <v>200</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="J77" s="3">
+        <f>J76</f>
+        <v>-70</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16"/>
+      <c r="N77" s="29"/>
+    </row>
+    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C78" s="4">
         <v>2000</v>
       </c>
-      <c r="D78" s="4"/>
-      <c r="E78" s="4"/>
-      <c r="F78" s="4"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="8">
+        <v>200</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="4">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16"/>
+      <c r="N78" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="4">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C79" s="4">
         <v>100</v>
@@ -1984,14 +3790,34 @@
         <f>D80</f>
         <v>-14000</v>
       </c>
-      <c r="F79" s="4"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F79" s="15"/>
+      <c r="G79" s="8">
+        <v>200</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J79" s="4">
+        <v>0</v>
+      </c>
+      <c r="K79" s="4">
+        <f>J80</f>
+        <v>-70</v>
+      </c>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16"/>
+      <c r="N79" s="29"/>
+    </row>
+    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C80" s="4">
         <v>900</v>
@@ -1999,15 +3825,38 @@
       <c r="D80" s="4">
         <v>-14000</v>
       </c>
-      <c r="E80" s="4"/>
-      <c r="F80" s="4"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="8">
+        <v>200</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="4">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="J80" s="4">
+        <v>-70</v>
+      </c>
+      <c r="K80" s="15"/>
+      <c r="L80" s="18">
+        <f>G80*G80/ABS(D80)*11.8-ABS(J80)</f>
+        <v>-36.285714285714285</v>
+      </c>
+      <c r="M80" s="18">
+        <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
+        <v>-2.4193827340276544E-2</v>
+      </c>
+      <c r="N80" s="29"/>
+    </row>
+    <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C81" s="4">
         <f>C79</f>
@@ -2020,28 +3869,65 @@
       <c r="E81" s="4">
         <v>0</v>
       </c>
-      <c r="F81" s="4"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F81" s="15"/>
+      <c r="G81" s="8">
+        <v>200</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J81" s="4">
+        <f>J80</f>
+        <v>-70</v>
+      </c>
+      <c r="K81" s="4">
+        <v>0</v>
+      </c>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16"/>
+      <c r="N81" s="29"/>
+    </row>
+    <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C82" s="3">
         <v>800</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="3"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="8">
+        <v>200</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16"/>
+      <c r="N82" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C83" s="3">
         <v>120</v>
@@ -2053,14 +3939,34 @@
         <f>D84</f>
         <v>-10000</v>
       </c>
-      <c r="F83" s="3"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F83" s="15"/>
+      <c r="G83" s="8">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <f>J84</f>
+        <v>-70</v>
+      </c>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16"/>
+      <c r="N83" s="29"/>
+    </row>
+    <row r="84" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C84" s="3">
         <v>800</v>
@@ -2068,15 +3974,38 @@
       <c r="D84" s="3">
         <v>-10000</v>
       </c>
-      <c r="E84" s="3"/>
-      <c r="F84" s="3"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="8">
+        <v>200</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="J84" s="3">
+        <v>-70</v>
+      </c>
+      <c r="K84" s="15"/>
+      <c r="L84" s="12">
+        <f>G84*G84/ABS(D84)*11.8-ABS(J84)</f>
+        <v>-22.799999999999997</v>
+      </c>
+      <c r="M84" s="12">
+        <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
+        <v>-1.5204691609720496E-2</v>
+      </c>
+      <c r="N84" s="29"/>
+    </row>
+    <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" s="3">
         <f>C83</f>
@@ -2089,28 +4018,65 @@
       <c r="E85" s="3">
         <v>0</v>
       </c>
-      <c r="F85" s="3"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F85" s="15"/>
+      <c r="G85" s="8">
+        <v>200</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="J85" s="3">
+        <f>J84</f>
+        <v>-70</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16"/>
+      <c r="N85" s="29"/>
+    </row>
+    <row r="86" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C86" s="4">
         <v>1000</v>
       </c>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4"/>
-      <c r="F86" s="4"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="8">
+        <v>200</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I86" s="4">
+        <f t="shared" si="2"/>
+        <v>1000</v>
+      </c>
+      <c r="J86" s="15"/>
+      <c r="K86" s="15"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="4">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C87" s="4">
         <v>80</v>
@@ -2122,14 +4088,34 @@
         <f>D88</f>
         <v>2800</v>
       </c>
-      <c r="F87" s="4"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F87" s="15"/>
+      <c r="G87" s="8">
+        <v>200</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I87" s="4">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J87" s="4">
+        <v>0</v>
+      </c>
+      <c r="K87" s="4">
+        <f>J88</f>
+        <v>110</v>
+      </c>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16"/>
+      <c r="N87" s="30"/>
+    </row>
+    <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
         <v>87</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C88" s="4">
         <v>1200</v>
@@ -2137,15 +4123,38 @@
       <c r="D88" s="4">
         <v>2800</v>
       </c>
-      <c r="E88" s="4"/>
-      <c r="F88" s="4"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="8">
+        <v>200</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I88" s="4">
+        <f t="shared" si="2"/>
+        <v>1200</v>
+      </c>
+      <c r="J88" s="4">
+        <v>110</v>
+      </c>
+      <c r="K88" s="15"/>
+      <c r="L88" s="18">
+        <f>G88*G88/ABS(D88)*11.8-ABS(J88)</f>
+        <v>58.571428571428584</v>
+      </c>
+      <c r="M88" s="18">
+        <f>(G88/3.6)^2/(ABS(D88)*9.81)-ABS(J88)/1500</f>
+        <v>3.9030863298617297E-2</v>
+      </c>
+      <c r="N88" s="30"/>
+    </row>
+    <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
         <v>88</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C89" s="4">
         <f>C87</f>
@@ -2158,28 +4167,65 @@
       <c r="E89" s="4">
         <v>0</v>
       </c>
-      <c r="F89" s="4"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F89" s="15"/>
+      <c r="G89" s="8">
+        <v>200</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I89" s="4">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J89" s="4">
+        <f>J88</f>
+        <v>110</v>
+      </c>
+      <c r="K89" s="4">
+        <v>0</v>
+      </c>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16"/>
+      <c r="N89" s="30"/>
+    </row>
+    <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C90" s="3">
         <v>50</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="3"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="8">
+        <v>200</v>
+      </c>
+      <c r="H90" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I90" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J90" s="15"/>
+      <c r="K90" s="15"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16"/>
+      <c r="N90" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C91" s="3">
         <v>80</v>
@@ -2191,14 +4237,34 @@
         <f>D92</f>
         <v>3000</v>
       </c>
-      <c r="F91" s="3"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F91" s="15"/>
+      <c r="G91" s="8">
+        <v>200</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I91" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
+        <f>J92</f>
+        <v>100</v>
+      </c>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16"/>
+      <c r="N91" s="30"/>
+    </row>
+    <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C92" s="3">
         <v>400</v>
@@ -2206,15 +4272,38 @@
       <c r="D92" s="3">
         <v>3000</v>
       </c>
-      <c r="E92" s="3"/>
-      <c r="F92" s="3"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="8">
+        <v>200</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I92" s="3">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="J92" s="3">
+        <v>100</v>
+      </c>
+      <c r="K92" s="15"/>
+      <c r="L92" s="12">
+        <f>G92*G92/ABS(D92)*11.8-ABS(J92)</f>
+        <v>57.333333333333343</v>
+      </c>
+      <c r="M92" s="12">
+        <f>(G92/3.6)^2/(ABS(D92)*9.81)-ABS(J92)/1500</f>
+        <v>3.8206583523153925E-2</v>
+      </c>
+      <c r="N92" s="30"/>
+    </row>
+    <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" s="3">
         <f>C91</f>
@@ -2227,30 +4316,67 @@
       <c r="E93" s="3">
         <v>0</v>
       </c>
-      <c r="F93" s="3"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F93" s="15"/>
+      <c r="G93" s="8">
+        <v>200</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I93" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J93" s="3">
+        <f>J92</f>
+        <v>100</v>
+      </c>
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16"/>
+      <c r="N93" s="30"/>
+    </row>
+    <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
         <v>93</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C94" s="4">
         <v>2000</v>
       </c>
-      <c r="D94" s="4"/>
-      <c r="E94" s="4"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
       <c r="F94" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G94" s="8">
+        <v>200</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I94" s="4">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J94" s="15"/>
+      <c r="K94" s="15"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16"/>
+      <c r="N94" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="4">
         <v>94</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C95" s="4">
         <v>50</v>
@@ -2262,16 +4388,36 @@
         <f>D96</f>
         <v>50000</v>
       </c>
-      <c r="F95" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F95" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="G95" s="8">
+        <v>200</v>
+      </c>
+      <c r="H95" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J95" s="4">
+        <v>0</v>
+      </c>
+      <c r="K95" s="4">
+        <f>J96</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16"/>
+      <c r="N95" s="30"/>
+    </row>
+    <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
         <v>95</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C96" s="4">
         <v>50</v>
@@ -2279,15 +4425,38 @@
       <c r="D96" s="4">
         <v>50000</v>
       </c>
-      <c r="E96" s="4"/>
-      <c r="F96" s="6"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E96" s="15"/>
+      <c r="F96" s="30"/>
+      <c r="G96" s="8">
+        <v>200</v>
+      </c>
+      <c r="H96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I96" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J96" s="4">
+        <v>0</v>
+      </c>
+      <c r="K96" s="15"/>
+      <c r="L96" s="18">
+        <f>G96*G96/ABS(D96)*11.8-ABS(J96)</f>
+        <v>9.4400000000000013</v>
+      </c>
+      <c r="M96" s="18">
+        <f>(G96/3.6)^2/(ABS(D96)*9.81)-ABS(J96)/1500</f>
+        <v>6.2923950113892351E-3</v>
+      </c>
+      <c r="N96" s="30"/>
+    </row>
+    <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
         <v>96</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" s="4">
         <f>C95</f>
@@ -2300,43 +4469,3439 @@
       <c r="E97" s="4">
         <v>0</v>
       </c>
-      <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="3"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="3"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="3"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="8">
+        <v>200</v>
+      </c>
+      <c r="H97" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I97" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J97" s="4">
+        <f>J96</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="4">
+        <v>0</v>
+      </c>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16"/>
+      <c r="N97" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="25">
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
     <mergeCell ref="F95:F97"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="N94:N97"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6356CB-F0F5-4EF9-8834-D5D350C95BD2}">
+  <dimension ref="A1:Q98"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.4140625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.58203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="5" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="5" customWidth="1"/>
+    <col min="12" max="12" width="12.5" style="38" customWidth="1"/>
+    <col min="13" max="13" width="16.5" style="38" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" style="5"/>
+    <col min="15" max="15" width="24.08203125" style="5" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>300</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="9">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I9" si="0">C2</f>
+        <v>300</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="32"/>
+      <c r="M2" s="32"/>
+      <c r="N2" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="19">
+        <f>55/2</f>
+        <v>27.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D4</f>
+        <v>-1500</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="19">
+        <f>J4</f>
+        <v>-54</v>
+      </c>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="29"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19">
+        <v>138.893</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="0"/>
+        <v>138.893</v>
+      </c>
+      <c r="J4" s="19">
+        <v>-54</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="33">
+        <f t="shared" ref="L4:L11" si="1">G4*G4/ABS(D4)*11.8-ABS(J4)</f>
+        <v>-3.6533333333333289</v>
+      </c>
+      <c r="M4" s="33">
+        <f t="shared" ref="M4:M11" si="2">(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
+        <v>-2.4405599392574098E-3</v>
+      </c>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="19">
+        <f>C3</f>
+        <v>27.5</v>
+      </c>
+      <c r="D5" s="3">
+        <f>D4</f>
+        <v>-1500</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="9">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="J5" s="19">
+        <f>J4</f>
+        <v>-54</v>
+      </c>
+      <c r="K5" s="19">
+        <v>0</v>
+      </c>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="29"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25">
+        <v>250</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="9">
+        <v>80</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="25">
+        <f>85/2</f>
+        <v>42.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>D8</f>
+        <v>650</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="9">
+        <v>80</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="J7" s="25">
+        <v>0</v>
+      </c>
+      <c r="K7" s="25">
+        <f>J8</f>
+        <v>120</v>
+      </c>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="30"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25">
+        <v>565.17399999999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>650</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="0"/>
+        <v>565.17399999999998</v>
+      </c>
+      <c r="J8" s="25">
+        <v>120</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="36">
+        <f>G8*G8/ABS(D8)*11.8-ABS(J8)</f>
+        <v>-3.8153846153846018</v>
+      </c>
+      <c r="M8" s="36">
+        <f t="shared" si="2"/>
+        <v>-2.5551383213632678E-3</v>
+      </c>
+      <c r="N8" s="30"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25">
+        <f>C7</f>
+        <v>42.5</v>
+      </c>
+      <c r="D9" s="4">
+        <f>D8</f>
+        <v>650</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="9">
+        <v>80</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="J9" s="25">
+        <f>J8</f>
+        <v>120</v>
+      </c>
+      <c r="K9" s="25">
+        <v>0</v>
+      </c>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="30"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="9">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" ref="I10:I73" si="3">C10</f>
+        <v>50</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19">
+        <f>75/2</f>
+        <v>37.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D12</f>
+        <v>-550</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="9">
+        <v>80</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="J11" s="19">
+        <v>0</v>
+      </c>
+      <c r="K11" s="19">
+        <f>J12</f>
+        <v>-120</v>
+      </c>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="19">
+        <v>257.29700000000003</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-550</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="3"/>
+        <v>257.29700000000003</v>
+      </c>
+      <c r="J12" s="19">
+        <v>-120</v>
+      </c>
+      <c r="K12" s="20"/>
+      <c r="L12" s="35">
+        <f>G12*G12/ABS(D12)*11.8-ABS(J12)</f>
+        <v>17.309090909090912</v>
+      </c>
+      <c r="M12" s="35">
+        <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
+        <v>1.1525745620207042E-2</v>
+      </c>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="19">
+        <f>C11</f>
+        <v>37.5</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D12</f>
+        <v>-550</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="9">
+        <v>80</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="3"/>
+        <v>37.5</v>
+      </c>
+      <c r="J13" s="19">
+        <f>J12</f>
+        <v>-120</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0</v>
+      </c>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>950</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9">
+        <v>80</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="3"/>
+        <v>950</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>D16</f>
+        <v>450</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="9">
+        <v>80</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0</v>
+      </c>
+      <c r="K15" s="4">
+        <f>J16</f>
+        <v>100</v>
+      </c>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>800</v>
+      </c>
+      <c r="D16" s="4">
+        <v>450</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9">
+        <v>80</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="J16" s="4">
+        <v>100</v>
+      </c>
+      <c r="K16" s="15"/>
+      <c r="L16" s="36">
+        <f>G16*G16/ABS(D16)*11.8-ABS(J16)</f>
+        <v>67.822222222222223</v>
+      </c>
+      <c r="M16" s="36">
+        <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
+        <v>4.5198133535808621E-2</v>
+      </c>
+      <c r="N16" s="30"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C15</f>
+        <v>80</v>
+      </c>
+      <c r="D17" s="4">
+        <f>D16</f>
+        <v>450</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="9">
+        <v>80</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J17" s="4">
+        <f>J16</f>
+        <v>100</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="30"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="9">
+        <v>80</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f>D20</f>
+        <v>-600</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="9">
+        <v>80</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
+        <f>J20</f>
+        <v>-70</v>
+      </c>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="29"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>150</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="9">
+        <v>80</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-70</v>
+      </c>
+      <c r="K20" s="15"/>
+      <c r="L20" s="35">
+        <f>G20*G20/ABS(D20)*11.8-ABS(J20)</f>
+        <v>55.866666666666674</v>
+      </c>
+      <c r="M20" s="35">
+        <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
+        <v>3.7231933485189793E-2</v>
+      </c>
+      <c r="N20" s="29"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3">
+        <f>D20</f>
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="9">
+        <v>80</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
+        <f>J20</f>
+        <v>-70</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="29"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>200</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="7">
+        <v>100</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4">
+        <v>150</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f>D24</f>
+        <v>2000</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="7">
+        <v>100</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J23" s="4">
+        <v>0</v>
+      </c>
+      <c r="K23" s="4">
+        <f>J24</f>
+        <v>30</v>
+      </c>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="30"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4">
+        <v>600</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="7">
+        <v>100</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="J24" s="4">
+        <v>30</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="36">
+        <f>G24*G24/ABS(D24)*11.8-ABS(J24)</f>
+        <v>29</v>
+      </c>
+      <c r="M24" s="36">
+        <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
+        <v>1.9327468821182723E-2</v>
+      </c>
+      <c r="N24" s="30"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
+        <f>C23</f>
+        <v>150</v>
+      </c>
+      <c r="D25" s="4">
+        <f>D24</f>
+        <v>2000</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="7">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J25" s="4">
+        <f>J24</f>
+        <v>30</v>
+      </c>
+      <c r="K25" s="4">
+        <v>0</v>
+      </c>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="30"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>50</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="7">
+        <v>160</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <f>D28</f>
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="7">
+        <v>160</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
+        <f>J28</f>
+        <v>-120</v>
+      </c>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="29"/>
+    </row>
+    <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>500</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="7">
+        <v>160</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="3"/>
+        <v>500</v>
+      </c>
+      <c r="J28" s="3">
+        <v>-120</v>
+      </c>
+      <c r="K28" s="3"/>
+      <c r="L28" s="35">
+        <f>G28*G28/ABS(D28)*11.8-ABS(J28)</f>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="M28" s="35">
+        <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
+        <v>4.5847900227784691E-2</v>
+      </c>
+      <c r="N28" s="29"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <f>C27</f>
+        <v>50</v>
+      </c>
+      <c r="D29" s="3">
+        <f>D28</f>
+        <v>-1600</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="7">
+        <v>160</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J29" s="3">
+        <f>J28</f>
+        <v>-120</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="29"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4">
+        <v>80</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="7">
+        <v>160</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J30" s="15"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f>D32</f>
+        <v>-1600</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="7">
+        <v>160</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J31" s="4">
+        <v>0</v>
+      </c>
+      <c r="K31" s="4">
+        <f>J32</f>
+        <v>-120</v>
+      </c>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="30"/>
+    </row>
+    <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4">
+        <v>650</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="7">
+        <v>160</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="3"/>
+        <v>650</v>
+      </c>
+      <c r="J32" s="4">
+        <v>-120</v>
+      </c>
+      <c r="K32" s="20"/>
+      <c r="L32" s="37">
+        <f>G32*G32/ABS(D32)*11.8-ABS(J32)</f>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="M32" s="37">
+        <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
+        <v>4.5847900227784691E-2</v>
+      </c>
+      <c r="N32" s="30"/>
+      <c r="O32" s="5"/>
+      <c r="P32" s="23"/>
+      <c r="Q32" s="23"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
+        <v>50</v>
+      </c>
+      <c r="D33" s="4">
+        <f>D32</f>
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="7">
+        <v>160</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J33" s="4">
+        <f>J32</f>
+        <v>-120</v>
+      </c>
+      <c r="K33" s="4">
+        <v>0</v>
+      </c>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="30"/>
+    </row>
+    <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7">
+        <v>180</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="J34" s="15"/>
+      <c r="K34" s="15"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3">
+        <v>100</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <f>D36</f>
+        <v>3000</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="39">
+        <v>180</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <f>J36</f>
+        <v>80</v>
+      </c>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="30"/>
+    </row>
+    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3">
+        <v>360</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="39">
+        <v>180</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="3"/>
+        <v>360</v>
+      </c>
+      <c r="J36" s="3">
+        <v>80</v>
+      </c>
+      <c r="K36" s="15"/>
+      <c r="L36" s="35">
+        <f>G36*G36/ABS(D36)*11.8-ABS(J36)</f>
+        <v>47.440000000000012</v>
+      </c>
+      <c r="M36" s="35">
+        <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
+        <v>3.1613999320421339E-2</v>
+      </c>
+      <c r="N36" s="30"/>
+    </row>
+    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3">
+        <f>C35</f>
+        <v>100</v>
+      </c>
+      <c r="D37" s="3">
+        <f>D36</f>
+        <v>3000</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="39">
+        <v>180</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J37" s="3">
+        <f>J36</f>
+        <v>80</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="30"/>
+    </row>
+    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4">
+        <v>50</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="39">
+        <v>180</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J38" s="15"/>
+      <c r="K38" s="15"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4">
+        <v>50</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <f>D40</f>
+        <v>-3000</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="39">
+        <v>180</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J39" s="4">
+        <v>0</v>
+      </c>
+      <c r="K39" s="4">
+        <f>J40</f>
+        <v>-80</v>
+      </c>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="29"/>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <v>600</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-3000</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="39">
+        <v>180</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="3"/>
+        <v>600</v>
+      </c>
+      <c r="J40" s="4">
+        <v>-80</v>
+      </c>
+      <c r="K40" s="15"/>
+      <c r="L40" s="36">
+        <f>G40*G40/ABS(D40)*11.8-ABS(J40)</f>
+        <v>47.440000000000012</v>
+      </c>
+      <c r="M40" s="36">
+        <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
+        <v>3.1613999320421339E-2</v>
+      </c>
+      <c r="N40" s="29"/>
+    </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <f>C39</f>
+        <v>50</v>
+      </c>
+      <c r="D41" s="4">
+        <f>D40</f>
+        <v>-3000</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="39">
+        <v>180</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="J41" s="4">
+        <f>J40</f>
+        <v>-80</v>
+      </c>
+      <c r="K41" s="4">
+        <v>0</v>
+      </c>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="29"/>
+    </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2800</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="39">
+        <v>180</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="3"/>
+        <v>2800</v>
+      </c>
+      <c r="J42" s="15"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3">
+        <v>100</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <f>D44</f>
+        <v>3800</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="39">
+        <v>180</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <f>J44</f>
+        <v>70</v>
+      </c>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="30"/>
+    </row>
+    <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3">
+        <v>200</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="39">
+        <v>180</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J44" s="3">
+        <v>70</v>
+      </c>
+      <c r="K44" s="15"/>
+      <c r="L44" s="35">
+        <f>G44*G44/ABS(D44)*11.8-ABS(J44)</f>
+        <v>30.610526315789485</v>
+      </c>
+      <c r="M44" s="35">
+        <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
+        <v>2.0397017007350172E-2</v>
+      </c>
+      <c r="N44" s="30"/>
+    </row>
+    <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3">
+        <f>C43</f>
+        <v>100</v>
+      </c>
+      <c r="D45" s="3">
+        <f>D44</f>
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="39">
+        <v>180</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J45" s="3">
+        <f>J44</f>
+        <v>70</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="30"/>
+    </row>
+    <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4">
+        <v>400</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="39">
+        <v>180</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="3"/>
+        <v>400</v>
+      </c>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="32"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4">
+        <v>100</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <f>D48</f>
+        <v>-20000</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="39">
+        <v>180</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J47" s="4">
+        <v>0</v>
+      </c>
+      <c r="K47" s="4">
+        <f>J48</f>
+        <v>-10</v>
+      </c>
+      <c r="L47" s="32"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="29"/>
+    </row>
+    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4">
+        <v>200</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-20000</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="39">
+        <v>180</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="3"/>
+        <v>200</v>
+      </c>
+      <c r="J48" s="4">
+        <v>-10</v>
+      </c>
+      <c r="K48" s="15"/>
+      <c r="L48" s="33">
+        <f>G48*G48/ABS(D48)*11.8-ABS(J48)</f>
+        <v>9.1160000000000032</v>
+      </c>
+      <c r="M48" s="33">
+        <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
+        <v>6.0754332313965329E-3</v>
+      </c>
+      <c r="N48" s="29"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <f>C47</f>
+        <v>100</v>
+      </c>
+      <c r="D49" s="4">
+        <f>D48</f>
+        <v>-20000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="39">
+        <v>180</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J49" s="4">
+        <f>J48</f>
+        <v>-10</v>
+      </c>
+      <c r="K49" s="4">
+        <v>0</v>
+      </c>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="29"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>100</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="7">
+        <v>160</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J50" s="15"/>
+      <c r="K50" s="15"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3">
+        <v>100</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <f>D52</f>
+        <v>1900</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="7">
+        <v>160</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <f>J52</f>
+        <v>95</v>
+      </c>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="30"/>
+    </row>
+    <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="7">
+        <v>160</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="3"/>
+        <v>2400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>95</v>
+      </c>
+      <c r="K52" s="15"/>
+      <c r="L52" s="35">
+        <f>G52*G52/ABS(D52)*11.8-ABS(J52)</f>
+        <v>63.989473684210537</v>
+      </c>
+      <c r="M52" s="35">
+        <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
+        <v>4.2643845805853772E-2</v>
+      </c>
+      <c r="N52" s="30"/>
+      <c r="O52" s="5"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3">
+        <f>C51</f>
+        <v>100</v>
+      </c>
+      <c r="D53" s="3">
+        <f>D52</f>
+        <v>1900</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="7">
+        <v>160</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J53" s="3">
+        <f>J52</f>
+        <v>95</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="34"/>
+      <c r="M53" s="34"/>
+      <c r="N53" s="30"/>
+    </row>
+    <row r="54" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="39">
+        <v>200</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="J54" s="15"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="34"/>
+      <c r="M54" s="34"/>
+      <c r="N54" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="10">
+        <v>100</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <f>D56</f>
+        <v>3500</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="39">
+        <v>200</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J55" s="10">
+        <v>0</v>
+      </c>
+      <c r="K55" s="10">
+        <f>J56</f>
+        <v>80</v>
+      </c>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="28"/>
+    </row>
+    <row r="56" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="10">
+        <v>800</v>
+      </c>
+      <c r="D56" s="10">
+        <v>3500</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="39">
+        <v>200</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="10">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="J56" s="10">
+        <v>80</v>
+      </c>
+      <c r="K56" s="15"/>
+      <c r="L56" s="36">
+        <f>G56*G56/ABS(D56)*11.8-ABS(J56)</f>
+        <v>54.857142857142861</v>
+      </c>
+      <c r="M56" s="36">
+        <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
+        <v>3.6558023972227162E-2</v>
+      </c>
+      <c r="N56" s="28"/>
+    </row>
+    <row r="57" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="10">
+        <f>C55</f>
+        <v>100</v>
+      </c>
+      <c r="D57" s="10">
+        <f>D56</f>
+        <v>3500</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="39">
+        <v>200</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J57" s="10">
+        <f>J56</f>
+        <v>80</v>
+      </c>
+      <c r="K57" s="10">
+        <v>0</v>
+      </c>
+      <c r="L57" s="34"/>
+      <c r="M57" s="34"/>
+      <c r="N57" s="28"/>
+    </row>
+    <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3">
+        <v>250</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="39">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="3"/>
+        <v>250</v>
+      </c>
+      <c r="J58" s="15"/>
+      <c r="K58" s="15"/>
+      <c r="L58" s="34"/>
+      <c r="M58" s="34"/>
+      <c r="N58" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3">
+        <v>80</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <f>D60</f>
+        <v>-6000</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="39">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <f>J60</f>
+        <v>-30</v>
+      </c>
+      <c r="L59" s="34"/>
+      <c r="M59" s="34"/>
+      <c r="N59" s="29"/>
+    </row>
+    <row r="60" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3">
+        <v>100</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="39">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>-30</v>
+      </c>
+      <c r="K60" s="15"/>
+      <c r="L60" s="35">
+        <f>G60*G60/ABS(D60)*11.8-ABS(J60)</f>
+        <v>48.666666666666671</v>
+      </c>
+      <c r="M60" s="35">
+        <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
+        <v>3.2436625094910299E-2</v>
+      </c>
+      <c r="N60" s="29"/>
+    </row>
+    <row r="61" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3">
+        <f>C59</f>
+        <v>80</v>
+      </c>
+      <c r="D61" s="3">
+        <f>D60</f>
+        <v>-6000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="39">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="J61" s="3">
+        <f>J60</f>
+        <v>-30</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="34"/>
+      <c r="M61" s="34"/>
+      <c r="N61" s="29"/>
+    </row>
+    <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="39">
+        <v>200</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="10">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="J62" s="15"/>
+      <c r="K62" s="15"/>
+      <c r="L62" s="34"/>
+      <c r="M62" s="34"/>
+      <c r="N62" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="10">
+        <v>150</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <f>D64</f>
+        <v>-8000</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="39">
+        <v>200</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="10">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J63" s="10">
+        <v>0</v>
+      </c>
+      <c r="K63" s="10">
+        <f>J64</f>
+        <v>-20</v>
+      </c>
+      <c r="L63" s="34"/>
+      <c r="M63" s="34"/>
+      <c r="N63" s="28"/>
+    </row>
+    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="10">
+        <v>-8000</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="39">
+        <v>200</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="10">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="J64" s="10">
+        <v>-20</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="36">
+        <f>G64*G64/ABS(D64)*11.8-ABS(J64)</f>
+        <v>39</v>
+      </c>
+      <c r="M64" s="36">
+        <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
+        <v>2.5994135487849387E-2</v>
+      </c>
+      <c r="N64" s="28"/>
+    </row>
+    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="10">
+        <v>150</v>
+      </c>
+      <c r="D65" s="10">
+        <f>D64</f>
+        <v>-8000</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="39">
+        <v>200</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="10">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="J65" s="10">
+        <f>J64</f>
+        <v>-20</v>
+      </c>
+      <c r="K65" s="10">
+        <v>0</v>
+      </c>
+      <c r="L65" s="34"/>
+      <c r="M65" s="34"/>
+      <c r="N65" s="28"/>
+    </row>
+    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="39">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="3"/>
+        <v>2000</v>
+      </c>
+      <c r="J66" s="15"/>
+      <c r="K66" s="15"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3">
+        <v>100</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <f>D68</f>
+        <v>-6000</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="39">
+        <v>200</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <f>J68</f>
+        <v>-50</v>
+      </c>
+      <c r="L67" s="34"/>
+      <c r="M67" s="34"/>
+      <c r="N67" s="29"/>
+    </row>
+    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="3">
+        <v>900</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="39">
+        <v>200</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="3"/>
+        <v>900</v>
+      </c>
+      <c r="J68" s="3">
+        <v>-50</v>
+      </c>
+      <c r="K68" s="15"/>
+      <c r="L68" s="35">
+        <f>G68*G68/ABS(D68)*11.8-ABS(J68)</f>
+        <v>28.666666666666671</v>
+      </c>
+      <c r="M68" s="35">
+        <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
+        <v>1.9103291761576963E-2</v>
+      </c>
+      <c r="N68" s="29"/>
+    </row>
+    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3">
+        <f>C67</f>
+        <v>100</v>
+      </c>
+      <c r="D69" s="3">
+        <f>D68</f>
+        <v>-6000</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="39">
+        <v>200</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="J69" s="3">
+        <f>J68</f>
+        <v>-50</v>
+      </c>
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="34"/>
+      <c r="M69" s="34"/>
+      <c r="N69" s="29"/>
+    </row>
+    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="10">
+        <v>300</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="39">
+        <v>200</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="10">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="J70" s="15"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="34"/>
+      <c r="M70" s="34"/>
+      <c r="N70" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="10">
+        <v>120</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <f>D72</f>
+        <v>-10000</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="39">
+        <v>200</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="J71" s="10">
+        <v>0</v>
+      </c>
+      <c r="K71" s="10">
+        <f>J72</f>
+        <v>-30</v>
+      </c>
+      <c r="L71" s="32"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="28"/>
+    </row>
+    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>71</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="10">
+        <v>800</v>
+      </c>
+      <c r="D72" s="10">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="39">
+        <v>200</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="10">
+        <f t="shared" si="3"/>
+        <v>800</v>
+      </c>
+      <c r="J72" s="10">
+        <v>-30</v>
+      </c>
+      <c r="K72" s="15"/>
+      <c r="L72" s="33">
+        <f>G72*G72/ABS(D72)*11.8-ABS(J72)</f>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="M72" s="33">
+        <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
+        <v>1.1461975056946173E-2</v>
+      </c>
+      <c r="N72" s="28"/>
+    </row>
+    <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="10">
+        <f>C71</f>
+        <v>120</v>
+      </c>
+      <c r="D73" s="10">
+        <f>D72</f>
+        <v>-10000</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="39">
+        <v>200</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="J73" s="10">
+        <f>J72</f>
+        <v>-30</v>
+      </c>
+      <c r="K73" s="10">
+        <v>0</v>
+      </c>
+      <c r="L73" s="32"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="28"/>
+    </row>
+    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="3">
+        <v>500</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="39">
+        <v>200</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" ref="I74:I85" si="4">C74</f>
+        <v>500</v>
+      </c>
+      <c r="J74" s="15"/>
+      <c r="K74" s="15"/>
+      <c r="L74" s="32"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3">
+        <v>80</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <f>D76</f>
+        <v>2600</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="39">
+        <v>200</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <f>J76</f>
+        <v>115</v>
+      </c>
+      <c r="L75" s="32"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="29"/>
+    </row>
+    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="39">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>115</v>
+      </c>
+      <c r="K76" s="15"/>
+      <c r="L76" s="35">
+        <f>G76*G76/ABS(D76)*11.8-ABS(J76)</f>
+        <v>66.538461538461547</v>
+      </c>
+      <c r="M76" s="35">
+        <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
+        <v>4.434092970620325E-2</v>
+      </c>
+      <c r="N76" s="29"/>
+    </row>
+    <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3">
+        <f>C75</f>
+        <v>80</v>
+      </c>
+      <c r="D77" s="3">
+        <f>D76</f>
+        <v>2600</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="39">
+        <v>200</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J77" s="3">
+        <f>J76</f>
+        <v>115</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="34"/>
+      <c r="M77" s="34"/>
+      <c r="N77" s="29"/>
+    </row>
+    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="10">
+        <v>50</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="39">
+        <v>200</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="10">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J78" s="15"/>
+      <c r="K78" s="15"/>
+      <c r="L78" s="34"/>
+      <c r="M78" s="34"/>
+      <c r="N78" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="10">
+        <v>80</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10">
+        <f>D80</f>
+        <v>2500</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="39">
+        <v>200</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J79" s="10">
+        <v>0</v>
+      </c>
+      <c r="K79" s="10">
+        <f>J80</f>
+        <v>120</v>
+      </c>
+      <c r="L79" s="34"/>
+      <c r="M79" s="34"/>
+      <c r="N79" s="28"/>
+    </row>
+    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="10">
+        <v>400</v>
+      </c>
+      <c r="D80" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="39">
+        <v>200</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="10">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="J80" s="10">
+        <v>120</v>
+      </c>
+      <c r="K80" s="15"/>
+      <c r="L80" s="36">
+        <f>G80*G80/ABS(D80)*11.8-ABS(J80)</f>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="M80" s="36">
+        <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
+        <v>4.5847900227784691E-2</v>
+      </c>
+      <c r="N80" s="28"/>
+    </row>
+    <row r="81" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="10">
+        <f>C79</f>
+        <v>80</v>
+      </c>
+      <c r="D81" s="10">
+        <f>D80</f>
+        <v>2500</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="15"/>
+      <c r="G81" s="39">
+        <v>200</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J81" s="10">
+        <f>J80</f>
+        <v>120</v>
+      </c>
+      <c r="K81" s="10">
+        <v>0</v>
+      </c>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="28"/>
+    </row>
+    <row r="82" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="39">
+        <v>200</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="J82" s="15"/>
+      <c r="K82" s="15"/>
+      <c r="L82" s="34"/>
+      <c r="M82" s="34"/>
+      <c r="N82" s="29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="3">
+        <v>50</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <f>D84</f>
+        <v>50000</v>
+      </c>
+      <c r="F83" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="39">
+        <v>200</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
+        <f>J84</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="34"/>
+      <c r="M83" s="34"/>
+      <c r="N83" s="29"/>
+    </row>
+    <row r="84" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="3">
+        <v>50</v>
+      </c>
+      <c r="D84" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="29"/>
+      <c r="G84" s="39">
+        <v>200</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J84" s="3">
+        <v>0</v>
+      </c>
+      <c r="K84" s="15"/>
+      <c r="L84" s="35">
+        <f>G84*G84/ABS(D84)*11.8-ABS(J84)</f>
+        <v>9.4400000000000013</v>
+      </c>
+      <c r="M84" s="35">
+        <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
+        <v>6.2923950113892351E-3</v>
+      </c>
+      <c r="N84" s="29"/>
+    </row>
+    <row r="85" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3">
+        <f>C83</f>
+        <v>50</v>
+      </c>
+      <c r="D85" s="3">
+        <f>D84</f>
+        <v>50000</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="29"/>
+      <c r="G85" s="39">
+        <v>200</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J85" s="3">
+        <f>J84</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="29"/>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
+      <c r="K97" s="1"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="7:15" x14ac:dyDescent="0.3">
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:N85" xr:uid="{CF6356CB-F0F5-4EF9-8834-D5D350C95BD2}"/>
+  <mergeCells count="22">
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N82:N85"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/跨线运行SPCK曲线定义组.xlsx
+++ b/docs/跨线运行SPCK曲线定义组.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchDocuments\ROS2WithSPCK\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD8B1BE4-CC03-442F-9504-DC681676E9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ABCF22-83B1-4E20-84D2-375F80D1F040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="1" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
+    <workbookView xWindow="-16320" yWindow="3120" windowWidth="16440" windowHeight="28440" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
   </bookViews>
   <sheets>
-    <sheet name="原人工拟合曲线-欠超高过大" sheetId="2" r:id="rId1"/>
-    <sheet name="自定义线路" sheetId="1" r:id="rId2"/>
+    <sheet name="自定义线路" sheetId="1" r:id="rId1"/>
+    <sheet name="原人工拟合曲线-欠超高过大" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'原人工拟合曲线-欠超高过大'!$A$1:$N$97</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">自定义线路!$A$1:$N$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'原人工拟合曲线-欠超高过大'!$A$1:$N$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">自定义线路!$A$1:$N$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="37">
   <si>
     <t>线路分段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -173,6 +173,18 @@
   </si>
   <si>
     <t>困难条件半径最小1300m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BLO</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度总计m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>里程计数m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -343,7 +355,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -428,15 +440,6 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -462,6 +465,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -797,6 +821,4006 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6356CB-F0F5-4EF9-8834-D5D350C95BD2}">
+  <dimension ref="A1:Q200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.58203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.58203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.58203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.4140625" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.9140625" style="14" customWidth="1"/>
+    <col min="12" max="12" width="10.25" style="35" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" style="35" customWidth="1"/>
+    <col min="14" max="14" width="10.08203125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="5" customWidth="1"/>
+    <col min="16" max="17" width="8.6640625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>300</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="9">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I9" si="0">C2</f>
+        <v>300</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="40"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="19">
+        <f>55/2</f>
+        <v>27.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D4</f>
+        <v>-1500</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <f>J4</f>
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="38"/>
+      <c r="O3" s="9">
+        <f>O2+C3</f>
+        <v>327.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19">
+        <v>138.893</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="0"/>
+        <v>138.893</v>
+      </c>
+      <c r="J4" s="22">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="K4" s="41"/>
+      <c r="L4" s="18">
+        <f>G4*G4/ABS(D4)*11.8-ABS(J4)</f>
+        <v>50.292666666666669</v>
+      </c>
+      <c r="M4" s="18">
+        <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
+        <v>3.3523440060742586E-2</v>
+      </c>
+      <c r="N4" s="38"/>
+      <c r="O4" s="9">
+        <f>O3+C4</f>
+        <v>466.39300000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="19">
+        <f>C3</f>
+        <v>27.5</v>
+      </c>
+      <c r="D5" s="3">
+        <f>D4</f>
+        <v>-1500</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="9">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="J5" s="22">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="9">
+        <f t="shared" ref="O5:O68" si="1">O4+C5</f>
+        <v>493.89300000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25">
+        <v>250</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="9">
+        <v>80</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J6" s="42">
+        <v>0</v>
+      </c>
+      <c r="K6" s="41"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="1"/>
+        <v>743.89300000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="25">
+        <f>85/2</f>
+        <v>42.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>D8</f>
+        <v>650</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="9">
+        <v>80</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="J7" s="42">
+        <v>0</v>
+      </c>
+      <c r="K7" s="42">
+        <f>J8</f>
+        <v>0.12</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="37"/>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>786.39300000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25">
+        <v>565.17399999999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>650</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="0"/>
+        <v>565.17399999999998</v>
+      </c>
+      <c r="J8" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="K8" s="41"/>
+      <c r="L8" s="33">
+        <f>G8*G8/ABS(D8)*11.8-ABS(J8)</f>
+        <v>116.06461538461539</v>
+      </c>
+      <c r="M8" s="33">
+        <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
+        <v>7.7364861678636737E-2</v>
+      </c>
+      <c r="N8" s="37"/>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>1351.567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25">
+        <f>C7</f>
+        <v>42.5</v>
+      </c>
+      <c r="D9" s="4">
+        <f>D8</f>
+        <v>650</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="9">
+        <v>80</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="J9" s="42">
+        <v>0.12</v>
+      </c>
+      <c r="K9" s="42">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="9">
+        <f t="shared" si="1"/>
+        <v>1394.067</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="9">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" ref="I10:I73" si="2">C10</f>
+        <v>50</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="41"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>1444.067</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19">
+        <f>75/2</f>
+        <v>37.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D12</f>
+        <v>-550</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="9">
+        <v>80</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <f>J12</f>
+        <v>-0.12</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="38"/>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>1481.567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="19">
+        <v>257.29700000000003</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-550</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="2"/>
+        <v>257.29700000000003</v>
+      </c>
+      <c r="J12" s="22">
+        <v>-0.12</v>
+      </c>
+      <c r="K12" s="41"/>
+      <c r="L12" s="32">
+        <f>G12*G12/ABS(D12)*11.8-ABS(J12)</f>
+        <v>137.18909090909091</v>
+      </c>
+      <c r="M12" s="32">
+        <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
+        <v>9.1445745620207047E-2</v>
+      </c>
+      <c r="N12" s="38"/>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>1738.864</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="19">
+        <f>C11</f>
+        <v>37.5</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D12</f>
+        <v>-550</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="9">
+        <v>80</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+      <c r="J13" s="22">
+        <v>-0.12</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="38"/>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>1776.364</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>950</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9">
+        <v>80</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="2"/>
+        <v>950</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>2726.364</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>D16</f>
+        <v>450</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="9">
+        <v>80</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f>J16</f>
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>2806.364</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>800</v>
+      </c>
+      <c r="D16" s="4">
+        <v>450</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9">
+        <v>80</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="33">
+        <f>G16*G16/ABS(D16)*11.8-ABS(J16)</f>
+        <v>167.72222222222223</v>
+      </c>
+      <c r="M16" s="33">
+        <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
+        <v>0.11179813353580861</v>
+      </c>
+      <c r="N16" s="37"/>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>3606.364</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C15</f>
+        <v>80</v>
+      </c>
+      <c r="D17" s="4">
+        <f>D16</f>
+        <v>450</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="9">
+        <v>80</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="37"/>
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>3686.364</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="9">
+        <v>80</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>3736.364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f>D20</f>
+        <v>-600</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="9">
+        <v>80</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <f>J20</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="38"/>
+      <c r="O19" s="9">
+        <f t="shared" si="1"/>
+        <v>3836.364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>150</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="9">
+        <v>80</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="J20" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="32">
+        <f>G20*G20/ABS(D20)*11.8-ABS(J20)</f>
+        <v>125.79666666666668</v>
+      </c>
+      <c r="M20" s="32">
+        <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
+        <v>8.3851933485189795E-2</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="9">
+        <f t="shared" si="1"/>
+        <v>3986.364</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3">
+        <f>D20</f>
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="9">
+        <v>80</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J21" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="38"/>
+      <c r="O21" s="9">
+        <f t="shared" si="1"/>
+        <v>4086.364</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4">
+        <v>200</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="7">
+        <v>100</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="1"/>
+        <v>4286.3639999999996</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4">
+        <v>150</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f>D24</f>
+        <v>2000</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="7">
+        <v>100</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <f>J24</f>
+        <v>0.03</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="37"/>
+      <c r="O23" s="9">
+        <f t="shared" si="1"/>
+        <v>4436.3639999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4">
+        <v>600</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="7">
+        <v>100</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="33">
+        <f>G24*G24/ABS(D24)*11.8-ABS(J24)</f>
+        <v>58.97</v>
+      </c>
+      <c r="M24" s="33">
+        <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
+        <v>3.9307468821182724E-2</v>
+      </c>
+      <c r="N24" s="37"/>
+      <c r="O24" s="9">
+        <f t="shared" si="1"/>
+        <v>5036.3639999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
+        <f>C23</f>
+        <v>150</v>
+      </c>
+      <c r="D25" s="4">
+        <f>D24</f>
+        <v>2000</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="7">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="37"/>
+      <c r="O25" s="9">
+        <f t="shared" si="1"/>
+        <v>5186.3639999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>50</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="7">
+        <v>160</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="1"/>
+        <v>5236.3639999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <f>D28</f>
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="7">
+        <v>160</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <f>J28</f>
+        <v>-0.12</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="38"/>
+      <c r="O27" s="9">
+        <f t="shared" si="1"/>
+        <v>5286.3639999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>500</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="7">
+        <v>160</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="2"/>
+        <v>500</v>
+      </c>
+      <c r="J28" s="12">
+        <v>-0.12</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="32">
+        <f>G28*G28/ABS(D28)*11.8-ABS(J28)</f>
+        <v>188.68</v>
+      </c>
+      <c r="M28" s="32">
+        <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
+        <v>0.1257679002277847</v>
+      </c>
+      <c r="N28" s="38"/>
+      <c r="O28" s="9">
+        <f t="shared" si="1"/>
+        <v>5786.3639999999996</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="23"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <f>C27</f>
+        <v>50</v>
+      </c>
+      <c r="D29" s="3">
+        <f>D28</f>
+        <v>-1600</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="7">
+        <v>160</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J29" s="12">
+        <v>-0.12</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="38"/>
+      <c r="O29" s="9">
+        <f t="shared" si="1"/>
+        <v>5836.3639999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4">
+        <v>80</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="7">
+        <v>160</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="1"/>
+        <v>5916.3639999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f>D32</f>
+        <v>-1600</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="7">
+        <v>160</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <f>J32</f>
+        <v>-0.12</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="37"/>
+      <c r="O31" s="9">
+        <f t="shared" si="1"/>
+        <v>5966.3639999999996</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4">
+        <v>650</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="7">
+        <v>160</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="2"/>
+        <v>650</v>
+      </c>
+      <c r="J32" s="13">
+        <v>-0.12</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="34">
+        <f>G32*G32/ABS(D32)*11.8-ABS(J32)</f>
+        <v>188.68</v>
+      </c>
+      <c r="M32" s="34">
+        <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
+        <v>0.1257679002277847</v>
+      </c>
+      <c r="N32" s="37"/>
+      <c r="O32" s="9">
+        <f t="shared" si="1"/>
+        <v>6616.3639999999996</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="23"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
+        <v>50</v>
+      </c>
+      <c r="D33" s="4">
+        <f>D32</f>
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="15"/>
+      <c r="G33" s="7">
+        <v>160</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J33" s="13">
+        <v>-0.12</v>
+      </c>
+      <c r="K33" s="13">
+        <v>0</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="37"/>
+      <c r="O33" s="9">
+        <f t="shared" si="1"/>
+        <v>6666.3639999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7">
+        <v>180</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="1"/>
+        <v>8666.3639999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3">
+        <v>100</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <f>D36</f>
+        <v>3000</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="36">
+        <v>180</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12">
+        <f>J36</f>
+        <v>0.08</v>
+      </c>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="9">
+        <f t="shared" si="1"/>
+        <v>8766.3639999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3">
+        <v>360</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="36">
+        <v>180</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="2"/>
+        <v>360</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="32">
+        <f>G36*G36/ABS(D36)*11.8-ABS(J36)</f>
+        <v>127.36000000000001</v>
+      </c>
+      <c r="M36" s="32">
+        <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
+        <v>8.489399932042134E-2</v>
+      </c>
+      <c r="N36" s="37"/>
+      <c r="O36" s="9">
+        <f t="shared" si="1"/>
+        <v>9126.3639999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3">
+        <f>C35</f>
+        <v>100</v>
+      </c>
+      <c r="D37" s="3">
+        <f>D36</f>
+        <v>3000</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="36">
+        <v>180</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="9">
+        <f t="shared" si="1"/>
+        <v>9226.3639999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4">
+        <v>50</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="36">
+        <v>180</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="1"/>
+        <v>9276.3639999999996</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4">
+        <v>50</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <f>D40</f>
+        <v>-3000</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="36">
+        <v>180</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0</v>
+      </c>
+      <c r="K39" s="13">
+        <f>J40</f>
+        <v>-0.08</v>
+      </c>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="38"/>
+      <c r="O39" s="9">
+        <f t="shared" si="1"/>
+        <v>9326.3639999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <v>600</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-3000</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="36">
+        <v>180</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="J40" s="13">
+        <v>-0.08</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="33">
+        <f>G40*G40/ABS(D40)*11.8-ABS(J40)</f>
+        <v>127.36000000000001</v>
+      </c>
+      <c r="M40" s="33">
+        <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
+        <v>8.489399932042134E-2</v>
+      </c>
+      <c r="N40" s="38"/>
+      <c r="O40" s="9">
+        <f t="shared" si="1"/>
+        <v>9926.3639999999996</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <f>C39</f>
+        <v>50</v>
+      </c>
+      <c r="D41" s="4">
+        <f>D40</f>
+        <v>-3000</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="36">
+        <v>180</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="J41" s="13">
+        <v>-0.08</v>
+      </c>
+      <c r="K41" s="13">
+        <v>0</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="38"/>
+      <c r="O41" s="9">
+        <f t="shared" si="1"/>
+        <v>9976.3639999999996</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2800</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="36">
+        <v>180</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="2"/>
+        <v>2800</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="1"/>
+        <v>12776.364</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3">
+        <v>100</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <f>D44</f>
+        <v>3800</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="36">
+        <v>180</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0</v>
+      </c>
+      <c r="K43" s="12">
+        <f>J44</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="9">
+        <f t="shared" si="1"/>
+        <v>12876.364</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3">
+        <v>200</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="36">
+        <v>180</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="J44" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="32">
+        <f>G44*G44/ABS(D44)*11.8-ABS(J44)</f>
+        <v>100.54052631578949</v>
+      </c>
+      <c r="M44" s="32">
+        <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
+        <v>6.7017017007350174E-2</v>
+      </c>
+      <c r="N44" s="37"/>
+      <c r="O44" s="9">
+        <f t="shared" si="1"/>
+        <v>13076.364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3">
+        <f>C43</f>
+        <v>100</v>
+      </c>
+      <c r="D45" s="3">
+        <f>D44</f>
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="36">
+        <v>180</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J45" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K45" s="12">
+        <v>0</v>
+      </c>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="9">
+        <f t="shared" si="1"/>
+        <v>13176.364</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4">
+        <v>400</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="36">
+        <v>180</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="1"/>
+        <v>13576.364</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4">
+        <v>100</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <f>D48</f>
+        <v>-20000</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="36">
+        <v>180</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+      <c r="K47" s="13">
+        <f>J48</f>
+        <v>-0.01</v>
+      </c>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="38"/>
+      <c r="O47" s="9">
+        <f t="shared" si="1"/>
+        <v>13676.364</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4">
+        <v>200</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-20000</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="36">
+        <v>180</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="2"/>
+        <v>200</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-0.01</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="30">
+        <f>G48*G48/ABS(D48)*11.8-ABS(J48)</f>
+        <v>19.106000000000002</v>
+      </c>
+      <c r="M48" s="30">
+        <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
+        <v>1.2735433231396533E-2</v>
+      </c>
+      <c r="N48" s="38"/>
+      <c r="O48" s="9">
+        <f t="shared" si="1"/>
+        <v>13876.364</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <f>C47</f>
+        <v>100</v>
+      </c>
+      <c r="D49" s="4">
+        <f>D48</f>
+        <v>-20000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="36">
+        <v>180</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-0.01</v>
+      </c>
+      <c r="K49" s="13">
+        <v>0</v>
+      </c>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="38"/>
+      <c r="O49" s="9">
+        <f t="shared" si="1"/>
+        <v>13976.364</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>100</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="7">
+        <v>160</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="1"/>
+        <v>14076.364</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3">
+        <v>100</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <f>D52</f>
+        <v>1900</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="7">
+        <v>160</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+      <c r="K51" s="12">
+        <f>J52</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="9">
+        <f t="shared" si="1"/>
+        <v>14176.364</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="7">
+        <v>160</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="J52" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="32">
+        <f>G52*G52/ABS(D52)*11.8-ABS(J52)</f>
+        <v>158.89447368421054</v>
+      </c>
+      <c r="M52" s="32">
+        <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
+        <v>0.10591384580585378</v>
+      </c>
+      <c r="N52" s="37"/>
+      <c r="O52" s="9">
+        <f t="shared" si="1"/>
+        <v>16576.364000000001</v>
+      </c>
+      <c r="P52" s="5"/>
+      <c r="Q52" s="23"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3">
+        <f>C51</f>
+        <v>100</v>
+      </c>
+      <c r="D53" s="3">
+        <f>D52</f>
+        <v>1900</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="7">
+        <v>160</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J53" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K53" s="12">
+        <v>0</v>
+      </c>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="9">
+        <f t="shared" si="1"/>
+        <v>16676.364000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="36">
+        <v>200</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J54" s="13">
+        <v>0</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="9">
+        <f t="shared" si="1"/>
+        <v>18676.364000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="10">
+        <v>100</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <f>D56</f>
+        <v>3500</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="36">
+        <v>200</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J55" s="18">
+        <v>0</v>
+      </c>
+      <c r="K55" s="18">
+        <f>J56</f>
+        <v>0.08</v>
+      </c>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="39"/>
+      <c r="O55" s="9">
+        <f t="shared" si="1"/>
+        <v>18776.364000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="10">
+        <v>800</v>
+      </c>
+      <c r="D56" s="10">
+        <v>3500</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="36">
+        <v>200</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="10">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="J56" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="K56" s="16"/>
+      <c r="L56" s="33">
+        <f>G56*G56/ABS(D56)*11.8-ABS(J56)</f>
+        <v>134.77714285714285</v>
+      </c>
+      <c r="M56" s="33">
+        <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
+        <v>8.9838023972227163E-2</v>
+      </c>
+      <c r="N56" s="39"/>
+      <c r="O56" s="9">
+        <f t="shared" si="1"/>
+        <v>19576.364000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="10">
+        <f>C55</f>
+        <v>100</v>
+      </c>
+      <c r="D57" s="10">
+        <f>D56</f>
+        <v>3500</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="36">
+        <v>200</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J57" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="K57" s="18">
+        <v>0</v>
+      </c>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="39"/>
+      <c r="O57" s="9">
+        <f t="shared" si="1"/>
+        <v>19676.364000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3">
+        <v>250</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="36">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="2"/>
+        <v>250</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="16"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58" s="9">
+        <f t="shared" si="1"/>
+        <v>19926.364000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3">
+        <v>80</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <f>D60</f>
+        <v>-6000</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="36">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0</v>
+      </c>
+      <c r="K59" s="12">
+        <f>J60</f>
+        <v>-0.03</v>
+      </c>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="38"/>
+      <c r="O59" s="9">
+        <f t="shared" si="1"/>
+        <v>20006.364000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3">
+        <v>100</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="36">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J60" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="K60" s="16"/>
+      <c r="L60" s="32">
+        <f>G60*G60/ABS(D60)*11.8-ABS(J60)</f>
+        <v>78.63666666666667</v>
+      </c>
+      <c r="M60" s="32">
+        <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
+        <v>5.2416625094910296E-2</v>
+      </c>
+      <c r="N60" s="38"/>
+      <c r="O60" s="9">
+        <f t="shared" si="1"/>
+        <v>20106.364000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3">
+        <f>C59</f>
+        <v>80</v>
+      </c>
+      <c r="D61" s="3">
+        <f>D60</f>
+        <v>-6000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="36">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="J61" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="K61" s="12">
+        <v>0</v>
+      </c>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="38"/>
+      <c r="O61" s="9">
+        <f t="shared" si="1"/>
+        <v>20186.364000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="10">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="36">
+        <v>200</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="10">
+        <f t="shared" si="2"/>
+        <v>2500</v>
+      </c>
+      <c r="J62" s="13">
+        <v>0</v>
+      </c>
+      <c r="K62" s="16"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62" s="9">
+        <f t="shared" si="1"/>
+        <v>22686.364000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="10">
+        <v>150</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <f>D64</f>
+        <v>-8000</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="36">
+        <v>200</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="10">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="J63" s="18">
+        <v>0</v>
+      </c>
+      <c r="K63" s="18">
+        <f>J64</f>
+        <v>-0.02</v>
+      </c>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="39"/>
+      <c r="O63" s="9">
+        <f t="shared" si="1"/>
+        <v>22836.364000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="10">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="10">
+        <v>-8000</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="36">
+        <v>200</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="10">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J64" s="18">
+        <v>-0.02</v>
+      </c>
+      <c r="K64" s="16"/>
+      <c r="L64" s="33">
+        <f>G64*G64/ABS(D64)*11.8-ABS(J64)</f>
+        <v>58.98</v>
+      </c>
+      <c r="M64" s="33">
+        <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
+        <v>3.9314135487849393E-2</v>
+      </c>
+      <c r="N64" s="39"/>
+      <c r="O64" s="9">
+        <f t="shared" si="1"/>
+        <v>24836.364000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="10">
+        <v>150</v>
+      </c>
+      <c r="D65" s="10">
+        <f>D64</f>
+        <v>-8000</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="36">
+        <v>200</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="10">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="J65" s="18">
+        <v>-0.02</v>
+      </c>
+      <c r="K65" s="18">
+        <v>0</v>
+      </c>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="9">
+        <f t="shared" si="1"/>
+        <v>24986.364000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="36">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="16"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="O66" s="9">
+        <f t="shared" si="1"/>
+        <v>26986.364000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3">
+        <v>100</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <f>D68</f>
+        <v>-6000</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="36">
+        <v>200</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+      <c r="K67" s="12">
+        <f>J68</f>
+        <v>-0.05</v>
+      </c>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="38"/>
+      <c r="O67" s="9">
+        <f t="shared" si="1"/>
+        <v>27086.364000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="3">
+        <v>900</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="36">
+        <v>200</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="J68" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="K68" s="16"/>
+      <c r="L68" s="32">
+        <f>G68*G68/ABS(D68)*11.8-ABS(J68)</f>
+        <v>78.616666666666674</v>
+      </c>
+      <c r="M68" s="32">
+        <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
+        <v>5.2403291761576959E-2</v>
+      </c>
+      <c r="N68" s="38"/>
+      <c r="O68" s="9">
+        <f t="shared" si="1"/>
+        <v>27986.364000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3">
+        <f>C67</f>
+        <v>100</v>
+      </c>
+      <c r="D69" s="3">
+        <f>D68</f>
+        <v>-6000</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="36">
+        <v>200</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="J69" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="K69" s="12">
+        <v>0</v>
+      </c>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="38"/>
+      <c r="O69" s="9">
+        <f t="shared" ref="O69:O85" si="3">O68+C69</f>
+        <v>28086.364000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="10">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="10">
+        <v>300</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="36">
+        <v>200</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="10">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="J70" s="13">
+        <v>0</v>
+      </c>
+      <c r="K70" s="16"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="O70" s="9">
+        <f t="shared" si="3"/>
+        <v>28386.364000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="10">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="10">
+        <v>120</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <f>D72</f>
+        <v>-10000</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="36">
+        <v>200</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="J71" s="18">
+        <v>0</v>
+      </c>
+      <c r="K71" s="18">
+        <f>J72</f>
+        <v>-0.03</v>
+      </c>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="39"/>
+      <c r="O71" s="9">
+        <f t="shared" si="3"/>
+        <v>28506.364000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="10">
+        <v>71</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="10">
+        <v>800</v>
+      </c>
+      <c r="D72" s="10">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="36">
+        <v>200</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="10">
+        <f t="shared" si="2"/>
+        <v>800</v>
+      </c>
+      <c r="J72" s="18">
+        <v>-0.03</v>
+      </c>
+      <c r="K72" s="16"/>
+      <c r="L72" s="30">
+        <f>G72*G72/ABS(D72)*11.8-ABS(J72)</f>
+        <v>47.17</v>
+      </c>
+      <c r="M72" s="30">
+        <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
+        <v>3.1441975056946174E-2</v>
+      </c>
+      <c r="N72" s="39"/>
+      <c r="O72" s="9">
+        <f t="shared" si="3"/>
+        <v>29306.364000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="10">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="10">
+        <f>C71</f>
+        <v>120</v>
+      </c>
+      <c r="D73" s="10">
+        <f>D72</f>
+        <v>-10000</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="36">
+        <v>200</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="J73" s="18">
+        <v>-0.03</v>
+      </c>
+      <c r="K73" s="18">
+        <v>0</v>
+      </c>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="39"/>
+      <c r="O73" s="9">
+        <f t="shared" si="3"/>
+        <v>29426.364000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="3">
+        <v>500</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="36">
+        <v>200</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" ref="I74:I85" si="4">C74</f>
+        <v>500</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+      <c r="K74" s="16"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" s="9">
+        <f t="shared" si="3"/>
+        <v>29926.364000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3">
+        <v>80</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <f>D76</f>
+        <v>2600</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="36">
+        <v>200</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J75" s="12">
+        <v>0</v>
+      </c>
+      <c r="K75" s="12">
+        <f>J76</f>
+        <v>0.115</v>
+      </c>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="38"/>
+      <c r="O75" s="9">
+        <f t="shared" si="3"/>
+        <v>30006.364000000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="36">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="J76" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="K76" s="16"/>
+      <c r="L76" s="32">
+        <f>G76*G76/ABS(D76)*11.8-ABS(J76)</f>
+        <v>181.42346153846154</v>
+      </c>
+      <c r="M76" s="32">
+        <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
+        <v>0.12093092970620324</v>
+      </c>
+      <c r="N76" s="38"/>
+      <c r="O76" s="9">
+        <f t="shared" si="3"/>
+        <v>31206.364000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3">
+        <f>C75</f>
+        <v>80</v>
+      </c>
+      <c r="D77" s="3">
+        <f>D76</f>
+        <v>2600</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="36">
+        <v>200</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="K77" s="12">
+        <v>0</v>
+      </c>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="38"/>
+      <c r="O77" s="9">
+        <f t="shared" si="3"/>
+        <v>31286.364000000001</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="10">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="10">
+        <v>50</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="36">
+        <v>200</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="10">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="16"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="9">
+        <f t="shared" si="3"/>
+        <v>31336.364000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="10">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="10">
+        <v>80</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10">
+        <f>D80</f>
+        <v>2500</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="36">
+        <v>200</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J79" s="18">
+        <v>0</v>
+      </c>
+      <c r="K79" s="18">
+        <f>J80</f>
+        <v>0.12</v>
+      </c>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="39"/>
+      <c r="O79" s="9">
+        <f t="shared" si="3"/>
+        <v>31416.364000000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="10">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="10">
+        <v>400</v>
+      </c>
+      <c r="D80" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="36">
+        <v>200</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="10">
+        <f t="shared" si="4"/>
+        <v>400</v>
+      </c>
+      <c r="J80" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="K80" s="16"/>
+      <c r="L80" s="33">
+        <f>G80*G80/ABS(D80)*11.8-ABS(J80)</f>
+        <v>188.68</v>
+      </c>
+      <c r="M80" s="33">
+        <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
+        <v>0.1257679002277847</v>
+      </c>
+      <c r="N80" s="39"/>
+      <c r="O80" s="9">
+        <f t="shared" si="3"/>
+        <v>31816.364000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="10">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="10">
+        <f>C79</f>
+        <v>80</v>
+      </c>
+      <c r="D81" s="10">
+        <f>D80</f>
+        <v>2500</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="15"/>
+      <c r="G81" s="36">
+        <v>200</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="10">
+        <f t="shared" si="4"/>
+        <v>80</v>
+      </c>
+      <c r="J81" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="K81" s="18">
+        <v>0</v>
+      </c>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="39"/>
+      <c r="O81" s="9">
+        <f t="shared" si="3"/>
+        <v>31896.364000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="36">
+        <v>200</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="J82" s="12">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="O82" s="9">
+        <f t="shared" si="3"/>
+        <v>33896.364000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="3">
+        <v>50</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="38"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J83" s="12">
+        <v>0</v>
+      </c>
+      <c r="K83" s="12">
+        <f>J84</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="38"/>
+      <c r="O83" s="9">
+        <f t="shared" si="3"/>
+        <v>33946.364000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="3">
+        <v>50</v>
+      </c>
+      <c r="D84" s="3"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="38"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J84" s="12">
+        <v>0</v>
+      </c>
+      <c r="K84" s="16"/>
+      <c r="L84" s="32" t="e">
+        <f>G84*G84/ABS(D84)*11.8-ABS(J84)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M84" s="32" t="e">
+        <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N84" s="38"/>
+      <c r="O84" s="9">
+        <f t="shared" si="3"/>
+        <v>33996.364000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3">
+        <f>C83</f>
+        <v>50</v>
+      </c>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="38"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="3">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+      <c r="J85" s="12">
+        <v>0</v>
+      </c>
+      <c r="K85" s="12">
+        <v>0</v>
+      </c>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="38"/>
+      <c r="O85" s="9">
+        <f t="shared" si="3"/>
+        <v>34046.364000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="43"/>
+      <c r="K86" s="43"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B87" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" s="1">
+        <f>SUM(C2:C85)</f>
+        <v>34046.364000000001</v>
+      </c>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="43"/>
+      <c r="K87" s="43"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="43"/>
+      <c r="K88" s="43"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="43"/>
+      <c r="K89" s="43"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G90" s="1"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="43"/>
+      <c r="K90" s="43"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="43"/>
+      <c r="K91" s="43"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="43"/>
+      <c r="K92" s="43"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G93" s="1"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="43"/>
+      <c r="K93" s="43"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G94" s="1"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="43"/>
+      <c r="K94" s="43"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G95" s="1"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="43"/>
+      <c r="K95" s="43"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="G96" s="1"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="43"/>
+      <c r="K96" s="43"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+    </row>
+    <row r="97" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="G97" s="1"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="43"/>
+      <c r="K97" s="43"/>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1"/>
+    </row>
+    <row r="98" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="G98" s="1"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="43"/>
+      <c r="K98" s="43"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
+    </row>
+    <row r="110" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E110" s="14"/>
+    </row>
+    <row r="111" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E111" s="14"/>
+    </row>
+    <row r="112" spans="5:15" x14ac:dyDescent="0.3">
+      <c r="E112" s="14"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E113" s="14"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E114" s="14"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E115" s="14"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E116" s="14"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E117" s="14"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E118" s="14"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E119" s="14"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E120" s="14"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E121" s="14"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E122" s="14"/>
+    </row>
+    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E123" s="14"/>
+    </row>
+    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E124" s="14"/>
+    </row>
+    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E125" s="14"/>
+    </row>
+    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E126" s="14"/>
+    </row>
+    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E127" s="14"/>
+    </row>
+    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E128" s="14"/>
+    </row>
+    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E129" s="14"/>
+    </row>
+    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E130" s="14"/>
+    </row>
+    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E131" s="14"/>
+    </row>
+    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E132" s="14"/>
+    </row>
+    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E133" s="14"/>
+    </row>
+    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E134" s="14"/>
+    </row>
+    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E135" s="14"/>
+    </row>
+    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E136" s="14"/>
+    </row>
+    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E137" s="14"/>
+    </row>
+    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E138" s="14"/>
+    </row>
+    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E139" s="14"/>
+    </row>
+    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E140" s="14"/>
+    </row>
+    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E141" s="14"/>
+    </row>
+    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E142" s="14"/>
+    </row>
+    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E143" s="14"/>
+    </row>
+    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E144" s="14"/>
+    </row>
+    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E145" s="14"/>
+    </row>
+    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="14"/>
+    </row>
+    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E147" s="14"/>
+    </row>
+    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E148" s="14"/>
+    </row>
+    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E149" s="14"/>
+    </row>
+    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E150" s="14"/>
+    </row>
+    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E151" s="14"/>
+    </row>
+    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E152" s="14"/>
+    </row>
+    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E153" s="14"/>
+    </row>
+    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E154" s="14"/>
+    </row>
+    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E155" s="14"/>
+    </row>
+    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E156" s="14"/>
+    </row>
+    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E157" s="14"/>
+    </row>
+    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E158" s="14"/>
+    </row>
+    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E159" s="14"/>
+    </row>
+    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E160" s="14"/>
+    </row>
+    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E161" s="14"/>
+    </row>
+    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E162" s="14"/>
+    </row>
+    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E163" s="14"/>
+    </row>
+    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E164" s="14"/>
+    </row>
+    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E165" s="14"/>
+    </row>
+    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E166" s="14"/>
+    </row>
+    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E167" s="14"/>
+    </row>
+    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E168" s="14"/>
+    </row>
+    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E169" s="14"/>
+    </row>
+    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E170" s="14"/>
+    </row>
+    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E171" s="14"/>
+    </row>
+    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E172" s="14"/>
+    </row>
+    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E173" s="14"/>
+    </row>
+    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E174" s="14"/>
+    </row>
+    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E175" s="14"/>
+    </row>
+    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E176" s="14"/>
+    </row>
+    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E177" s="14"/>
+    </row>
+    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E178" s="14"/>
+    </row>
+    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E179" s="14"/>
+    </row>
+    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E180" s="14"/>
+    </row>
+    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E181" s="14"/>
+    </row>
+    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E182" s="14"/>
+    </row>
+    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E183" s="14"/>
+    </row>
+    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E184" s="14"/>
+    </row>
+    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E185" s="14"/>
+    </row>
+    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E186" s="14"/>
+    </row>
+    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E187" s="14"/>
+    </row>
+    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E188" s="14"/>
+    </row>
+    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E189" s="14"/>
+    </row>
+    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E190" s="14"/>
+    </row>
+    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E191" s="14"/>
+    </row>
+    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E192" s="14"/>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E193" s="14"/>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E194" s="14"/>
+    </row>
+    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E195" s="14"/>
+    </row>
+    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E196" s="14"/>
+    </row>
+    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E197" s="14"/>
+    </row>
+    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E198" s="14"/>
+    </row>
+    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E199" s="14"/>
+    </row>
+    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E200" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9EB4C0-8E58-4720-B55B-8C44D5B2F684}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
@@ -893,7 +4917,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -937,7 +4961,7 @@
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
-      <c r="N3" s="29"/>
+      <c r="N3" s="38"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -978,7 +5002,7 @@
         <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
         <v>-2.4405599392574098E-3</v>
       </c>
-      <c r="N4" s="29"/>
+      <c r="N4" s="38"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -1018,7 +5042,7 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="29"/>
+      <c r="N5" s="38"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
@@ -1047,7 +5071,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="30" t="s">
+      <c r="N6" s="37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1089,7 +5113,7 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="30"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
@@ -1130,7 +5154,7 @@
         <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
         <v>-2.5551383213632678E-3</v>
       </c>
-      <c r="N8" s="30"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
@@ -1170,7 +5194,7 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="30"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
@@ -1199,7 +5223,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="29" t="s">
+      <c r="N10" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1241,7 +5265,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="29"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
@@ -1282,7 +5306,7 @@
         <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
         <v>1.1525745620207042E-2</v>
       </c>
-      <c r="N12" s="29"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
@@ -1322,7 +5346,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="29"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
@@ -1353,7 +5377,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="30" t="s">
+      <c r="N14" s="37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1394,7 +5418,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="30"/>
+      <c r="N15" s="37"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4">
@@ -1435,7 +5459,7 @@
         <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
         <v>3.8531466869141953E-2</v>
       </c>
-      <c r="N16" s="30"/>
+      <c r="N16" s="37"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="4">
@@ -1475,7 +5499,7 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="30"/>
+      <c r="N17" s="37"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
@@ -1506,7 +5530,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="29" t="s">
+      <c r="N18" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1547,7 +5571,7 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="29"/>
+      <c r="N19" s="38"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
@@ -1586,7 +5610,7 @@
         <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
         <v>5.1091562737275734E-2</v>
       </c>
-      <c r="N20" s="29"/>
+      <c r="N20" s="38"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -1625,7 +5649,7 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="29"/>
+      <c r="N21" s="38"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="4">
@@ -1654,7 +5678,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-      <c r="N22" s="30" t="s">
+      <c r="N22" s="37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1695,7 +5719,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-      <c r="N23" s="30"/>
+      <c r="N23" s="37"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
@@ -1734,7 +5758,7 @@
         <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
         <v>3.9327468821182723E-2</v>
       </c>
-      <c r="N24" s="30"/>
+      <c r="N24" s="37"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="4">
@@ -1774,7 +5798,7 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="30"/>
+      <c r="N25" s="37"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
@@ -1803,7 +5827,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="29" t="s">
+      <c r="N26" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1844,7 +5868,7 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="29"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
@@ -1885,7 +5909,7 @@
         <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
         <v>0.20765234337779359</v>
       </c>
-      <c r="N28" s="29"/>
+      <c r="N28" s="38"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
@@ -1928,7 +5952,7 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="29"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="4">
@@ -1957,7 +5981,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="30" t="s">
+      <c r="N30" s="37" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1998,7 +6022,7 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="30"/>
+      <c r="N31" s="37"/>
     </row>
     <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
@@ -2039,7 +6063,7 @@
         <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
         <v>0.22403552048594069</v>
       </c>
-      <c r="N32" s="30"/>
+      <c r="N32" s="37"/>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
@@ -2081,7 +6105,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="30"/>
+      <c r="N33" s="37"/>
     </row>
     <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -2112,7 +6136,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="29" t="s">
+      <c r="N34" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2153,7 +6177,7 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="30"/>
+      <c r="N35" s="37"/>
     </row>
     <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
@@ -2192,7 +6216,7 @@
         <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
         <v>2.4947332653754678E-2</v>
       </c>
-      <c r="N36" s="30"/>
+      <c r="N36" s="37"/>
     </row>
     <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -2232,7 +6256,7 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="30"/>
+      <c r="N37" s="37"/>
     </row>
     <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4">
@@ -2263,7 +6287,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="28" t="s">
+      <c r="N38" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2304,7 +6328,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="29"/>
+      <c r="N39" s="38"/>
     </row>
     <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4">
@@ -2343,7 +6367,7 @@
         <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
         <v>3.8531161842448383E-2</v>
       </c>
-      <c r="N40" s="29"/>
+      <c r="N40" s="38"/>
     </row>
     <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="4">
@@ -2383,7 +6407,7 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="29"/>
+      <c r="N41" s="38"/>
     </row>
     <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
@@ -2412,7 +6436,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="29" t="s">
+      <c r="N42" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2453,7 +6477,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="30"/>
+      <c r="N43" s="37"/>
     </row>
     <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -2492,7 +6516,7 @@
         <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
         <v>2.9461337869156605E-2</v>
       </c>
-      <c r="N44" s="30"/>
+      <c r="N44" s="37"/>
     </row>
     <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -2532,7 +6556,7 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="30"/>
+      <c r="N45" s="37"/>
     </row>
     <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4">
@@ -2561,7 +6585,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="28" t="s">
+      <c r="N46" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2602,7 +6626,7 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="29"/>
+      <c r="N47" s="38"/>
     </row>
     <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4">
@@ -2641,7 +6665,7 @@
         <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
         <v>-2.4269012471526914E-2</v>
       </c>
-      <c r="N48" s="29"/>
+      <c r="N48" s="38"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="4">
@@ -2681,7 +6705,7 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="29"/>
+      <c r="N49" s="38"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
@@ -2710,7 +6734,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="29" t="s">
+      <c r="N50" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2751,7 +6775,7 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="30"/>
+      <c r="N51" s="37"/>
     </row>
     <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="19">
@@ -2792,7 +6816,7 @@
         <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
         <v>0.1166373441059136</v>
       </c>
-      <c r="N52" s="30"/>
+      <c r="N52" s="37"/>
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
@@ -2835,7 +6859,7 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="30"/>
+      <c r="N53" s="37"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="4">
@@ -2864,7 +6888,7 @@
       <c r="K54" s="15"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="30" t="s">
+      <c r="N54" s="37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2905,7 +6929,7 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="30"/>
+      <c r="N55" s="37"/>
     </row>
     <row r="56" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
@@ -2946,7 +6970,7 @@
         <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
         <v>0.10974650037964118</v>
       </c>
-      <c r="N56" s="30"/>
+      <c r="N56" s="37"/>
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
@@ -2989,7 +7013,7 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="30"/>
+      <c r="N57" s="37"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
@@ -3018,7 +7042,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="29" t="s">
+      <c r="N58" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3059,7 +7083,7 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="30"/>
+      <c r="N59" s="37"/>
     </row>
     <row r="60" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
@@ -3100,7 +7124,7 @@
         <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
         <v>4.9818928842600835E-2</v>
       </c>
-      <c r="N60" s="30"/>
+      <c r="N60" s="37"/>
       <c r="O60" s="23"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
@@ -3143,7 +7167,7 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="30"/>
+      <c r="N61" s="37"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4">
@@ -3172,7 +7196,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="28" t="s">
+      <c r="N62" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3213,7 +7237,7 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="29"/>
+      <c r="N63" s="38"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4">
@@ -3252,7 +7276,7 @@
         <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
         <v>2.8672651687715683E-2</v>
       </c>
-      <c r="N64" s="29"/>
+      <c r="N64" s="38"/>
     </row>
     <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="4">
@@ -3292,7 +7316,7 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="29"/>
+      <c r="N65" s="38"/>
     </row>
     <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
@@ -3323,7 +7347,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="29" t="s">
+      <c r="N66" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3364,7 +7388,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
-      <c r="N67" s="30"/>
+      <c r="N67" s="37"/>
     </row>
     <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
@@ -3403,7 +7427,7 @@
         <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
         <v>3.6558023972227162E-2</v>
       </c>
-      <c r="N68" s="30"/>
+      <c r="N68" s="37"/>
     </row>
     <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
@@ -3443,7 +7467,7 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
-      <c r="N69" s="30"/>
+      <c r="N69" s="37"/>
     </row>
     <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4">
@@ -3472,7 +7496,7 @@
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
-      <c r="N70" s="28" t="s">
+      <c r="N70" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3513,7 +7537,7 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
-      <c r="N71" s="29"/>
+      <c r="N71" s="38"/>
     </row>
     <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4">
@@ -3552,7 +7576,7 @@
         <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
         <v>-1.0036214231479833E-2</v>
       </c>
-      <c r="N72" s="29"/>
+      <c r="N72" s="38"/>
     </row>
     <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="4">
@@ -3592,7 +7616,7 @@
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-      <c r="N73" s="29"/>
+      <c r="N73" s="38"/>
     </row>
     <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
@@ -3621,7 +7645,7 @@
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="29" t="s">
+      <c r="N74" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3662,7 +7686,7 @@
       </c>
       <c r="L75" s="15"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="29"/>
+      <c r="N75" s="38"/>
     </row>
     <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
@@ -3701,7 +7725,7 @@
         <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
         <v>-1.5204691609720496E-2</v>
       </c>
-      <c r="N76" s="29"/>
+      <c r="N76" s="38"/>
     </row>
     <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
@@ -3740,7 +7764,7 @@
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="29"/>
+      <c r="N77" s="38"/>
     </row>
     <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4">
@@ -3769,7 +7793,7 @@
       <c r="K78" s="15"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
-      <c r="N78" s="28" t="s">
+      <c r="N78" s="39" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3810,7 +7834,7 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
-      <c r="N79" s="29"/>
+      <c r="N79" s="38"/>
     </row>
     <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4">
@@ -3849,7 +7873,7 @@
         <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
         <v>-2.4193827340276544E-2</v>
       </c>
-      <c r="N80" s="29"/>
+      <c r="N80" s="38"/>
     </row>
     <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="4">
@@ -3889,7 +7913,7 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
-      <c r="N81" s="29"/>
+      <c r="N81" s="38"/>
     </row>
     <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
@@ -3918,7 +7942,7 @@
       <c r="K82" s="15"/>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
-      <c r="N82" s="29" t="s">
+      <c r="N82" s="38" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3959,7 +7983,7 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
-      <c r="N83" s="29"/>
+      <c r="N83" s="38"/>
     </row>
     <row r="84" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
@@ -3998,7 +8022,7 @@
         <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
         <v>-1.5204691609720496E-2</v>
       </c>
-      <c r="N84" s="29"/>
+      <c r="N84" s="38"/>
     </row>
     <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
@@ -4038,7 +8062,7 @@
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
-      <c r="N85" s="29"/>
+      <c r="N85" s="38"/>
     </row>
     <row r="86" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4">
@@ -4067,7 +8091,7 @@
       <c r="K86" s="15"/>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
-      <c r="N86" s="30" t="s">
+      <c r="N86" s="37" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4108,7 +8132,7 @@
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="16"/>
-      <c r="N87" s="30"/>
+      <c r="N87" s="37"/>
     </row>
     <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4">
@@ -4147,7 +8171,7 @@
         <f>(G88/3.6)^2/(ABS(D88)*9.81)-ABS(J88)/1500</f>
         <v>3.9030863298617297E-2</v>
       </c>
-      <c r="N88" s="30"/>
+      <c r="N88" s="37"/>
     </row>
     <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="4">
@@ -4187,7 +8211,7 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
-      <c r="N89" s="30"/>
+      <c r="N89" s="37"/>
     </row>
     <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
@@ -4216,7 +8240,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
-      <c r="N90" s="29" t="s">
+      <c r="N90" s="38" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4257,7 +8281,7 @@
       </c>
       <c r="L91" s="16"/>
       <c r="M91" s="16"/>
-      <c r="N91" s="30"/>
+      <c r="N91" s="37"/>
     </row>
     <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
@@ -4296,7 +8320,7 @@
         <f>(G92/3.6)^2/(ABS(D92)*9.81)-ABS(J92)/1500</f>
         <v>3.8206583523153925E-2</v>
       </c>
-      <c r="N92" s="30"/>
+      <c r="N92" s="37"/>
     </row>
     <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
@@ -4336,7 +8360,7 @@
       </c>
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
-      <c r="N93" s="30"/>
+      <c r="N93" s="37"/>
     </row>
     <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4">
@@ -4367,7 +8391,7 @@
       <c r="K94" s="15"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
-      <c r="N94" s="28" t="s">
+      <c r="N94" s="39" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4388,7 +8412,7 @@
         <f>D96</f>
         <v>50000</v>
       </c>
-      <c r="F95" s="30" t="s">
+      <c r="F95" s="37" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="8">
@@ -4410,7 +8434,7 @@
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="16"/>
-      <c r="N95" s="30"/>
+      <c r="N95" s="37"/>
     </row>
     <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4">
@@ -4426,7 +8450,7 @@
         <v>50000</v>
       </c>
       <c r="E96" s="15"/>
-      <c r="F96" s="30"/>
+      <c r="F96" s="37"/>
       <c r="G96" s="8">
         <v>200</v>
       </c>
@@ -4449,7 +8473,7 @@
         <f>(G96/3.6)^2/(ABS(D96)*9.81)-ABS(J96)/1500</f>
         <v>6.2923950113892351E-3</v>
       </c>
-      <c r="N96" s="30"/>
+      <c r="N96" s="37"/>
     </row>
     <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="4">
@@ -4469,7 +8493,7 @@
       <c r="E97" s="4">
         <v>0</v>
       </c>
-      <c r="F97" s="30"/>
+      <c r="F97" s="37"/>
       <c r="G97" s="8">
         <v>200</v>
       </c>
@@ -4489,16 +8513,17 @@
       </c>
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
-      <c r="N97" s="30"/>
+      <c r="N97" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="N94:N97"/>
     <mergeCell ref="N70:N73"/>
     <mergeCell ref="N26:N29"/>
     <mergeCell ref="N30:N33"/>
@@ -4511,3397 +8536,12 @@
     <mergeCell ref="N58:N61"/>
     <mergeCell ref="N62:N65"/>
     <mergeCell ref="N66:N69"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="N94:N97"/>
-  </mergeCells>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6356CB-F0F5-4EF9-8834-D5D350C95BD2}">
-  <dimension ref="A1:Q98"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="14.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="12.5" style="5" customWidth="1"/>
-    <col min="12" max="12" width="12.5" style="38" customWidth="1"/>
-    <col min="13" max="13" width="16.5" style="38" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="5"/>
-    <col min="15" max="15" width="24.08203125" style="5" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="3">
-        <v>300</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="9">
-        <v>80</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="3">
-        <f t="shared" ref="I2:I9" si="0">C2</f>
-        <v>300</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="19">
-        <f>55/2</f>
-        <v>27.5</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <f>D4</f>
-        <v>-1500</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="9">
-        <v>80</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="19">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-      <c r="J3" s="19">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
-        <f>J4</f>
-        <v>-54</v>
-      </c>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="29"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="19">
-        <v>138.893</v>
-      </c>
-      <c r="D4" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="9">
-        <v>80</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="19">
-        <f t="shared" si="0"/>
-        <v>138.893</v>
-      </c>
-      <c r="J4" s="19">
-        <v>-54</v>
-      </c>
-      <c r="K4" s="20"/>
-      <c r="L4" s="33">
-        <f t="shared" ref="L4:L11" si="1">G4*G4/ABS(D4)*11.8-ABS(J4)</f>
-        <v>-3.6533333333333289</v>
-      </c>
-      <c r="M4" s="33">
-        <f t="shared" ref="M4:M11" si="2">(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
-        <v>-2.4405599392574098E-3</v>
-      </c>
-      <c r="N4" s="29"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="19">
-        <f>C3</f>
-        <v>27.5</v>
-      </c>
-      <c r="D5" s="3">
-        <f>D4</f>
-        <v>-1500</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="9">
-        <v>80</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="19">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
-      <c r="J5" s="19">
-        <f>J4</f>
-        <v>-54</v>
-      </c>
-      <c r="K5" s="19">
-        <v>0</v>
-      </c>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="29"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="25">
-        <v>250</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="9">
-        <v>80</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="25">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="34"/>
-      <c r="M6" s="34"/>
-      <c r="N6" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="25">
-        <f>85/2</f>
-        <v>42.5</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4">
-        <f>D8</f>
-        <v>650</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="9">
-        <v>80</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="25">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-      <c r="J7" s="25">
-        <v>0</v>
-      </c>
-      <c r="K7" s="25">
-        <f>J8</f>
-        <v>120</v>
-      </c>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="30"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="25">
-        <v>565.17399999999998</v>
-      </c>
-      <c r="D8" s="4">
-        <v>650</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G8" s="9">
-        <v>80</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" s="25">
-        <f t="shared" si="0"/>
-        <v>565.17399999999998</v>
-      </c>
-      <c r="J8" s="25">
-        <v>120</v>
-      </c>
-      <c r="K8" s="20"/>
-      <c r="L8" s="36">
-        <f>G8*G8/ABS(D8)*11.8-ABS(J8)</f>
-        <v>-3.8153846153846018</v>
-      </c>
-      <c r="M8" s="36">
-        <f t="shared" si="2"/>
-        <v>-2.5551383213632678E-3</v>
-      </c>
-      <c r="N8" s="30"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="25">
-        <f>C7</f>
-        <v>42.5</v>
-      </c>
-      <c r="D9" s="4">
-        <f>D8</f>
-        <v>650</v>
-      </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="9">
-        <v>80</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="25">
-        <f t="shared" si="0"/>
-        <v>42.5</v>
-      </c>
-      <c r="J9" s="25">
-        <f>J8</f>
-        <v>120</v>
-      </c>
-      <c r="K9" s="25">
-        <v>0</v>
-      </c>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="30"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="19">
-        <v>50</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="9">
-        <v>80</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="19">
-        <f t="shared" ref="I10:I73" si="3">C10</f>
-        <v>50</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="19">
-        <f>75/2</f>
-        <v>37.5</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <f>D12</f>
-        <v>-550</v>
-      </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="9">
-        <v>80</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="19">
-        <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="J11" s="19">
-        <v>0</v>
-      </c>
-      <c r="K11" s="19">
-        <f>J12</f>
-        <v>-120</v>
-      </c>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="29"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="19">
-        <v>257.29700000000003</v>
-      </c>
-      <c r="D12" s="3">
-        <v>-550</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" s="9">
-        <v>80</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="19">
-        <f t="shared" si="3"/>
-        <v>257.29700000000003</v>
-      </c>
-      <c r="J12" s="19">
-        <v>-120</v>
-      </c>
-      <c r="K12" s="20"/>
-      <c r="L12" s="35">
-        <f>G12*G12/ABS(D12)*11.8-ABS(J12)</f>
-        <v>17.309090909090912</v>
-      </c>
-      <c r="M12" s="35">
-        <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
-        <v>1.1525745620207042E-2</v>
-      </c>
-      <c r="N12" s="29"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="19">
-        <f>C11</f>
-        <v>37.5</v>
-      </c>
-      <c r="D13" s="3">
-        <f>D12</f>
-        <v>-550</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="9">
-        <v>80</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="19">
-        <f t="shared" si="3"/>
-        <v>37.5</v>
-      </c>
-      <c r="J13" s="19">
-        <f>J12</f>
-        <v>-120</v>
-      </c>
-      <c r="K13" s="19">
-        <v>0</v>
-      </c>
-      <c r="L13" s="34"/>
-      <c r="M13" s="34"/>
-      <c r="N13" s="29"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="4">
-        <v>950</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="9">
-        <v>80</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="3"/>
-        <v>950</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="34"/>
-      <c r="M14" s="34"/>
-      <c r="N14" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="4">
-        <v>80</v>
-      </c>
-      <c r="D15" s="4">
-        <v>0</v>
-      </c>
-      <c r="E15" s="4">
-        <f>D16</f>
-        <v>450</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="9">
-        <v>80</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="4">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0</v>
-      </c>
-      <c r="K15" s="4">
-        <f>J16</f>
-        <v>100</v>
-      </c>
-      <c r="L15" s="34"/>
-      <c r="M15" s="34"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="4">
-        <v>800</v>
-      </c>
-      <c r="D16" s="4">
-        <v>450</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="9">
-        <v>80</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="4">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="J16" s="4">
-        <v>100</v>
-      </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="36">
-        <f>G16*G16/ABS(D16)*11.8-ABS(J16)</f>
-        <v>67.822222222222223</v>
-      </c>
-      <c r="M16" s="36">
-        <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
-        <v>4.5198133535808621E-2</v>
-      </c>
-      <c r="N16" s="30"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="4">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="4">
-        <f>C15</f>
-        <v>80</v>
-      </c>
-      <c r="D17" s="4">
-        <f>D16</f>
-        <v>450</v>
-      </c>
-      <c r="E17" s="4">
-        <v>0</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="9">
-        <v>80</v>
-      </c>
-      <c r="H17" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="J17" s="4">
-        <f>J16</f>
-        <v>100</v>
-      </c>
-      <c r="K17" s="4">
-        <v>0</v>
-      </c>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="30"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="3">
-        <v>50</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="9">
-        <v>80</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="3">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="3">
-        <v>100</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <f>D20</f>
-        <v>-600</v>
-      </c>
-      <c r="F19" s="15"/>
-      <c r="G19" s="9">
-        <v>80</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
-        <f>J20</f>
-        <v>-70</v>
-      </c>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="29"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>19</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20" s="3">
-        <v>150</v>
-      </c>
-      <c r="D20" s="3">
-        <v>-600</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="9">
-        <v>80</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="3">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-70</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="L20" s="35">
-        <f>G20*G20/ABS(D20)*11.8-ABS(J20)</f>
-        <v>55.866666666666674</v>
-      </c>
-      <c r="M20" s="35">
-        <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
-        <v>3.7231933485189793E-2</v>
-      </c>
-      <c r="N20" s="29"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>20</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="3">
-        <v>100</v>
-      </c>
-      <c r="D21" s="3">
-        <f>D20</f>
-        <v>-600</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="9">
-        <v>80</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I21" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <f>J20</f>
-        <v>-70</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="29"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
-        <v>21</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="4">
-        <v>200</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="7">
-        <v>100</v>
-      </c>
-      <c r="H22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="4">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <v>22</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4">
-        <v>150</v>
-      </c>
-      <c r="D23" s="4">
-        <v>0</v>
-      </c>
-      <c r="E23" s="4">
-        <f>D24</f>
-        <v>2000</v>
-      </c>
-      <c r="F23" s="15"/>
-      <c r="G23" s="7">
-        <v>100</v>
-      </c>
-      <c r="H23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="4">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="J23" s="4">
-        <v>0</v>
-      </c>
-      <c r="K23" s="4">
-        <f>J24</f>
-        <v>30</v>
-      </c>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="30"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
-        <v>23</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="4">
-        <v>600</v>
-      </c>
-      <c r="D24" s="4">
-        <v>2000</v>
-      </c>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="7">
-        <v>100</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="4">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="J24" s="4">
-        <v>30</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="36">
-        <f>G24*G24/ABS(D24)*11.8-ABS(J24)</f>
-        <v>29</v>
-      </c>
-      <c r="M24" s="36">
-        <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
-        <v>1.9327468821182723E-2</v>
-      </c>
-      <c r="N24" s="30"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="4">
-        <v>24</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="4">
-        <f>C23</f>
-        <v>150</v>
-      </c>
-      <c r="D25" s="4">
-        <f>D24</f>
-        <v>2000</v>
-      </c>
-      <c r="E25" s="4">
-        <v>0</v>
-      </c>
-      <c r="F25" s="15"/>
-      <c r="G25" s="7">
-        <v>100</v>
-      </c>
-      <c r="H25" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="4">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="J25" s="4">
-        <f>J24</f>
-        <v>30</v>
-      </c>
-      <c r="K25" s="4">
-        <v>0</v>
-      </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="30"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="3">
-        <v>50</v>
-      </c>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="7">
-        <v>160</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="3">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J26" s="15"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>26</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C27" s="3">
-        <v>50</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <f>D28</f>
-        <v>-1600</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="7">
-        <v>160</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I27" s="3">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
-      <c r="K27" s="3">
-        <f>J28</f>
-        <v>-120</v>
-      </c>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="29"/>
-    </row>
-    <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>27</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28" s="3">
-        <v>500</v>
-      </c>
-      <c r="D28" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="7">
-        <v>160</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I28" s="3">
-        <f t="shared" si="3"/>
-        <v>500</v>
-      </c>
-      <c r="J28" s="3">
-        <v>-120</v>
-      </c>
-      <c r="K28" s="3"/>
-      <c r="L28" s="35">
-        <f>G28*G28/ABS(D28)*11.8-ABS(J28)</f>
-        <v>68.800000000000011</v>
-      </c>
-      <c r="M28" s="35">
-        <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
-        <v>4.5847900227784691E-2</v>
-      </c>
-      <c r="N28" s="29"/>
-      <c r="O28" s="5"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>28</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C29" s="3">
-        <f>C27</f>
-        <v>50</v>
-      </c>
-      <c r="D29" s="3">
-        <f>D28</f>
-        <v>-1600</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="7">
-        <v>160</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I29" s="3">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J29" s="3">
-        <f>J28</f>
-        <v>-120</v>
-      </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="29"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="4">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" s="4">
-        <v>80</v>
-      </c>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="7">
-        <v>160</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="4">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
-        <v>30</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="4">
-        <v>50</v>
-      </c>
-      <c r="D31" s="4">
-        <v>0</v>
-      </c>
-      <c r="E31" s="4">
-        <f>D32</f>
-        <v>-1600</v>
-      </c>
-      <c r="F31" s="15"/>
-      <c r="G31" s="7">
-        <v>160</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I31" s="4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J31" s="4">
-        <v>0</v>
-      </c>
-      <c r="K31" s="4">
-        <f>J32</f>
-        <v>-120</v>
-      </c>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="30"/>
-    </row>
-    <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4">
-        <v>31</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="4">
-        <v>650</v>
-      </c>
-      <c r="D32" s="4">
-        <v>-1600</v>
-      </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="7">
-        <v>160</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="4">
-        <f t="shared" si="3"/>
-        <v>650</v>
-      </c>
-      <c r="J32" s="4">
-        <v>-120</v>
-      </c>
-      <c r="K32" s="20"/>
-      <c r="L32" s="37">
-        <f>G32*G32/ABS(D32)*11.8-ABS(J32)</f>
-        <v>68.800000000000011</v>
-      </c>
-      <c r="M32" s="37">
-        <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
-        <v>4.5847900227784691E-2</v>
-      </c>
-      <c r="N32" s="30"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" s="4">
-        <v>50</v>
-      </c>
-      <c r="D33" s="4">
-        <f>D32</f>
-        <v>-1600</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="15"/>
-      <c r="G33" s="7">
-        <v>160</v>
-      </c>
-      <c r="H33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J33" s="4">
-        <f>J32</f>
-        <v>-120</v>
-      </c>
-      <c r="K33" s="4">
-        <v>0</v>
-      </c>
-      <c r="L33" s="34"/>
-      <c r="M33" s="34"/>
-      <c r="N33" s="30"/>
-    </row>
-    <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>33</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7">
-        <v>180</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="3">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="J34" s="15"/>
-      <c r="K34" s="15"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34"/>
-      <c r="N34" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>34</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="3">
-        <v>100</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <f>D36</f>
-        <v>3000</v>
-      </c>
-      <c r="F35" s="15"/>
-      <c r="G35" s="39">
-        <v>180</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I35" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
-      <c r="K35" s="3">
-        <f>J36</f>
-        <v>80</v>
-      </c>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34"/>
-      <c r="N35" s="30"/>
-    </row>
-    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>35</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="3">
-        <v>360</v>
-      </c>
-      <c r="D36" s="3">
-        <v>3000</v>
-      </c>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="39">
-        <v>180</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="3">
-        <f t="shared" si="3"/>
-        <v>360</v>
-      </c>
-      <c r="J36" s="3">
-        <v>80</v>
-      </c>
-      <c r="K36" s="15"/>
-      <c r="L36" s="35">
-        <f>G36*G36/ABS(D36)*11.8-ABS(J36)</f>
-        <v>47.440000000000012</v>
-      </c>
-      <c r="M36" s="35">
-        <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
-        <v>3.1613999320421339E-2</v>
-      </c>
-      <c r="N36" s="30"/>
-    </row>
-    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C37" s="3">
-        <f>C35</f>
-        <v>100</v>
-      </c>
-      <c r="D37" s="3">
-        <f>D36</f>
-        <v>3000</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0</v>
-      </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="39">
-        <v>180</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I37" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J37" s="3">
-        <f>J36</f>
-        <v>80</v>
-      </c>
-      <c r="K37" s="3">
-        <v>0</v>
-      </c>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="30"/>
-    </row>
-    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
-        <v>37</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" s="4">
-        <v>50</v>
-      </c>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="39">
-        <v>180</v>
-      </c>
-      <c r="H38" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I38" s="4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J38" s="15"/>
-      <c r="K38" s="15"/>
-      <c r="L38" s="34"/>
-      <c r="M38" s="34"/>
-      <c r="N38" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4">
-        <v>38</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C39" s="4">
-        <v>50</v>
-      </c>
-      <c r="D39" s="4">
-        <v>0</v>
-      </c>
-      <c r="E39" s="4">
-        <f>D40</f>
-        <v>-3000</v>
-      </c>
-      <c r="F39" s="15"/>
-      <c r="G39" s="39">
-        <v>180</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I39" s="4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J39" s="4">
-        <v>0</v>
-      </c>
-      <c r="K39" s="4">
-        <f>J40</f>
-        <v>-80</v>
-      </c>
-      <c r="L39" s="34"/>
-      <c r="M39" s="34"/>
-      <c r="N39" s="29"/>
-    </row>
-    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
-        <v>39</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="4">
-        <v>600</v>
-      </c>
-      <c r="D40" s="4">
-        <v>-3000</v>
-      </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="39">
-        <v>180</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="4">
-        <f t="shared" si="3"/>
-        <v>600</v>
-      </c>
-      <c r="J40" s="4">
-        <v>-80</v>
-      </c>
-      <c r="K40" s="15"/>
-      <c r="L40" s="36">
-        <f>G40*G40/ABS(D40)*11.8-ABS(J40)</f>
-        <v>47.440000000000012</v>
-      </c>
-      <c r="M40" s="36">
-        <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
-        <v>3.1613999320421339E-2</v>
-      </c>
-      <c r="N40" s="29"/>
-    </row>
-    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="4">
-        <v>40</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C41" s="4">
-        <f>C39</f>
-        <v>50</v>
-      </c>
-      <c r="D41" s="4">
-        <f>D40</f>
-        <v>-3000</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="15"/>
-      <c r="G41" s="39">
-        <v>180</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I41" s="4">
-        <f t="shared" si="3"/>
-        <v>50</v>
-      </c>
-      <c r="J41" s="4">
-        <f>J40</f>
-        <v>-80</v>
-      </c>
-      <c r="K41" s="4">
-        <v>0</v>
-      </c>
-      <c r="L41" s="34"/>
-      <c r="M41" s="34"/>
-      <c r="N41" s="29"/>
-    </row>
-    <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>41</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C42" s="3">
-        <v>2800</v>
-      </c>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="39">
-        <v>180</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="3">
-        <f t="shared" si="3"/>
-        <v>2800</v>
-      </c>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="34"/>
-      <c r="M42" s="34"/>
-      <c r="N42" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>42</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C43" s="3">
-        <v>100</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <f>D44</f>
-        <v>3800</v>
-      </c>
-      <c r="F43" s="15"/>
-      <c r="G43" s="39">
-        <v>180</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J43" s="3">
-        <v>0</v>
-      </c>
-      <c r="K43" s="3">
-        <f>J44</f>
-        <v>70</v>
-      </c>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="30"/>
-    </row>
-    <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44" s="3">
-        <v>200</v>
-      </c>
-      <c r="D44" s="3">
-        <v>3800</v>
-      </c>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="39">
-        <v>180</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="3">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="J44" s="3">
-        <v>70</v>
-      </c>
-      <c r="K44" s="15"/>
-      <c r="L44" s="35">
-        <f>G44*G44/ABS(D44)*11.8-ABS(J44)</f>
-        <v>30.610526315789485</v>
-      </c>
-      <c r="M44" s="35">
-        <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
-        <v>2.0397017007350172E-2</v>
-      </c>
-      <c r="N44" s="30"/>
-    </row>
-    <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>44</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C45" s="3">
-        <f>C43</f>
-        <v>100</v>
-      </c>
-      <c r="D45" s="3">
-        <f>D44</f>
-        <v>3800</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="15"/>
-      <c r="G45" s="39">
-        <v>180</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I45" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <f>J44</f>
-        <v>70</v>
-      </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="30"/>
-    </row>
-    <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4">
-        <v>45</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="4">
-        <v>400</v>
-      </c>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="39">
-        <v>180</v>
-      </c>
-      <c r="H46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="4">
-        <f t="shared" si="3"/>
-        <v>400</v>
-      </c>
-      <c r="J46" s="15"/>
-      <c r="K46" s="15"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="4">
-        <v>46</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="4">
-        <v>100</v>
-      </c>
-      <c r="D47" s="4">
-        <v>0</v>
-      </c>
-      <c r="E47" s="4">
-        <f>D48</f>
-        <v>-20000</v>
-      </c>
-      <c r="F47" s="15"/>
-      <c r="G47" s="39">
-        <v>180</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I47" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J47" s="4">
-        <v>0</v>
-      </c>
-      <c r="K47" s="4">
-        <f>J48</f>
-        <v>-10</v>
-      </c>
-      <c r="L47" s="32"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="29"/>
-    </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="4">
-        <v>47</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="4">
-        <v>200</v>
-      </c>
-      <c r="D48" s="4">
-        <v>-20000</v>
-      </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="39">
-        <v>180</v>
-      </c>
-      <c r="H48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I48" s="4">
-        <f t="shared" si="3"/>
-        <v>200</v>
-      </c>
-      <c r="J48" s="4">
-        <v>-10</v>
-      </c>
-      <c r="K48" s="15"/>
-      <c r="L48" s="33">
-        <f>G48*G48/ABS(D48)*11.8-ABS(J48)</f>
-        <v>9.1160000000000032</v>
-      </c>
-      <c r="M48" s="33">
-        <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
-        <v>6.0754332313965329E-3</v>
-      </c>
-      <c r="N48" s="29"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="4">
-        <v>48</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C49" s="4">
-        <f>C47</f>
-        <v>100</v>
-      </c>
-      <c r="D49" s="4">
-        <f>D48</f>
-        <v>-20000</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="15"/>
-      <c r="G49" s="39">
-        <v>180</v>
-      </c>
-      <c r="H49" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="4">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J49" s="4">
-        <f>J48</f>
-        <v>-10</v>
-      </c>
-      <c r="K49" s="4">
-        <v>0</v>
-      </c>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
-      <c r="N49" s="29"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C50" s="3">
-        <v>100</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="7">
-        <v>160</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I50" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J50" s="15"/>
-      <c r="K50" s="15"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
-      <c r="N50" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
-        <v>50</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C51" s="3">
-        <v>100</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
-        <f>D52</f>
-        <v>1900</v>
-      </c>
-      <c r="F51" s="15"/>
-      <c r="G51" s="7">
-        <v>160</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I51" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J51" s="3">
-        <v>0</v>
-      </c>
-      <c r="K51" s="3">
-        <f>J52</f>
-        <v>95</v>
-      </c>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
-      <c r="N51" s="30"/>
-    </row>
-    <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>51</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="3">
-        <v>2400</v>
-      </c>
-      <c r="D52" s="3">
-        <v>1900</v>
-      </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G52" s="7">
-        <v>160</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I52" s="3">
-        <f t="shared" si="3"/>
-        <v>2400</v>
-      </c>
-      <c r="J52" s="3">
-        <v>95</v>
-      </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="35">
-        <f>G52*G52/ABS(D52)*11.8-ABS(J52)</f>
-        <v>63.989473684210537</v>
-      </c>
-      <c r="M52" s="35">
-        <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
-        <v>4.2643845805853772E-2</v>
-      </c>
-      <c r="N52" s="30"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>52</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C53" s="3">
-        <f>C51</f>
-        <v>100</v>
-      </c>
-      <c r="D53" s="3">
-        <f>D52</f>
-        <v>1900</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0</v>
-      </c>
-      <c r="F53" s="15"/>
-      <c r="G53" s="7">
-        <v>160</v>
-      </c>
-      <c r="H53" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I53" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J53" s="3">
-        <f>J52</f>
-        <v>95</v>
-      </c>
-      <c r="K53" s="3">
-        <v>0</v>
-      </c>
-      <c r="L53" s="34"/>
-      <c r="M53" s="34"/>
-      <c r="N53" s="30"/>
-    </row>
-    <row r="54" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="10">
-        <v>53</v>
-      </c>
-      <c r="B54" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="39">
-        <v>200</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I54" s="10">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="J54" s="15"/>
-      <c r="K54" s="15"/>
-      <c r="L54" s="34"/>
-      <c r="M54" s="34"/>
-      <c r="N54" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="10">
-        <v>54</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C55" s="10">
-        <v>100</v>
-      </c>
-      <c r="D55" s="10">
-        <v>0</v>
-      </c>
-      <c r="E55" s="10">
-        <f>D56</f>
-        <v>3500</v>
-      </c>
-      <c r="F55" s="15"/>
-      <c r="G55" s="39">
-        <v>200</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I55" s="10">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J55" s="10">
-        <v>0</v>
-      </c>
-      <c r="K55" s="10">
-        <f>J56</f>
-        <v>80</v>
-      </c>
-      <c r="L55" s="34"/>
-      <c r="M55" s="34"/>
-      <c r="N55" s="28"/>
-    </row>
-    <row r="56" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="10">
-        <v>55</v>
-      </c>
-      <c r="B56" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56" s="10">
-        <v>800</v>
-      </c>
-      <c r="D56" s="10">
-        <v>3500</v>
-      </c>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="39">
-        <v>200</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I56" s="10">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="J56" s="10">
-        <v>80</v>
-      </c>
-      <c r="K56" s="15"/>
-      <c r="L56" s="36">
-        <f>G56*G56/ABS(D56)*11.8-ABS(J56)</f>
-        <v>54.857142857142861</v>
-      </c>
-      <c r="M56" s="36">
-        <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
-        <v>3.6558023972227162E-2</v>
-      </c>
-      <c r="N56" s="28"/>
-    </row>
-    <row r="57" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="10">
-        <v>56</v>
-      </c>
-      <c r="B57" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C57" s="10">
-        <f>C55</f>
-        <v>100</v>
-      </c>
-      <c r="D57" s="10">
-        <f>D56</f>
-        <v>3500</v>
-      </c>
-      <c r="E57" s="10">
-        <v>0</v>
-      </c>
-      <c r="F57" s="15"/>
-      <c r="G57" s="39">
-        <v>200</v>
-      </c>
-      <c r="H57" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I57" s="10">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J57" s="10">
-        <f>J56</f>
-        <v>80</v>
-      </c>
-      <c r="K57" s="10">
-        <v>0</v>
-      </c>
-      <c r="L57" s="34"/>
-      <c r="M57" s="34"/>
-      <c r="N57" s="28"/>
-    </row>
-    <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>57</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="3">
-        <v>250</v>
-      </c>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="39">
-        <v>200</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I58" s="3">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="J58" s="15"/>
-      <c r="K58" s="15"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="59" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>58</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C59" s="3">
-        <v>80</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <f>D60</f>
-        <v>-6000</v>
-      </c>
-      <c r="F59" s="15"/>
-      <c r="G59" s="39">
-        <v>200</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" s="3">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
-      </c>
-      <c r="K59" s="3">
-        <f>J60</f>
-        <v>-30</v>
-      </c>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="29"/>
-    </row>
-    <row r="60" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>59</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" s="3">
-        <v>100</v>
-      </c>
-      <c r="D60" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="39">
-        <v>200</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J60" s="3">
-        <v>-30</v>
-      </c>
-      <c r="K60" s="15"/>
-      <c r="L60" s="35">
-        <f>G60*G60/ABS(D60)*11.8-ABS(J60)</f>
-        <v>48.666666666666671</v>
-      </c>
-      <c r="M60" s="35">
-        <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
-        <v>3.2436625094910299E-2</v>
-      </c>
-      <c r="N60" s="29"/>
-    </row>
-    <row r="61" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>60</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="3">
-        <f>C59</f>
-        <v>80</v>
-      </c>
-      <c r="D61" s="3">
-        <f>D60</f>
-        <v>-6000</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
-      <c r="F61" s="15"/>
-      <c r="G61" s="39">
-        <v>200</v>
-      </c>
-      <c r="H61" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I61" s="3">
-        <f t="shared" si="3"/>
-        <v>80</v>
-      </c>
-      <c r="J61" s="3">
-        <f>J60</f>
-        <v>-30</v>
-      </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
-      <c r="L61" s="34"/>
-      <c r="M61" s="34"/>
-      <c r="N61" s="29"/>
-    </row>
-    <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="10">
-        <v>61</v>
-      </c>
-      <c r="B62" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="10">
-        <v>2500</v>
-      </c>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="39">
-        <v>200</v>
-      </c>
-      <c r="H62" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I62" s="10">
-        <f t="shared" si="3"/>
-        <v>2500</v>
-      </c>
-      <c r="J62" s="15"/>
-      <c r="K62" s="15"/>
-      <c r="L62" s="34"/>
-      <c r="M62" s="34"/>
-      <c r="N62" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="10">
-        <v>62</v>
-      </c>
-      <c r="B63" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C63" s="10">
-        <v>150</v>
-      </c>
-      <c r="D63" s="10">
-        <v>0</v>
-      </c>
-      <c r="E63" s="10">
-        <f>D64</f>
-        <v>-8000</v>
-      </c>
-      <c r="F63" s="15"/>
-      <c r="G63" s="39">
-        <v>200</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I63" s="10">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="J63" s="10">
-        <v>0</v>
-      </c>
-      <c r="K63" s="10">
-        <f>J64</f>
-        <v>-20</v>
-      </c>
-      <c r="L63" s="34"/>
-      <c r="M63" s="34"/>
-      <c r="N63" s="28"/>
-    </row>
-    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="10">
-        <v>63</v>
-      </c>
-      <c r="B64" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64" s="10">
-        <v>2000</v>
-      </c>
-      <c r="D64" s="10">
-        <v>-8000</v>
-      </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="39">
-        <v>200</v>
-      </c>
-      <c r="H64" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I64" s="10">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="J64" s="10">
-        <v>-20</v>
-      </c>
-      <c r="K64" s="15"/>
-      <c r="L64" s="36">
-        <f>G64*G64/ABS(D64)*11.8-ABS(J64)</f>
-        <v>39</v>
-      </c>
-      <c r="M64" s="36">
-        <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
-        <v>2.5994135487849387E-2</v>
-      </c>
-      <c r="N64" s="28"/>
-    </row>
-    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="10">
-        <v>64</v>
-      </c>
-      <c r="B65" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C65" s="10">
-        <v>150</v>
-      </c>
-      <c r="D65" s="10">
-        <f>D64</f>
-        <v>-8000</v>
-      </c>
-      <c r="E65" s="10">
-        <v>0</v>
-      </c>
-      <c r="F65" s="15"/>
-      <c r="G65" s="39">
-        <v>200</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I65" s="10">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="J65" s="10">
-        <f>J64</f>
-        <v>-20</v>
-      </c>
-      <c r="K65" s="10">
-        <v>0</v>
-      </c>
-      <c r="L65" s="34"/>
-      <c r="M65" s="34"/>
-      <c r="N65" s="28"/>
-    </row>
-    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>65</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="39">
-        <v>200</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I66" s="3">
-        <f t="shared" si="3"/>
-        <v>2000</v>
-      </c>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="29" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>66</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67" s="3">
-        <v>100</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="3">
-        <f>D68</f>
-        <v>-6000</v>
-      </c>
-      <c r="F67" s="15"/>
-      <c r="G67" s="39">
-        <v>200</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I67" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J67" s="3">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3">
-        <f>J68</f>
-        <v>-50</v>
-      </c>
-      <c r="L67" s="34"/>
-      <c r="M67" s="34"/>
-      <c r="N67" s="29"/>
-    </row>
-    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>67</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C68" s="3">
-        <v>900</v>
-      </c>
-      <c r="D68" s="3">
-        <v>-6000</v>
-      </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="39">
-        <v>200</v>
-      </c>
-      <c r="H68" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I68" s="3">
-        <f t="shared" si="3"/>
-        <v>900</v>
-      </c>
-      <c r="J68" s="3">
-        <v>-50</v>
-      </c>
-      <c r="K68" s="15"/>
-      <c r="L68" s="35">
-        <f>G68*G68/ABS(D68)*11.8-ABS(J68)</f>
-        <v>28.666666666666671</v>
-      </c>
-      <c r="M68" s="35">
-        <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
-        <v>1.9103291761576963E-2</v>
-      </c>
-      <c r="N68" s="29"/>
-    </row>
-    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>68</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C69" s="3">
-        <f>C67</f>
-        <v>100</v>
-      </c>
-      <c r="D69" s="3">
-        <f>D68</f>
-        <v>-6000</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0</v>
-      </c>
-      <c r="F69" s="15"/>
-      <c r="G69" s="39">
-        <v>200</v>
-      </c>
-      <c r="H69" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I69" s="3">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="J69" s="3">
-        <f>J68</f>
-        <v>-50</v>
-      </c>
-      <c r="K69" s="3">
-        <v>0</v>
-      </c>
-      <c r="L69" s="34"/>
-      <c r="M69" s="34"/>
-      <c r="N69" s="29"/>
-    </row>
-    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="10">
-        <v>69</v>
-      </c>
-      <c r="B70" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70" s="10">
-        <v>300</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="39">
-        <v>200</v>
-      </c>
-      <c r="H70" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I70" s="10">
-        <f t="shared" si="3"/>
-        <v>300</v>
-      </c>
-      <c r="J70" s="15"/>
-      <c r="K70" s="15"/>
-      <c r="L70" s="34"/>
-      <c r="M70" s="34"/>
-      <c r="N70" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="10">
-        <v>70</v>
-      </c>
-      <c r="B71" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C71" s="10">
-        <v>120</v>
-      </c>
-      <c r="D71" s="10">
-        <v>0</v>
-      </c>
-      <c r="E71" s="10">
-        <f>D72</f>
-        <v>-10000</v>
-      </c>
-      <c r="F71" s="15"/>
-      <c r="G71" s="39">
-        <v>200</v>
-      </c>
-      <c r="H71" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I71" s="10">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="J71" s="10">
-        <v>0</v>
-      </c>
-      <c r="K71" s="10">
-        <f>J72</f>
-        <v>-30</v>
-      </c>
-      <c r="L71" s="32"/>
-      <c r="M71" s="32"/>
-      <c r="N71" s="28"/>
-    </row>
-    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="10">
-        <v>71</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C72" s="10">
-        <v>800</v>
-      </c>
-      <c r="D72" s="10">
-        <v>-10000</v>
-      </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="39">
-        <v>200</v>
-      </c>
-      <c r="H72" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I72" s="10">
-        <f t="shared" si="3"/>
-        <v>800</v>
-      </c>
-      <c r="J72" s="10">
-        <v>-30</v>
-      </c>
-      <c r="K72" s="15"/>
-      <c r="L72" s="33">
-        <f>G72*G72/ABS(D72)*11.8-ABS(J72)</f>
-        <v>17.200000000000003</v>
-      </c>
-      <c r="M72" s="33">
-        <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
-        <v>1.1461975056946173E-2</v>
-      </c>
-      <c r="N72" s="28"/>
-    </row>
-    <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="10">
-        <v>72</v>
-      </c>
-      <c r="B73" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C73" s="10">
-        <f>C71</f>
-        <v>120</v>
-      </c>
-      <c r="D73" s="10">
-        <f>D72</f>
-        <v>-10000</v>
-      </c>
-      <c r="E73" s="10">
-        <v>0</v>
-      </c>
-      <c r="F73" s="15"/>
-      <c r="G73" s="39">
-        <v>200</v>
-      </c>
-      <c r="H73" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I73" s="10">
-        <f t="shared" si="3"/>
-        <v>120</v>
-      </c>
-      <c r="J73" s="10">
-        <f>J72</f>
-        <v>-30</v>
-      </c>
-      <c r="K73" s="10">
-        <v>0</v>
-      </c>
-      <c r="L73" s="32"/>
-      <c r="M73" s="32"/>
-      <c r="N73" s="28"/>
-    </row>
-    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
-        <v>73</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74" s="3">
-        <v>500</v>
-      </c>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="39">
-        <v>200</v>
-      </c>
-      <c r="H74" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I74" s="3">
-        <f t="shared" ref="I74:I85" si="4">C74</f>
-        <v>500</v>
-      </c>
-      <c r="J74" s="15"/>
-      <c r="K74" s="15"/>
-      <c r="L74" s="32"/>
-      <c r="M74" s="32"/>
-      <c r="N74" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
-        <v>74</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" s="3">
-        <v>80</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3">
-        <f>D76</f>
-        <v>2600</v>
-      </c>
-      <c r="F75" s="15"/>
-      <c r="G75" s="39">
-        <v>200</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I75" s="3">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="J75" s="3">
-        <v>0</v>
-      </c>
-      <c r="K75" s="3">
-        <f>J76</f>
-        <v>115</v>
-      </c>
-      <c r="L75" s="32"/>
-      <c r="M75" s="32"/>
-      <c r="N75" s="29"/>
-    </row>
-    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="3">
-        <v>75</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="3">
-        <v>1200</v>
-      </c>
-      <c r="D76" s="3">
-        <v>2600</v>
-      </c>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="39">
-        <v>200</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I76" s="3">
-        <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="J76" s="3">
-        <v>115</v>
-      </c>
-      <c r="K76" s="15"/>
-      <c r="L76" s="35">
-        <f>G76*G76/ABS(D76)*11.8-ABS(J76)</f>
-        <v>66.538461538461547</v>
-      </c>
-      <c r="M76" s="35">
-        <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
-        <v>4.434092970620325E-2</v>
-      </c>
-      <c r="N76" s="29"/>
-    </row>
-    <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="3">
-        <v>76</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C77" s="3">
-        <f>C75</f>
-        <v>80</v>
-      </c>
-      <c r="D77" s="3">
-        <f>D76</f>
-        <v>2600</v>
-      </c>
-      <c r="E77" s="3">
-        <v>0</v>
-      </c>
-      <c r="F77" s="15"/>
-      <c r="G77" s="39">
-        <v>200</v>
-      </c>
-      <c r="H77" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I77" s="3">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="J77" s="3">
-        <f>J76</f>
-        <v>115</v>
-      </c>
-      <c r="K77" s="3">
-        <v>0</v>
-      </c>
-      <c r="L77" s="34"/>
-      <c r="M77" s="34"/>
-      <c r="N77" s="29"/>
-    </row>
-    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="10">
-        <v>77</v>
-      </c>
-      <c r="B78" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78" s="10">
-        <v>50</v>
-      </c>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="39">
-        <v>200</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I78" s="10">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="J78" s="15"/>
-      <c r="K78" s="15"/>
-      <c r="L78" s="34"/>
-      <c r="M78" s="34"/>
-      <c r="N78" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="10">
-        <v>78</v>
-      </c>
-      <c r="B79" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C79" s="10">
-        <v>80</v>
-      </c>
-      <c r="D79" s="10">
-        <v>0</v>
-      </c>
-      <c r="E79" s="10">
-        <f>D80</f>
-        <v>2500</v>
-      </c>
-      <c r="F79" s="15"/>
-      <c r="G79" s="39">
-        <v>200</v>
-      </c>
-      <c r="H79" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I79" s="10">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="J79" s="10">
-        <v>0</v>
-      </c>
-      <c r="K79" s="10">
-        <f>J80</f>
-        <v>120</v>
-      </c>
-      <c r="L79" s="34"/>
-      <c r="M79" s="34"/>
-      <c r="N79" s="28"/>
-    </row>
-    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="10">
-        <v>79</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80" s="10">
-        <v>400</v>
-      </c>
-      <c r="D80" s="10">
-        <v>2500</v>
-      </c>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="39">
-        <v>200</v>
-      </c>
-      <c r="H80" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" s="10">
-        <f t="shared" si="4"/>
-        <v>400</v>
-      </c>
-      <c r="J80" s="10">
-        <v>120</v>
-      </c>
-      <c r="K80" s="15"/>
-      <c r="L80" s="36">
-        <f>G80*G80/ABS(D80)*11.8-ABS(J80)</f>
-        <v>68.800000000000011</v>
-      </c>
-      <c r="M80" s="36">
-        <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
-        <v>4.5847900227784691E-2</v>
-      </c>
-      <c r="N80" s="28"/>
-    </row>
-    <row r="81" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="10">
-        <v>80</v>
-      </c>
-      <c r="B81" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" s="10">
-        <f>C79</f>
-        <v>80</v>
-      </c>
-      <c r="D81" s="10">
-        <f>D80</f>
-        <v>2500</v>
-      </c>
-      <c r="E81" s="10">
-        <v>0</v>
-      </c>
-      <c r="F81" s="15"/>
-      <c r="G81" s="39">
-        <v>200</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I81" s="10">
-        <f t="shared" si="4"/>
-        <v>80</v>
-      </c>
-      <c r="J81" s="10">
-        <f>J80</f>
-        <v>120</v>
-      </c>
-      <c r="K81" s="10">
-        <v>0</v>
-      </c>
-      <c r="L81" s="34"/>
-      <c r="M81" s="34"/>
-      <c r="N81" s="28"/>
-    </row>
-    <row r="82" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>81</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C82" s="3">
-        <v>2000</v>
-      </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="39">
-        <v>200</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I82" s="3">
-        <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-      <c r="J82" s="15"/>
-      <c r="K82" s="15"/>
-      <c r="L82" s="34"/>
-      <c r="M82" s="34"/>
-      <c r="N82" s="29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
-        <v>82</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C83" s="3">
-        <v>50</v>
-      </c>
-      <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <f>D84</f>
-        <v>50000</v>
-      </c>
-      <c r="F83" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="39">
-        <v>200</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I83" s="3">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <f>J84</f>
-        <v>0</v>
-      </c>
-      <c r="L83" s="34"/>
-      <c r="M83" s="34"/>
-      <c r="N83" s="29"/>
-    </row>
-    <row r="84" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>83</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C84" s="3">
-        <v>50</v>
-      </c>
-      <c r="D84" s="3">
-        <v>50000</v>
-      </c>
-      <c r="E84" s="15"/>
-      <c r="F84" s="29"/>
-      <c r="G84" s="39">
-        <v>200</v>
-      </c>
-      <c r="H84" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I84" s="3">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="J84" s="3">
-        <v>0</v>
-      </c>
-      <c r="K84" s="15"/>
-      <c r="L84" s="35">
-        <f>G84*G84/ABS(D84)*11.8-ABS(J84)</f>
-        <v>9.4400000000000013</v>
-      </c>
-      <c r="M84" s="35">
-        <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
-        <v>6.2923950113892351E-3</v>
-      </c>
-      <c r="N84" s="29"/>
-    </row>
-    <row r="85" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
-        <v>84</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" s="3">
-        <f>C83</f>
-        <v>50</v>
-      </c>
-      <c r="D85" s="3">
-        <f>D84</f>
-        <v>50000</v>
-      </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="29"/>
-      <c r="G85" s="39">
-        <v>200</v>
-      </c>
-      <c r="H85" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I85" s="3">
-        <f t="shared" si="4"/>
-        <v>50</v>
-      </c>
-      <c r="J85" s="3">
-        <f>J84</f>
-        <v>0</v>
-      </c>
-      <c r="K85" s="3">
-        <v>0</v>
-      </c>
-      <c r="L85" s="34"/>
-      <c r="M85" s="34"/>
-      <c r="N85" s="29"/>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G86" s="1"/>
-      <c r="H86" s="1"/>
-      <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-      <c r="K86" s="1"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="1"/>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G87" s="1"/>
-      <c r="H87" s="1"/>
-      <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-      <c r="K87" s="1"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="1"/>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G88" s="1"/>
-      <c r="H88" s="1"/>
-      <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-      <c r="K88" s="1"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="1"/>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G89" s="1"/>
-      <c r="H89" s="1"/>
-      <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-      <c r="K89" s="1"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="1"/>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G90" s="1"/>
-      <c r="H90" s="1"/>
-      <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-      <c r="K90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G91" s="1"/>
-      <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-      <c r="K91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G92" s="1"/>
-      <c r="H92" s="1"/>
-      <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-      <c r="K92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G93" s="1"/>
-      <c r="H93" s="1"/>
-      <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-      <c r="K93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
-      <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-      <c r="K94" s="1"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="1"/>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
-      <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-      <c r="K95" s="1"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="1"/>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
-      <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-      <c r="K96" s="1"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="1"/>
-    </row>
-    <row r="97" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
-      <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-      <c r="K97" s="1"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="1"/>
-    </row>
-    <row r="98" spans="7:15" x14ac:dyDescent="0.3">
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
-      <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-      <c r="K98" s="1"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="1"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:N85" xr:uid="{CF6356CB-F0F5-4EF9-8834-D5D350C95BD2}"/>
-  <mergeCells count="22">
+    <mergeCell ref="N22:N25"/>
     <mergeCell ref="N2:N5"/>
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="N10:N13"/>
     <mergeCell ref="N14:N17"/>
     <mergeCell ref="N18:N21"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="N82:N85"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/跨线运行SPCK曲线定义组.xlsx
+++ b/docs/跨线运行SPCK曲线定义组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchDocuments\ROS2WithSPCK\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ABCF22-83B1-4E20-84D2-375F80D1F040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B387FF9-F750-4809-BA82-97013FFDEE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="3120" windowWidth="16440" windowHeight="28440" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
+    <workbookView xWindow="28830" yWindow="75" windowWidth="28695" windowHeight="31650" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
   </bookViews>
   <sheets>
     <sheet name="自定义线路" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="60">
   <si>
     <t>线路分段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -180,11 +180,93 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>长度总计m</t>
+    <t>里程计数m</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>里程计数m</t>
+    <t>虹桥火车站地下约40m</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高架桥面高度约15米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>联络线最大坡度宜用40‰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备竖曲线上高架 ↗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖曲线到达地面 ↗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高起始点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PL2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖曲线分段</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖曲线类型</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-20 段</t>
+  </si>
+  <si>
+    <t>21 段开始上坡</t>
+  </si>
+  <si>
+    <t>21 段收尾</t>
+  </si>
+  <si>
+    <t>22-32 段</t>
+  </si>
+  <si>
+    <t>33 段开始上坡</t>
+  </si>
+  <si>
+    <t>33 段收尾</t>
+  </si>
+  <si>
+    <t>34-80 段</t>
+  </si>
+  <si>
+    <t>81 段开始下坡</t>
+  </si>
+  <si>
+    <t>81 段收尾</t>
+  </si>
+  <si>
+    <t>82-84 段</t>
+  </si>
+  <si>
+    <t>Z_Par1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_Par2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z_Par3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>超高段备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -192,8 +274,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -264,7 +348,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -325,8 +409,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -349,13 +439,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -467,15 +570,6 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -486,6 +580,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,30 +949,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6356CB-F0F5-4EF9-8834-D5D350C95BD2}">
-  <dimension ref="A1:Q200"/>
+  <dimension ref="A1:V199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="1" customWidth="1"/>
-    <col min="4" max="5" width="8.58203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="8.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="22.125" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="11.4140625" style="14" customWidth="1"/>
-    <col min="11" max="11" width="9.9140625" style="14" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="5" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="14" customWidth="1"/>
+    <col min="11" max="11" width="9.875" style="14" customWidth="1"/>
     <col min="12" max="12" width="10.25" style="35" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" style="35" customWidth="1"/>
-    <col min="14" max="14" width="10.08203125" style="5" customWidth="1"/>
-    <col min="15" max="15" width="18.6640625" style="5" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" style="5"/>
+    <col min="13" max="13" width="15.375" style="35" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="5" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="5" customWidth="1"/>
+    <col min="16" max="16" width="15.25" style="5" customWidth="1"/>
+    <col min="17" max="17" width="9.25" style="5" customWidth="1"/>
+    <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.125" style="46" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -888,11 +1020,32 @@
       <c r="N1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -918,17 +1071,37 @@
       <c r="J2" s="12">
         <v>0</v>
       </c>
-      <c r="K2" s="40"/>
+      <c r="K2" s="37"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="41" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="9">
         <v>300</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="6">
+        <f>C2</f>
+        <v>300</v>
+      </c>
+      <c r="Q2" s="50">
+        <v>1</v>
+      </c>
+      <c r="R2" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" s="48">
+        <v>4086.364</v>
+      </c>
+      <c r="T2" s="49">
+        <v>0</v>
+      </c>
+      <c r="U2" s="49"/>
+      <c r="V2" s="44" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -968,13 +1141,33 @@
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-      <c r="N3" s="38"/>
+      <c r="N3" s="41"/>
       <c r="O3" s="9">
         <f>O2+C3</f>
         <v>327.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="6">
+        <f>P2+C3</f>
+        <v>327.5</v>
+      </c>
+      <c r="Q3" s="50">
+        <v>2</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S3" s="48">
+        <v>5</v>
+      </c>
+      <c r="T3" s="49">
+        <v>0</v>
+      </c>
+      <c r="U3" s="49"/>
+      <c r="V3" s="44" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1004,7 +1197,7 @@
       <c r="J4" s="22">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="K4" s="41"/>
+      <c r="K4" s="38"/>
       <c r="L4" s="18">
         <f>G4*G4/ABS(D4)*11.8-ABS(J4)</f>
         <v>50.292666666666669</v>
@@ -1013,13 +1206,34 @@
         <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
         <v>3.3523440060742586E-2</v>
       </c>
-      <c r="N4" s="38"/>
+      <c r="N4" s="41"/>
       <c r="O4" s="9">
         <f>O3+C4</f>
         <v>466.39300000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="6">
+        <f>P3+C4</f>
+        <v>466.39300000000003</v>
+      </c>
+      <c r="Q4" s="50">
+        <v>3</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="48">
+        <v>20</v>
+      </c>
+      <c r="T4" s="49">
+        <v>0</v>
+      </c>
+      <c r="U4" s="49">
+        <f>T5</f>
+        <v>0.05</v>
+      </c>
+      <c r="V4" s="44"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1056,13 +1270,32 @@
       </c>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
-      <c r="N5" s="38"/>
+      <c r="N5" s="41"/>
       <c r="O5" s="9">
         <f t="shared" ref="O5:O68" si="1">O4+C5</f>
         <v>493.89300000000003</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="6">
+        <f t="shared" ref="P5:P21" si="2">P4+C5</f>
+        <v>493.89300000000003</v>
+      </c>
+      <c r="Q5" s="50">
+        <v>4</v>
+      </c>
+      <c r="R5" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S5" s="48">
+        <v>150</v>
+      </c>
+      <c r="T5" s="49">
+        <f>50/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="U5" s="49"/>
+      <c r="V5" s="44"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1085,21 +1318,42 @@
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J6" s="42">
-        <v>0</v>
-      </c>
-      <c r="K6" s="41"/>
+      <c r="J6" s="39">
+        <v>0</v>
+      </c>
+      <c r="K6" s="38"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="42" t="s">
         <v>29</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="1"/>
         <v>743.89300000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="6">
+        <f t="shared" si="2"/>
+        <v>743.89300000000003</v>
+      </c>
+      <c r="Q6" s="50">
+        <v>5</v>
+      </c>
+      <c r="R6" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="48">
+        <v>20</v>
+      </c>
+      <c r="T6" s="49">
+        <f>T5</f>
+        <v>0.05</v>
+      </c>
+      <c r="U6" s="49">
+        <v>0</v>
+      </c>
+      <c r="V6" s="44"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -1128,22 +1382,42 @@
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="J7" s="42">
-        <v>0</v>
-      </c>
-      <c r="K7" s="42">
+      <c r="J7" s="39">
+        <v>0</v>
+      </c>
+      <c r="K7" s="39">
         <f>J8</f>
         <v>0.12</v>
       </c>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
-      <c r="N7" s="37"/>
+      <c r="N7" s="42"/>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
         <v>786.39300000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="6">
+        <f t="shared" si="2"/>
+        <v>786.39300000000003</v>
+      </c>
+      <c r="Q7" s="50">
+        <v>6</v>
+      </c>
+      <c r="R7" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S7" s="48">
+        <v>5</v>
+      </c>
+      <c r="T7" s="49">
+        <v>0</v>
+      </c>
+      <c r="U7" s="49"/>
+      <c r="V7" s="44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -1170,10 +1444,10 @@
         <f t="shared" si="0"/>
         <v>565.17399999999998</v>
       </c>
-      <c r="J8" s="42">
+      <c r="J8" s="39">
         <v>0.12</v>
       </c>
-      <c r="K8" s="41"/>
+      <c r="K8" s="38"/>
       <c r="L8" s="33">
         <f>G8*G8/ABS(D8)*11.8-ABS(J8)</f>
         <v>116.06461538461539</v>
@@ -1182,13 +1456,33 @@
         <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
         <v>7.7364861678636737E-2</v>
       </c>
-      <c r="N8" s="37"/>
+      <c r="N8" s="42"/>
       <c r="O8" s="9">
         <f t="shared" si="1"/>
         <v>1351.567</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="6">
+        <f t="shared" si="2"/>
+        <v>1351.567</v>
+      </c>
+      <c r="Q8" s="50">
+        <v>7</v>
+      </c>
+      <c r="R8" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S8" s="48">
+        <v>2380</v>
+      </c>
+      <c r="T8" s="49">
+        <v>0</v>
+      </c>
+      <c r="U8" s="49"/>
+      <c r="V8" s="44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1217,21 +1511,41 @@
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="J9" s="42">
+      <c r="J9" s="39">
         <v>0.12</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="39">
         <v>0</v>
       </c>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
-      <c r="N9" s="37"/>
+      <c r="N9" s="42"/>
       <c r="O9" s="9">
         <f t="shared" si="1"/>
         <v>1394.067</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="6">
+        <f t="shared" si="2"/>
+        <v>1394.067</v>
+      </c>
+      <c r="Q9" s="50">
+        <v>8</v>
+      </c>
+      <c r="R9" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S9" s="48">
+        <v>50</v>
+      </c>
+      <c r="T9" s="49">
+        <v>0</v>
+      </c>
+      <c r="U9" s="49"/>
+      <c r="V9" s="44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1251,24 +1565,45 @@
         <v>21</v>
       </c>
       <c r="I10" s="19">
-        <f t="shared" ref="I10:I73" si="2">C10</f>
+        <f t="shared" ref="I10:I73" si="3">C10</f>
         <v>50</v>
       </c>
       <c r="J10" s="12">
         <v>0</v>
       </c>
-      <c r="K10" s="41"/>
+      <c r="K10" s="38"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="41" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="1"/>
         <v>1444.067</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="6">
+        <f t="shared" si="2"/>
+        <v>1444.067</v>
+      </c>
+      <c r="Q10" s="50">
+        <v>9</v>
+      </c>
+      <c r="R10" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="48">
+        <v>50</v>
+      </c>
+      <c r="T10" s="49">
+        <v>0</v>
+      </c>
+      <c r="U10" s="49">
+        <f>T11</f>
+        <v>0.03</v>
+      </c>
+      <c r="V10" s="44"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1294,7 +1629,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="J11" s="22">
@@ -1306,13 +1641,32 @@
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="38"/>
+      <c r="N11" s="41"/>
       <c r="O11" s="9">
         <f t="shared" si="1"/>
         <v>1481.567</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="6">
+        <f t="shared" si="2"/>
+        <v>1481.567</v>
+      </c>
+      <c r="Q11" s="50">
+        <v>10</v>
+      </c>
+      <c r="R11" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S11" s="48">
+        <v>650</v>
+      </c>
+      <c r="T11" s="49">
+        <f>30/1000</f>
+        <v>0.03</v>
+      </c>
+      <c r="U11" s="49"/>
+      <c r="V11" s="44"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1336,13 +1690,13 @@
         <v>21</v>
       </c>
       <c r="I12" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>257.29700000000003</v>
       </c>
       <c r="J12" s="22">
         <v>-0.12</v>
       </c>
-      <c r="K12" s="41"/>
+      <c r="K12" s="38"/>
       <c r="L12" s="32">
         <f>G12*G12/ABS(D12)*11.8-ABS(J12)</f>
         <v>137.18909090909091</v>
@@ -1351,13 +1705,34 @@
         <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
         <v>9.1445745620207047E-2</v>
       </c>
-      <c r="N12" s="38"/>
+      <c r="N12" s="41"/>
       <c r="O12" s="9">
         <f t="shared" si="1"/>
         <v>1738.864</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="6">
+        <f t="shared" si="2"/>
+        <v>1738.864</v>
+      </c>
+      <c r="Q12" s="50">
+        <v>11</v>
+      </c>
+      <c r="R12" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="S12" s="48">
+        <v>50</v>
+      </c>
+      <c r="T12" s="49">
+        <f>T11</f>
+        <v>0.03</v>
+      </c>
+      <c r="U12" s="49">
+        <v>0</v>
+      </c>
+      <c r="V12" s="44"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1383,7 +1758,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>37.5</v>
       </c>
       <c r="J13" s="22">
@@ -1394,13 +1769,33 @@
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="38"/>
+      <c r="N13" s="41"/>
       <c r="O13" s="9">
         <f t="shared" si="1"/>
         <v>1776.364</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="6">
+        <f t="shared" si="2"/>
+        <v>1776.364</v>
+      </c>
+      <c r="Q13" s="50">
+        <v>12</v>
+      </c>
+      <c r="R13" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S13" s="48">
+        <v>1200</v>
+      </c>
+      <c r="T13" s="49">
+        <v>0</v>
+      </c>
+      <c r="U13" s="49"/>
+      <c r="V13" s="44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -1422,7 +1817,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>950</v>
       </c>
       <c r="J14" s="13">
@@ -1431,15 +1826,35 @@
       <c r="K14" s="16"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="42" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="1"/>
         <v>2726.364</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="6">
+        <f t="shared" si="2"/>
+        <v>2726.364</v>
+      </c>
+      <c r="Q14" s="50">
+        <v>13</v>
+      </c>
+      <c r="R14" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S14" s="48">
+        <v>23230</v>
+      </c>
+      <c r="T14" s="49">
+        <v>0</v>
+      </c>
+      <c r="U14" s="49"/>
+      <c r="V14" s="44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -1456,7 +1871,9 @@
         <f>D16</f>
         <v>450</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="G15" s="9">
         <v>80</v>
       </c>
@@ -1464,7 +1881,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J15" s="13">
@@ -1476,13 +1893,33 @@
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
-      <c r="N15" s="37"/>
+      <c r="N15" s="42"/>
       <c r="O15" s="9">
         <f t="shared" si="1"/>
         <v>2806.364</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="6">
+        <f t="shared" si="2"/>
+        <v>2806.364</v>
+      </c>
+      <c r="Q15" s="50">
+        <v>14</v>
+      </c>
+      <c r="R15" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S15" s="48">
+        <v>50</v>
+      </c>
+      <c r="T15" s="49">
+        <v>0</v>
+      </c>
+      <c r="U15" s="49"/>
+      <c r="V15" s="44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -1506,7 +1943,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="J16" s="13">
@@ -1521,13 +1958,34 @@
         <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
         <v>0.11179813353580861</v>
       </c>
-      <c r="N16" s="37"/>
+      <c r="N16" s="42"/>
       <c r="O16" s="9">
         <f t="shared" si="1"/>
         <v>3606.364</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P16" s="6">
+        <f t="shared" si="2"/>
+        <v>3606.364</v>
+      </c>
+      <c r="Q16" s="50">
+        <v>15</v>
+      </c>
+      <c r="R16" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="S16" s="48">
+        <v>50</v>
+      </c>
+      <c r="T16" s="49">
+        <v>0</v>
+      </c>
+      <c r="U16" s="49">
+        <f>T17</f>
+        <v>-0.03</v>
+      </c>
+      <c r="V16" s="44"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -1553,7 +2011,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J17" s="13">
@@ -1564,13 +2022,32 @@
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
-      <c r="N17" s="37"/>
+      <c r="N17" s="42"/>
       <c r="O17" s="9">
         <f t="shared" si="1"/>
         <v>3686.364</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P17" s="6">
+        <f t="shared" si="2"/>
+        <v>3686.364</v>
+      </c>
+      <c r="Q17" s="50">
+        <v>16</v>
+      </c>
+      <c r="R17" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S17" s="48">
+        <v>650</v>
+      </c>
+      <c r="T17" s="49">
+        <f>-30/1000</f>
+        <v>-0.03</v>
+      </c>
+      <c r="U17" s="49"/>
+      <c r="V17" s="44"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -1592,7 +2069,7 @@
         <v>21</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J18" s="12">
@@ -1601,15 +2078,36 @@
       <c r="K18" s="16"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="41" t="s">
         <v>27</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="1"/>
         <v>3736.364</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P18" s="6">
+        <f t="shared" si="2"/>
+        <v>3736.364</v>
+      </c>
+      <c r="Q18" s="50">
+        <v>17</v>
+      </c>
+      <c r="R18" s="44" t="s">
+        <v>42</v>
+      </c>
+      <c r="S18" s="48">
+        <v>50</v>
+      </c>
+      <c r="T18" s="49">
+        <f>T17</f>
+        <v>-0.03</v>
+      </c>
+      <c r="U18" s="49">
+        <v>0</v>
+      </c>
+      <c r="V18" s="44"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -1634,7 +2132,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J19" s="12">
@@ -1646,13 +2144,33 @@
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="38"/>
+      <c r="N19" s="41"/>
       <c r="O19" s="9">
         <f t="shared" si="1"/>
         <v>3836.364</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P19" s="6">
+        <f t="shared" si="2"/>
+        <v>3836.364</v>
+      </c>
+      <c r="Q19" s="50">
+        <v>18</v>
+      </c>
+      <c r="R19" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S19" s="48">
+        <v>1200</v>
+      </c>
+      <c r="T19" s="49">
+        <v>0</v>
+      </c>
+      <c r="U19" s="49"/>
+      <c r="V19" s="44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -1674,7 +2192,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="J20" s="12">
@@ -1689,13 +2207,33 @@
         <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
         <v>8.3851933485189795E-2</v>
       </c>
-      <c r="N20" s="38"/>
+      <c r="N20" s="41"/>
       <c r="O20" s="9">
         <f t="shared" si="1"/>
         <v>3986.364</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P20" s="6">
+        <f t="shared" si="2"/>
+        <v>3986.364</v>
+      </c>
+      <c r="Q20" s="50">
+        <v>19</v>
+      </c>
+      <c r="R20" s="44" t="s">
+        <v>43</v>
+      </c>
+      <c r="S20" s="48">
+        <v>150</v>
+      </c>
+      <c r="T20" s="49">
+        <v>0</v>
+      </c>
+      <c r="U20" s="49"/>
+      <c r="V20" s="44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -1720,7 +2258,7 @@
         <v>22</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J21" s="12">
@@ -1731,25 +2269,37 @@
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="38"/>
+      <c r="N21" s="41"/>
       <c r="O21" s="9">
         <f t="shared" si="1"/>
         <v>4086.364</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P21" s="51">
+        <f t="shared" si="2"/>
+        <v>4086.364</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="45"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="25">
         <v>200</v>
       </c>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="G22" s="7">
         <v>100</v>
       </c>
@@ -1757,7 +2307,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="J22" s="13">
@@ -1766,15 +2316,22 @@
       <c r="K22" s="16"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="42" t="s">
         <v>29</v>
       </c>
       <c r="O22" s="9">
         <f t="shared" si="1"/>
         <v>4286.3639999999996</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P22" s="6"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="45"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -1791,7 +2348,6 @@
         <f>D24</f>
         <v>2000</v>
       </c>
-      <c r="F23" s="15"/>
       <c r="G23" s="7">
         <v>100</v>
       </c>
@@ -1799,7 +2355,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="J23" s="13">
@@ -1811,13 +2367,17 @@
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
-      <c r="N23" s="37"/>
+      <c r="N23" s="42"/>
       <c r="O23" s="9">
         <f t="shared" si="1"/>
         <v>4436.3639999999996</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P23" s="6">
+        <f>C23</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -1839,7 +2399,7 @@
         <v>21</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="J24" s="13">
@@ -1854,13 +2414,17 @@
         <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
         <v>3.9307468821182724E-2</v>
       </c>
-      <c r="N24" s="37"/>
+      <c r="N24" s="42"/>
       <c r="O24" s="9">
         <f t="shared" si="1"/>
         <v>5036.3639999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P24" s="6">
+        <f>P23+C24</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -1886,7 +2450,7 @@
         <v>22</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="J25" s="13">
@@ -1897,13 +2461,17 @@
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
-      <c r="N25" s="37"/>
+      <c r="N25" s="42"/>
       <c r="O25" s="9">
         <f t="shared" si="1"/>
         <v>5186.3639999999996</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P25" s="6">
+        <f>P24+C25</f>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -1923,7 +2491,7 @@
         <v>21</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J26" s="12">
@@ -1932,15 +2500,19 @@
       <c r="K26" s="16"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="38" t="s">
+      <c r="N26" s="41" t="s">
         <v>27</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="1"/>
         <v>5236.3639999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P26" s="6">
+        <f>P25+C26</f>
+        <v>950</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -1957,7 +2529,9 @@
         <f>D28</f>
         <v>-1600</v>
       </c>
-      <c r="F27" s="15"/>
+      <c r="F27" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="G27" s="7">
         <v>160</v>
       </c>
@@ -1965,7 +2539,7 @@
         <v>22</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J27" s="12">
@@ -1977,13 +2551,17 @@
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
-      <c r="N27" s="38"/>
+      <c r="N27" s="41"/>
       <c r="O27" s="9">
         <f t="shared" si="1"/>
         <v>5286.3639999999996</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P27" s="6">
+        <f t="shared" ref="P27:P33" si="4">P26+C27</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -2007,7 +2585,7 @@
         <v>21</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>500</v>
       </c>
       <c r="J28" s="12">
@@ -2022,15 +2600,19 @@
         <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N28" s="38"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="9">
         <f t="shared" si="1"/>
         <v>5786.3639999999996</v>
       </c>
-      <c r="P28" s="5"/>
+      <c r="P28" s="6">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
       <c r="Q28" s="23"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T28" s="47"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -2056,7 +2638,7 @@
         <v>22</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J29" s="12">
@@ -2067,13 +2649,17 @@
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
-      <c r="N29" s="38"/>
+      <c r="N29" s="41"/>
       <c r="O29" s="9">
         <f t="shared" si="1"/>
         <v>5836.3639999999996</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P29" s="6">
+        <f t="shared" si="4"/>
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2093,7 +2679,7 @@
         <v>21</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J30" s="13">
@@ -2102,15 +2688,19 @@
       <c r="K30" s="16"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="37" t="s">
+      <c r="N30" s="42" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="1"/>
         <v>5916.3639999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P30" s="6">
+        <f t="shared" si="4"/>
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2135,7 +2725,7 @@
         <v>22</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J31" s="13">
@@ -2147,13 +2737,17 @@
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="37"/>
+      <c r="N31" s="42"/>
       <c r="O31" s="9">
         <f t="shared" si="1"/>
         <v>5966.3639999999996</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P31" s="6">
+        <f t="shared" si="4"/>
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2177,13 +2771,13 @@
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>650</v>
       </c>
       <c r="J32" s="13">
         <v>-0.12</v>
       </c>
-      <c r="K32" s="41"/>
+      <c r="K32" s="38"/>
       <c r="L32" s="34">
         <f>G32*G32/ABS(D32)*11.8-ABS(J32)</f>
         <v>188.68</v>
@@ -2192,15 +2786,19 @@
         <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N32" s="37"/>
+      <c r="N32" s="42"/>
       <c r="O32" s="9">
         <f t="shared" si="1"/>
         <v>6616.3639999999996</v>
       </c>
-      <c r="P32" s="5"/>
+      <c r="P32" s="6">
+        <f t="shared" si="4"/>
+        <v>2330</v>
+      </c>
       <c r="Q32" s="23"/>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="T32" s="47"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2217,7 +2815,9 @@
       <c r="E33" s="4">
         <v>0</v>
       </c>
-      <c r="F33" s="15"/>
+      <c r="F33" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="G33" s="7">
         <v>160</v>
       </c>
@@ -2225,7 +2825,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J33" s="13">
@@ -2236,20 +2836,24 @@
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
-      <c r="N33" s="37"/>
+      <c r="N33" s="42"/>
       <c r="O33" s="9">
         <f t="shared" si="1"/>
         <v>6666.3639999999996</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P33" s="51">
+        <f t="shared" si="4"/>
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="19">
         <v>2000</v>
       </c>
       <c r="D34" s="15"/>
@@ -2264,7 +2868,7 @@
         <v>21</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="J34" s="12">
@@ -2273,15 +2877,17 @@
       <c r="K34" s="16"/>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
-      <c r="N34" s="38" t="s">
+      <c r="N34" s="41" t="s">
         <v>29</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="1"/>
         <v>8666.3639999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P34" s="6"/>
+      <c r="T34" s="45"/>
+    </row>
+    <row r="35" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -2306,7 +2912,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J35" s="12">
@@ -2318,13 +2924,18 @@
       </c>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
-      <c r="N35" s="37"/>
+      <c r="N35" s="42"/>
       <c r="O35" s="9">
         <f t="shared" si="1"/>
         <v>8766.3639999999996</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P35" s="6">
+        <f>C35</f>
+        <v>100</v>
+      </c>
+      <c r="T35" s="45"/>
+    </row>
+    <row r="36" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -2346,7 +2957,7 @@
         <v>21</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>360</v>
       </c>
       <c r="J36" s="12">
@@ -2361,13 +2972,18 @@
         <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
         <v>8.489399932042134E-2</v>
       </c>
-      <c r="N36" s="37"/>
+      <c r="N36" s="42"/>
       <c r="O36" s="9">
         <f t="shared" si="1"/>
         <v>9126.3639999999996</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P36" s="6">
+        <f>P35+C36</f>
+        <v>460</v>
+      </c>
+      <c r="T36" s="45"/>
+    </row>
+    <row r="37" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -2393,7 +3009,7 @@
         <v>22</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J37" s="12">
@@ -2404,13 +3020,18 @@
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
-      <c r="N37" s="37"/>
+      <c r="N37" s="42"/>
       <c r="O37" s="9">
         <f t="shared" si="1"/>
         <v>9226.3639999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P37" s="6">
+        <f>P36+C37</f>
+        <v>560</v>
+      </c>
+      <c r="T37" s="45"/>
+    </row>
+    <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2432,7 +3053,7 @@
         <v>21</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J38" s="13">
@@ -2441,15 +3062,20 @@
       <c r="K38" s="16"/>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
-      <c r="N38" s="39" t="s">
+      <c r="N38" s="43" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="9">
         <f t="shared" si="1"/>
         <v>9276.3639999999996</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P38" s="6">
+        <f t="shared" ref="P38:P81" si="5">P37+C38</f>
+        <v>610</v>
+      </c>
+      <c r="T38" s="45"/>
+    </row>
+    <row r="39" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2466,7 +3092,9 @@
         <f>D40</f>
         <v>-3000</v>
       </c>
-      <c r="F39" s="15"/>
+      <c r="F39" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="G39" s="36">
         <v>180</v>
       </c>
@@ -2474,7 +3102,7 @@
         <v>22</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J39" s="13">
@@ -2486,13 +3114,18 @@
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
-      <c r="N39" s="38"/>
+      <c r="N39" s="41"/>
       <c r="O39" s="9">
         <f t="shared" si="1"/>
         <v>9326.3639999999996</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P39" s="6">
+        <f t="shared" si="5"/>
+        <v>660</v>
+      </c>
+      <c r="T39" s="45"/>
+    </row>
+    <row r="40" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2514,7 +3147,7 @@
         <v>21</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>600</v>
       </c>
       <c r="J40" s="13">
@@ -2529,13 +3162,18 @@
         <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
         <v>8.489399932042134E-2</v>
       </c>
-      <c r="N40" s="38"/>
+      <c r="N40" s="41"/>
       <c r="O40" s="9">
         <f t="shared" si="1"/>
         <v>9926.3639999999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P40" s="6">
+        <f t="shared" si="5"/>
+        <v>1260</v>
+      </c>
+      <c r="T40" s="45"/>
+    </row>
+    <row r="41" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2561,7 +3199,7 @@
         <v>22</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>50</v>
       </c>
       <c r="J41" s="13">
@@ -2572,13 +3210,18 @@
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
-      <c r="N41" s="38"/>
+      <c r="N41" s="41"/>
       <c r="O41" s="9">
         <f t="shared" si="1"/>
         <v>9976.3639999999996</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P41" s="6">
+        <f t="shared" si="5"/>
+        <v>1310</v>
+      </c>
+      <c r="T41" s="45"/>
+    </row>
+    <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -2598,7 +3241,7 @@
         <v>21</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2800</v>
       </c>
       <c r="J42" s="12">
@@ -2607,15 +3250,20 @@
       <c r="K42" s="16"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
-      <c r="N42" s="38" t="s">
+      <c r="N42" s="41" t="s">
         <v>29</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="1"/>
         <v>12776.364</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P42" s="6">
+        <f t="shared" si="5"/>
+        <v>4110</v>
+      </c>
+      <c r="T42" s="45"/>
+    </row>
+    <row r="43" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -2640,7 +3288,7 @@
         <v>22</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J43" s="12">
@@ -2652,13 +3300,18 @@
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
-      <c r="N43" s="37"/>
+      <c r="N43" s="42"/>
       <c r="O43" s="9">
         <f t="shared" si="1"/>
         <v>12876.364</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P43" s="6">
+        <f t="shared" si="5"/>
+        <v>4210</v>
+      </c>
+      <c r="T43" s="45"/>
+    </row>
+    <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -2680,7 +3333,7 @@
         <v>21</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="J44" s="12">
@@ -2695,13 +3348,18 @@
         <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
         <v>6.7017017007350174E-2</v>
       </c>
-      <c r="N44" s="37"/>
+      <c r="N44" s="42"/>
       <c r="O44" s="9">
         <f t="shared" si="1"/>
         <v>13076.364</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P44" s="6">
+        <f t="shared" si="5"/>
+        <v>4410</v>
+      </c>
+      <c r="T44" s="45"/>
+    </row>
+    <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -2727,7 +3385,7 @@
         <v>22</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J45" s="12">
@@ -2738,13 +3396,18 @@
       </c>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
-      <c r="N45" s="37"/>
+      <c r="N45" s="42"/>
       <c r="O45" s="9">
         <f t="shared" si="1"/>
         <v>13176.364</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P45" s="6">
+        <f t="shared" si="5"/>
+        <v>4510</v>
+      </c>
+      <c r="T45" s="45"/>
+    </row>
+    <row r="46" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2764,7 +3427,7 @@
         <v>21</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>400</v>
       </c>
       <c r="J46" s="13">
@@ -2773,15 +3436,20 @@
       <c r="K46" s="16"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="39" t="s">
+      <c r="N46" s="43" t="s">
         <v>27</v>
       </c>
       <c r="O46" s="9">
         <f t="shared" si="1"/>
         <v>13576.364</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P46" s="6">
+        <f t="shared" si="5"/>
+        <v>4910</v>
+      </c>
+      <c r="T46" s="45"/>
+    </row>
+    <row r="47" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2806,7 +3474,7 @@
         <v>22</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J47" s="13">
@@ -2818,13 +3486,18 @@
       </c>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="38"/>
+      <c r="N47" s="41"/>
       <c r="O47" s="9">
         <f t="shared" si="1"/>
         <v>13676.364</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P47" s="6">
+        <f t="shared" si="5"/>
+        <v>5010</v>
+      </c>
+      <c r="T47" s="45"/>
+    </row>
+    <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2846,7 +3519,7 @@
         <v>21</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>200</v>
       </c>
       <c r="J48" s="13">
@@ -2861,13 +3534,18 @@
         <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
         <v>1.2735433231396533E-2</v>
       </c>
-      <c r="N48" s="38"/>
+      <c r="N48" s="41"/>
       <c r="O48" s="9">
         <f t="shared" si="1"/>
         <v>13876.364</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P48" s="6">
+        <f t="shared" si="5"/>
+        <v>5210</v>
+      </c>
+      <c r="T48" s="45"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2893,7 +3571,7 @@
         <v>22</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J49" s="13">
@@ -2904,13 +3582,17 @@
       </c>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="38"/>
+      <c r="N49" s="41"/>
       <c r="O49" s="9">
         <f t="shared" si="1"/>
         <v>13976.364</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P49" s="6">
+        <f t="shared" si="5"/>
+        <v>5310</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -2930,7 +3612,7 @@
         <v>21</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J50" s="12">
@@ -2939,15 +3621,19 @@
       <c r="K50" s="16"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="38" t="s">
+      <c r="N50" s="41" t="s">
         <v>29</v>
       </c>
       <c r="O50" s="9">
         <f t="shared" si="1"/>
         <v>14076.364</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P50" s="6">
+        <f t="shared" si="5"/>
+        <v>5410</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -2972,7 +3658,7 @@
         <v>22</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J51" s="12">
@@ -2984,13 +3670,17 @@
       </c>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="37"/>
+      <c r="N51" s="42"/>
       <c r="O51" s="9">
         <f t="shared" si="1"/>
         <v>14176.364</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P51" s="6">
+        <f t="shared" si="5"/>
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="52" spans="1:20" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -3014,7 +3704,7 @@
         <v>21</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2400</v>
       </c>
       <c r="J52" s="12">
@@ -3029,15 +3719,19 @@
         <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
         <v>0.10591384580585378</v>
       </c>
-      <c r="N52" s="37"/>
+      <c r="N52" s="42"/>
       <c r="O52" s="9">
         <f t="shared" si="1"/>
         <v>16576.364000000001</v>
       </c>
-      <c r="P52" s="5"/>
+      <c r="P52" s="6">
+        <f t="shared" si="5"/>
+        <v>7910</v>
+      </c>
       <c r="Q52" s="23"/>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T52" s="47"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -3063,7 +3757,7 @@
         <v>22</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J53" s="12">
@@ -3074,13 +3768,17 @@
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
-      <c r="N53" s="37"/>
+      <c r="N53" s="42"/>
       <c r="O53" s="9">
         <f t="shared" si="1"/>
         <v>16676.364000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P53" s="6">
+        <f t="shared" si="5"/>
+        <v>8010</v>
+      </c>
+    </row>
+    <row r="54" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>53</v>
       </c>
@@ -3102,7 +3800,7 @@
         <v>21</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="J54" s="13">
@@ -3111,15 +3809,20 @@
       <c r="K54" s="16"/>
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
-      <c r="N54" s="39" t="s">
+      <c r="N54" s="43" t="s">
         <v>29</v>
       </c>
       <c r="O54" s="9">
         <f t="shared" si="1"/>
         <v>18676.364000000001</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P54" s="6">
+        <f t="shared" si="5"/>
+        <v>10010</v>
+      </c>
+      <c r="T54" s="45"/>
+    </row>
+    <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>54</v>
       </c>
@@ -3144,7 +3847,7 @@
         <v>22</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J55" s="18">
@@ -3156,13 +3859,18 @@
       </c>
       <c r="L55" s="31"/>
       <c r="M55" s="31"/>
-      <c r="N55" s="39"/>
+      <c r="N55" s="43"/>
       <c r="O55" s="9">
         <f t="shared" si="1"/>
         <v>18776.364000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P55" s="6">
+        <f t="shared" si="5"/>
+        <v>10110</v>
+      </c>
+      <c r="T55" s="45"/>
+    </row>
+    <row r="56" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>55</v>
       </c>
@@ -3184,7 +3892,7 @@
         <v>21</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="J56" s="18">
@@ -3199,13 +3907,18 @@
         <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
         <v>8.9838023972227163E-2</v>
       </c>
-      <c r="N56" s="39"/>
+      <c r="N56" s="43"/>
       <c r="O56" s="9">
         <f t="shared" si="1"/>
         <v>19576.364000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P56" s="6">
+        <f t="shared" si="5"/>
+        <v>10910</v>
+      </c>
+      <c r="T56" s="45"/>
+    </row>
+    <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>56</v>
       </c>
@@ -3231,7 +3944,7 @@
         <v>22</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J57" s="18">
@@ -3242,13 +3955,18 @@
       </c>
       <c r="L57" s="31"/>
       <c r="M57" s="31"/>
-      <c r="N57" s="39"/>
+      <c r="N57" s="43"/>
       <c r="O57" s="9">
         <f t="shared" si="1"/>
         <v>19676.364000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P57" s="6">
+        <f t="shared" si="5"/>
+        <v>11010</v>
+      </c>
+      <c r="T57" s="45"/>
+    </row>
+    <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -3268,7 +3986,7 @@
         <v>21</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>250</v>
       </c>
       <c r="J58" s="12">
@@ -3277,15 +3995,20 @@
       <c r="K58" s="16"/>
       <c r="L58" s="31"/>
       <c r="M58" s="31"/>
-      <c r="N58" s="38" t="s">
+      <c r="N58" s="41" t="s">
         <v>27</v>
       </c>
       <c r="O58" s="9">
         <f t="shared" si="1"/>
         <v>19926.364000000001</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P58" s="6">
+        <f t="shared" si="5"/>
+        <v>11260</v>
+      </c>
+      <c r="T58" s="45"/>
+    </row>
+    <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -3310,7 +4033,7 @@
         <v>22</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J59" s="12">
@@ -3322,13 +4045,18 @@
       </c>
       <c r="L59" s="31"/>
       <c r="M59" s="31"/>
-      <c r="N59" s="38"/>
+      <c r="N59" s="41"/>
       <c r="O59" s="9">
         <f t="shared" si="1"/>
         <v>20006.364000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P59" s="6">
+        <f t="shared" si="5"/>
+        <v>11340</v>
+      </c>
+      <c r="T59" s="45"/>
+    </row>
+    <row r="60" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -3350,7 +4078,7 @@
         <v>21</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J60" s="12">
@@ -3365,13 +4093,18 @@
         <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
         <v>5.2416625094910296E-2</v>
       </c>
-      <c r="N60" s="38"/>
+      <c r="N60" s="41"/>
       <c r="O60" s="9">
         <f t="shared" si="1"/>
         <v>20106.364000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P60" s="6">
+        <f t="shared" si="5"/>
+        <v>11440</v>
+      </c>
+      <c r="T60" s="45"/>
+    </row>
+    <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -3397,7 +4130,7 @@
         <v>22</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>80</v>
       </c>
       <c r="J61" s="12">
@@ -3408,13 +4141,18 @@
       </c>
       <c r="L61" s="31"/>
       <c r="M61" s="31"/>
-      <c r="N61" s="38"/>
+      <c r="N61" s="41"/>
       <c r="O61" s="9">
         <f t="shared" si="1"/>
         <v>20186.364000000001</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P61" s="6">
+        <f t="shared" si="5"/>
+        <v>11520</v>
+      </c>
+      <c r="T61" s="45"/>
+    </row>
+    <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>61</v>
       </c>
@@ -3434,7 +4172,7 @@
         <v>21</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2500</v>
       </c>
       <c r="J62" s="13">
@@ -3443,15 +4181,20 @@
       <c r="K62" s="16"/>
       <c r="L62" s="31"/>
       <c r="M62" s="31"/>
-      <c r="N62" s="39" t="s">
+      <c r="N62" s="43" t="s">
         <v>27</v>
       </c>
       <c r="O62" s="9">
         <f t="shared" si="1"/>
         <v>22686.364000000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P62" s="6">
+        <f t="shared" si="5"/>
+        <v>14020</v>
+      </c>
+      <c r="T62" s="45"/>
+    </row>
+    <row r="63" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>62</v>
       </c>
@@ -3476,7 +4219,7 @@
         <v>22</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="J63" s="18">
@@ -3488,13 +4231,18 @@
       </c>
       <c r="L63" s="31"/>
       <c r="M63" s="31"/>
-      <c r="N63" s="39"/>
+      <c r="N63" s="43"/>
       <c r="O63" s="9">
         <f t="shared" si="1"/>
         <v>22836.364000000001</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P63" s="6">
+        <f t="shared" si="5"/>
+        <v>14170</v>
+      </c>
+      <c r="T63" s="45"/>
+    </row>
+    <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>63</v>
       </c>
@@ -3516,7 +4264,7 @@
         <v>21</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="J64" s="18">
@@ -3531,13 +4279,18 @@
         <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
         <v>3.9314135487849393E-2</v>
       </c>
-      <c r="N64" s="39"/>
+      <c r="N64" s="43"/>
       <c r="O64" s="9">
         <f t="shared" si="1"/>
         <v>24836.364000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P64" s="6">
+        <f t="shared" si="5"/>
+        <v>16170</v>
+      </c>
+      <c r="T64" s="45"/>
+    </row>
+    <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
         <v>64</v>
       </c>
@@ -3562,7 +4315,7 @@
         <v>22</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>150</v>
       </c>
       <c r="J65" s="18">
@@ -3573,13 +4326,18 @@
       </c>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
-      <c r="N65" s="39"/>
+      <c r="N65" s="43"/>
       <c r="O65" s="9">
         <f t="shared" si="1"/>
         <v>24986.364000000001</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P65" s="6">
+        <f t="shared" si="5"/>
+        <v>16320</v>
+      </c>
+      <c r="T65" s="45"/>
+    </row>
+    <row r="66" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -3599,7 +4357,7 @@
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2000</v>
       </c>
       <c r="J66" s="12">
@@ -3608,15 +4366,20 @@
       <c r="K66" s="16"/>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
-      <c r="N66" s="38" t="s">
+      <c r="N66" s="41" t="s">
         <v>27</v>
       </c>
       <c r="O66" s="9">
         <f t="shared" si="1"/>
         <v>26986.364000000001</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P66" s="6">
+        <f t="shared" si="5"/>
+        <v>18320</v>
+      </c>
+      <c r="T66" s="45"/>
+    </row>
+    <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -3641,7 +4404,7 @@
         <v>22</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J67" s="12">
@@ -3653,13 +4416,18 @@
       </c>
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
-      <c r="N67" s="38"/>
+      <c r="N67" s="41"/>
       <c r="O67" s="9">
         <f t="shared" si="1"/>
         <v>27086.364000000001</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P67" s="6">
+        <f t="shared" si="5"/>
+        <v>18420</v>
+      </c>
+      <c r="T67" s="45"/>
+    </row>
+    <row r="68" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -3681,7 +4449,7 @@
         <v>21</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>900</v>
       </c>
       <c r="J68" s="12">
@@ -3696,13 +4464,18 @@
         <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
         <v>5.2403291761576959E-2</v>
       </c>
-      <c r="N68" s="38"/>
+      <c r="N68" s="41"/>
       <c r="O68" s="9">
         <f t="shared" si="1"/>
         <v>27986.364000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P68" s="6">
+        <f t="shared" si="5"/>
+        <v>19320</v>
+      </c>
+      <c r="T68" s="45"/>
+    </row>
+    <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -3728,7 +4501,7 @@
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>100</v>
       </c>
       <c r="J69" s="12">
@@ -3739,13 +4512,18 @@
       </c>
       <c r="L69" s="31"/>
       <c r="M69" s="31"/>
-      <c r="N69" s="38"/>
+      <c r="N69" s="41"/>
       <c r="O69" s="9">
-        <f t="shared" ref="O69:O85" si="3">O68+C69</f>
+        <f t="shared" ref="O69:O85" si="6">O68+C69</f>
         <v>28086.364000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P69" s="6">
+        <f t="shared" si="5"/>
+        <v>19420</v>
+      </c>
+      <c r="T69" s="45"/>
+    </row>
+    <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
         <v>69</v>
       </c>
@@ -3765,7 +4543,7 @@
         <v>21</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>300</v>
       </c>
       <c r="J70" s="13">
@@ -3774,15 +4552,20 @@
       <c r="K70" s="16"/>
       <c r="L70" s="31"/>
       <c r="M70" s="31"/>
-      <c r="N70" s="39" t="s">
+      <c r="N70" s="43" t="s">
         <v>27</v>
       </c>
       <c r="O70" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28386.364000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P70" s="6">
+        <f t="shared" si="5"/>
+        <v>19720</v>
+      </c>
+      <c r="T70" s="45"/>
+    </row>
+    <row r="71" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
         <v>70</v>
       </c>
@@ -3807,7 +4590,7 @@
         <v>22</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="J71" s="18">
@@ -3819,13 +4602,18 @@
       </c>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="39"/>
+      <c r="N71" s="43"/>
       <c r="O71" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>28506.364000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P71" s="6">
+        <f t="shared" si="5"/>
+        <v>19840</v>
+      </c>
+      <c r="T71" s="45"/>
+    </row>
+    <row r="72" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
         <v>71</v>
       </c>
@@ -3847,7 +4635,7 @@
         <v>21</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>800</v>
       </c>
       <c r="J72" s="18">
@@ -3862,13 +4650,18 @@
         <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
         <v>3.1441975056946174E-2</v>
       </c>
-      <c r="N72" s="39"/>
+      <c r="N72" s="43"/>
       <c r="O72" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29306.364000000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P72" s="6">
+        <f t="shared" si="5"/>
+        <v>20640</v>
+      </c>
+      <c r="T72" s="45"/>
+    </row>
+    <row r="73" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
         <v>72</v>
       </c>
@@ -3894,7 +4687,7 @@
         <v>22</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
       <c r="J73" s="18">
@@ -3905,13 +4698,18 @@
       </c>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
-      <c r="N73" s="39"/>
+      <c r="N73" s="43"/>
       <c r="O73" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29426.364000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P73" s="6">
+        <f t="shared" si="5"/>
+        <v>20760</v>
+      </c>
+      <c r="T73" s="45"/>
+    </row>
+    <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -3931,7 +4729,7 @@
         <v>21</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" ref="I74:I85" si="4">C74</f>
+        <f t="shared" ref="I74:I85" si="7">C74</f>
         <v>500</v>
       </c>
       <c r="J74" s="12">
@@ -3940,15 +4738,20 @@
       <c r="K74" s="16"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
-      <c r="N74" s="38" t="s">
+      <c r="N74" s="41" t="s">
         <v>29</v>
       </c>
       <c r="O74" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>29926.364000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P74" s="6">
+        <f t="shared" si="5"/>
+        <v>21260</v>
+      </c>
+      <c r="T74" s="45"/>
+    </row>
+    <row r="75" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -3973,7 +4776,7 @@
         <v>22</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="J75" s="12">
@@ -3985,13 +4788,18 @@
       </c>
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
-      <c r="N75" s="38"/>
+      <c r="N75" s="41"/>
       <c r="O75" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>30006.364000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P75" s="6">
+        <f t="shared" si="5"/>
+        <v>21340</v>
+      </c>
+      <c r="T75" s="45"/>
+    </row>
+    <row r="76" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -4013,7 +4821,7 @@
         <v>21</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>1200</v>
       </c>
       <c r="J76" s="12">
@@ -4028,13 +4836,18 @@
         <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
         <v>0.12093092970620324</v>
       </c>
-      <c r="N76" s="38"/>
+      <c r="N76" s="41"/>
       <c r="O76" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31206.364000000001</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P76" s="6">
+        <f t="shared" si="5"/>
+        <v>22540</v>
+      </c>
+      <c r="T76" s="45"/>
+    </row>
+    <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -4060,7 +4873,7 @@
         <v>22</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="J77" s="12">
@@ -4071,13 +4884,18 @@
       </c>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
-      <c r="N77" s="38"/>
+      <c r="N77" s="41"/>
       <c r="O77" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31286.364000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P77" s="6">
+        <f t="shared" si="5"/>
+        <v>22620</v>
+      </c>
+      <c r="T77" s="45"/>
+    </row>
+    <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
         <v>77</v>
       </c>
@@ -4097,7 +4915,7 @@
         <v>21</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="J78" s="13">
@@ -4106,15 +4924,20 @@
       <c r="K78" s="16"/>
       <c r="L78" s="31"/>
       <c r="M78" s="31"/>
-      <c r="N78" s="39" t="s">
+      <c r="N78" s="43" t="s">
         <v>29</v>
       </c>
       <c r="O78" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31336.364000000001</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P78" s="6">
+        <f t="shared" si="5"/>
+        <v>22670</v>
+      </c>
+      <c r="T78" s="45"/>
+    </row>
+    <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
         <v>78</v>
       </c>
@@ -4139,7 +4962,7 @@
         <v>22</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="J79" s="18">
@@ -4151,13 +4974,18 @@
       </c>
       <c r="L79" s="31"/>
       <c r="M79" s="31"/>
-      <c r="N79" s="39"/>
+      <c r="N79" s="43"/>
       <c r="O79" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31416.364000000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P79" s="6">
+        <f t="shared" si="5"/>
+        <v>22750</v>
+      </c>
+      <c r="T79" s="45"/>
+    </row>
+    <row r="80" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
         <v>79</v>
       </c>
@@ -4179,7 +5007,7 @@
         <v>21</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>400</v>
       </c>
       <c r="J80" s="18">
@@ -4194,13 +5022,18 @@
         <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N80" s="39"/>
+      <c r="N80" s="43"/>
       <c r="O80" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31816.364000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P80" s="6">
+        <f t="shared" si="5"/>
+        <v>23150</v>
+      </c>
+      <c r="T80" s="45"/>
+    </row>
+    <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
         <v>80</v>
       </c>
@@ -4226,7 +5059,7 @@
         <v>22</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="J81" s="18">
@@ -4237,13 +5070,18 @@
       </c>
       <c r="L81" s="31"/>
       <c r="M81" s="31"/>
-      <c r="N81" s="39"/>
+      <c r="N81" s="43"/>
       <c r="O81" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>31896.364000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P81" s="51">
+        <f t="shared" si="5"/>
+        <v>23230</v>
+      </c>
+      <c r="T81" s="45"/>
+    </row>
+    <row r="82" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -4265,7 +5103,7 @@
         <v>21</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="J82" s="12">
@@ -4274,15 +5112,17 @@
       <c r="K82" s="16"/>
       <c r="L82" s="31"/>
       <c r="M82" s="31"/>
-      <c r="N82" s="38" t="s">
+      <c r="N82" s="41" t="s">
         <v>29</v>
       </c>
       <c r="O82" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>33896.364000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P82" s="6"/>
+      <c r="T82" s="45"/>
+    </row>
+    <row r="83" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -4292,15 +5132,22 @@
       <c r="C83" s="3">
         <v>50</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="36"/>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <f>D84</f>
+        <v>50000</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="36">
+        <v>0</v>
+      </c>
       <c r="H83" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="J83" s="12">
@@ -4312,13 +5159,18 @@
       </c>
       <c r="L83" s="31"/>
       <c r="M83" s="31"/>
-      <c r="N83" s="38"/>
+      <c r="N83" s="41"/>
       <c r="O83" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>33946.364000000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P83" s="6">
+        <f>C83</f>
+        <v>50</v>
+      </c>
+      <c r="T83" s="45"/>
+    </row>
+    <row r="84" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -4328,36 +5180,45 @@
       <c r="C84" s="3">
         <v>50</v>
       </c>
-      <c r="D84" s="3"/>
+      <c r="D84" s="3">
+        <v>50000</v>
+      </c>
       <c r="E84" s="15"/>
-      <c r="F84" s="38"/>
-      <c r="G84" s="36"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="36">
+        <v>0</v>
+      </c>
       <c r="H84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>50</v>
       </c>
       <c r="J84" s="12">
         <v>0</v>
       </c>
       <c r="K84" s="16"/>
-      <c r="L84" s="32" t="e">
+      <c r="L84" s="32">
         <f>G84*G84/ABS(D84)*11.8-ABS(J84)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M84" s="32" t="e">
+        <v>0</v>
+      </c>
+      <c r="M84" s="32">
         <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N84" s="38"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="41"/>
       <c r="O84" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>33996.364000000001</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="P84" s="6">
+        <f>P83+C84</f>
+        <v>100</v>
+      </c>
+      <c r="T84" s="45"/>
+    </row>
+    <row r="85" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -4368,16 +5229,23 @@
         <f>C83</f>
         <v>50</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="38"/>
-      <c r="G85" s="36"/>
+      <c r="D85" s="3">
+        <f>D84</f>
+        <v>50000</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="15"/>
+      <c r="G85" s="36">
+        <v>0</v>
+      </c>
       <c r="H85" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I85" s="3">
-        <f t="shared" si="4"/>
-        <v>50</v>
+        <f>D85</f>
+        <v>50000</v>
       </c>
       <c r="J85" s="12">
         <v>0</v>
@@ -4387,416 +5255,382 @@
       </c>
       <c r="L85" s="31"/>
       <c r="M85" s="31"/>
-      <c r="N85" s="38"/>
+      <c r="N85" s="41"/>
       <c r="O85" s="9">
-        <f t="shared" si="3"/>
-        <v>34046.364000000001</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+        <f>O84+D85</f>
+        <v>83996.364000000001</v>
+      </c>
+      <c r="P85" s="51">
+        <f>P84+D85</f>
+        <v>50100</v>
+      </c>
+      <c r="T85" s="45"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="43"/>
-      <c r="K86" s="43"/>
+      <c r="J86" s="40"/>
+      <c r="K86" s="40"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B87" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C87" s="1">
-        <f>SUM(C2:C85)</f>
-        <v>34046.364000000001</v>
-      </c>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="43"/>
-      <c r="K87" s="43"/>
+      <c r="J87" s="40"/>
+      <c r="K87" s="40"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="43"/>
-      <c r="K88" s="43"/>
+      <c r="J88" s="40"/>
+      <c r="K88" s="40"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="43"/>
-      <c r="K89" s="43"/>
+      <c r="J89" s="40"/>
+      <c r="K89" s="40"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="43"/>
-      <c r="K90" s="43"/>
+      <c r="J90" s="40"/>
+      <c r="K90" s="40"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="43"/>
-      <c r="K91" s="43"/>
+      <c r="J91" s="40"/>
+      <c r="K91" s="40"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="43"/>
-      <c r="K92" s="43"/>
+      <c r="J92" s="40"/>
+      <c r="K92" s="40"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="43"/>
-      <c r="K93" s="43"/>
+      <c r="J93" s="40"/>
+      <c r="K93" s="40"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G94" s="1"/>
-      <c r="H94" s="1"/>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I94" s="1"/>
-      <c r="J94" s="43"/>
-      <c r="K94" s="43"/>
+      <c r="J94" s="40"/>
+      <c r="K94" s="40"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G95" s="1"/>
-      <c r="H95" s="1"/>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I95" s="1"/>
-      <c r="J95" s="43"/>
-      <c r="K95" s="43"/>
+      <c r="J95" s="40"/>
+      <c r="K95" s="40"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="G96" s="1"/>
-      <c r="H96" s="1"/>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I96" s="1"/>
-      <c r="J96" s="43"/>
-      <c r="K96" s="43"/>
+      <c r="J96" s="40"/>
+      <c r="K96" s="40"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
-    <row r="97" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G97" s="1"/>
-      <c r="H97" s="1"/>
+    <row r="97" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I97" s="1"/>
-      <c r="J97" s="43"/>
-      <c r="K97" s="43"/>
+      <c r="J97" s="40"/>
+      <c r="K97" s="40"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
-    <row r="98" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="G98" s="1"/>
-      <c r="H98" s="1"/>
+    <row r="98" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I98" s="1"/>
-      <c r="J98" s="43"/>
-      <c r="K98" s="43"/>
+      <c r="J98" s="40"/>
+      <c r="K98" s="40"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
-    <row r="110" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E110" s="14"/>
-    </row>
-    <row r="111" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E111" s="14"/>
-    </row>
-    <row r="112" spans="5:15" x14ac:dyDescent="0.3">
-      <c r="E112" s="14"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E113" s="14"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E114" s="14"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E115" s="14"/>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="116" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E116" s="14"/>
     </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="117" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E117" s="14"/>
     </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="118" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E118" s="14"/>
     </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="119" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E119" s="14"/>
     </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="120" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E120" s="14"/>
     </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="121" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E121" s="14"/>
     </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="122" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E122" s="14"/>
     </row>
-    <row r="123" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="123" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E123" s="14"/>
     </row>
-    <row r="124" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="124" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E124" s="14"/>
     </row>
-    <row r="125" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="125" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E125" s="14"/>
     </row>
-    <row r="126" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="126" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E126" s="14"/>
     </row>
-    <row r="127" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="127" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E127" s="14"/>
     </row>
-    <row r="128" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="128" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E128" s="14"/>
     </row>
-    <row r="129" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E129" s="14"/>
     </row>
-    <row r="130" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E130" s="14"/>
     </row>
-    <row r="131" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="131" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E131" s="14"/>
     </row>
-    <row r="132" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E132" s="14"/>
     </row>
-    <row r="133" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E133" s="14"/>
     </row>
-    <row r="134" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="134" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E134" s="14"/>
     </row>
-    <row r="135" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E135" s="14"/>
     </row>
-    <row r="136" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E136" s="14"/>
     </row>
-    <row r="137" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E137" s="14"/>
     </row>
-    <row r="138" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E138" s="14"/>
     </row>
-    <row r="139" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="139" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E139" s="14"/>
     </row>
-    <row r="140" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="140" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E140" s="14"/>
     </row>
-    <row r="141" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E141" s="14"/>
     </row>
-    <row r="142" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="142" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E142" s="14"/>
     </row>
-    <row r="143" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E143" s="14"/>
     </row>
-    <row r="144" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E144" s="14"/>
     </row>
-    <row r="145" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="145" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E145" s="14"/>
     </row>
-    <row r="146" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="146" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E146" s="14"/>
     </row>
-    <row r="147" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="147" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E147" s="14"/>
     </row>
-    <row r="148" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="148" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E148" s="14"/>
     </row>
-    <row r="149" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="149" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E149" s="14"/>
     </row>
-    <row r="150" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E150" s="14"/>
     </row>
-    <row r="151" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E151" s="14"/>
     </row>
-    <row r="152" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E152" s="14"/>
     </row>
-    <row r="153" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E153" s="14"/>
     </row>
-    <row r="154" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E154" s="14"/>
     </row>
-    <row r="155" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E155" s="14"/>
     </row>
-    <row r="156" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E156" s="14"/>
     </row>
-    <row r="157" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E157" s="14"/>
     </row>
-    <row r="158" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E158" s="14"/>
     </row>
-    <row r="159" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E159" s="14"/>
     </row>
-    <row r="160" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E160" s="14"/>
     </row>
-    <row r="161" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="161" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E161" s="14"/>
     </row>
-    <row r="162" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="162" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E162" s="14"/>
     </row>
-    <row r="163" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="163" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E163" s="14"/>
     </row>
-    <row r="164" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="164" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E164" s="14"/>
     </row>
-    <row r="165" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E165" s="14"/>
     </row>
-    <row r="166" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="166" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E166" s="14"/>
     </row>
-    <row r="167" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="167" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E167" s="14"/>
     </row>
-    <row r="168" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="168" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E168" s="14"/>
     </row>
-    <row r="169" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="169" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E169" s="14"/>
     </row>
-    <row r="170" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="170" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E170" s="14"/>
     </row>
-    <row r="171" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="171" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E171" s="14"/>
     </row>
-    <row r="172" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="172" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E172" s="14"/>
     </row>
-    <row r="173" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="173" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E173" s="14"/>
     </row>
-    <row r="174" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="174" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E174" s="14"/>
     </row>
-    <row r="175" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="175" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E175" s="14"/>
     </row>
-    <row r="176" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="176" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E176" s="14"/>
     </row>
-    <row r="177" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="177" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E177" s="14"/>
     </row>
-    <row r="178" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="178" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E178" s="14"/>
     </row>
-    <row r="179" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="179" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E179" s="14"/>
     </row>
-    <row r="180" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="180" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E180" s="14"/>
     </row>
-    <row r="181" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="181" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E181" s="14"/>
     </row>
-    <row r="182" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="182" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E182" s="14"/>
     </row>
-    <row r="183" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="183" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E183" s="14"/>
     </row>
-    <row r="184" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="184" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E184" s="14"/>
     </row>
-    <row r="185" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="185" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E185" s="14"/>
     </row>
-    <row r="186" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="186" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E186" s="14"/>
     </row>
-    <row r="187" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="187" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E187" s="14"/>
     </row>
-    <row r="188" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="188" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E188" s="14"/>
     </row>
-    <row r="189" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="189" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E189" s="14"/>
     </row>
-    <row r="190" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="190" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E190" s="14"/>
     </row>
-    <row r="191" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="191" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E191" s="14"/>
     </row>
-    <row r="192" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="192" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E192" s="14"/>
     </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="193" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E193" s="14"/>
     </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="194" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E194" s="14"/>
     </row>
-    <row r="195" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="195" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E195" s="14"/>
     </row>
-    <row r="196" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="196" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E196" s="14"/>
     </row>
-    <row r="197" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="197" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E197" s="14"/>
     </row>
-    <row r="198" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="198" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E198" s="14"/>
     </row>
-    <row r="199" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="199" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E199" s="14"/>
     </row>
-    <row r="200" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E200" s="14"/>
-    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="21">
     <mergeCell ref="N62:N65"/>
     <mergeCell ref="N66:N69"/>
     <mergeCell ref="N70:N73"/>
     <mergeCell ref="N74:N77"/>
-    <mergeCell ref="F83:F85"/>
     <mergeCell ref="N78:N81"/>
     <mergeCell ref="N82:N85"/>
     <mergeCell ref="N42:N45"/>
@@ -4828,25 +5662,25 @@
       <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.58203125" style="1" customWidth="1"/>
-    <col min="3" max="5" width="8.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="8.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.4140625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.58203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.58203125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="13.375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="16.625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.625" style="5" customWidth="1"/>
     <col min="10" max="10" width="14.5" style="5" customWidth="1"/>
     <col min="11" max="11" width="12.5" style="5" customWidth="1"/>
     <col min="12" max="12" width="12.5" style="14" customWidth="1"/>
     <col min="13" max="13" width="16.5" style="14" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" style="5"/>
-    <col min="15" max="15" width="24.08203125" style="5" customWidth="1"/>
-    <col min="16" max="17" width="8.6640625" style="5"/>
+    <col min="14" max="14" width="8.625" style="5"/>
+    <col min="15" max="15" width="24.125" style="5" customWidth="1"/>
+    <col min="16" max="17" width="8.625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4890,7 +5724,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4917,11 +5751,11 @@
       <c r="K2" s="6"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -4961,9 +5795,9 @@
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
-      <c r="N3" s="38"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -5002,9 +5836,9 @@
         <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
         <v>-2.4405599392574098E-3</v>
       </c>
-      <c r="N4" s="38"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -5042,9 +5876,9 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="38"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -5071,11 +5905,11 @@
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="37" t="s">
+      <c r="N6" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -5113,9 +5947,9 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="37"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7" s="42"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -5154,9 +5988,9 @@
         <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
         <v>-2.5551383213632678E-3</v>
       </c>
-      <c r="N8" s="37"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N8" s="42"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -5194,9 +6028,9 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="37"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N9" s="42"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5223,11 +6057,11 @@
       <c r="K10" s="15"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="38" t="s">
+      <c r="N10" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5265,9 +6099,9 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="38"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N11" s="41"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5306,9 +6140,9 @@
         <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
         <v>1.1525745620207042E-2</v>
       </c>
-      <c r="N12" s="38"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N12" s="41"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5346,9 +6180,9 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="38"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N13" s="41"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -5377,11 +6211,11 @@
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="37" t="s">
+      <c r="N14" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -5418,9 +6252,9 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="37"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N15" s="42"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -5459,9 +6293,9 @@
         <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
         <v>3.8531466869141953E-2</v>
       </c>
-      <c r="N16" s="37"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N16" s="42"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -5499,9 +6333,9 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="37"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N17" s="42"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -5530,11 +6364,11 @@
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="38" t="s">
+      <c r="N18" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -5571,9 +6405,9 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="38"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N19" s="41"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -5610,9 +6444,9 @@
         <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
         <v>5.1091562737275734E-2</v>
       </c>
-      <c r="N20" s="38"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N20" s="41"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -5649,9 +6483,9 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="38"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N21" s="41"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -5678,11 +6512,11 @@
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-      <c r="N22" s="37" t="s">
+      <c r="N22" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -5719,9 +6553,9 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-      <c r="N23" s="37"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N23" s="42"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -5758,9 +6592,9 @@
         <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
         <v>3.9327468821182723E-2</v>
       </c>
-      <c r="N24" s="37"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N24" s="42"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -5798,9 +6632,9 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="37"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N25" s="42"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -5827,11 +6661,11 @@
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="38" t="s">
+      <c r="N26" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -5868,9 +6702,9 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="38"/>
-    </row>
-    <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N27" s="41"/>
+    </row>
+    <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
         <v>27</v>
       </c>
@@ -5909,12 +6743,12 @@
         <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
         <v>0.20765234337779359</v>
       </c>
-      <c r="N28" s="38"/>
+      <c r="N28" s="41"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -5952,9 +6786,9 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="38"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N29" s="41"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -5981,11 +6815,11 @@
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="37" t="s">
+      <c r="N30" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -6022,9 +6856,9 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="37"/>
-    </row>
-    <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N31" s="42"/>
+    </row>
+    <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25">
         <v>31</v>
       </c>
@@ -6063,12 +6897,12 @@
         <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
         <v>0.22403552048594069</v>
       </c>
-      <c r="N32" s="37"/>
+      <c r="N32" s="42"/>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -6105,9 +6939,9 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="37"/>
-    </row>
-    <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N33" s="42"/>
+    </row>
+    <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -6136,11 +6970,11 @@
       <c r="K34" s="15"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="38" t="s">
+      <c r="N34" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -6177,9 +7011,9 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="37"/>
-    </row>
-    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N35" s="42"/>
+    </row>
+    <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -6216,9 +7050,9 @@
         <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
         <v>2.4947332653754678E-2</v>
       </c>
-      <c r="N36" s="37"/>
-    </row>
-    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N36" s="42"/>
+    </row>
+    <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -6256,9 +7090,9 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="37"/>
-    </row>
-    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N37" s="42"/>
+    </row>
+    <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -6287,11 +7121,11 @@
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="39" t="s">
+      <c r="N38" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -6328,9 +7162,9 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="38"/>
-    </row>
-    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N39" s="41"/>
+    </row>
+    <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -6367,9 +7201,9 @@
         <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
         <v>3.8531161842448383E-2</v>
       </c>
-      <c r="N40" s="38"/>
-    </row>
-    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N40" s="41"/>
+    </row>
+    <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -6407,9 +7241,9 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="38"/>
-    </row>
-    <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="41"/>
+    </row>
+    <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -6436,11 +7270,11 @@
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="38" t="s">
+      <c r="N42" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -6477,9 +7311,9 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="37"/>
-    </row>
-    <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N43" s="42"/>
+    </row>
+    <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -6516,9 +7350,9 @@
         <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
         <v>2.9461337869156605E-2</v>
       </c>
-      <c r="N44" s="37"/>
-    </row>
-    <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N44" s="42"/>
+    </row>
+    <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -6556,9 +7390,9 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="37"/>
-    </row>
-    <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N45" s="42"/>
+    </row>
+    <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -6585,11 +7419,11 @@
       <c r="K46" s="15"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="39" t="s">
+      <c r="N46" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -6626,9 +7460,9 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="38"/>
-    </row>
-    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N47" s="41"/>
+    </row>
+    <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -6665,9 +7499,9 @@
         <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
         <v>-2.4269012471526914E-2</v>
       </c>
-      <c r="N48" s="38"/>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N48" s="41"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -6705,9 +7539,9 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="38"/>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N49" s="41"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -6734,11 +7568,11 @@
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="38" t="s">
+      <c r="N50" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -6775,9 +7609,9 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="37"/>
-    </row>
-    <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N51" s="42"/>
+    </row>
+    <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
         <v>51</v>
       </c>
@@ -6816,12 +7650,12 @@
         <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
         <v>0.1166373441059136</v>
       </c>
-      <c r="N52" s="37"/>
+      <c r="N52" s="42"/>
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -6859,9 +7693,9 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="37"/>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N53" s="42"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -6888,11 +7722,11 @@
       <c r="K54" s="15"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="37" t="s">
+      <c r="N54" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -6929,9 +7763,9 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="37"/>
-    </row>
-    <row r="56" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N55" s="42"/>
+    </row>
+    <row r="56" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="25">
         <v>55</v>
       </c>
@@ -6970,12 +7804,12 @@
         <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
         <v>0.10974650037964118</v>
       </c>
-      <c r="N56" s="37"/>
+      <c r="N56" s="42"/>
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -7013,9 +7847,9 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="37"/>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N57" s="42"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -7042,11 +7876,11 @@
       <c r="K58" s="15"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="38" t="s">
+      <c r="N58" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -7083,9 +7917,9 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="37"/>
-    </row>
-    <row r="60" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N59" s="42"/>
+    </row>
+    <row r="60" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
         <v>59</v>
       </c>
@@ -7124,12 +7958,12 @@
         <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
         <v>4.9818928842600835E-2</v>
       </c>
-      <c r="N60" s="37"/>
+      <c r="N60" s="42"/>
       <c r="O60" s="23"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -7167,9 +8001,9 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="37"/>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N61" s="42"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -7196,11 +8030,11 @@
       <c r="K62" s="15"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="39" t="s">
+      <c r="N62" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -7237,9 +8071,9 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="38"/>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N63" s="41"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -7276,9 +8110,9 @@
         <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
         <v>2.8672651687715683E-2</v>
       </c>
-      <c r="N64" s="38"/>
-    </row>
-    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N64" s="41"/>
+    </row>
+    <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -7316,9 +8150,9 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="38"/>
-    </row>
-    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N65" s="41"/>
+    </row>
+    <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -7347,11 +8181,11 @@
       <c r="K66" s="3"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="38" t="s">
+      <c r="N66" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -7388,9 +8222,9 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
-      <c r="N67" s="37"/>
-    </row>
-    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N67" s="42"/>
+    </row>
+    <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -7427,9 +8261,9 @@
         <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
         <v>3.6558023972227162E-2</v>
       </c>
-      <c r="N68" s="37"/>
-    </row>
-    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N68" s="42"/>
+    </row>
+    <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -7467,9 +8301,9 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
-      <c r="N69" s="37"/>
-    </row>
-    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N69" s="42"/>
+    </row>
+    <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -7496,11 +8330,11 @@
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
-      <c r="N70" s="39" t="s">
+      <c r="N70" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -7537,9 +8371,9 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
-      <c r="N71" s="38"/>
-    </row>
-    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N71" s="41"/>
+    </row>
+    <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -7576,9 +8410,9 @@
         <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
         <v>-1.0036214231479833E-2</v>
       </c>
-      <c r="N72" s="38"/>
-    </row>
-    <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N72" s="41"/>
+    </row>
+    <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -7616,9 +8450,9 @@
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-      <c r="N73" s="38"/>
-    </row>
-    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N73" s="41"/>
+    </row>
+    <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -7645,11 +8479,11 @@
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="38" t="s">
+      <c r="N74" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -7686,9 +8520,9 @@
       </c>
       <c r="L75" s="15"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="38"/>
-    </row>
-    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N75" s="41"/>
+    </row>
+    <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -7725,9 +8559,9 @@
         <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
         <v>-1.5204691609720496E-2</v>
       </c>
-      <c r="N76" s="38"/>
-    </row>
-    <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N76" s="41"/>
+    </row>
+    <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -7764,9 +8598,9 @@
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="38"/>
-    </row>
-    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N77" s="41"/>
+    </row>
+    <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -7793,11 +8627,11 @@
       <c r="K78" s="15"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
-      <c r="N78" s="39" t="s">
+      <c r="N78" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -7834,9 +8668,9 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
-      <c r="N79" s="38"/>
-    </row>
-    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N79" s="41"/>
+    </row>
+    <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -7873,9 +8707,9 @@
         <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
         <v>-2.4193827340276544E-2</v>
       </c>
-      <c r="N80" s="38"/>
-    </row>
-    <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N80" s="41"/>
+    </row>
+    <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -7913,9 +8747,9 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
-      <c r="N81" s="38"/>
-    </row>
-    <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N81" s="41"/>
+    </row>
+    <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -7942,11 +8776,11 @@
       <c r="K82" s="15"/>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
-      <c r="N82" s="38" t="s">
+      <c r="N82" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -7983,9 +8817,9 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
-      <c r="N83" s="38"/>
-    </row>
-    <row r="84" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N83" s="41"/>
+    </row>
+    <row r="84" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -8022,9 +8856,9 @@
         <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
         <v>-1.5204691609720496E-2</v>
       </c>
-      <c r="N84" s="38"/>
-    </row>
-    <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N84" s="41"/>
+    </row>
+    <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -8062,9 +8896,9 @@
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
-      <c r="N85" s="38"/>
-    </row>
-    <row r="86" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N85" s="41"/>
+    </row>
+    <row r="86" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -8091,11 +8925,11 @@
       <c r="K86" s="15"/>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
-      <c r="N86" s="37" t="s">
+      <c r="N86" s="42" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="87" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -8132,9 +8966,9 @@
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="16"/>
-      <c r="N87" s="37"/>
-    </row>
-    <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N87" s="42"/>
+    </row>
+    <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -8171,9 +9005,9 @@
         <f>(G88/3.6)^2/(ABS(D88)*9.81)-ABS(J88)/1500</f>
         <v>3.9030863298617297E-2</v>
       </c>
-      <c r="N88" s="37"/>
-    </row>
-    <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N88" s="42"/>
+    </row>
+    <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -8211,9 +9045,9 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
-      <c r="N89" s="37"/>
-    </row>
-    <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N89" s="42"/>
+    </row>
+    <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -8240,11 +9074,11 @@
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
-      <c r="N90" s="38" t="s">
+      <c r="N90" s="41" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -8281,9 +9115,9 @@
       </c>
       <c r="L91" s="16"/>
       <c r="M91" s="16"/>
-      <c r="N91" s="37"/>
-    </row>
-    <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N91" s="42"/>
+    </row>
+    <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -8320,9 +9154,9 @@
         <f>(G92/3.6)^2/(ABS(D92)*9.81)-ABS(J92)/1500</f>
         <v>3.8206583523153925E-2</v>
       </c>
-      <c r="N92" s="37"/>
-    </row>
-    <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N92" s="42"/>
+    </row>
+    <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -8360,9 +9194,9 @@
       </c>
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
-      <c r="N93" s="37"/>
-    </row>
-    <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N93" s="42"/>
+    </row>
+    <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -8391,11 +9225,11 @@
       <c r="K94" s="15"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
-      <c r="N94" s="39" t="s">
+      <c r="N94" s="43" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -8412,7 +9246,7 @@
         <f>D96</f>
         <v>50000</v>
       </c>
-      <c r="F95" s="37" t="s">
+      <c r="F95" s="42" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="8">
@@ -8434,9 +9268,9 @@
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="16"/>
-      <c r="N95" s="37"/>
-    </row>
-    <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N95" s="42"/>
+    </row>
+    <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -8450,7 +9284,7 @@
         <v>50000</v>
       </c>
       <c r="E96" s="15"/>
-      <c r="F96" s="37"/>
+      <c r="F96" s="42"/>
       <c r="G96" s="8">
         <v>200</v>
       </c>
@@ -8473,9 +9307,9 @@
         <f>(G96/3.6)^2/(ABS(D96)*9.81)-ABS(J96)/1500</f>
         <v>6.2923950113892351E-3</v>
       </c>
-      <c r="N96" s="37"/>
-    </row>
-    <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="N96" s="42"/>
+    </row>
+    <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -8493,7 +9327,7 @@
       <c r="E97" s="4">
         <v>0</v>
       </c>
-      <c r="F97" s="37"/>
+      <c r="F97" s="42"/>
       <c r="G97" s="8">
         <v>200</v>
       </c>
@@ -8513,7 +9347,7 @@
       </c>
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
-      <c r="N97" s="37"/>
+      <c r="N97" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="25">

--- a/docs/跨线运行SPCK曲线定义组.xlsx
+++ b/docs/跨线运行SPCK曲线定义组.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchDocuments\ROS2WithSPCK\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B387FF9-F750-4809-BA82-97013FFDEE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ECAA7F-79FF-4AD9-A2B4-FE66D146DE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="75" windowWidth="28695" windowHeight="31650" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
   </bookViews>
   <sheets>
     <sheet name="自定义线路" sheetId="1" r:id="rId1"/>
-    <sheet name="原人工拟合曲线-欠超高过大" sheetId="2" r:id="rId2"/>
+    <sheet name="备份_全长模拟曲线" sheetId="3" r:id="rId2"/>
+    <sheet name="原人工拟合曲线-欠超高过大" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'原人工拟合曲线-欠超高过大'!$A$1:$N$97</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'原人工拟合曲线-欠超高过大'!$A$1:$N$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">自定义线路!$A$1:$N$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="59">
   <si>
     <t>线路分段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -173,10 +174,6 @@
   </si>
   <si>
     <t>困难条件半径最小1300m</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BLO</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -348,7 +345,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,6 +412,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -458,7 +461,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -582,15 +585,6 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -603,9 +597,6 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -613,6 +604,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -951,7 +963,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6356CB-F0F5-4EF9-8834-D5D350C95BD2}">
   <dimension ref="A1:V199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="X25" sqref="X25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -972,7 +986,7 @@
     <col min="16" max="16" width="15.25" style="5" customWidth="1"/>
     <col min="17" max="17" width="9.25" style="5" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.125" style="46" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.125" style="43" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.5" customWidth="1"/>
   </cols>
@@ -1021,28 +1035,28 @@
         <v>28</v>
       </c>
       <c r="O1" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="11" t="s">
-        <v>45</v>
-      </c>
       <c r="S1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="U1" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="V1" s="11" t="s">
         <v>58</v>
-      </c>
-      <c r="V1" s="11" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -1065,7 +1079,7 @@
         <v>21</v>
       </c>
       <c r="I2" s="3">
-        <f t="shared" ref="I2:I9" si="0">C2</f>
+        <f t="shared" ref="I2:I65" si="0">C2</f>
         <v>300</v>
       </c>
       <c r="J2" s="12">
@@ -1074,7 +1088,7 @@
       <c r="K2" s="37"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="9">
@@ -1084,21 +1098,21 @@
         <f>C2</f>
         <v>300</v>
       </c>
-      <c r="Q2" s="50">
+      <c r="Q2" s="46">
         <v>1</v>
       </c>
-      <c r="R2" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S2" s="48">
+      <c r="R2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="54">
         <v>4086.364</v>
       </c>
-      <c r="T2" s="49">
-        <v>0</v>
-      </c>
-      <c r="U2" s="49"/>
-      <c r="V2" s="44" t="s">
-        <v>46</v>
+      <c r="T2" s="45">
+        <v>0</v>
+      </c>
+      <c r="U2" s="45"/>
+      <c r="V2" s="41" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -1106,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C3" s="19">
         <f>55/2</f>
@@ -1141,7 +1155,7 @@
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-      <c r="N3" s="41"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="9">
         <f>O2+C3</f>
         <v>327.5</v>
@@ -1150,21 +1164,21 @@
         <f>P2+C3</f>
         <v>327.5</v>
       </c>
-      <c r="Q3" s="50">
+      <c r="Q3" s="51">
         <v>2</v>
       </c>
-      <c r="R3" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="48">
+      <c r="R3" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="52">
         <v>5</v>
       </c>
-      <c r="T3" s="49">
-        <v>0</v>
-      </c>
-      <c r="U3" s="49"/>
-      <c r="V3" s="44" t="s">
-        <v>47</v>
+      <c r="T3" s="53">
+        <v>0</v>
+      </c>
+      <c r="U3" s="53"/>
+      <c r="V3" s="52" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -1206,7 +1220,7 @@
         <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
         <v>3.3523440060742586E-2</v>
       </c>
-      <c r="N4" s="41"/>
+      <c r="N4" s="49"/>
       <c r="O4" s="9">
         <f>O3+C4</f>
         <v>466.39300000000003</v>
@@ -1215,23 +1229,23 @@
         <f>P3+C4</f>
         <v>466.39300000000003</v>
       </c>
-      <c r="Q4" s="50">
+      <c r="Q4" s="51">
         <v>3</v>
       </c>
-      <c r="R4" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="48">
+      <c r="R4" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="52">
         <v>20</v>
       </c>
-      <c r="T4" s="49">
-        <v>0</v>
-      </c>
-      <c r="U4" s="49">
+      <c r="T4" s="53">
+        <v>0</v>
+      </c>
+      <c r="U4" s="53">
         <f>T5</f>
         <v>0.05</v>
       </c>
-      <c r="V4" s="44"/>
+      <c r="V4" s="52"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1270,7 +1284,7 @@
       </c>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
-      <c r="N5" s="41"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="9">
         <f t="shared" ref="O5:O68" si="1">O4+C5</f>
         <v>493.89300000000003</v>
@@ -1279,21 +1293,21 @@
         <f t="shared" ref="P5:P21" si="2">P4+C5</f>
         <v>493.89300000000003</v>
       </c>
-      <c r="Q5" s="50">
+      <c r="Q5" s="51">
         <v>4</v>
       </c>
-      <c r="R5" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S5" s="48">
+      <c r="R5" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="52">
         <v>150</v>
       </c>
-      <c r="T5" s="49">
+      <c r="T5" s="53">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
-      <c r="U5" s="49"/>
-      <c r="V5" s="44"/>
+      <c r="U5" s="53"/>
+      <c r="V5" s="52"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1324,7 +1338,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="50" t="s">
         <v>29</v>
       </c>
       <c r="O6" s="9">
@@ -1335,23 +1349,23 @@
         <f t="shared" si="2"/>
         <v>743.89300000000003</v>
       </c>
-      <c r="Q6" s="50">
+      <c r="Q6" s="51">
         <v>5</v>
       </c>
-      <c r="R6" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="48">
+      <c r="R6" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="52">
         <v>20</v>
       </c>
-      <c r="T6" s="49">
+      <c r="T6" s="53">
         <f>T5</f>
         <v>0.05</v>
       </c>
-      <c r="U6" s="49">
-        <v>0</v>
-      </c>
-      <c r="V6" s="44"/>
+      <c r="U6" s="53">
+        <v>0</v>
+      </c>
+      <c r="V6" s="52"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -1391,7 +1405,7 @@
       </c>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
         <v>786.39300000000003</v>
@@ -1400,21 +1414,21 @@
         <f t="shared" si="2"/>
         <v>786.39300000000003</v>
       </c>
-      <c r="Q7" s="50">
+      <c r="Q7" s="51">
         <v>6</v>
       </c>
-      <c r="R7" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S7" s="48">
+      <c r="R7" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="52">
         <v>5</v>
       </c>
-      <c r="T7" s="49">
-        <v>0</v>
-      </c>
-      <c r="U7" s="49"/>
-      <c r="V7" s="44" t="s">
-        <v>48</v>
+      <c r="T7" s="53">
+        <v>0</v>
+      </c>
+      <c r="U7" s="53"/>
+      <c r="V7" s="52" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -1456,7 +1470,7 @@
         <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
         <v>7.7364861678636737E-2</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="50"/>
       <c r="O8" s="9">
         <f t="shared" si="1"/>
         <v>1351.567</v>
@@ -1465,21 +1479,21 @@
         <f t="shared" si="2"/>
         <v>1351.567</v>
       </c>
-      <c r="Q8" s="50">
+      <c r="Q8" s="46">
         <v>7</v>
       </c>
-      <c r="R8" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S8" s="48">
+      <c r="R8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="54">
         <v>2380</v>
       </c>
-      <c r="T8" s="49">
-        <v>0</v>
-      </c>
-      <c r="U8" s="49"/>
-      <c r="V8" s="44" t="s">
-        <v>49</v>
+      <c r="T8" s="45">
+        <v>0</v>
+      </c>
+      <c r="U8" s="45"/>
+      <c r="V8" s="41" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -1519,7 +1533,7 @@
       </c>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="9">
         <f t="shared" si="1"/>
         <v>1394.067</v>
@@ -1528,21 +1542,21 @@
         <f t="shared" si="2"/>
         <v>1394.067</v>
       </c>
-      <c r="Q9" s="50">
+      <c r="Q9" s="51">
         <v>8</v>
       </c>
-      <c r="R9" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S9" s="48">
+      <c r="R9" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="52">
         <v>50</v>
       </c>
-      <c r="T9" s="49">
-        <v>0</v>
-      </c>
-      <c r="U9" s="49"/>
-      <c r="V9" s="44" t="s">
-        <v>50</v>
+      <c r="T9" s="53">
+        <v>0</v>
+      </c>
+      <c r="U9" s="53"/>
+      <c r="V9" s="52" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -1565,7 +1579,7 @@
         <v>21</v>
       </c>
       <c r="I10" s="19">
-        <f t="shared" ref="I10:I73" si="3">C10</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J10" s="12">
@@ -1574,7 +1588,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="9">
@@ -1585,23 +1599,23 @@
         <f t="shared" si="2"/>
         <v>1444.067</v>
       </c>
-      <c r="Q10" s="50">
+      <c r="Q10" s="51">
         <v>9</v>
       </c>
-      <c r="R10" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="48">
+      <c r="R10" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="52">
         <v>50</v>
       </c>
-      <c r="T10" s="49">
-        <v>0</v>
-      </c>
-      <c r="U10" s="49">
+      <c r="T10" s="53">
+        <v>0</v>
+      </c>
+      <c r="U10" s="53">
         <f>T11</f>
         <v>0.03</v>
       </c>
-      <c r="V10" s="44"/>
+      <c r="V10" s="52"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1629,7 +1643,7 @@
         <v>22</v>
       </c>
       <c r="I11" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="J11" s="22">
@@ -1641,7 +1655,7 @@
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="41"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="9">
         <f t="shared" si="1"/>
         <v>1481.567</v>
@@ -1650,21 +1664,21 @@
         <f t="shared" si="2"/>
         <v>1481.567</v>
       </c>
-      <c r="Q11" s="50">
+      <c r="Q11" s="51">
         <v>10</v>
       </c>
-      <c r="R11" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S11" s="48">
+      <c r="R11" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="52">
         <v>650</v>
       </c>
-      <c r="T11" s="49">
+      <c r="T11" s="53">
         <f>30/1000</f>
         <v>0.03</v>
       </c>
-      <c r="U11" s="49"/>
-      <c r="V11" s="44"/>
+      <c r="U11" s="53"/>
+      <c r="V11" s="52"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1690,7 +1704,7 @@
         <v>21</v>
       </c>
       <c r="I12" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>257.29700000000003</v>
       </c>
       <c r="J12" s="22">
@@ -1705,7 +1719,7 @@
         <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
         <v>9.1445745620207047E-2</v>
       </c>
-      <c r="N12" s="41"/>
+      <c r="N12" s="49"/>
       <c r="O12" s="9">
         <f t="shared" si="1"/>
         <v>1738.864</v>
@@ -1714,23 +1728,23 @@
         <f t="shared" si="2"/>
         <v>1738.864</v>
       </c>
-      <c r="Q12" s="50">
+      <c r="Q12" s="51">
         <v>11</v>
       </c>
-      <c r="R12" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" s="48">
+      <c r="R12" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="52">
         <v>50</v>
       </c>
-      <c r="T12" s="49">
+      <c r="T12" s="53">
         <f>T11</f>
         <v>0.03</v>
       </c>
-      <c r="U12" s="49">
-        <v>0</v>
-      </c>
-      <c r="V12" s="44"/>
+      <c r="U12" s="53">
+        <v>0</v>
+      </c>
+      <c r="V12" s="52"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1758,7 +1772,7 @@
         <v>22</v>
       </c>
       <c r="I13" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
       <c r="J13" s="22">
@@ -1769,7 +1783,7 @@
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="41"/>
+      <c r="N13" s="49"/>
       <c r="O13" s="9">
         <f t="shared" si="1"/>
         <v>1776.364</v>
@@ -1778,21 +1792,21 @@
         <f t="shared" si="2"/>
         <v>1776.364</v>
       </c>
-      <c r="Q13" s="50">
+      <c r="Q13" s="51">
         <v>12</v>
       </c>
-      <c r="R13" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S13" s="48">
+      <c r="R13" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="52">
         <v>1200</v>
       </c>
-      <c r="T13" s="49">
-        <v>0</v>
-      </c>
-      <c r="U13" s="49"/>
-      <c r="V13" s="44" t="s">
-        <v>51</v>
+      <c r="T13" s="53">
+        <v>0</v>
+      </c>
+      <c r="U13" s="53"/>
+      <c r="V13" s="52" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.2">
@@ -1817,7 +1831,7 @@
         <v>21</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>950</v>
       </c>
       <c r="J14" s="13">
@@ -1826,7 +1840,7 @@
       <c r="K14" s="16"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="50" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="9">
@@ -1837,21 +1851,21 @@
         <f t="shared" si="2"/>
         <v>2726.364</v>
       </c>
-      <c r="Q14" s="50">
+      <c r="Q14" s="46">
         <v>13</v>
       </c>
-      <c r="R14" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S14" s="48">
+      <c r="R14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="54">
         <v>23230</v>
       </c>
-      <c r="T14" s="49">
-        <v>0</v>
-      </c>
-      <c r="U14" s="49"/>
-      <c r="V14" s="44" t="s">
-        <v>52</v>
+      <c r="T14" s="45">
+        <v>0</v>
+      </c>
+      <c r="U14" s="45"/>
+      <c r="V14" s="41" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.2">
@@ -1872,7 +1886,7 @@
         <v>450</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="9">
         <v>80</v>
@@ -1881,7 +1895,7 @@
         <v>22</v>
       </c>
       <c r="I15" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="J15" s="13">
@@ -1893,7 +1907,7 @@
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
-      <c r="N15" s="42"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="9">
         <f t="shared" si="1"/>
         <v>2806.364</v>
@@ -1902,21 +1916,21 @@
         <f t="shared" si="2"/>
         <v>2806.364</v>
       </c>
-      <c r="Q15" s="50">
+      <c r="Q15" s="51">
         <v>14</v>
       </c>
-      <c r="R15" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S15" s="48">
+      <c r="R15" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="52">
         <v>50</v>
       </c>
-      <c r="T15" s="49">
-        <v>0</v>
-      </c>
-      <c r="U15" s="49"/>
-      <c r="V15" s="44" t="s">
-        <v>53</v>
+      <c r="T15" s="53">
+        <v>0</v>
+      </c>
+      <c r="U15" s="53"/>
+      <c r="V15" s="52" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.2">
@@ -1943,7 +1957,7 @@
         <v>21</v>
       </c>
       <c r="I16" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="J16" s="13">
@@ -1958,7 +1972,7 @@
         <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
         <v>0.11179813353580861</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="50"/>
       <c r="O16" s="9">
         <f t="shared" si="1"/>
         <v>3606.364</v>
@@ -1967,23 +1981,23 @@
         <f t="shared" si="2"/>
         <v>3606.364</v>
       </c>
-      <c r="Q16" s="50">
+      <c r="Q16" s="51">
         <v>15</v>
       </c>
-      <c r="R16" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="S16" s="48">
+      <c r="R16" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="52">
         <v>50</v>
       </c>
-      <c r="T16" s="49">
-        <v>0</v>
-      </c>
-      <c r="U16" s="49">
+      <c r="T16" s="53">
+        <v>0</v>
+      </c>
+      <c r="U16" s="53">
         <f>T17</f>
         <v>-0.03</v>
       </c>
-      <c r="V16" s="44"/>
+      <c r="V16" s="52"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -2011,7 +2025,7 @@
         <v>22</v>
       </c>
       <c r="I17" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="J17" s="13">
@@ -2022,7 +2036,7 @@
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
-      <c r="N17" s="42"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="9">
         <f t="shared" si="1"/>
         <v>3686.364</v>
@@ -2031,21 +2045,21 @@
         <f t="shared" si="2"/>
         <v>3686.364</v>
       </c>
-      <c r="Q17" s="50">
+      <c r="Q17" s="51">
         <v>16</v>
       </c>
-      <c r="R17" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S17" s="48">
+      <c r="R17" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="52">
         <v>650</v>
       </c>
-      <c r="T17" s="49">
+      <c r="T17" s="53">
         <f>-30/1000</f>
         <v>-0.03</v>
       </c>
-      <c r="U17" s="49"/>
-      <c r="V17" s="44"/>
+      <c r="U17" s="53"/>
+      <c r="V17" s="52"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2069,7 +2083,7 @@
         <v>21</v>
       </c>
       <c r="I18" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J18" s="12">
@@ -2078,7 +2092,7 @@
       <c r="K18" s="16"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O18" s="9">
@@ -2089,23 +2103,23 @@
         <f t="shared" si="2"/>
         <v>3736.364</v>
       </c>
-      <c r="Q18" s="50">
+      <c r="Q18" s="51">
         <v>17</v>
       </c>
-      <c r="R18" s="44" t="s">
-        <v>42</v>
-      </c>
-      <c r="S18" s="48">
+      <c r="R18" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="52">
         <v>50</v>
       </c>
-      <c r="T18" s="49">
+      <c r="T18" s="53">
         <f>T17</f>
         <v>-0.03</v>
       </c>
-      <c r="U18" s="49">
-        <v>0</v>
-      </c>
-      <c r="V18" s="44"/>
+      <c r="U18" s="53">
+        <v>0</v>
+      </c>
+      <c r="V18" s="52"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2132,7 +2146,7 @@
         <v>22</v>
       </c>
       <c r="I19" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J19" s="12">
@@ -2144,7 +2158,7 @@
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="41"/>
+      <c r="N19" s="49"/>
       <c r="O19" s="9">
         <f t="shared" si="1"/>
         <v>3836.364</v>
@@ -2153,21 +2167,21 @@
         <f t="shared" si="2"/>
         <v>3836.364</v>
       </c>
-      <c r="Q19" s="50">
+      <c r="Q19" s="51">
         <v>18</v>
       </c>
-      <c r="R19" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S19" s="48">
+      <c r="R19" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="52">
         <v>1200</v>
       </c>
-      <c r="T19" s="49">
-        <v>0</v>
-      </c>
-      <c r="U19" s="49"/>
-      <c r="V19" s="44" t="s">
-        <v>54</v>
+      <c r="T19" s="53">
+        <v>0</v>
+      </c>
+      <c r="U19" s="53"/>
+      <c r="V19" s="52" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -2192,7 +2206,7 @@
         <v>21</v>
       </c>
       <c r="I20" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="J20" s="12">
@@ -2207,7 +2221,7 @@
         <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
         <v>8.3851933485189795E-2</v>
       </c>
-      <c r="N20" s="41"/>
+      <c r="N20" s="49"/>
       <c r="O20" s="9">
         <f t="shared" si="1"/>
         <v>3986.364</v>
@@ -2216,21 +2230,21 @@
         <f t="shared" si="2"/>
         <v>3986.364</v>
       </c>
-      <c r="Q20" s="50">
+      <c r="Q20" s="46">
         <v>19</v>
       </c>
-      <c r="R20" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="S20" s="48">
+      <c r="R20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="54">
         <v>150</v>
       </c>
-      <c r="T20" s="49">
-        <v>0</v>
-      </c>
-      <c r="U20" s="49"/>
-      <c r="V20" s="44" t="s">
-        <v>55</v>
+      <c r="T20" s="45">
+        <v>0</v>
+      </c>
+      <c r="U20" s="45"/>
+      <c r="V20" s="41" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -2258,7 +2272,7 @@
         <v>22</v>
       </c>
       <c r="I21" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J21" s="12">
@@ -2269,19 +2283,19 @@
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="41"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="9">
         <f t="shared" si="1"/>
         <v>4086.364</v>
       </c>
-      <c r="P21" s="51">
+      <c r="P21" s="47">
         <f t="shared" si="2"/>
         <v>4086.364</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="45"/>
+      <c r="T21" s="42"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
     </row>
@@ -2298,7 +2312,7 @@
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G22" s="7">
         <v>100</v>
@@ -2307,7 +2321,7 @@
         <v>21</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="J22" s="13">
@@ -2316,7 +2330,7 @@
       <c r="K22" s="16"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="42" t="s">
+      <c r="N22" s="50" t="s">
         <v>29</v>
       </c>
       <c r="O22" s="9">
@@ -2327,7 +2341,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="45"/>
+      <c r="T22" s="42"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
@@ -2355,7 +2369,7 @@
         <v>22</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="J23" s="13">
@@ -2367,7 +2381,7 @@
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
-      <c r="N23" s="42"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="9">
         <f t="shared" si="1"/>
         <v>4436.3639999999996</v>
@@ -2399,7 +2413,7 @@
         <v>21</v>
       </c>
       <c r="I24" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="J24" s="13">
@@ -2414,7 +2428,7 @@
         <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
         <v>3.9307468821182724E-2</v>
       </c>
-      <c r="N24" s="42"/>
+      <c r="N24" s="50"/>
       <c r="O24" s="9">
         <f t="shared" si="1"/>
         <v>5036.3639999999996</v>
@@ -2450,7 +2464,7 @@
         <v>22</v>
       </c>
       <c r="I25" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="J25" s="13">
@@ -2461,7 +2475,7 @@
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
-      <c r="N25" s="42"/>
+      <c r="N25" s="50"/>
       <c r="O25" s="9">
         <f t="shared" si="1"/>
         <v>5186.3639999999996</v>
@@ -2491,7 +2505,7 @@
         <v>21</v>
       </c>
       <c r="I26" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J26" s="12">
@@ -2500,7 +2514,7 @@
       <c r="K26" s="16"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="41" t="s">
+      <c r="N26" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O26" s="9">
@@ -2530,7 +2544,7 @@
         <v>-1600</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" s="7">
         <v>160</v>
@@ -2539,7 +2553,7 @@
         <v>22</v>
       </c>
       <c r="I27" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J27" s="12">
@@ -2551,13 +2565,13 @@
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
-      <c r="N27" s="41"/>
+      <c r="N27" s="49"/>
       <c r="O27" s="9">
         <f t="shared" si="1"/>
         <v>5286.3639999999996</v>
       </c>
       <c r="P27" s="6">
-        <f t="shared" ref="P27:P33" si="4">P26+C27</f>
+        <f t="shared" ref="P27:P33" si="3">P26+C27</f>
         <v>1000</v>
       </c>
     </row>
@@ -2585,7 +2599,7 @@
         <v>21</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="J28" s="12">
@@ -2600,17 +2614,17 @@
         <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N28" s="41"/>
+      <c r="N28" s="49"/>
       <c r="O28" s="9">
         <f t="shared" si="1"/>
         <v>5786.3639999999996</v>
       </c>
       <c r="P28" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1500</v>
       </c>
       <c r="Q28" s="23"/>
-      <c r="T28" s="47"/>
+      <c r="T28" s="44"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -2638,7 +2652,7 @@
         <v>22</v>
       </c>
       <c r="I29" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J29" s="12">
@@ -2649,13 +2663,13 @@
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
-      <c r="N29" s="41"/>
+      <c r="N29" s="49"/>
       <c r="O29" s="9">
         <f t="shared" si="1"/>
         <v>5836.3639999999996</v>
       </c>
       <c r="P29" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1550</v>
       </c>
     </row>
@@ -2679,7 +2693,7 @@
         <v>21</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="J30" s="13">
@@ -2688,7 +2702,7 @@
       <c r="K30" s="16"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="42" t="s">
+      <c r="N30" s="50" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="9">
@@ -2696,7 +2710,7 @@
         <v>5916.3639999999996</v>
       </c>
       <c r="P30" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1630</v>
       </c>
     </row>
@@ -2725,7 +2739,7 @@
         <v>22</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J31" s="13">
@@ -2737,13 +2751,13 @@
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="42"/>
+      <c r="N31" s="50"/>
       <c r="O31" s="9">
         <f t="shared" si="1"/>
         <v>5966.3639999999996</v>
       </c>
       <c r="P31" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1680</v>
       </c>
     </row>
@@ -2771,7 +2785,7 @@
         <v>21</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>650</v>
       </c>
       <c r="J32" s="13">
@@ -2786,17 +2800,17 @@
         <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N32" s="42"/>
+      <c r="N32" s="50"/>
       <c r="O32" s="9">
         <f t="shared" si="1"/>
         <v>6616.3639999999996</v>
       </c>
       <c r="P32" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2330</v>
       </c>
       <c r="Q32" s="23"/>
-      <c r="T32" s="47"/>
+      <c r="T32" s="44"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
@@ -2816,7 +2830,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G33" s="7">
         <v>160</v>
@@ -2825,7 +2839,7 @@
         <v>22</v>
       </c>
       <c r="I33" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J33" s="13">
@@ -2836,13 +2850,13 @@
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
-      <c r="N33" s="42"/>
+      <c r="N33" s="50"/>
       <c r="O33" s="9">
         <f t="shared" si="1"/>
         <v>6666.3639999999996</v>
       </c>
-      <c r="P33" s="51">
-        <f t="shared" si="4"/>
+      <c r="P33" s="47">
+        <f t="shared" si="3"/>
         <v>2380</v>
       </c>
     </row>
@@ -2868,7 +2882,7 @@
         <v>21</v>
       </c>
       <c r="I34" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J34" s="12">
@@ -2877,7 +2891,7 @@
       <c r="K34" s="16"/>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
-      <c r="N34" s="41" t="s">
+      <c r="N34" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O34" s="9">
@@ -2885,7 +2899,7 @@
         <v>8666.3639999999996</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="T34" s="45"/>
+      <c r="T34" s="42"/>
     </row>
     <row r="35" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -2912,7 +2926,7 @@
         <v>22</v>
       </c>
       <c r="I35" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J35" s="12">
@@ -2924,7 +2938,7 @@
       </c>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
-      <c r="N35" s="42"/>
+      <c r="N35" s="50"/>
       <c r="O35" s="9">
         <f t="shared" si="1"/>
         <v>8766.3639999999996</v>
@@ -2933,7 +2947,7 @@
         <f>C35</f>
         <v>100</v>
       </c>
-      <c r="T35" s="45"/>
+      <c r="T35" s="42"/>
     </row>
     <row r="36" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -2957,7 +2971,7 @@
         <v>21</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
       <c r="J36" s="12">
@@ -2972,7 +2986,7 @@
         <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
         <v>8.489399932042134E-2</v>
       </c>
-      <c r="N36" s="42"/>
+      <c r="N36" s="50"/>
       <c r="O36" s="9">
         <f t="shared" si="1"/>
         <v>9126.3639999999996</v>
@@ -2981,7 +2995,7 @@
         <f>P35+C36</f>
         <v>460</v>
       </c>
-      <c r="T36" s="45"/>
+      <c r="T36" s="42"/>
     </row>
     <row r="37" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -3009,7 +3023,7 @@
         <v>22</v>
       </c>
       <c r="I37" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J37" s="12">
@@ -3020,7 +3034,7 @@
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
-      <c r="N37" s="42"/>
+      <c r="N37" s="50"/>
       <c r="O37" s="9">
         <f t="shared" si="1"/>
         <v>9226.3639999999996</v>
@@ -3029,7 +3043,7 @@
         <f>P36+C37</f>
         <v>560</v>
       </c>
-      <c r="T37" s="45"/>
+      <c r="T37" s="42"/>
     </row>
     <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
@@ -3053,7 +3067,7 @@
         <v>21</v>
       </c>
       <c r="I38" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J38" s="13">
@@ -3062,7 +3076,7 @@
       <c r="K38" s="16"/>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
-      <c r="N38" s="43" t="s">
+      <c r="N38" s="48" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="9">
@@ -3070,10 +3084,10 @@
         <v>9276.3639999999996</v>
       </c>
       <c r="P38" s="6">
-        <f t="shared" ref="P38:P81" si="5">P37+C38</f>
+        <f t="shared" ref="P38:P81" si="4">P37+C38</f>
         <v>610</v>
       </c>
-      <c r="T38" s="45"/>
+      <c r="T38" s="42"/>
     </row>
     <row r="39" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
@@ -3093,7 +3107,7 @@
         <v>-3000</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G39" s="36">
         <v>180</v>
@@ -3102,7 +3116,7 @@
         <v>22</v>
       </c>
       <c r="I39" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J39" s="13">
@@ -3114,16 +3128,16 @@
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
-      <c r="N39" s="41"/>
+      <c r="N39" s="49"/>
       <c r="O39" s="9">
         <f t="shared" si="1"/>
         <v>9326.3639999999996</v>
       </c>
       <c r="P39" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>660</v>
       </c>
-      <c r="T39" s="45"/>
+      <c r="T39" s="42"/>
     </row>
     <row r="40" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
@@ -3147,7 +3161,7 @@
         <v>21</v>
       </c>
       <c r="I40" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>600</v>
       </c>
       <c r="J40" s="13">
@@ -3162,16 +3176,16 @@
         <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
         <v>8.489399932042134E-2</v>
       </c>
-      <c r="N40" s="41"/>
+      <c r="N40" s="49"/>
       <c r="O40" s="9">
         <f t="shared" si="1"/>
         <v>9926.3639999999996</v>
       </c>
       <c r="P40" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1260</v>
       </c>
-      <c r="T40" s="45"/>
+      <c r="T40" s="42"/>
     </row>
     <row r="41" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
@@ -3199,7 +3213,7 @@
         <v>22</v>
       </c>
       <c r="I41" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J41" s="13">
@@ -3210,16 +3224,16 @@
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
-      <c r="N41" s="41"/>
+      <c r="N41" s="49"/>
       <c r="O41" s="9">
         <f t="shared" si="1"/>
         <v>9976.3639999999996</v>
       </c>
       <c r="P41" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>1310</v>
       </c>
-      <c r="T41" s="45"/>
+      <c r="T41" s="42"/>
     </row>
     <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -3241,7 +3255,7 @@
         <v>21</v>
       </c>
       <c r="I42" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
       <c r="J42" s="12">
@@ -3250,7 +3264,7 @@
       <c r="K42" s="16"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
-      <c r="N42" s="41" t="s">
+      <c r="N42" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O42" s="9">
@@ -3258,10 +3272,10 @@
         <v>12776.364</v>
       </c>
       <c r="P42" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4110</v>
       </c>
-      <c r="T42" s="45"/>
+      <c r="T42" s="42"/>
     </row>
     <row r="43" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -3288,7 +3302,7 @@
         <v>22</v>
       </c>
       <c r="I43" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J43" s="12">
@@ -3300,16 +3314,16 @@
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
-      <c r="N43" s="42"/>
+      <c r="N43" s="50"/>
       <c r="O43" s="9">
         <f t="shared" si="1"/>
         <v>12876.364</v>
       </c>
       <c r="P43" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4210</v>
       </c>
-      <c r="T43" s="45"/>
+      <c r="T43" s="42"/>
     </row>
     <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -3333,7 +3347,7 @@
         <v>21</v>
       </c>
       <c r="I44" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="J44" s="12">
@@ -3348,16 +3362,16 @@
         <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
         <v>6.7017017007350174E-2</v>
       </c>
-      <c r="N44" s="42"/>
+      <c r="N44" s="50"/>
       <c r="O44" s="9">
         <f t="shared" si="1"/>
         <v>13076.364</v>
       </c>
       <c r="P44" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4410</v>
       </c>
-      <c r="T44" s="45"/>
+      <c r="T44" s="42"/>
     </row>
     <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -3385,7 +3399,7 @@
         <v>22</v>
       </c>
       <c r="I45" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J45" s="12">
@@ -3396,16 +3410,16 @@
       </c>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
-      <c r="N45" s="42"/>
+      <c r="N45" s="50"/>
       <c r="O45" s="9">
         <f t="shared" si="1"/>
         <v>13176.364</v>
       </c>
       <c r="P45" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4510</v>
       </c>
-      <c r="T45" s="45"/>
+      <c r="T45" s="42"/>
     </row>
     <row r="46" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
@@ -3427,7 +3441,7 @@
         <v>21</v>
       </c>
       <c r="I46" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="J46" s="13">
@@ -3436,7 +3450,7 @@
       <c r="K46" s="16"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="43" t="s">
+      <c r="N46" s="48" t="s">
         <v>27</v>
       </c>
       <c r="O46" s="9">
@@ -3444,10 +3458,10 @@
         <v>13576.364</v>
       </c>
       <c r="P46" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4910</v>
       </c>
-      <c r="T46" s="45"/>
+      <c r="T46" s="42"/>
     </row>
     <row r="47" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
@@ -3474,7 +3488,7 @@
         <v>22</v>
       </c>
       <c r="I47" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J47" s="13">
@@ -3486,16 +3500,16 @@
       </c>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="41"/>
+      <c r="N47" s="49"/>
       <c r="O47" s="9">
         <f t="shared" si="1"/>
         <v>13676.364</v>
       </c>
       <c r="P47" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5010</v>
       </c>
-      <c r="T47" s="45"/>
+      <c r="T47" s="42"/>
     </row>
     <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -3519,7 +3533,7 @@
         <v>21</v>
       </c>
       <c r="I48" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>200</v>
       </c>
       <c r="J48" s="13">
@@ -3534,16 +3548,16 @@
         <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
         <v>1.2735433231396533E-2</v>
       </c>
-      <c r="N48" s="41"/>
+      <c r="N48" s="49"/>
       <c r="O48" s="9">
         <f t="shared" si="1"/>
         <v>13876.364</v>
       </c>
       <c r="P48" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5210</v>
       </c>
-      <c r="T48" s="45"/>
+      <c r="T48" s="42"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -3571,7 +3585,7 @@
         <v>22</v>
       </c>
       <c r="I49" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J49" s="13">
@@ -3582,13 +3596,13 @@
       </c>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="41"/>
+      <c r="N49" s="49"/>
       <c r="O49" s="9">
         <f t="shared" si="1"/>
         <v>13976.364</v>
       </c>
       <c r="P49" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5310</v>
       </c>
     </row>
@@ -3612,7 +3626,7 @@
         <v>21</v>
       </c>
       <c r="I50" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J50" s="12">
@@ -3621,7 +3635,7 @@
       <c r="K50" s="16"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="41" t="s">
+      <c r="N50" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O50" s="9">
@@ -3629,7 +3643,7 @@
         <v>14076.364</v>
       </c>
       <c r="P50" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5410</v>
       </c>
     </row>
@@ -3658,7 +3672,7 @@
         <v>22</v>
       </c>
       <c r="I51" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J51" s="12">
@@ -3670,13 +3684,13 @@
       </c>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="42"/>
+      <c r="N51" s="50"/>
       <c r="O51" s="9">
         <f t="shared" si="1"/>
         <v>14176.364</v>
       </c>
       <c r="P51" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5510</v>
       </c>
     </row>
@@ -3704,7 +3718,7 @@
         <v>21</v>
       </c>
       <c r="I52" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2400</v>
       </c>
       <c r="J52" s="12">
@@ -3719,17 +3733,17 @@
         <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
         <v>0.10591384580585378</v>
       </c>
-      <c r="N52" s="42"/>
+      <c r="N52" s="50"/>
       <c r="O52" s="9">
         <f t="shared" si="1"/>
         <v>16576.364000000001</v>
       </c>
       <c r="P52" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7910</v>
       </c>
       <c r="Q52" s="23"/>
-      <c r="T52" s="47"/>
+      <c r="T52" s="44"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
@@ -3757,7 +3771,7 @@
         <v>22</v>
       </c>
       <c r="I53" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J53" s="12">
@@ -3768,13 +3782,13 @@
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
-      <c r="N53" s="42"/>
+      <c r="N53" s="50"/>
       <c r="O53" s="9">
         <f t="shared" si="1"/>
         <v>16676.364000000001</v>
       </c>
       <c r="P53" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8010</v>
       </c>
     </row>
@@ -3800,7 +3814,7 @@
         <v>21</v>
       </c>
       <c r="I54" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J54" s="13">
@@ -3809,7 +3823,7 @@
       <c r="K54" s="16"/>
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
-      <c r="N54" s="43" t="s">
+      <c r="N54" s="48" t="s">
         <v>29</v>
       </c>
       <c r="O54" s="9">
@@ -3817,10 +3831,10 @@
         <v>18676.364000000001</v>
       </c>
       <c r="P54" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10010</v>
       </c>
-      <c r="T54" s="45"/>
+      <c r="T54" s="42"/>
     </row>
     <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
@@ -3847,7 +3861,7 @@
         <v>22</v>
       </c>
       <c r="I55" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J55" s="18">
@@ -3859,16 +3873,16 @@
       </c>
       <c r="L55" s="31"/>
       <c r="M55" s="31"/>
-      <c r="N55" s="43"/>
+      <c r="N55" s="48"/>
       <c r="O55" s="9">
         <f t="shared" si="1"/>
         <v>18776.364000000001</v>
       </c>
       <c r="P55" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10110</v>
       </c>
-      <c r="T55" s="45"/>
+      <c r="T55" s="42"/>
     </row>
     <row r="56" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
@@ -3892,7 +3906,7 @@
         <v>21</v>
       </c>
       <c r="I56" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>800</v>
       </c>
       <c r="J56" s="18">
@@ -3907,16 +3921,16 @@
         <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
         <v>8.9838023972227163E-2</v>
       </c>
-      <c r="N56" s="43"/>
+      <c r="N56" s="48"/>
       <c r="O56" s="9">
         <f t="shared" si="1"/>
         <v>19576.364000000001</v>
       </c>
       <c r="P56" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>10910</v>
       </c>
-      <c r="T56" s="45"/>
+      <c r="T56" s="42"/>
     </row>
     <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
@@ -3944,7 +3958,7 @@
         <v>22</v>
       </c>
       <c r="I57" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J57" s="18">
@@ -3955,16 +3969,16 @@
       </c>
       <c r="L57" s="31"/>
       <c r="M57" s="31"/>
-      <c r="N57" s="43"/>
+      <c r="N57" s="48"/>
       <c r="O57" s="9">
         <f t="shared" si="1"/>
         <v>19676.364000000001</v>
       </c>
       <c r="P57" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11010</v>
       </c>
-      <c r="T57" s="45"/>
+      <c r="T57" s="42"/>
     </row>
     <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
@@ -3986,7 +4000,7 @@
         <v>21</v>
       </c>
       <c r="I58" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>250</v>
       </c>
       <c r="J58" s="12">
@@ -3995,7 +4009,7 @@
       <c r="K58" s="16"/>
       <c r="L58" s="31"/>
       <c r="M58" s="31"/>
-      <c r="N58" s="41" t="s">
+      <c r="N58" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O58" s="9">
@@ -4003,10 +4017,10 @@
         <v>19926.364000000001</v>
       </c>
       <c r="P58" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11260</v>
       </c>
-      <c r="T58" s="45"/>
+      <c r="T58" s="42"/>
     </row>
     <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
@@ -4033,7 +4047,7 @@
         <v>22</v>
       </c>
       <c r="I59" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="J59" s="12">
@@ -4045,16 +4059,16 @@
       </c>
       <c r="L59" s="31"/>
       <c r="M59" s="31"/>
-      <c r="N59" s="41"/>
+      <c r="N59" s="49"/>
       <c r="O59" s="9">
         <f t="shared" si="1"/>
         <v>20006.364000000001</v>
       </c>
       <c r="P59" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11340</v>
       </c>
-      <c r="T59" s="45"/>
+      <c r="T59" s="42"/>
     </row>
     <row r="60" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
@@ -4078,7 +4092,7 @@
         <v>21</v>
       </c>
       <c r="I60" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="J60" s="12">
@@ -4093,16 +4107,16 @@
         <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
         <v>5.2416625094910296E-2</v>
       </c>
-      <c r="N60" s="41"/>
+      <c r="N60" s="49"/>
       <c r="O60" s="9">
         <f t="shared" si="1"/>
         <v>20106.364000000001</v>
       </c>
       <c r="P60" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11440</v>
       </c>
-      <c r="T60" s="45"/>
+      <c r="T60" s="42"/>
     </row>
     <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
@@ -4130,7 +4144,7 @@
         <v>22</v>
       </c>
       <c r="I61" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
       <c r="J61" s="12">
@@ -4141,16 +4155,16 @@
       </c>
       <c r="L61" s="31"/>
       <c r="M61" s="31"/>
-      <c r="N61" s="41"/>
+      <c r="N61" s="49"/>
       <c r="O61" s="9">
         <f t="shared" si="1"/>
         <v>20186.364000000001</v>
       </c>
       <c r="P61" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>11520</v>
       </c>
-      <c r="T61" s="45"/>
+      <c r="T61" s="42"/>
     </row>
     <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
@@ -4172,7 +4186,7 @@
         <v>21</v>
       </c>
       <c r="I62" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="J62" s="13">
@@ -4181,7 +4195,7 @@
       <c r="K62" s="16"/>
       <c r="L62" s="31"/>
       <c r="M62" s="31"/>
-      <c r="N62" s="43" t="s">
+      <c r="N62" s="48" t="s">
         <v>27</v>
       </c>
       <c r="O62" s="9">
@@ -4189,10 +4203,10 @@
         <v>22686.364000000001</v>
       </c>
       <c r="P62" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14020</v>
       </c>
-      <c r="T62" s="45"/>
+      <c r="T62" s="42"/>
     </row>
     <row r="63" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
@@ -4219,7 +4233,7 @@
         <v>22</v>
       </c>
       <c r="I63" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="J63" s="18">
@@ -4231,16 +4245,16 @@
       </c>
       <c r="L63" s="31"/>
       <c r="M63" s="31"/>
-      <c r="N63" s="43"/>
+      <c r="N63" s="48"/>
       <c r="O63" s="9">
         <f t="shared" si="1"/>
         <v>22836.364000000001</v>
       </c>
       <c r="P63" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>14170</v>
       </c>
-      <c r="T63" s="45"/>
+      <c r="T63" s="42"/>
     </row>
     <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
@@ -4264,7 +4278,7 @@
         <v>21</v>
       </c>
       <c r="I64" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J64" s="18">
@@ -4279,16 +4293,16 @@
         <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
         <v>3.9314135487849393E-2</v>
       </c>
-      <c r="N64" s="43"/>
+      <c r="N64" s="48"/>
       <c r="O64" s="9">
         <f t="shared" si="1"/>
         <v>24836.364000000001</v>
       </c>
       <c r="P64" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16170</v>
       </c>
-      <c r="T64" s="45"/>
+      <c r="T64" s="42"/>
     </row>
     <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
@@ -4315,7 +4329,7 @@
         <v>22</v>
       </c>
       <c r="I65" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="0"/>
         <v>150</v>
       </c>
       <c r="J65" s="18">
@@ -4326,16 +4340,16 @@
       </c>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
-      <c r="N65" s="43"/>
+      <c r="N65" s="48"/>
       <c r="O65" s="9">
         <f t="shared" si="1"/>
         <v>24986.364000000001</v>
       </c>
       <c r="P65" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>16320</v>
       </c>
-      <c r="T65" s="45"/>
+      <c r="T65" s="42"/>
     </row>
     <row r="66" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
@@ -4357,7 +4371,7 @@
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="I66:I85" si="5">C66</f>
         <v>2000</v>
       </c>
       <c r="J66" s="12">
@@ -4366,7 +4380,7 @@
       <c r="K66" s="16"/>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
-      <c r="N66" s="41" t="s">
+      <c r="N66" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O66" s="9">
@@ -4374,10 +4388,10 @@
         <v>26986.364000000001</v>
       </c>
       <c r="P66" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18320</v>
       </c>
-      <c r="T66" s="45"/>
+      <c r="T66" s="42"/>
     </row>
     <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
@@ -4404,7 +4418,7 @@
         <v>22</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="J67" s="12">
@@ -4416,16 +4430,16 @@
       </c>
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
-      <c r="N67" s="41"/>
+      <c r="N67" s="49"/>
       <c r="O67" s="9">
         <f t="shared" si="1"/>
         <v>27086.364000000001</v>
       </c>
       <c r="P67" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>18420</v>
       </c>
-      <c r="T67" s="45"/>
+      <c r="T67" s="42"/>
     </row>
     <row r="68" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -4449,7 +4463,7 @@
         <v>21</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>900</v>
       </c>
       <c r="J68" s="12">
@@ -4464,16 +4478,16 @@
         <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
         <v>5.2403291761576959E-2</v>
       </c>
-      <c r="N68" s="41"/>
+      <c r="N68" s="49"/>
       <c r="O68" s="9">
         <f t="shared" si="1"/>
         <v>27986.364000000001</v>
       </c>
       <c r="P68" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19320</v>
       </c>
-      <c r="T68" s="45"/>
+      <c r="T68" s="42"/>
     </row>
     <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
@@ -4501,7 +4515,7 @@
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>100</v>
       </c>
       <c r="J69" s="12">
@@ -4512,16 +4526,16 @@
       </c>
       <c r="L69" s="31"/>
       <c r="M69" s="31"/>
-      <c r="N69" s="41"/>
+      <c r="N69" s="49"/>
       <c r="O69" s="9">
-        <f t="shared" ref="O69:O85" si="6">O68+C69</f>
+        <f t="shared" ref="O69:O84" si="6">O68+C69</f>
         <v>28086.364000000001</v>
       </c>
       <c r="P69" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19420</v>
       </c>
-      <c r="T69" s="45"/>
+      <c r="T69" s="42"/>
     </row>
     <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
@@ -4543,7 +4557,7 @@
         <v>21</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="J70" s="13">
@@ -4552,7 +4566,7 @@
       <c r="K70" s="16"/>
       <c r="L70" s="31"/>
       <c r="M70" s="31"/>
-      <c r="N70" s="43" t="s">
+      <c r="N70" s="48" t="s">
         <v>27</v>
       </c>
       <c r="O70" s="9">
@@ -4560,10 +4574,10 @@
         <v>28386.364000000001</v>
       </c>
       <c r="P70" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19720</v>
       </c>
-      <c r="T70" s="45"/>
+      <c r="T70" s="42"/>
     </row>
     <row r="71" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
@@ -4590,7 +4604,7 @@
         <v>22</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="J71" s="18">
@@ -4602,16 +4616,16 @@
       </c>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="43"/>
+      <c r="N71" s="48"/>
       <c r="O71" s="9">
         <f t="shared" si="6"/>
         <v>28506.364000000001</v>
       </c>
       <c r="P71" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>19840</v>
       </c>
-      <c r="T71" s="45"/>
+      <c r="T71" s="42"/>
     </row>
     <row r="72" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
@@ -4635,7 +4649,7 @@
         <v>21</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>800</v>
       </c>
       <c r="J72" s="18">
@@ -4650,16 +4664,16 @@
         <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
         <v>3.1441975056946174E-2</v>
       </c>
-      <c r="N72" s="43"/>
+      <c r="N72" s="48"/>
       <c r="O72" s="9">
         <f t="shared" si="6"/>
         <v>29306.364000000001</v>
       </c>
       <c r="P72" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20640</v>
       </c>
-      <c r="T72" s="45"/>
+      <c r="T72" s="42"/>
     </row>
     <row r="73" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
@@ -4687,7 +4701,7 @@
         <v>22</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>120</v>
       </c>
       <c r="J73" s="18">
@@ -4698,16 +4712,16 @@
       </c>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
-      <c r="N73" s="43"/>
+      <c r="N73" s="48"/>
       <c r="O73" s="9">
         <f t="shared" si="6"/>
         <v>29426.364000000001</v>
       </c>
       <c r="P73" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>20760</v>
       </c>
-      <c r="T73" s="45"/>
+      <c r="T73" s="42"/>
     </row>
     <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
@@ -4729,7 +4743,7 @@
         <v>21</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" ref="I74:I85" si="7">C74</f>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="J74" s="12">
@@ -4738,7 +4752,7 @@
       <c r="K74" s="16"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
-      <c r="N74" s="41" t="s">
+      <c r="N74" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O74" s="9">
@@ -4746,10 +4760,10 @@
         <v>29926.364000000001</v>
       </c>
       <c r="P74" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21260</v>
       </c>
-      <c r="T74" s="45"/>
+      <c r="T74" s="42"/>
     </row>
     <row r="75" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
@@ -4776,7 +4790,7 @@
         <v>22</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J75" s="12">
@@ -4788,16 +4802,16 @@
       </c>
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
-      <c r="N75" s="41"/>
+      <c r="N75" s="49"/>
       <c r="O75" s="9">
         <f t="shared" si="6"/>
         <v>30006.364000000001</v>
       </c>
       <c r="P75" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>21340</v>
       </c>
-      <c r="T75" s="45"/>
+      <c r="T75" s="42"/>
     </row>
     <row r="76" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
@@ -4821,7 +4835,7 @@
         <v>21</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1200</v>
       </c>
       <c r="J76" s="12">
@@ -4836,16 +4850,16 @@
         <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
         <v>0.12093092970620324</v>
       </c>
-      <c r="N76" s="41"/>
+      <c r="N76" s="49"/>
       <c r="O76" s="9">
         <f t="shared" si="6"/>
         <v>31206.364000000001</v>
       </c>
       <c r="P76" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22540</v>
       </c>
-      <c r="T76" s="45"/>
+      <c r="T76" s="42"/>
     </row>
     <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
@@ -4873,7 +4887,7 @@
         <v>22</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J77" s="12">
@@ -4884,16 +4898,16 @@
       </c>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
-      <c r="N77" s="41"/>
+      <c r="N77" s="49"/>
       <c r="O77" s="9">
         <f t="shared" si="6"/>
         <v>31286.364000000001</v>
       </c>
       <c r="P77" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22620</v>
       </c>
-      <c r="T77" s="45"/>
+      <c r="T77" s="42"/>
     </row>
     <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
@@ -4915,7 +4929,7 @@
         <v>21</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="J78" s="13">
@@ -4924,7 +4938,7 @@
       <c r="K78" s="16"/>
       <c r="L78" s="31"/>
       <c r="M78" s="31"/>
-      <c r="N78" s="43" t="s">
+      <c r="N78" s="48" t="s">
         <v>29</v>
       </c>
       <c r="O78" s="9">
@@ -4932,10 +4946,10 @@
         <v>31336.364000000001</v>
       </c>
       <c r="P78" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22670</v>
       </c>
-      <c r="T78" s="45"/>
+      <c r="T78" s="42"/>
     </row>
     <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
@@ -4962,7 +4976,7 @@
         <v>22</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J79" s="18">
@@ -4974,16 +4988,16 @@
       </c>
       <c r="L79" s="31"/>
       <c r="M79" s="31"/>
-      <c r="N79" s="43"/>
+      <c r="N79" s="48"/>
       <c r="O79" s="9">
         <f t="shared" si="6"/>
         <v>31416.364000000001</v>
       </c>
       <c r="P79" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>22750</v>
       </c>
-      <c r="T79" s="45"/>
+      <c r="T79" s="42"/>
     </row>
     <row r="80" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
@@ -5007,7 +5021,7 @@
         <v>21</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="J80" s="18">
@@ -5022,16 +5036,16 @@
         <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N80" s="43"/>
+      <c r="N80" s="48"/>
       <c r="O80" s="9">
         <f t="shared" si="6"/>
         <v>31816.364000000001</v>
       </c>
       <c r="P80" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>23150</v>
       </c>
-      <c r="T80" s="45"/>
+      <c r="T80" s="42"/>
     </row>
     <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
@@ -5059,7 +5073,7 @@
         <v>22</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>80</v>
       </c>
       <c r="J81" s="18">
@@ -5070,16 +5084,16 @@
       </c>
       <c r="L81" s="31"/>
       <c r="M81" s="31"/>
-      <c r="N81" s="43"/>
+      <c r="N81" s="48"/>
       <c r="O81" s="9">
         <f t="shared" si="6"/>
         <v>31896.364000000001</v>
       </c>
-      <c r="P81" s="51">
-        <f t="shared" si="5"/>
+      <c r="P81" s="47">
+        <f t="shared" si="4"/>
         <v>23230</v>
       </c>
-      <c r="T81" s="45"/>
+      <c r="T81" s="42"/>
     </row>
     <row r="82" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
@@ -5103,7 +5117,7 @@
         <v>21</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="J82" s="12">
@@ -5112,7 +5126,7 @@
       <c r="K82" s="16"/>
       <c r="L82" s="31"/>
       <c r="M82" s="31"/>
-      <c r="N82" s="41" t="s">
+      <c r="N82" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O82" s="9">
@@ -5120,7 +5134,7 @@
         <v>33896.364000000001</v>
       </c>
       <c r="P82" s="6"/>
-      <c r="T82" s="45"/>
+      <c r="T82" s="42"/>
     </row>
     <row r="83" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
@@ -5147,7 +5161,7 @@
         <v>22</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="J83" s="12">
@@ -5159,7 +5173,7 @@
       </c>
       <c r="L83" s="31"/>
       <c r="M83" s="31"/>
-      <c r="N83" s="41"/>
+      <c r="N83" s="49"/>
       <c r="O83" s="9">
         <f t="shared" si="6"/>
         <v>33946.364000000001</v>
@@ -5168,7 +5182,7 @@
         <f>C83</f>
         <v>50</v>
       </c>
-      <c r="T83" s="45"/>
+      <c r="T83" s="42"/>
     </row>
     <row r="84" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
@@ -5192,7 +5206,7 @@
         <v>21</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>50</v>
       </c>
       <c r="J84" s="12">
@@ -5207,7 +5221,7 @@
         <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
         <v>0</v>
       </c>
-      <c r="N84" s="41"/>
+      <c r="N84" s="49"/>
       <c r="O84" s="9">
         <f t="shared" si="6"/>
         <v>33996.364000000001</v>
@@ -5216,7 +5230,7 @@
         <f>P83+C84</f>
         <v>100</v>
       </c>
-      <c r="T84" s="45"/>
+      <c r="T84" s="42"/>
     </row>
     <row r="85" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
@@ -5255,16 +5269,16 @@
       </c>
       <c r="L85" s="31"/>
       <c r="M85" s="31"/>
-      <c r="N85" s="41"/>
+      <c r="N85" s="49"/>
       <c r="O85" s="9">
         <f>O84+D85</f>
         <v>83996.364000000001</v>
       </c>
-      <c r="P85" s="51">
-        <f>P84+D85</f>
-        <v>50100</v>
-      </c>
-      <c r="T85" s="45"/>
+      <c r="P85" s="47">
+        <f>P84+C85</f>
+        <v>150</v>
+      </c>
+      <c r="T85" s="42"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G86" s="1"/>
@@ -5627,27 +5641,27 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
     <mergeCell ref="N82:N85"/>
     <mergeCell ref="N42:N45"/>
     <mergeCell ref="N46:N49"/>
     <mergeCell ref="N50:N53"/>
     <mergeCell ref="N54:N57"/>
     <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="N78:N81"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5655,6 +5669,4611 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D550FADC-50E6-46E8-AA1D-7BBB001274F1}">
+  <dimension ref="A1:V85"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:V85"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="18.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="S1" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V1" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3">
+        <v>300</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="9">
+        <v>80</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="3">
+        <f t="shared" ref="I2:I65" si="0">C2</f>
+        <v>300</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0</v>
+      </c>
+      <c r="K2" s="37"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="9">
+        <v>300</v>
+      </c>
+      <c r="P2" s="6">
+        <f>C2</f>
+        <v>300</v>
+      </c>
+      <c r="Q2" s="46">
+        <v>1</v>
+      </c>
+      <c r="R2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S2" s="41">
+        <v>4086.364</v>
+      </c>
+      <c r="T2" s="45">
+        <v>0</v>
+      </c>
+      <c r="U2" s="45"/>
+      <c r="V2" s="41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="19">
+        <f>55/2</f>
+        <v>27.5</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <f>D4</f>
+        <v>-1500</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9">
+        <v>80</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="19">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="J3" s="22">
+        <v>0</v>
+      </c>
+      <c r="K3" s="22">
+        <f>J4</f>
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="9">
+        <f>O2+C3</f>
+        <v>327.5</v>
+      </c>
+      <c r="P3" s="6">
+        <f>P2+C3</f>
+        <v>327.5</v>
+      </c>
+      <c r="Q3" s="46">
+        <v>2</v>
+      </c>
+      <c r="R3" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="41">
+        <v>5</v>
+      </c>
+      <c r="T3" s="45">
+        <v>0</v>
+      </c>
+      <c r="U3" s="45"/>
+      <c r="V3" s="41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="19">
+        <v>138.893</v>
+      </c>
+      <c r="D4" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="9">
+        <v>80</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="19">
+        <f t="shared" si="0"/>
+        <v>138.893</v>
+      </c>
+      <c r="J4" s="22">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="K4" s="38"/>
+      <c r="L4" s="18">
+        <f>G4*G4/ABS(D4)*11.8-ABS(J4)</f>
+        <v>50.292666666666669</v>
+      </c>
+      <c r="M4" s="18">
+        <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
+        <v>3.3523440060742586E-2</v>
+      </c>
+      <c r="N4" s="49"/>
+      <c r="O4" s="9">
+        <f>O3+C4</f>
+        <v>466.39300000000003</v>
+      </c>
+      <c r="P4" s="6">
+        <f>P3+C4</f>
+        <v>466.39300000000003</v>
+      </c>
+      <c r="Q4" s="46">
+        <v>3</v>
+      </c>
+      <c r="R4" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="S4" s="41">
+        <v>20</v>
+      </c>
+      <c r="T4" s="45">
+        <v>0</v>
+      </c>
+      <c r="U4" s="45">
+        <f>T5</f>
+        <v>0.05</v>
+      </c>
+      <c r="V4" s="41"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="19">
+        <f>C3</f>
+        <v>27.5</v>
+      </c>
+      <c r="D5" s="3">
+        <f>D4</f>
+        <v>-1500</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="9">
+        <v>80</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="19">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+      <c r="J5" s="22">
+        <v>-5.3999999999999999E-2</v>
+      </c>
+      <c r="K5" s="22">
+        <v>0</v>
+      </c>
+      <c r="L5" s="31"/>
+      <c r="M5" s="31"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="9">
+        <f t="shared" ref="O5:O68" si="1">O4+C5</f>
+        <v>493.89300000000003</v>
+      </c>
+      <c r="P5" s="6">
+        <f t="shared" ref="P5:P21" si="2">P4+C5</f>
+        <v>493.89300000000003</v>
+      </c>
+      <c r="Q5" s="46">
+        <v>4</v>
+      </c>
+      <c r="R5" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="41">
+        <v>150</v>
+      </c>
+      <c r="T5" s="45">
+        <f>50/1000</f>
+        <v>0.05</v>
+      </c>
+      <c r="U5" s="45"/>
+      <c r="V5" s="41"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="25">
+        <v>250</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="9">
+        <v>80</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="25">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J6" s="39">
+        <v>0</v>
+      </c>
+      <c r="K6" s="38"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="9">
+        <f t="shared" si="1"/>
+        <v>743.89300000000003</v>
+      </c>
+      <c r="P6" s="6">
+        <f t="shared" si="2"/>
+        <v>743.89300000000003</v>
+      </c>
+      <c r="Q6" s="46">
+        <v>5</v>
+      </c>
+      <c r="R6" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="S6" s="41">
+        <v>20</v>
+      </c>
+      <c r="T6" s="45">
+        <f>T5</f>
+        <v>0.05</v>
+      </c>
+      <c r="U6" s="45">
+        <v>0</v>
+      </c>
+      <c r="V6" s="41"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="25">
+        <f>85/2</f>
+        <v>42.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0</v>
+      </c>
+      <c r="E7" s="4">
+        <f>D8</f>
+        <v>650</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="9">
+        <v>80</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="25">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="J7" s="39">
+        <v>0</v>
+      </c>
+      <c r="K7" s="39">
+        <f>J8</f>
+        <v>0.12</v>
+      </c>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="50"/>
+      <c r="O7" s="9">
+        <f t="shared" si="1"/>
+        <v>786.39300000000003</v>
+      </c>
+      <c r="P7" s="6">
+        <f t="shared" si="2"/>
+        <v>786.39300000000003</v>
+      </c>
+      <c r="Q7" s="46">
+        <v>6</v>
+      </c>
+      <c r="R7" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="41">
+        <v>5</v>
+      </c>
+      <c r="T7" s="45">
+        <v>0</v>
+      </c>
+      <c r="U7" s="45"/>
+      <c r="V7" s="41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="25">
+        <v>565.17399999999998</v>
+      </c>
+      <c r="D8" s="4">
+        <v>650</v>
+      </c>
+      <c r="E8" s="15"/>
+      <c r="F8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G8" s="9">
+        <v>80</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="25">
+        <f t="shared" si="0"/>
+        <v>565.17399999999998</v>
+      </c>
+      <c r="J8" s="39">
+        <v>0.12</v>
+      </c>
+      <c r="K8" s="38"/>
+      <c r="L8" s="33">
+        <f>G8*G8/ABS(D8)*11.8-ABS(J8)</f>
+        <v>116.06461538461539</v>
+      </c>
+      <c r="M8" s="33">
+        <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
+        <v>7.7364861678636737E-2</v>
+      </c>
+      <c r="N8" s="50"/>
+      <c r="O8" s="9">
+        <f t="shared" si="1"/>
+        <v>1351.567</v>
+      </c>
+      <c r="P8" s="6">
+        <f t="shared" si="2"/>
+        <v>1351.567</v>
+      </c>
+      <c r="Q8" s="46">
+        <v>7</v>
+      </c>
+      <c r="R8" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="41">
+        <v>2380</v>
+      </c>
+      <c r="T8" s="45">
+        <v>0</v>
+      </c>
+      <c r="U8" s="45"/>
+      <c r="V8" s="41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="25">
+        <f>C7</f>
+        <v>42.5</v>
+      </c>
+      <c r="D9" s="4">
+        <f>D8</f>
+        <v>650</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="9">
+        <v>80</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="25">
+        <f t="shared" si="0"/>
+        <v>42.5</v>
+      </c>
+      <c r="J9" s="39">
+        <v>0.12</v>
+      </c>
+      <c r="K9" s="39">
+        <v>0</v>
+      </c>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="9">
+        <f t="shared" si="1"/>
+        <v>1394.067</v>
+      </c>
+      <c r="P9" s="6">
+        <f t="shared" si="2"/>
+        <v>1394.067</v>
+      </c>
+      <c r="Q9" s="46">
+        <v>8</v>
+      </c>
+      <c r="R9" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="41">
+        <v>50</v>
+      </c>
+      <c r="T9" s="45">
+        <v>0</v>
+      </c>
+      <c r="U9" s="45"/>
+      <c r="V9" s="41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="19">
+        <v>50</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="9">
+        <v>80</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="19">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0</v>
+      </c>
+      <c r="K10" s="38"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="9">
+        <f t="shared" si="1"/>
+        <v>1444.067</v>
+      </c>
+      <c r="P10" s="6">
+        <f t="shared" si="2"/>
+        <v>1444.067</v>
+      </c>
+      <c r="Q10" s="46">
+        <v>9</v>
+      </c>
+      <c r="R10" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="41">
+        <v>50</v>
+      </c>
+      <c r="T10" s="45">
+        <v>0</v>
+      </c>
+      <c r="U10" s="45">
+        <f>T11</f>
+        <v>0.03</v>
+      </c>
+      <c r="V10" s="41"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="19">
+        <f>75/2</f>
+        <v>37.5</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="3">
+        <f>D12</f>
+        <v>-550</v>
+      </c>
+      <c r="F11" s="15"/>
+      <c r="G11" s="9">
+        <v>80</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="19">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <f>J12</f>
+        <v>-0.12</v>
+      </c>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="9">
+        <f t="shared" si="1"/>
+        <v>1481.567</v>
+      </c>
+      <c r="P11" s="6">
+        <f t="shared" si="2"/>
+        <v>1481.567</v>
+      </c>
+      <c r="Q11" s="46">
+        <v>10</v>
+      </c>
+      <c r="R11" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S11" s="41">
+        <v>650</v>
+      </c>
+      <c r="T11" s="45">
+        <f>30/1000</f>
+        <v>0.03</v>
+      </c>
+      <c r="U11" s="45"/>
+      <c r="V11" s="41"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="19">
+        <v>257.29700000000003</v>
+      </c>
+      <c r="D12" s="3">
+        <v>-550</v>
+      </c>
+      <c r="E12" s="15"/>
+      <c r="F12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>80</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" s="19">
+        <f t="shared" si="0"/>
+        <v>257.29700000000003</v>
+      </c>
+      <c r="J12" s="22">
+        <v>-0.12</v>
+      </c>
+      <c r="K12" s="38"/>
+      <c r="L12" s="32">
+        <f>G12*G12/ABS(D12)*11.8-ABS(J12)</f>
+        <v>137.18909090909091</v>
+      </c>
+      <c r="M12" s="32">
+        <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
+        <v>9.1445745620207047E-2</v>
+      </c>
+      <c r="N12" s="49"/>
+      <c r="O12" s="9">
+        <f t="shared" si="1"/>
+        <v>1738.864</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="2"/>
+        <v>1738.864</v>
+      </c>
+      <c r="Q12" s="46">
+        <v>11</v>
+      </c>
+      <c r="R12" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="S12" s="41">
+        <v>50</v>
+      </c>
+      <c r="T12" s="45">
+        <f>T11</f>
+        <v>0.03</v>
+      </c>
+      <c r="U12" s="45">
+        <v>0</v>
+      </c>
+      <c r="V12" s="41"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="19">
+        <f>C11</f>
+        <v>37.5</v>
+      </c>
+      <c r="D13" s="3">
+        <f>D12</f>
+        <v>-550</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="9">
+        <v>80</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="19">
+        <f t="shared" si="0"/>
+        <v>37.5</v>
+      </c>
+      <c r="J13" s="22">
+        <v>-0.12</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="31"/>
+      <c r="M13" s="31"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="9">
+        <f t="shared" si="1"/>
+        <v>1776.364</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="2"/>
+        <v>1776.364</v>
+      </c>
+      <c r="Q13" s="46">
+        <v>12</v>
+      </c>
+      <c r="R13" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S13" s="41">
+        <v>1200</v>
+      </c>
+      <c r="T13" s="45">
+        <v>0</v>
+      </c>
+      <c r="U13" s="45"/>
+      <c r="V13" s="41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
+        <v>950</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="9">
+        <v>80</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="4">
+        <f t="shared" si="0"/>
+        <v>950</v>
+      </c>
+      <c r="J14" s="13">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="9">
+        <f t="shared" si="1"/>
+        <v>2726.364</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="2"/>
+        <v>2726.364</v>
+      </c>
+      <c r="Q14" s="46">
+        <v>13</v>
+      </c>
+      <c r="R14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S14" s="41">
+        <v>23230</v>
+      </c>
+      <c r="T14" s="45">
+        <v>0</v>
+      </c>
+      <c r="U14" s="45"/>
+      <c r="V14" s="41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4">
+        <v>80</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <f>D16</f>
+        <v>450</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="9">
+        <v>80</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J15" s="13">
+        <v>0</v>
+      </c>
+      <c r="K15" s="13">
+        <f>J16</f>
+        <v>0.1</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="31"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="9">
+        <f t="shared" si="1"/>
+        <v>2806.364</v>
+      </c>
+      <c r="P15" s="6">
+        <f t="shared" si="2"/>
+        <v>2806.364</v>
+      </c>
+      <c r="Q15" s="46">
+        <v>14</v>
+      </c>
+      <c r="R15" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S15" s="41">
+        <v>50</v>
+      </c>
+      <c r="T15" s="45">
+        <v>0</v>
+      </c>
+      <c r="U15" s="45"/>
+      <c r="V15" s="41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="4">
+        <v>800</v>
+      </c>
+      <c r="D16" s="4">
+        <v>450</v>
+      </c>
+      <c r="E16" s="15"/>
+      <c r="F16" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="9">
+        <v>80</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="33">
+        <f>G16*G16/ABS(D16)*11.8-ABS(J16)</f>
+        <v>167.72222222222223</v>
+      </c>
+      <c r="M16" s="33">
+        <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
+        <v>0.11179813353580861</v>
+      </c>
+      <c r="N16" s="50"/>
+      <c r="O16" s="9">
+        <f t="shared" si="1"/>
+        <v>3606.364</v>
+      </c>
+      <c r="P16" s="6">
+        <f t="shared" si="2"/>
+        <v>3606.364</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>15</v>
+      </c>
+      <c r="R16" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="S16" s="41">
+        <v>50</v>
+      </c>
+      <c r="T16" s="45">
+        <v>0</v>
+      </c>
+      <c r="U16" s="45">
+        <f>T17</f>
+        <v>-0.03</v>
+      </c>
+      <c r="V16" s="41"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4">
+        <f>C15</f>
+        <v>80</v>
+      </c>
+      <c r="D17" s="4">
+        <f>D16</f>
+        <v>450</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="9">
+        <v>80</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J17" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="K17" s="13">
+        <v>0</v>
+      </c>
+      <c r="L17" s="31"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="50"/>
+      <c r="O17" s="9">
+        <f t="shared" si="1"/>
+        <v>3686.364</v>
+      </c>
+      <c r="P17" s="6">
+        <f t="shared" si="2"/>
+        <v>3686.364</v>
+      </c>
+      <c r="Q17" s="46">
+        <v>16</v>
+      </c>
+      <c r="R17" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="41">
+        <v>650</v>
+      </c>
+      <c r="T17" s="45">
+        <f>-30/1000</f>
+        <v>-0.03</v>
+      </c>
+      <c r="U17" s="45"/>
+      <c r="V17" s="41"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" s="3">
+        <v>50</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" s="9">
+        <v>80</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0</v>
+      </c>
+      <c r="K18" s="16"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O18" s="9">
+        <f t="shared" si="1"/>
+        <v>3736.364</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" si="2"/>
+        <v>3736.364</v>
+      </c>
+      <c r="Q18" s="46">
+        <v>17</v>
+      </c>
+      <c r="R18" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="S18" s="41">
+        <v>50</v>
+      </c>
+      <c r="T18" s="45">
+        <f>T17</f>
+        <v>-0.03</v>
+      </c>
+      <c r="U18" s="45">
+        <v>0</v>
+      </c>
+      <c r="V18" s="41"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="3">
+        <v>100</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0</v>
+      </c>
+      <c r="E19" s="3">
+        <f>D20</f>
+        <v>-600</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="9">
+        <v>80</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12">
+        <f>J20</f>
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="L19" s="31"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="49"/>
+      <c r="O19" s="9">
+        <f t="shared" si="1"/>
+        <v>3836.364</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="2"/>
+        <v>3836.364</v>
+      </c>
+      <c r="Q19" s="46">
+        <v>18</v>
+      </c>
+      <c r="R19" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S19" s="41">
+        <v>1200</v>
+      </c>
+      <c r="T19" s="45">
+        <v>0</v>
+      </c>
+      <c r="U19" s="45"/>
+      <c r="V19" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="3">
+        <v>150</v>
+      </c>
+      <c r="D20" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="9">
+        <v>80</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="3">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="J20" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K20" s="16"/>
+      <c r="L20" s="32">
+        <f>G20*G20/ABS(D20)*11.8-ABS(J20)</f>
+        <v>125.79666666666668</v>
+      </c>
+      <c r="M20" s="32">
+        <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
+        <v>8.3851933485189795E-2</v>
+      </c>
+      <c r="N20" s="49"/>
+      <c r="O20" s="9">
+        <f t="shared" si="1"/>
+        <v>3986.364</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="2"/>
+        <v>3986.364</v>
+      </c>
+      <c r="Q20" s="46">
+        <v>19</v>
+      </c>
+      <c r="R20" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S20" s="41">
+        <v>150</v>
+      </c>
+      <c r="T20" s="45">
+        <v>0</v>
+      </c>
+      <c r="U20" s="45"/>
+      <c r="V20" s="41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="3">
+        <v>100</v>
+      </c>
+      <c r="D21" s="3">
+        <f>D20</f>
+        <v>-600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="9">
+        <v>80</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J21" s="12">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="K21" s="12">
+        <v>0</v>
+      </c>
+      <c r="L21" s="31"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="49"/>
+      <c r="O21" s="9">
+        <f t="shared" si="1"/>
+        <v>4086.364</v>
+      </c>
+      <c r="P21" s="47">
+        <f t="shared" si="2"/>
+        <v>4086.364</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>21</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="25">
+        <v>200</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="7">
+        <v>100</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J22" s="13">
+        <v>0</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="O22" s="9">
+        <f t="shared" si="1"/>
+        <v>4286.3639999999996</v>
+      </c>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="42"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="4">
+        <v>150</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0</v>
+      </c>
+      <c r="E23" s="4">
+        <f>D24</f>
+        <v>2000</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="7">
+        <v>100</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="4">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <f>J24</f>
+        <v>0.03</v>
+      </c>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="50"/>
+      <c r="O23" s="9">
+        <f t="shared" si="1"/>
+        <v>4436.3639999999996</v>
+      </c>
+      <c r="P23" s="6">
+        <f>C23</f>
+        <v>150</v>
+      </c>
+      <c r="Q23" s="5"/>
+      <c r="T23" s="43"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="4">
+        <v>600</v>
+      </c>
+      <c r="D24" s="4">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="7">
+        <v>100</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I24" s="4">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="J24" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="K24" s="16"/>
+      <c r="L24" s="33">
+        <f>G24*G24/ABS(D24)*11.8-ABS(J24)</f>
+        <v>58.97</v>
+      </c>
+      <c r="M24" s="33">
+        <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
+        <v>3.9307468821182724E-2</v>
+      </c>
+      <c r="N24" s="50"/>
+      <c r="O24" s="9">
+        <f t="shared" si="1"/>
+        <v>5036.3639999999996</v>
+      </c>
+      <c r="P24" s="6">
+        <f>P23+C24</f>
+        <v>750</v>
+      </c>
+      <c r="Q24" s="5"/>
+      <c r="T24" s="43"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="4">
+        <f>C23</f>
+        <v>150</v>
+      </c>
+      <c r="D25" s="4">
+        <f>D24</f>
+        <v>2000</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="7">
+        <v>100</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="4">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="J25" s="13">
+        <v>0.03</v>
+      </c>
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="50"/>
+      <c r="O25" s="9">
+        <f t="shared" si="1"/>
+        <v>5186.3639999999996</v>
+      </c>
+      <c r="P25" s="6">
+        <f>P24+C25</f>
+        <v>900</v>
+      </c>
+      <c r="Q25" s="5"/>
+      <c r="T25" s="43"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="3">
+        <v>50</v>
+      </c>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="7">
+        <v>160</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I26" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O26" s="9">
+        <f t="shared" si="1"/>
+        <v>5236.3639999999996</v>
+      </c>
+      <c r="P26" s="6">
+        <f>P25+C26</f>
+        <v>950</v>
+      </c>
+      <c r="Q26" s="5"/>
+      <c r="T26" s="43"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" s="3">
+        <v>50</v>
+      </c>
+      <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
+        <f>D28</f>
+        <v>-1600</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" s="7">
+        <v>160</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I27" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J27" s="12">
+        <v>0</v>
+      </c>
+      <c r="K27" s="12">
+        <f>J28</f>
+        <v>-0.12</v>
+      </c>
+      <c r="L27" s="31"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="49"/>
+      <c r="O27" s="9">
+        <f t="shared" si="1"/>
+        <v>5286.3639999999996</v>
+      </c>
+      <c r="P27" s="6">
+        <f t="shared" ref="P27:P33" si="3">P26+C27</f>
+        <v>1000</v>
+      </c>
+      <c r="Q27" s="5"/>
+      <c r="T27" s="43"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="3">
+        <v>500</v>
+      </c>
+      <c r="D28" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E28" s="20"/>
+      <c r="F28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G28" s="7">
+        <v>160</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="J28" s="12">
+        <v>-0.12</v>
+      </c>
+      <c r="K28" s="12"/>
+      <c r="L28" s="32">
+        <f>G28*G28/ABS(D28)*11.8-ABS(J28)</f>
+        <v>188.68</v>
+      </c>
+      <c r="M28" s="32">
+        <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
+        <v>0.1257679002277847</v>
+      </c>
+      <c r="N28" s="49"/>
+      <c r="O28" s="9">
+        <f t="shared" si="1"/>
+        <v>5786.3639999999996</v>
+      </c>
+      <c r="P28" s="6">
+        <f t="shared" si="3"/>
+        <v>1500</v>
+      </c>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="44"/>
+      <c r="U28" s="24"/>
+      <c r="V28" s="24"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" s="3">
+        <f>C27</f>
+        <v>50</v>
+      </c>
+      <c r="D29" s="3">
+        <f>D28</f>
+        <v>-1600</v>
+      </c>
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="7">
+        <v>160</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J29" s="12">
+        <v>-0.12</v>
+      </c>
+      <c r="K29" s="12">
+        <v>0</v>
+      </c>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="49"/>
+      <c r="O29" s="9">
+        <f t="shared" si="1"/>
+        <v>5836.3639999999996</v>
+      </c>
+      <c r="P29" s="6">
+        <f t="shared" si="3"/>
+        <v>1550</v>
+      </c>
+      <c r="Q29" s="5"/>
+      <c r="T29" s="43"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="4">
+        <v>80</v>
+      </c>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="7">
+        <v>160</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I30" s="4">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J30" s="13">
+        <v>0</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="50" t="s">
+        <v>27</v>
+      </c>
+      <c r="O30" s="9">
+        <f t="shared" si="1"/>
+        <v>5916.3639999999996</v>
+      </c>
+      <c r="P30" s="6">
+        <f t="shared" si="3"/>
+        <v>1630</v>
+      </c>
+      <c r="Q30" s="5"/>
+      <c r="T30" s="43"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="4">
+        <v>50</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0</v>
+      </c>
+      <c r="E31" s="4">
+        <f>D32</f>
+        <v>-1600</v>
+      </c>
+      <c r="F31" s="15"/>
+      <c r="G31" s="7">
+        <v>160</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J31" s="13">
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <f>J32</f>
+        <v>-0.12</v>
+      </c>
+      <c r="L31" s="31"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="9">
+        <f t="shared" si="1"/>
+        <v>5966.3639999999996</v>
+      </c>
+      <c r="P31" s="6">
+        <f t="shared" si="3"/>
+        <v>1680</v>
+      </c>
+      <c r="Q31" s="5"/>
+      <c r="T31" s="43"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="4">
+        <v>650</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G32" s="7">
+        <v>160</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I32" s="4">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="J32" s="13">
+        <v>-0.12</v>
+      </c>
+      <c r="K32" s="38"/>
+      <c r="L32" s="34">
+        <f>G32*G32/ABS(D32)*11.8-ABS(J32)</f>
+        <v>188.68</v>
+      </c>
+      <c r="M32" s="34">
+        <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
+        <v>0.1257679002277847</v>
+      </c>
+      <c r="N32" s="50"/>
+      <c r="O32" s="9">
+        <f t="shared" si="1"/>
+        <v>6616.3639999999996</v>
+      </c>
+      <c r="P32" s="6">
+        <f t="shared" si="3"/>
+        <v>2330</v>
+      </c>
+      <c r="Q32" s="23"/>
+      <c r="R32" s="24"/>
+      <c r="S32" s="24"/>
+      <c r="T32" s="44"/>
+      <c r="U32" s="24"/>
+      <c r="V32" s="24"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="4">
+        <v>50</v>
+      </c>
+      <c r="D33" s="4">
+        <f>D32</f>
+        <v>-1600</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="7">
+        <v>160</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J33" s="13">
+        <v>-0.12</v>
+      </c>
+      <c r="K33" s="13">
+        <v>0</v>
+      </c>
+      <c r="L33" s="31"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="9">
+        <f t="shared" si="1"/>
+        <v>6666.3639999999996</v>
+      </c>
+      <c r="P33" s="47">
+        <f t="shared" si="3"/>
+        <v>2380</v>
+      </c>
+      <c r="Q33" s="5"/>
+      <c r="T33" s="43"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" s="19">
+        <v>2000</v>
+      </c>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7">
+        <v>180</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I34" s="3">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J34" s="12">
+        <v>0</v>
+      </c>
+      <c r="K34" s="16"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O34" s="9">
+        <f t="shared" si="1"/>
+        <v>8666.3639999999996</v>
+      </c>
+      <c r="P34" s="6"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="42"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C35" s="3">
+        <v>100</v>
+      </c>
+      <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
+        <f>D36</f>
+        <v>3000</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="36">
+        <v>180</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I35" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J35" s="12">
+        <v>0</v>
+      </c>
+      <c r="K35" s="12">
+        <f>J36</f>
+        <v>0.08</v>
+      </c>
+      <c r="L35" s="31"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="9">
+        <f t="shared" si="1"/>
+        <v>8766.3639999999996</v>
+      </c>
+      <c r="P35" s="6">
+        <f>C35</f>
+        <v>100</v>
+      </c>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="5"/>
+      <c r="T35" s="42"/>
+      <c r="U35" s="5"/>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="3">
+        <v>360</v>
+      </c>
+      <c r="D36" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="36">
+        <v>180</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I36" s="3">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="J36" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K36" s="16"/>
+      <c r="L36" s="32">
+        <f>G36*G36/ABS(D36)*11.8-ABS(J36)</f>
+        <v>127.36000000000001</v>
+      </c>
+      <c r="M36" s="32">
+        <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
+        <v>8.489399932042134E-2</v>
+      </c>
+      <c r="N36" s="50"/>
+      <c r="O36" s="9">
+        <f t="shared" si="1"/>
+        <v>9126.3639999999996</v>
+      </c>
+      <c r="P36" s="6">
+        <f>P35+C36</f>
+        <v>460</v>
+      </c>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="5"/>
+      <c r="T36" s="42"/>
+      <c r="U36" s="5"/>
+      <c r="V36" s="5"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="3">
+        <f>C35</f>
+        <v>100</v>
+      </c>
+      <c r="D37" s="3">
+        <f>D36</f>
+        <v>3000</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="15"/>
+      <c r="G37" s="36">
+        <v>180</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I37" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.08</v>
+      </c>
+      <c r="K37" s="12">
+        <v>0</v>
+      </c>
+      <c r="L37" s="31"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="50"/>
+      <c r="O37" s="9">
+        <f t="shared" si="1"/>
+        <v>9226.3639999999996</v>
+      </c>
+      <c r="P37" s="6">
+        <f>P36+C37</f>
+        <v>560</v>
+      </c>
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="5"/>
+      <c r="T37" s="42"/>
+      <c r="U37" s="5"/>
+      <c r="V37" s="5"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4">
+        <v>50</v>
+      </c>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="36">
+        <v>180</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J38" s="13">
+        <v>0</v>
+      </c>
+      <c r="K38" s="16"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="9">
+        <f t="shared" si="1"/>
+        <v>9276.3639999999996</v>
+      </c>
+      <c r="P38" s="6">
+        <f t="shared" ref="P38:P81" si="4">P37+C38</f>
+        <v>610</v>
+      </c>
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="5"/>
+      <c r="T38" s="42"/>
+      <c r="U38" s="5"/>
+      <c r="V38" s="5"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="4">
+        <v>50</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0</v>
+      </c>
+      <c r="E39" s="4">
+        <f>D40</f>
+        <v>-3000</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G39" s="36">
+        <v>180</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J39" s="13">
+        <v>0</v>
+      </c>
+      <c r="K39" s="13">
+        <f>J40</f>
+        <v>-0.08</v>
+      </c>
+      <c r="L39" s="31"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="49"/>
+      <c r="O39" s="9">
+        <f t="shared" si="1"/>
+        <v>9326.3639999999996</v>
+      </c>
+      <c r="P39" s="6">
+        <f t="shared" si="4"/>
+        <v>660</v>
+      </c>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="42"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <v>600</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-3000</v>
+      </c>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="36">
+        <v>180</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="J40" s="13">
+        <v>-0.08</v>
+      </c>
+      <c r="K40" s="16"/>
+      <c r="L40" s="33">
+        <f>G40*G40/ABS(D40)*11.8-ABS(J40)</f>
+        <v>127.36000000000001</v>
+      </c>
+      <c r="M40" s="33">
+        <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
+        <v>8.489399932042134E-2</v>
+      </c>
+      <c r="N40" s="49"/>
+      <c r="O40" s="9">
+        <f t="shared" si="1"/>
+        <v>9926.3639999999996</v>
+      </c>
+      <c r="P40" s="6">
+        <f t="shared" si="4"/>
+        <v>1260</v>
+      </c>
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="5"/>
+      <c r="T40" s="42"/>
+      <c r="U40" s="5"/>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="4">
+        <f>C39</f>
+        <v>50</v>
+      </c>
+      <c r="D41" s="4">
+        <f>D40</f>
+        <v>-3000</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="15"/>
+      <c r="G41" s="36">
+        <v>180</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="J41" s="13">
+        <v>-0.08</v>
+      </c>
+      <c r="K41" s="13">
+        <v>0</v>
+      </c>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="49"/>
+      <c r="O41" s="9">
+        <f t="shared" si="1"/>
+        <v>9976.3639999999996</v>
+      </c>
+      <c r="P41" s="6">
+        <f t="shared" si="4"/>
+        <v>1310</v>
+      </c>
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="5"/>
+      <c r="T41" s="42"/>
+      <c r="U41" s="5"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="3">
+        <v>2800</v>
+      </c>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="36">
+        <v>180</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I42" s="3">
+        <f t="shared" si="0"/>
+        <v>2800</v>
+      </c>
+      <c r="J42" s="12">
+        <v>0</v>
+      </c>
+      <c r="K42" s="16"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O42" s="9">
+        <f t="shared" si="1"/>
+        <v>12776.364</v>
+      </c>
+      <c r="P42" s="6">
+        <f t="shared" si="4"/>
+        <v>4110</v>
+      </c>
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="5"/>
+      <c r="T42" s="42"/>
+      <c r="U42" s="5"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="3">
+        <v>100</v>
+      </c>
+      <c r="D43" s="3">
+        <v>0</v>
+      </c>
+      <c r="E43" s="3">
+        <f>D44</f>
+        <v>3800</v>
+      </c>
+      <c r="F43" s="15"/>
+      <c r="G43" s="36">
+        <v>180</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I43" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0</v>
+      </c>
+      <c r="K43" s="12">
+        <f>J44</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L43" s="31"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="50"/>
+      <c r="O43" s="9">
+        <f t="shared" si="1"/>
+        <v>12876.364</v>
+      </c>
+      <c r="P43" s="6">
+        <f t="shared" si="4"/>
+        <v>4210</v>
+      </c>
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="5"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44" s="3">
+        <v>200</v>
+      </c>
+      <c r="D44" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="36">
+        <v>180</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I44" s="3">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J44" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K44" s="16"/>
+      <c r="L44" s="32">
+        <f>G44*G44/ABS(D44)*11.8-ABS(J44)</f>
+        <v>100.54052631578949</v>
+      </c>
+      <c r="M44" s="32">
+        <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
+        <v>6.7017017007350174E-2</v>
+      </c>
+      <c r="N44" s="50"/>
+      <c r="O44" s="9">
+        <f t="shared" si="1"/>
+        <v>13076.364</v>
+      </c>
+      <c r="P44" s="6">
+        <f t="shared" si="4"/>
+        <v>4410</v>
+      </c>
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="5"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="5"/>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3">
+        <f>C43</f>
+        <v>100</v>
+      </c>
+      <c r="D45" s="3">
+        <f>D44</f>
+        <v>3800</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="15"/>
+      <c r="G45" s="36">
+        <v>180</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I45" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J45" s="12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K45" s="12">
+        <v>0</v>
+      </c>
+      <c r="L45" s="31"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="50"/>
+      <c r="O45" s="9">
+        <f t="shared" si="1"/>
+        <v>13176.364</v>
+      </c>
+      <c r="P45" s="6">
+        <f t="shared" si="4"/>
+        <v>4510</v>
+      </c>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="5"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="5"/>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="4">
+        <v>400</v>
+      </c>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="36">
+        <v>180</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I46" s="4">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J46" s="13">
+        <v>0</v>
+      </c>
+      <c r="K46" s="16"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="29"/>
+      <c r="N46" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O46" s="9">
+        <f t="shared" si="1"/>
+        <v>13576.364</v>
+      </c>
+      <c r="P46" s="6">
+        <f t="shared" si="4"/>
+        <v>4910</v>
+      </c>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="5"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="5"/>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="4">
+        <v>100</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <f>D48</f>
+        <v>-20000</v>
+      </c>
+      <c r="F47" s="15"/>
+      <c r="G47" s="36">
+        <v>180</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I47" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J47" s="13">
+        <v>0</v>
+      </c>
+      <c r="K47" s="13">
+        <f>J48</f>
+        <v>-0.01</v>
+      </c>
+      <c r="L47" s="29"/>
+      <c r="M47" s="29"/>
+      <c r="N47" s="49"/>
+      <c r="O47" s="9">
+        <f t="shared" si="1"/>
+        <v>13676.364</v>
+      </c>
+      <c r="P47" s="6">
+        <f t="shared" si="4"/>
+        <v>5010</v>
+      </c>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="5"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="5"/>
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="4">
+        <v>200</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-20000</v>
+      </c>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="36">
+        <v>180</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I48" s="4">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J48" s="13">
+        <v>-0.01</v>
+      </c>
+      <c r="K48" s="16"/>
+      <c r="L48" s="30">
+        <f>G48*G48/ABS(D48)*11.8-ABS(J48)</f>
+        <v>19.106000000000002</v>
+      </c>
+      <c r="M48" s="30">
+        <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
+        <v>1.2735433231396533E-2</v>
+      </c>
+      <c r="N48" s="49"/>
+      <c r="O48" s="9">
+        <f t="shared" si="1"/>
+        <v>13876.364</v>
+      </c>
+      <c r="P48" s="6">
+        <f t="shared" si="4"/>
+        <v>5210</v>
+      </c>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" s="4">
+        <f>C47</f>
+        <v>100</v>
+      </c>
+      <c r="D49" s="4">
+        <f>D48</f>
+        <v>-20000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="15"/>
+      <c r="G49" s="36">
+        <v>180</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="4">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J49" s="13">
+        <v>-0.01</v>
+      </c>
+      <c r="K49" s="13">
+        <v>0</v>
+      </c>
+      <c r="L49" s="29"/>
+      <c r="M49" s="29"/>
+      <c r="N49" s="49"/>
+      <c r="O49" s="9">
+        <f t="shared" si="1"/>
+        <v>13976.364</v>
+      </c>
+      <c r="P49" s="6">
+        <f t="shared" si="4"/>
+        <v>5310</v>
+      </c>
+      <c r="Q49" s="5"/>
+      <c r="T49" s="43"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3">
+        <v>100</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="7">
+        <v>160</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I50" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="29"/>
+      <c r="N50" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O50" s="9">
+        <f t="shared" si="1"/>
+        <v>14076.364</v>
+      </c>
+      <c r="P50" s="6">
+        <f t="shared" si="4"/>
+        <v>5410</v>
+      </c>
+      <c r="Q50" s="5"/>
+      <c r="T50" s="43"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
+        <v>50</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="3">
+        <v>100</v>
+      </c>
+      <c r="D51" s="3">
+        <v>0</v>
+      </c>
+      <c r="E51" s="3">
+        <f>D52</f>
+        <v>1900</v>
+      </c>
+      <c r="F51" s="15"/>
+      <c r="G51" s="7">
+        <v>160</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I51" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J51" s="12">
+        <v>0</v>
+      </c>
+      <c r="K51" s="12">
+        <f>J52</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="L51" s="29"/>
+      <c r="M51" s="29"/>
+      <c r="N51" s="50"/>
+      <c r="O51" s="9">
+        <f t="shared" si="1"/>
+        <v>14176.364</v>
+      </c>
+      <c r="P51" s="6">
+        <f t="shared" si="4"/>
+        <v>5510</v>
+      </c>
+      <c r="Q51" s="5"/>
+      <c r="T51" s="43"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>51</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E52" s="20"/>
+      <c r="F52" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G52" s="7">
+        <v>160</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I52" s="3">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="J52" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K52" s="16"/>
+      <c r="L52" s="32">
+        <f>G52*G52/ABS(D52)*11.8-ABS(J52)</f>
+        <v>158.89447368421054</v>
+      </c>
+      <c r="M52" s="32">
+        <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
+        <v>0.10591384580585378</v>
+      </c>
+      <c r="N52" s="50"/>
+      <c r="O52" s="9">
+        <f t="shared" si="1"/>
+        <v>16576.364000000001</v>
+      </c>
+      <c r="P52" s="6">
+        <f t="shared" si="4"/>
+        <v>7910</v>
+      </c>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="24"/>
+      <c r="S52" s="24"/>
+      <c r="T52" s="44"/>
+      <c r="U52" s="24"/>
+      <c r="V52" s="24"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>52</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53" s="3">
+        <f>C51</f>
+        <v>100</v>
+      </c>
+      <c r="D53" s="3">
+        <f>D52</f>
+        <v>1900</v>
+      </c>
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+      <c r="F53" s="15"/>
+      <c r="G53" s="7">
+        <v>160</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I53" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J53" s="12">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="K53" s="12">
+        <v>0</v>
+      </c>
+      <c r="L53" s="31"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="50"/>
+      <c r="O53" s="9">
+        <f t="shared" si="1"/>
+        <v>16676.364000000001</v>
+      </c>
+      <c r="P53" s="6">
+        <f t="shared" si="4"/>
+        <v>8010</v>
+      </c>
+      <c r="Q53" s="5"/>
+      <c r="T53" s="43"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A54" s="10">
+        <v>53</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C54" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G54" s="36">
+        <v>200</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J54" s="13">
+        <v>0</v>
+      </c>
+      <c r="K54" s="16"/>
+      <c r="L54" s="31"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O54" s="9">
+        <f t="shared" si="1"/>
+        <v>18676.364000000001</v>
+      </c>
+      <c r="P54" s="6">
+        <f t="shared" si="4"/>
+        <v>10010</v>
+      </c>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A55" s="10">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" s="10">
+        <v>100</v>
+      </c>
+      <c r="D55" s="10">
+        <v>0</v>
+      </c>
+      <c r="E55" s="10">
+        <f>D56</f>
+        <v>3500</v>
+      </c>
+      <c r="F55" s="15"/>
+      <c r="G55" s="36">
+        <v>200</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J55" s="18">
+        <v>0</v>
+      </c>
+      <c r="K55" s="18">
+        <f>J56</f>
+        <v>0.08</v>
+      </c>
+      <c r="L55" s="31"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="48"/>
+      <c r="O55" s="9">
+        <f t="shared" si="1"/>
+        <v>18776.364000000001</v>
+      </c>
+      <c r="P55" s="6">
+        <f t="shared" si="4"/>
+        <v>10110</v>
+      </c>
+      <c r="Q55" s="5"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="5"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="5"/>
+      <c r="V55" s="5"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A56" s="10">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56" s="10">
+        <v>800</v>
+      </c>
+      <c r="D56" s="10">
+        <v>3500</v>
+      </c>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="36">
+        <v>200</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I56" s="10">
+        <f t="shared" si="0"/>
+        <v>800</v>
+      </c>
+      <c r="J56" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="K56" s="16"/>
+      <c r="L56" s="33">
+        <f>G56*G56/ABS(D56)*11.8-ABS(J56)</f>
+        <v>134.77714285714285</v>
+      </c>
+      <c r="M56" s="33">
+        <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
+        <v>8.9838023972227163E-2</v>
+      </c>
+      <c r="N56" s="48"/>
+      <c r="O56" s="9">
+        <f t="shared" si="1"/>
+        <v>19576.364000000001</v>
+      </c>
+      <c r="P56" s="6">
+        <f t="shared" si="4"/>
+        <v>10910</v>
+      </c>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" s="10">
+        <f>C55</f>
+        <v>100</v>
+      </c>
+      <c r="D57" s="10">
+        <f>D56</f>
+        <v>3500</v>
+      </c>
+      <c r="E57" s="10">
+        <v>0</v>
+      </c>
+      <c r="F57" s="15"/>
+      <c r="G57" s="36">
+        <v>200</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J57" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="K57" s="18">
+        <v>0</v>
+      </c>
+      <c r="L57" s="31"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="48"/>
+      <c r="O57" s="9">
+        <f t="shared" si="1"/>
+        <v>19676.364000000001</v>
+      </c>
+      <c r="P57" s="6">
+        <f t="shared" si="4"/>
+        <v>11010</v>
+      </c>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>57</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3">
+        <v>250</v>
+      </c>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="36">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I58" s="3">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="J58" s="12">
+        <v>0</v>
+      </c>
+      <c r="K58" s="16"/>
+      <c r="L58" s="31"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O58" s="9">
+        <f t="shared" si="1"/>
+        <v>19926.364000000001</v>
+      </c>
+      <c r="P58" s="6">
+        <f t="shared" si="4"/>
+        <v>11260</v>
+      </c>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>58</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3">
+        <v>80</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <f>D60</f>
+        <v>-6000</v>
+      </c>
+      <c r="F59" s="15"/>
+      <c r="G59" s="36">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J59" s="12">
+        <v>0</v>
+      </c>
+      <c r="K59" s="12">
+        <f>J60</f>
+        <v>-0.03</v>
+      </c>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="49"/>
+      <c r="O59" s="9">
+        <f t="shared" si="1"/>
+        <v>20006.364000000001</v>
+      </c>
+      <c r="P59" s="6">
+        <f t="shared" si="4"/>
+        <v>11340</v>
+      </c>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="5"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="5"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>59</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60" s="3">
+        <v>100</v>
+      </c>
+      <c r="D60" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="36">
+        <v>200</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I60" s="3">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J60" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="K60" s="16"/>
+      <c r="L60" s="32">
+        <f>G60*G60/ABS(D60)*11.8-ABS(J60)</f>
+        <v>78.63666666666667</v>
+      </c>
+      <c r="M60" s="32">
+        <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
+        <v>5.2416625094910296E-2</v>
+      </c>
+      <c r="N60" s="49"/>
+      <c r="O60" s="9">
+        <f t="shared" si="1"/>
+        <v>20106.364000000001</v>
+      </c>
+      <c r="P60" s="6">
+        <f t="shared" si="4"/>
+        <v>11440</v>
+      </c>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
+        <v>60</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" s="3">
+        <f>C59</f>
+        <v>80</v>
+      </c>
+      <c r="D61" s="3">
+        <f>D60</f>
+        <v>-6000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="36">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I61" s="3">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J61" s="12">
+        <v>-0.03</v>
+      </c>
+      <c r="K61" s="12">
+        <v>0</v>
+      </c>
+      <c r="L61" s="31"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="49"/>
+      <c r="O61" s="9">
+        <f t="shared" si="1"/>
+        <v>20186.364000000001</v>
+      </c>
+      <c r="P61" s="6">
+        <f t="shared" si="4"/>
+        <v>11520</v>
+      </c>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="5"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="5"/>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A62" s="10">
+        <v>61</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62" s="10">
+        <v>2500</v>
+      </c>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="36">
+        <v>200</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I62" s="10">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="J62" s="13">
+        <v>0</v>
+      </c>
+      <c r="K62" s="16"/>
+      <c r="L62" s="31"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O62" s="9">
+        <f t="shared" si="1"/>
+        <v>22686.364000000001</v>
+      </c>
+      <c r="P62" s="6">
+        <f t="shared" si="4"/>
+        <v>14020</v>
+      </c>
+      <c r="Q62" s="5"/>
+      <c r="R62" s="5"/>
+      <c r="S62" s="5"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="5"/>
+      <c r="V62" s="5"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A63" s="10">
+        <v>62</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" s="10">
+        <v>150</v>
+      </c>
+      <c r="D63" s="10">
+        <v>0</v>
+      </c>
+      <c r="E63" s="10">
+        <f>D64</f>
+        <v>-8000</v>
+      </c>
+      <c r="F63" s="15"/>
+      <c r="G63" s="36">
+        <v>200</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I63" s="10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="J63" s="18">
+        <v>0</v>
+      </c>
+      <c r="K63" s="18">
+        <f>J64</f>
+        <v>-0.02</v>
+      </c>
+      <c r="L63" s="31"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="48"/>
+      <c r="O63" s="9">
+        <f t="shared" si="1"/>
+        <v>22836.364000000001</v>
+      </c>
+      <c r="P63" s="6">
+        <f t="shared" si="4"/>
+        <v>14170</v>
+      </c>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
+      <c r="S63" s="5"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="5"/>
+      <c r="V63" s="5"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A64" s="10">
+        <v>63</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64" s="10">
+        <v>2000</v>
+      </c>
+      <c r="D64" s="10">
+        <v>-8000</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="36">
+        <v>200</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I64" s="10">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="J64" s="18">
+        <v>-0.02</v>
+      </c>
+      <c r="K64" s="16"/>
+      <c r="L64" s="33">
+        <f>G64*G64/ABS(D64)*11.8-ABS(J64)</f>
+        <v>58.98</v>
+      </c>
+      <c r="M64" s="33">
+        <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
+        <v>3.9314135487849393E-2</v>
+      </c>
+      <c r="N64" s="48"/>
+      <c r="O64" s="9">
+        <f t="shared" si="1"/>
+        <v>24836.364000000001</v>
+      </c>
+      <c r="P64" s="6">
+        <f t="shared" si="4"/>
+        <v>16170</v>
+      </c>
+      <c r="Q64" s="5"/>
+      <c r="R64" s="5"/>
+      <c r="S64" s="5"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="5"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A65" s="10">
+        <v>64</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="10">
+        <v>150</v>
+      </c>
+      <c r="D65" s="10">
+        <f>D64</f>
+        <v>-8000</v>
+      </c>
+      <c r="E65" s="10">
+        <v>0</v>
+      </c>
+      <c r="F65" s="15"/>
+      <c r="G65" s="36">
+        <v>200</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I65" s="10">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="J65" s="18">
+        <v>-0.02</v>
+      </c>
+      <c r="K65" s="18">
+        <v>0</v>
+      </c>
+      <c r="L65" s="31"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="48"/>
+      <c r="O65" s="9">
+        <f t="shared" si="1"/>
+        <v>24986.364000000001</v>
+      </c>
+      <c r="P65" s="6">
+        <f t="shared" si="4"/>
+        <v>16320</v>
+      </c>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <v>65</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="36">
+        <v>200</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I66" s="3">
+        <f t="shared" ref="I66:I85" si="5">C66</f>
+        <v>2000</v>
+      </c>
+      <c r="J66" s="12">
+        <v>0</v>
+      </c>
+      <c r="K66" s="16"/>
+      <c r="L66" s="31"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O66" s="9">
+        <f t="shared" si="1"/>
+        <v>26986.364000000001</v>
+      </c>
+      <c r="P66" s="6">
+        <f t="shared" si="4"/>
+        <v>18320</v>
+      </c>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
+      <c r="S66" s="5"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="5"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <v>66</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="3">
+        <v>100</v>
+      </c>
+      <c r="D67" s="3">
+        <v>0</v>
+      </c>
+      <c r="E67" s="3">
+        <f>D68</f>
+        <v>-6000</v>
+      </c>
+      <c r="F67" s="15"/>
+      <c r="G67" s="36">
+        <v>200</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I67" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J67" s="12">
+        <v>0</v>
+      </c>
+      <c r="K67" s="12">
+        <f>J68</f>
+        <v>-0.05</v>
+      </c>
+      <c r="L67" s="31"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="49"/>
+      <c r="O67" s="9">
+        <f t="shared" si="1"/>
+        <v>27086.364000000001</v>
+      </c>
+      <c r="P67" s="6">
+        <f t="shared" si="4"/>
+        <v>18420</v>
+      </c>
+      <c r="Q67" s="5"/>
+      <c r="R67" s="5"/>
+      <c r="S67" s="5"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="5"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <v>67</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="3">
+        <v>900</v>
+      </c>
+      <c r="D68" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="36">
+        <v>200</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I68" s="3">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="J68" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="K68" s="16"/>
+      <c r="L68" s="32">
+        <f>G68*G68/ABS(D68)*11.8-ABS(J68)</f>
+        <v>78.616666666666674</v>
+      </c>
+      <c r="M68" s="32">
+        <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
+        <v>5.2403291761576959E-2</v>
+      </c>
+      <c r="N68" s="49"/>
+      <c r="O68" s="9">
+        <f t="shared" si="1"/>
+        <v>27986.364000000001</v>
+      </c>
+      <c r="P68" s="6">
+        <f t="shared" si="4"/>
+        <v>19320</v>
+      </c>
+      <c r="Q68" s="5"/>
+      <c r="R68" s="5"/>
+      <c r="S68" s="5"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="5"/>
+      <c r="V68" s="5"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <v>68</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" s="3">
+        <f>C67</f>
+        <v>100</v>
+      </c>
+      <c r="D69" s="3">
+        <f>D68</f>
+        <v>-6000</v>
+      </c>
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+      <c r="F69" s="15"/>
+      <c r="G69" s="36">
+        <v>200</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I69" s="3">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="J69" s="12">
+        <v>-0.05</v>
+      </c>
+      <c r="K69" s="12">
+        <v>0</v>
+      </c>
+      <c r="L69" s="31"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="49"/>
+      <c r="O69" s="9">
+        <f t="shared" ref="O69:O84" si="6">O68+C69</f>
+        <v>28086.364000000001</v>
+      </c>
+      <c r="P69" s="6">
+        <f t="shared" si="4"/>
+        <v>19420</v>
+      </c>
+      <c r="Q69" s="5"/>
+      <c r="R69" s="5"/>
+      <c r="S69" s="5"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="5"/>
+      <c r="V69" s="5"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A70" s="10">
+        <v>69</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="10">
+        <v>300</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="36">
+        <v>200</v>
+      </c>
+      <c r="H70" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I70" s="10">
+        <f t="shared" si="5"/>
+        <v>300</v>
+      </c>
+      <c r="J70" s="13">
+        <v>0</v>
+      </c>
+      <c r="K70" s="16"/>
+      <c r="L70" s="31"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="O70" s="9">
+        <f t="shared" si="6"/>
+        <v>28386.364000000001</v>
+      </c>
+      <c r="P70" s="6">
+        <f t="shared" si="4"/>
+        <v>19720</v>
+      </c>
+      <c r="Q70" s="5"/>
+      <c r="R70" s="5"/>
+      <c r="S70" s="5"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="5"/>
+      <c r="V70" s="5"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A71" s="10">
+        <v>70</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" s="10">
+        <v>120</v>
+      </c>
+      <c r="D71" s="10">
+        <v>0</v>
+      </c>
+      <c r="E71" s="10">
+        <f>D72</f>
+        <v>-10000</v>
+      </c>
+      <c r="F71" s="15"/>
+      <c r="G71" s="36">
+        <v>200</v>
+      </c>
+      <c r="H71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="J71" s="18">
+        <v>0</v>
+      </c>
+      <c r="K71" s="18">
+        <f>J72</f>
+        <v>-0.03</v>
+      </c>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="48"/>
+      <c r="O71" s="9">
+        <f t="shared" si="6"/>
+        <v>28506.364000000001</v>
+      </c>
+      <c r="P71" s="6">
+        <f t="shared" si="4"/>
+        <v>19840</v>
+      </c>
+      <c r="Q71" s="5"/>
+      <c r="R71" s="5"/>
+      <c r="S71" s="5"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="5"/>
+      <c r="V71" s="5"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A72" s="10">
+        <v>71</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="10">
+        <v>800</v>
+      </c>
+      <c r="D72" s="10">
+        <v>-10000</v>
+      </c>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="36">
+        <v>200</v>
+      </c>
+      <c r="H72" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I72" s="10">
+        <f t="shared" si="5"/>
+        <v>800</v>
+      </c>
+      <c r="J72" s="18">
+        <v>-0.03</v>
+      </c>
+      <c r="K72" s="16"/>
+      <c r="L72" s="30">
+        <f>G72*G72/ABS(D72)*11.8-ABS(J72)</f>
+        <v>47.17</v>
+      </c>
+      <c r="M72" s="30">
+        <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
+        <v>3.1441975056946174E-2</v>
+      </c>
+      <c r="N72" s="48"/>
+      <c r="O72" s="9">
+        <f t="shared" si="6"/>
+        <v>29306.364000000001</v>
+      </c>
+      <c r="P72" s="6">
+        <f t="shared" si="4"/>
+        <v>20640</v>
+      </c>
+      <c r="Q72" s="5"/>
+      <c r="R72" s="5"/>
+      <c r="S72" s="5"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="5"/>
+      <c r="V72" s="5"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A73" s="10">
+        <v>72</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" s="10">
+        <f>C71</f>
+        <v>120</v>
+      </c>
+      <c r="D73" s="10">
+        <f>D72</f>
+        <v>-10000</v>
+      </c>
+      <c r="E73" s="10">
+        <v>0</v>
+      </c>
+      <c r="F73" s="15"/>
+      <c r="G73" s="36">
+        <v>200</v>
+      </c>
+      <c r="H73" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="5"/>
+        <v>120</v>
+      </c>
+      <c r="J73" s="18">
+        <v>-0.03</v>
+      </c>
+      <c r="K73" s="18">
+        <v>0</v>
+      </c>
+      <c r="L73" s="29"/>
+      <c r="M73" s="29"/>
+      <c r="N73" s="48"/>
+      <c r="O73" s="9">
+        <f t="shared" si="6"/>
+        <v>29426.364000000001</v>
+      </c>
+      <c r="P73" s="6">
+        <f t="shared" si="4"/>
+        <v>20760</v>
+      </c>
+      <c r="Q73" s="5"/>
+      <c r="R73" s="5"/>
+      <c r="S73" s="5"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="5"/>
+      <c r="V73" s="5"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>73</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="3">
+        <v>500</v>
+      </c>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="36">
+        <v>200</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I74" s="3">
+        <f t="shared" si="5"/>
+        <v>500</v>
+      </c>
+      <c r="J74" s="12">
+        <v>0</v>
+      </c>
+      <c r="K74" s="16"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="29"/>
+      <c r="N74" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O74" s="9">
+        <f t="shared" si="6"/>
+        <v>29926.364000000001</v>
+      </c>
+      <c r="P74" s="6">
+        <f t="shared" si="4"/>
+        <v>21260</v>
+      </c>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="42"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>74</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="3">
+        <v>80</v>
+      </c>
+      <c r="D75" s="3">
+        <v>0</v>
+      </c>
+      <c r="E75" s="3">
+        <f>D76</f>
+        <v>2600</v>
+      </c>
+      <c r="F75" s="15"/>
+      <c r="G75" s="36">
+        <v>200</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I75" s="3">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="J75" s="12">
+        <v>0</v>
+      </c>
+      <c r="K75" s="12">
+        <f>J76</f>
+        <v>0.115</v>
+      </c>
+      <c r="L75" s="29"/>
+      <c r="M75" s="29"/>
+      <c r="N75" s="49"/>
+      <c r="O75" s="9">
+        <f t="shared" si="6"/>
+        <v>30006.364000000001</v>
+      </c>
+      <c r="P75" s="6">
+        <f t="shared" si="4"/>
+        <v>21340</v>
+      </c>
+      <c r="Q75" s="5"/>
+      <c r="R75" s="5"/>
+      <c r="S75" s="5"/>
+      <c r="T75" s="42"/>
+      <c r="U75" s="5"/>
+      <c r="V75" s="5"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>75</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1200</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="36">
+        <v>200</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I76" s="3">
+        <f t="shared" si="5"/>
+        <v>1200</v>
+      </c>
+      <c r="J76" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="K76" s="16"/>
+      <c r="L76" s="32">
+        <f>G76*G76/ABS(D76)*11.8-ABS(J76)</f>
+        <v>181.42346153846154</v>
+      </c>
+      <c r="M76" s="32">
+        <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
+        <v>0.12093092970620324</v>
+      </c>
+      <c r="N76" s="49"/>
+      <c r="O76" s="9">
+        <f t="shared" si="6"/>
+        <v>31206.364000000001</v>
+      </c>
+      <c r="P76" s="6">
+        <f t="shared" si="4"/>
+        <v>22540</v>
+      </c>
+      <c r="Q76" s="5"/>
+      <c r="R76" s="5"/>
+      <c r="S76" s="5"/>
+      <c r="T76" s="42"/>
+      <c r="U76" s="5"/>
+      <c r="V76" s="5"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <v>76</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C77" s="3">
+        <f>C75</f>
+        <v>80</v>
+      </c>
+      <c r="D77" s="3">
+        <f>D76</f>
+        <v>2600</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="15"/>
+      <c r="G77" s="36">
+        <v>200</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I77" s="3">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="J77" s="12">
+        <v>0.115</v>
+      </c>
+      <c r="K77" s="12">
+        <v>0</v>
+      </c>
+      <c r="L77" s="31"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="49"/>
+      <c r="O77" s="9">
+        <f t="shared" si="6"/>
+        <v>31286.364000000001</v>
+      </c>
+      <c r="P77" s="6">
+        <f t="shared" si="4"/>
+        <v>22620</v>
+      </c>
+      <c r="Q77" s="5"/>
+      <c r="R77" s="5"/>
+      <c r="S77" s="5"/>
+      <c r="T77" s="42"/>
+      <c r="U77" s="5"/>
+      <c r="V77" s="5"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A78" s="10">
+        <v>77</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C78" s="10">
+        <v>50</v>
+      </c>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="36">
+        <v>200</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I78" s="10">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J78" s="13">
+        <v>0</v>
+      </c>
+      <c r="K78" s="16"/>
+      <c r="L78" s="31"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="48" t="s">
+        <v>29</v>
+      </c>
+      <c r="O78" s="9">
+        <f t="shared" si="6"/>
+        <v>31336.364000000001</v>
+      </c>
+      <c r="P78" s="6">
+        <f t="shared" si="4"/>
+        <v>22670</v>
+      </c>
+      <c r="Q78" s="5"/>
+      <c r="R78" s="5"/>
+      <c r="S78" s="5"/>
+      <c r="T78" s="42"/>
+      <c r="U78" s="5"/>
+      <c r="V78" s="5"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A79" s="10">
+        <v>78</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="10">
+        <v>80</v>
+      </c>
+      <c r="D79" s="10">
+        <v>0</v>
+      </c>
+      <c r="E79" s="10">
+        <f>D80</f>
+        <v>2500</v>
+      </c>
+      <c r="F79" s="15"/>
+      <c r="G79" s="36">
+        <v>200</v>
+      </c>
+      <c r="H79" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I79" s="10">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="J79" s="18">
+        <v>0</v>
+      </c>
+      <c r="K79" s="18">
+        <f>J80</f>
+        <v>0.12</v>
+      </c>
+      <c r="L79" s="31"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="48"/>
+      <c r="O79" s="9">
+        <f t="shared" si="6"/>
+        <v>31416.364000000001</v>
+      </c>
+      <c r="P79" s="6">
+        <f t="shared" si="4"/>
+        <v>22750</v>
+      </c>
+      <c r="Q79" s="5"/>
+      <c r="R79" s="5"/>
+      <c r="S79" s="5"/>
+      <c r="T79" s="42"/>
+      <c r="U79" s="5"/>
+      <c r="V79" s="5"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A80" s="10">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80" s="10">
+        <v>400</v>
+      </c>
+      <c r="D80" s="10">
+        <v>2500</v>
+      </c>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="36">
+        <v>200</v>
+      </c>
+      <c r="H80" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="I80" s="10">
+        <f t="shared" si="5"/>
+        <v>400</v>
+      </c>
+      <c r="J80" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="K80" s="16"/>
+      <c r="L80" s="33">
+        <f>G80*G80/ABS(D80)*11.8-ABS(J80)</f>
+        <v>188.68</v>
+      </c>
+      <c r="M80" s="33">
+        <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
+        <v>0.1257679002277847</v>
+      </c>
+      <c r="N80" s="48"/>
+      <c r="O80" s="9">
+        <f t="shared" si="6"/>
+        <v>31816.364000000001</v>
+      </c>
+      <c r="P80" s="6">
+        <f t="shared" si="4"/>
+        <v>23150</v>
+      </c>
+      <c r="Q80" s="5"/>
+      <c r="R80" s="5"/>
+      <c r="S80" s="5"/>
+      <c r="T80" s="42"/>
+      <c r="U80" s="5"/>
+      <c r="V80" s="5"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A81" s="10">
+        <v>80</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C81" s="10">
+        <f>C79</f>
+        <v>80</v>
+      </c>
+      <c r="D81" s="10">
+        <f>D80</f>
+        <v>2500</v>
+      </c>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="15"/>
+      <c r="G81" s="36">
+        <v>200</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="I81" s="10">
+        <f t="shared" si="5"/>
+        <v>80</v>
+      </c>
+      <c r="J81" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="K81" s="18">
+        <v>0</v>
+      </c>
+      <c r="L81" s="31"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="48"/>
+      <c r="O81" s="9">
+        <f t="shared" si="6"/>
+        <v>31896.364000000001</v>
+      </c>
+      <c r="P81" s="47">
+        <f t="shared" si="4"/>
+        <v>23230</v>
+      </c>
+      <c r="Q81" s="5"/>
+      <c r="R81" s="5"/>
+      <c r="S81" s="5"/>
+      <c r="T81" s="42"/>
+      <c r="U81" s="5"/>
+      <c r="V81" s="5"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <v>81</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G82" s="36">
+        <v>200</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I82" s="3">
+        <f t="shared" si="5"/>
+        <v>2000</v>
+      </c>
+      <c r="J82" s="12">
+        <v>0</v>
+      </c>
+      <c r="K82" s="16"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="O82" s="9">
+        <f t="shared" si="6"/>
+        <v>33896.364000000001</v>
+      </c>
+      <c r="P82" s="6"/>
+      <c r="Q82" s="5"/>
+      <c r="R82" s="5"/>
+      <c r="S82" s="5"/>
+      <c r="T82" s="42"/>
+      <c r="U82" s="5"/>
+      <c r="V82" s="5"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <v>82</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C83" s="3">
+        <v>50</v>
+      </c>
+      <c r="D83" s="3">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3">
+        <f>D84</f>
+        <v>50000</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="36">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I83" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J83" s="12">
+        <v>0</v>
+      </c>
+      <c r="K83" s="12">
+        <f>J84</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="31"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="49"/>
+      <c r="O83" s="9">
+        <f t="shared" si="6"/>
+        <v>33946.364000000001</v>
+      </c>
+      <c r="P83" s="6">
+        <f>C83</f>
+        <v>50</v>
+      </c>
+      <c r="Q83" s="5"/>
+      <c r="R83" s="5"/>
+      <c r="S83" s="5"/>
+      <c r="T83" s="42"/>
+      <c r="U83" s="5"/>
+      <c r="V83" s="5"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <v>83</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84" s="3">
+        <v>50</v>
+      </c>
+      <c r="D84" s="3">
+        <v>50000</v>
+      </c>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="36">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I84" s="3">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="J84" s="12">
+        <v>0</v>
+      </c>
+      <c r="K84" s="16"/>
+      <c r="L84" s="32">
+        <f>G84*G84/ABS(D84)*11.8-ABS(J84)</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="32">
+        <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="49"/>
+      <c r="O84" s="9">
+        <f t="shared" si="6"/>
+        <v>33996.364000000001</v>
+      </c>
+      <c r="P84" s="6">
+        <f>P83+C84</f>
+        <v>100</v>
+      </c>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="T84" s="42"/>
+      <c r="U84" s="5"/>
+      <c r="V84" s="5"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <v>84</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C85" s="3">
+        <f>C83</f>
+        <v>50</v>
+      </c>
+      <c r="D85" s="3">
+        <f>D84</f>
+        <v>50000</v>
+      </c>
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+      <c r="F85" s="15"/>
+      <c r="G85" s="36">
+        <v>0</v>
+      </c>
+      <c r="H85" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I85" s="3">
+        <f>D85</f>
+        <v>50000</v>
+      </c>
+      <c r="J85" s="12">
+        <v>0</v>
+      </c>
+      <c r="K85" s="12">
+        <v>0</v>
+      </c>
+      <c r="L85" s="31"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="49"/>
+      <c r="O85" s="9">
+        <f>O84+D85</f>
+        <v>83996.364000000001</v>
+      </c>
+      <c r="P85" s="47">
+        <f>P84+D85</f>
+        <v>50100</v>
+      </c>
+      <c r="Q85" s="5"/>
+      <c r="R85" s="5"/>
+      <c r="S85" s="5"/>
+      <c r="T85" s="42"/>
+      <c r="U85" s="5"/>
+      <c r="V85" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="21">
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N45"/>
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="N22:N25"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A9EB4C0-8E58-4720-B55B-8C44D5B2F684}">
   <dimension ref="A1:Q97"/>
   <sheetViews>
@@ -5751,7 +10370,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="41" t="s">
+      <c r="N2" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -5795,7 +10414,7 @@
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
-      <c r="N3" s="41"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -5836,7 +10455,7 @@
         <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
         <v>-2.4405599392574098E-3</v>
       </c>
-      <c r="N4" s="41"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -5876,7 +10495,7 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="41"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -5905,7 +10524,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="42" t="s">
+      <c r="N6" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5947,7 +10566,7 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="42"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -5988,7 +10607,7 @@
         <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
         <v>-2.5551383213632678E-3</v>
       </c>
-      <c r="N8" s="42"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -6028,7 +10647,7 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="42"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -6057,7 +10676,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="41" t="s">
+      <c r="N10" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6099,7 +10718,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="41"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -6140,7 +10759,7 @@
         <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
         <v>1.1525745620207042E-2</v>
       </c>
-      <c r="N12" s="41"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -6180,7 +10799,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="41"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -6211,7 +10830,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6252,7 +10871,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="42"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -6293,7 +10912,7 @@
         <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
         <v>3.8531466869141953E-2</v>
       </c>
-      <c r="N16" s="42"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -6333,7 +10952,7 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="42"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -6364,7 +10983,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6405,7 +11024,7 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="41"/>
+      <c r="N19" s="49"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -6444,7 +11063,7 @@
         <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
         <v>5.1091562737275734E-2</v>
       </c>
-      <c r="N20" s="41"/>
+      <c r="N20" s="49"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -6483,7 +11102,7 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="41"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -6512,7 +11131,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-      <c r="N22" s="42" t="s">
+      <c r="N22" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6553,7 +11172,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-      <c r="N23" s="42"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -6592,7 +11211,7 @@
         <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
         <v>3.9327468821182723E-2</v>
       </c>
-      <c r="N24" s="42"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
@@ -6632,7 +11251,7 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="42"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -6661,7 +11280,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="41" t="s">
+      <c r="N26" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6702,7 +11321,7 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="41"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
@@ -6743,7 +11362,7 @@
         <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
         <v>0.20765234337779359</v>
       </c>
-      <c r="N28" s="41"/>
+      <c r="N28" s="49"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
@@ -6786,7 +11405,7 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="41"/>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -6815,7 +11434,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="42" t="s">
+      <c r="N30" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -6856,7 +11475,7 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="42"/>
+      <c r="N31" s="50"/>
     </row>
     <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25">
@@ -6897,7 +11516,7 @@
         <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
         <v>0.22403552048594069</v>
       </c>
-      <c r="N32" s="42"/>
+      <c r="N32" s="50"/>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
@@ -6939,7 +11558,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="42"/>
+      <c r="N33" s="50"/>
     </row>
     <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -6970,7 +11589,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="41" t="s">
+      <c r="N34" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7011,7 +11630,7 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="42"/>
+      <c r="N35" s="50"/>
     </row>
     <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -7050,7 +11669,7 @@
         <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
         <v>2.4947332653754678E-2</v>
       </c>
-      <c r="N36" s="42"/>
+      <c r="N36" s="50"/>
     </row>
     <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -7090,7 +11709,7 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="42"/>
+      <c r="N37" s="50"/>
     </row>
     <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
@@ -7121,7 +11740,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="43" t="s">
+      <c r="N38" s="48" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7162,7 +11781,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="41"/>
+      <c r="N39" s="49"/>
     </row>
     <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
@@ -7201,7 +11820,7 @@
         <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
         <v>3.8531161842448383E-2</v>
       </c>
-      <c r="N40" s="41"/>
+      <c r="N40" s="49"/>
     </row>
     <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
@@ -7241,7 +11860,7 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="41"/>
+      <c r="N41" s="49"/>
     </row>
     <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -7270,7 +11889,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="41" t="s">
+      <c r="N42" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7311,7 +11930,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="42"/>
+      <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -7350,7 +11969,7 @@
         <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
         <v>2.9461337869156605E-2</v>
       </c>
-      <c r="N44" s="42"/>
+      <c r="N44" s="50"/>
     </row>
     <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -7390,7 +12009,7 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="42"/>
+      <c r="N45" s="50"/>
     </row>
     <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
@@ -7419,7 +12038,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="43" t="s">
+      <c r="N46" s="48" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7460,7 +12079,7 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="41"/>
+      <c r="N47" s="49"/>
     </row>
     <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -7499,7 +12118,7 @@
         <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
         <v>-2.4269012471526914E-2</v>
       </c>
-      <c r="N48" s="41"/>
+      <c r="N48" s="49"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -7539,7 +12158,7 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="41"/>
+      <c r="N49" s="49"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
@@ -7568,7 +12187,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="41" t="s">
+      <c r="N50" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7609,7 +12228,7 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="42"/>
+      <c r="N51" s="50"/>
     </row>
     <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
@@ -7650,7 +12269,7 @@
         <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
         <v>0.1166373441059136</v>
       </c>
-      <c r="N52" s="42"/>
+      <c r="N52" s="50"/>
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
@@ -7693,7 +12312,7 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="42"/>
+      <c r="N53" s="50"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
@@ -7722,7 +12341,7 @@
       <c r="K54" s="15"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="42" t="s">
+      <c r="N54" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7763,7 +12382,7 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="42"/>
+      <c r="N55" s="50"/>
     </row>
     <row r="56" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="25">
@@ -7804,7 +12423,7 @@
         <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
         <v>0.10974650037964118</v>
       </c>
-      <c r="N56" s="42"/>
+      <c r="N56" s="50"/>
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
@@ -7847,7 +12466,7 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="42"/>
+      <c r="N57" s="50"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
@@ -7876,7 +12495,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="41" t="s">
+      <c r="N58" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -7917,7 +12536,7 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="42"/>
+      <c r="N59" s="50"/>
     </row>
     <row r="60" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
@@ -7958,7 +12577,7 @@
         <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
         <v>4.9818928842600835E-2</v>
       </c>
-      <c r="N60" s="42"/>
+      <c r="N60" s="50"/>
       <c r="O60" s="23"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
@@ -8001,7 +12620,7 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="42"/>
+      <c r="N61" s="50"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
@@ -8030,7 +12649,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="43" t="s">
+      <c r="N62" s="48" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8071,7 +12690,7 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="41"/>
+      <c r="N63" s="49"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
@@ -8110,7 +12729,7 @@
         <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
         <v>2.8672651687715683E-2</v>
       </c>
-      <c r="N64" s="41"/>
+      <c r="N64" s="49"/>
     </row>
     <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
@@ -8150,7 +12769,7 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="41"/>
+      <c r="N65" s="49"/>
     </row>
     <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
@@ -8181,7 +12800,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="41" t="s">
+      <c r="N66" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8222,7 +12841,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
-      <c r="N67" s="42"/>
+      <c r="N67" s="50"/>
     </row>
     <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -8261,7 +12880,7 @@
         <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
         <v>3.6558023972227162E-2</v>
       </c>
-      <c r="N68" s="42"/>
+      <c r="N68" s="50"/>
     </row>
     <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
@@ -8301,7 +12920,7 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
-      <c r="N69" s="42"/>
+      <c r="N69" s="50"/>
     </row>
     <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
@@ -8330,7 +12949,7 @@
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
-      <c r="N70" s="43" t="s">
+      <c r="N70" s="48" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8371,7 +12990,7 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
-      <c r="N71" s="41"/>
+      <c r="N71" s="49"/>
     </row>
     <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
@@ -8410,7 +13029,7 @@
         <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
         <v>-1.0036214231479833E-2</v>
       </c>
-      <c r="N72" s="41"/>
+      <c r="N72" s="49"/>
     </row>
     <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
@@ -8450,7 +13069,7 @@
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-      <c r="N73" s="41"/>
+      <c r="N73" s="49"/>
     </row>
     <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
@@ -8479,7 +13098,7 @@
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="41" t="s">
+      <c r="N74" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8520,7 +13139,7 @@
       </c>
       <c r="L75" s="15"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="41"/>
+      <c r="N75" s="49"/>
     </row>
     <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
@@ -8559,7 +13178,7 @@
         <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
         <v>-1.5204691609720496E-2</v>
       </c>
-      <c r="N76" s="41"/>
+      <c r="N76" s="49"/>
     </row>
     <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
@@ -8598,7 +13217,7 @@
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="41"/>
+      <c r="N77" s="49"/>
     </row>
     <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
@@ -8627,7 +13246,7 @@
       <c r="K78" s="15"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
-      <c r="N78" s="43" t="s">
+      <c r="N78" s="48" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8668,7 +13287,7 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
-      <c r="N79" s="41"/>
+      <c r="N79" s="49"/>
     </row>
     <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
@@ -8707,7 +13326,7 @@
         <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
         <v>-2.4193827340276544E-2</v>
       </c>
-      <c r="N80" s="41"/>
+      <c r="N80" s="49"/>
     </row>
     <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
@@ -8747,7 +13366,7 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
-      <c r="N81" s="41"/>
+      <c r="N81" s="49"/>
     </row>
     <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
@@ -8776,7 +13395,7 @@
       <c r="K82" s="15"/>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
-      <c r="N82" s="41" t="s">
+      <c r="N82" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8817,7 +13436,7 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
-      <c r="N83" s="41"/>
+      <c r="N83" s="49"/>
     </row>
     <row r="84" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
@@ -8856,7 +13475,7 @@
         <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
         <v>-1.5204691609720496E-2</v>
       </c>
-      <c r="N84" s="41"/>
+      <c r="N84" s="49"/>
     </row>
     <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
@@ -8896,7 +13515,7 @@
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
-      <c r="N85" s="41"/>
+      <c r="N85" s="49"/>
     </row>
     <row r="86" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
@@ -8925,7 +13544,7 @@
       <c r="K86" s="15"/>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
-      <c r="N86" s="42" t="s">
+      <c r="N86" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -8966,7 +13585,7 @@
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="16"/>
-      <c r="N87" s="42"/>
+      <c r="N87" s="50"/>
     </row>
     <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
@@ -9005,7 +13624,7 @@
         <f>(G88/3.6)^2/(ABS(D88)*9.81)-ABS(J88)/1500</f>
         <v>3.9030863298617297E-2</v>
       </c>
-      <c r="N88" s="42"/>
+      <c r="N88" s="50"/>
     </row>
     <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
@@ -9045,7 +13664,7 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
-      <c r="N89" s="42"/>
+      <c r="N89" s="50"/>
     </row>
     <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
@@ -9074,7 +13693,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
-      <c r="N90" s="41" t="s">
+      <c r="N90" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9115,7 +13734,7 @@
       </c>
       <c r="L91" s="16"/>
       <c r="M91" s="16"/>
-      <c r="N91" s="42"/>
+      <c r="N91" s="50"/>
     </row>
     <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
@@ -9154,7 +13773,7 @@
         <f>(G92/3.6)^2/(ABS(D92)*9.81)-ABS(J92)/1500</f>
         <v>3.8206583523153925E-2</v>
       </c>
-      <c r="N92" s="42"/>
+      <c r="N92" s="50"/>
     </row>
     <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
@@ -9194,7 +13813,7 @@
       </c>
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
-      <c r="N93" s="42"/>
+      <c r="N93" s="50"/>
     </row>
     <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
@@ -9225,7 +13844,7 @@
       <c r="K94" s="15"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
-      <c r="N94" s="43" t="s">
+      <c r="N94" s="48" t="s">
         <v>29</v>
       </c>
     </row>
@@ -9246,7 +13865,7 @@
         <f>D96</f>
         <v>50000</v>
       </c>
-      <c r="F95" s="42" t="s">
+      <c r="F95" s="50" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="8">
@@ -9268,7 +13887,7 @@
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="16"/>
-      <c r="N95" s="42"/>
+      <c r="N95" s="50"/>
     </row>
     <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
@@ -9284,7 +13903,7 @@
         <v>50000</v>
       </c>
       <c r="E96" s="15"/>
-      <c r="F96" s="42"/>
+      <c r="F96" s="50"/>
       <c r="G96" s="8">
         <v>200</v>
       </c>
@@ -9307,7 +13926,7 @@
         <f>(G96/3.6)^2/(ABS(D96)*9.81)-ABS(J96)/1500</f>
         <v>6.2923950113892351E-3</v>
       </c>
-      <c r="N96" s="42"/>
+      <c r="N96" s="50"/>
     </row>
     <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
@@ -9327,7 +13946,7 @@
       <c r="E97" s="4">
         <v>0</v>
       </c>
-      <c r="F97" s="42"/>
+      <c r="F97" s="50"/>
       <c r="G97" s="8">
         <v>200</v>
       </c>
@@ -9347,17 +13966,16 @@
       </c>
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
-      <c r="N97" s="42"/>
+      <c r="N97" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
     <mergeCell ref="N70:N73"/>
     <mergeCell ref="N26:N29"/>
     <mergeCell ref="N30:N33"/>
@@ -9370,12 +13988,13 @@
     <mergeCell ref="N58:N61"/>
     <mergeCell ref="N62:N65"/>
     <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="N94:N97"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/跨线运行SPCK曲线定义组.xlsx
+++ b/docs/跨线运行SPCK曲线定义组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchDocuments\ROS2WithSPCK\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51ECAA7F-79FF-4AD9-A2B4-FE66D146DE9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEFBCE-46C9-4D78-B524-0EEB21668302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
+    <workbookView xWindow="12180" yWindow="150" windowWidth="28695" windowHeight="31650" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
   </bookViews>
   <sheets>
     <sheet name="自定义线路" sheetId="1" r:id="rId1"/>
@@ -606,15 +606,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,6 +616,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -963,9 +963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF6356CB-F0F5-4EF9-8834-D5D350C95BD2}">
   <dimension ref="A1:V199"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="X25" sqref="X25"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1088,7 +1086,7 @@
       <c r="K2" s="37"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="9">
@@ -1104,7 +1102,7 @@
       <c r="R2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="54">
+      <c r="S2" s="51">
         <v>4086.364</v>
       </c>
       <c r="T2" s="45">
@@ -1155,7 +1153,7 @@
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-      <c r="N3" s="49"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="9">
         <f>O2+C3</f>
         <v>327.5</v>
@@ -1164,20 +1162,20 @@
         <f>P2+C3</f>
         <v>327.5</v>
       </c>
-      <c r="Q3" s="51">
+      <c r="Q3" s="48">
         <v>2</v>
       </c>
-      <c r="R3" s="52" t="s">
+      <c r="R3" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="52">
+      <c r="S3" s="49">
         <v>5</v>
       </c>
-      <c r="T3" s="53">
-        <v>0</v>
-      </c>
-      <c r="U3" s="53"/>
-      <c r="V3" s="52" t="s">
+      <c r="T3" s="50">
+        <v>0</v>
+      </c>
+      <c r="U3" s="50"/>
+      <c r="V3" s="49" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1220,7 +1218,7 @@
         <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
         <v>3.3523440060742586E-2</v>
       </c>
-      <c r="N4" s="49"/>
+      <c r="N4" s="52"/>
       <c r="O4" s="9">
         <f>O3+C4</f>
         <v>466.39300000000003</v>
@@ -1229,23 +1227,23 @@
         <f>P3+C4</f>
         <v>466.39300000000003</v>
       </c>
-      <c r="Q4" s="51">
+      <c r="Q4" s="48">
         <v>3</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="52">
+      <c r="S4" s="49">
         <v>20</v>
       </c>
-      <c r="T4" s="53">
-        <v>0</v>
-      </c>
-      <c r="U4" s="53">
+      <c r="T4" s="50">
+        <v>0</v>
+      </c>
+      <c r="U4" s="50">
         <f>T5</f>
         <v>0.05</v>
       </c>
-      <c r="V4" s="52"/>
+      <c r="V4" s="49"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1284,7 +1282,7 @@
       </c>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
-      <c r="N5" s="49"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="9">
         <f t="shared" ref="O5:O68" si="1">O4+C5</f>
         <v>493.89300000000003</v>
@@ -1293,21 +1291,21 @@
         <f t="shared" ref="P5:P21" si="2">P4+C5</f>
         <v>493.89300000000003</v>
       </c>
-      <c r="Q5" s="51">
+      <c r="Q5" s="48">
         <v>4</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="R5" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="52">
+      <c r="S5" s="49">
         <v>150</v>
       </c>
-      <c r="T5" s="53">
+      <c r="T5" s="50">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
-      <c r="U5" s="53"/>
-      <c r="V5" s="52"/>
+      <c r="U5" s="50"/>
+      <c r="V5" s="49"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1338,7 +1336,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="53" t="s">
         <v>29</v>
       </c>
       <c r="O6" s="9">
@@ -1349,23 +1347,23 @@
         <f t="shared" si="2"/>
         <v>743.89300000000003</v>
       </c>
-      <c r="Q6" s="51">
+      <c r="Q6" s="48">
         <v>5</v>
       </c>
-      <c r="R6" s="52" t="s">
+      <c r="R6" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="52">
+      <c r="S6" s="49">
         <v>20</v>
       </c>
-      <c r="T6" s="53">
+      <c r="T6" s="50">
         <f>T5</f>
         <v>0.05</v>
       </c>
-      <c r="U6" s="53">
-        <v>0</v>
-      </c>
-      <c r="V6" s="52"/>
+      <c r="U6" s="50">
+        <v>0</v>
+      </c>
+      <c r="V6" s="49"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -1405,7 +1403,7 @@
       </c>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
         <v>786.39300000000003</v>
@@ -1414,20 +1412,20 @@
         <f t="shared" si="2"/>
         <v>786.39300000000003</v>
       </c>
-      <c r="Q7" s="51">
+      <c r="Q7" s="48">
         <v>6</v>
       </c>
-      <c r="R7" s="52" t="s">
+      <c r="R7" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="52">
+      <c r="S7" s="49">
         <v>5</v>
       </c>
-      <c r="T7" s="53">
-        <v>0</v>
-      </c>
-      <c r="U7" s="53"/>
-      <c r="V7" s="52" t="s">
+      <c r="T7" s="50">
+        <v>0</v>
+      </c>
+      <c r="U7" s="50"/>
+      <c r="V7" s="49" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1470,7 +1468,7 @@
         <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
         <v>7.7364861678636737E-2</v>
       </c>
-      <c r="N8" s="50"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="9">
         <f t="shared" si="1"/>
         <v>1351.567</v>
@@ -1485,7 +1483,7 @@
       <c r="R8" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="54">
+      <c r="S8" s="51">
         <v>2380</v>
       </c>
       <c r="T8" s="45">
@@ -1533,7 +1531,7 @@
       </c>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
-      <c r="N9" s="50"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="9">
         <f t="shared" si="1"/>
         <v>1394.067</v>
@@ -1542,20 +1540,20 @@
         <f t="shared" si="2"/>
         <v>1394.067</v>
       </c>
-      <c r="Q9" s="51">
+      <c r="Q9" s="48">
         <v>8</v>
       </c>
-      <c r="R9" s="52" t="s">
+      <c r="R9" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="52">
+      <c r="S9" s="49">
         <v>50</v>
       </c>
-      <c r="T9" s="53">
-        <v>0</v>
-      </c>
-      <c r="U9" s="53"/>
-      <c r="V9" s="52" t="s">
+      <c r="T9" s="50">
+        <v>0</v>
+      </c>
+      <c r="U9" s="50"/>
+      <c r="V9" s="49" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1588,7 +1586,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="9">
@@ -1599,23 +1597,23 @@
         <f t="shared" si="2"/>
         <v>1444.067</v>
       </c>
-      <c r="Q10" s="51">
+      <c r="Q10" s="48">
         <v>9</v>
       </c>
-      <c r="R10" s="52" t="s">
+      <c r="R10" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="52">
+      <c r="S10" s="49">
         <v>50</v>
       </c>
-      <c r="T10" s="53">
-        <v>0</v>
-      </c>
-      <c r="U10" s="53">
+      <c r="T10" s="50">
+        <v>0</v>
+      </c>
+      <c r="U10" s="50">
         <f>T11</f>
         <v>0.03</v>
       </c>
-      <c r="V10" s="52"/>
+      <c r="V10" s="49"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1655,7 +1653,7 @@
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="49"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="9">
         <f t="shared" si="1"/>
         <v>1481.567</v>
@@ -1664,21 +1662,21 @@
         <f t="shared" si="2"/>
         <v>1481.567</v>
       </c>
-      <c r="Q11" s="51">
+      <c r="Q11" s="48">
         <v>10</v>
       </c>
-      <c r="R11" s="52" t="s">
+      <c r="R11" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="52">
+      <c r="S11" s="49">
         <v>650</v>
       </c>
-      <c r="T11" s="53">
+      <c r="T11" s="50">
         <f>30/1000</f>
         <v>0.03</v>
       </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="52"/>
+      <c r="U11" s="50"/>
+      <c r="V11" s="49"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1719,7 +1717,7 @@
         <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
         <v>9.1445745620207047E-2</v>
       </c>
-      <c r="N12" s="49"/>
+      <c r="N12" s="52"/>
       <c r="O12" s="9">
         <f t="shared" si="1"/>
         <v>1738.864</v>
@@ -1728,23 +1726,23 @@
         <f t="shared" si="2"/>
         <v>1738.864</v>
       </c>
-      <c r="Q12" s="51">
+      <c r="Q12" s="48">
         <v>11</v>
       </c>
-      <c r="R12" s="52" t="s">
+      <c r="R12" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="52">
+      <c r="S12" s="49">
         <v>50</v>
       </c>
-      <c r="T12" s="53">
+      <c r="T12" s="50">
         <f>T11</f>
         <v>0.03</v>
       </c>
-      <c r="U12" s="53">
-        <v>0</v>
-      </c>
-      <c r="V12" s="52"/>
+      <c r="U12" s="50">
+        <v>0</v>
+      </c>
+      <c r="V12" s="49"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1783,7 +1781,7 @@
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="49"/>
+      <c r="N13" s="52"/>
       <c r="O13" s="9">
         <f t="shared" si="1"/>
         <v>1776.364</v>
@@ -1792,20 +1790,20 @@
         <f t="shared" si="2"/>
         <v>1776.364</v>
       </c>
-      <c r="Q13" s="51">
+      <c r="Q13" s="48">
         <v>12</v>
       </c>
-      <c r="R13" s="52" t="s">
+      <c r="R13" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="52">
+      <c r="S13" s="49">
         <v>1200</v>
       </c>
-      <c r="T13" s="53">
-        <v>0</v>
-      </c>
-      <c r="U13" s="53"/>
-      <c r="V13" s="52" t="s">
+      <c r="T13" s="50">
+        <v>0</v>
+      </c>
+      <c r="U13" s="50"/>
+      <c r="V13" s="49" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1840,7 +1838,7 @@
       <c r="K14" s="16"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="50" t="s">
+      <c r="N14" s="53" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="9">
@@ -1857,7 +1855,7 @@
       <c r="R14" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="54">
+      <c r="S14" s="51">
         <v>23230</v>
       </c>
       <c r="T14" s="45">
@@ -1907,7 +1905,7 @@
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
-      <c r="N15" s="50"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="9">
         <f t="shared" si="1"/>
         <v>2806.364</v>
@@ -1916,20 +1914,20 @@
         <f t="shared" si="2"/>
         <v>2806.364</v>
       </c>
-      <c r="Q15" s="51">
+      <c r="Q15" s="48">
         <v>14</v>
       </c>
-      <c r="R15" s="52" t="s">
+      <c r="R15" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="52">
+      <c r="S15" s="49">
         <v>50</v>
       </c>
-      <c r="T15" s="53">
-        <v>0</v>
-      </c>
-      <c r="U15" s="53"/>
-      <c r="V15" s="52" t="s">
+      <c r="T15" s="50">
+        <v>0</v>
+      </c>
+      <c r="U15" s="50"/>
+      <c r="V15" s="49" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1972,7 +1970,7 @@
         <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
         <v>0.11179813353580861</v>
       </c>
-      <c r="N16" s="50"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="9">
         <f t="shared" si="1"/>
         <v>3606.364</v>
@@ -1981,23 +1979,23 @@
         <f t="shared" si="2"/>
         <v>3606.364</v>
       </c>
-      <c r="Q16" s="51">
+      <c r="Q16" s="48">
         <v>15</v>
       </c>
-      <c r="R16" s="52" t="s">
+      <c r="R16" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="52">
+      <c r="S16" s="49">
         <v>50</v>
       </c>
-      <c r="T16" s="53">
-        <v>0</v>
-      </c>
-      <c r="U16" s="53">
+      <c r="T16" s="50">
+        <v>0</v>
+      </c>
+      <c r="U16" s="50">
         <f>T17</f>
         <v>-0.03</v>
       </c>
-      <c r="V16" s="52"/>
+      <c r="V16" s="49"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -2036,7 +2034,7 @@
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
-      <c r="N17" s="50"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="9">
         <f t="shared" si="1"/>
         <v>3686.364</v>
@@ -2045,21 +2043,21 @@
         <f t="shared" si="2"/>
         <v>3686.364</v>
       </c>
-      <c r="Q17" s="51">
+      <c r="Q17" s="48">
         <v>16</v>
       </c>
-      <c r="R17" s="52" t="s">
+      <c r="R17" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="52">
+      <c r="S17" s="49">
         <v>650</v>
       </c>
-      <c r="T17" s="53">
+      <c r="T17" s="50">
         <f>-30/1000</f>
         <v>-0.03</v>
       </c>
-      <c r="U17" s="53"/>
-      <c r="V17" s="52"/>
+      <c r="U17" s="50"/>
+      <c r="V17" s="49"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2092,7 +2090,7 @@
       <c r="K18" s="16"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
-      <c r="N18" s="49" t="s">
+      <c r="N18" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O18" s="9">
@@ -2103,23 +2101,23 @@
         <f t="shared" si="2"/>
         <v>3736.364</v>
       </c>
-      <c r="Q18" s="51">
+      <c r="Q18" s="48">
         <v>17</v>
       </c>
-      <c r="R18" s="52" t="s">
+      <c r="R18" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="52">
+      <c r="S18" s="49">
         <v>50</v>
       </c>
-      <c r="T18" s="53">
+      <c r="T18" s="50">
         <f>T17</f>
         <v>-0.03</v>
       </c>
-      <c r="U18" s="53">
-        <v>0</v>
-      </c>
-      <c r="V18" s="52"/>
+      <c r="U18" s="50">
+        <v>0</v>
+      </c>
+      <c r="V18" s="49"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2158,7 +2156,7 @@
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="49"/>
+      <c r="N19" s="52"/>
       <c r="O19" s="9">
         <f t="shared" si="1"/>
         <v>3836.364</v>
@@ -2167,20 +2165,20 @@
         <f t="shared" si="2"/>
         <v>3836.364</v>
       </c>
-      <c r="Q19" s="51">
+      <c r="Q19" s="48">
         <v>18</v>
       </c>
-      <c r="R19" s="52" t="s">
+      <c r="R19" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="S19" s="52">
+      <c r="S19" s="49">
         <v>1200</v>
       </c>
-      <c r="T19" s="53">
-        <v>0</v>
-      </c>
-      <c r="U19" s="53"/>
-      <c r="V19" s="52" t="s">
+      <c r="T19" s="50">
+        <v>0</v>
+      </c>
+      <c r="U19" s="50"/>
+      <c r="V19" s="49" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2221,7 +2219,7 @@
         <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
         <v>8.3851933485189795E-2</v>
       </c>
-      <c r="N20" s="49"/>
+      <c r="N20" s="52"/>
       <c r="O20" s="9">
         <f t="shared" si="1"/>
         <v>3986.364</v>
@@ -2236,7 +2234,7 @@
       <c r="R20" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="54">
+      <c r="S20" s="51">
         <v>150</v>
       </c>
       <c r="T20" s="45">
@@ -2283,7 +2281,7 @@
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="49"/>
+      <c r="N21" s="52"/>
       <c r="O21" s="9">
         <f t="shared" si="1"/>
         <v>4086.364</v>
@@ -2330,7 +2328,7 @@
       <c r="K22" s="16"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="50" t="s">
+      <c r="N22" s="53" t="s">
         <v>29</v>
       </c>
       <c r="O22" s="9">
@@ -2381,7 +2379,7 @@
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
-      <c r="N23" s="50"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="9">
         <f t="shared" si="1"/>
         <v>4436.3639999999996</v>
@@ -2428,7 +2426,7 @@
         <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
         <v>3.9307468821182724E-2</v>
       </c>
-      <c r="N24" s="50"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="9">
         <f t="shared" si="1"/>
         <v>5036.3639999999996</v>
@@ -2475,7 +2473,7 @@
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
-      <c r="N25" s="50"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="9">
         <f t="shared" si="1"/>
         <v>5186.3639999999996</v>
@@ -2514,7 +2512,7 @@
       <c r="K26" s="16"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="49" t="s">
+      <c r="N26" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O26" s="9">
@@ -2565,7 +2563,7 @@
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
-      <c r="N27" s="49"/>
+      <c r="N27" s="52"/>
       <c r="O27" s="9">
         <f t="shared" si="1"/>
         <v>5286.3639999999996</v>
@@ -2614,7 +2612,7 @@
         <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N28" s="49"/>
+      <c r="N28" s="52"/>
       <c r="O28" s="9">
         <f t="shared" si="1"/>
         <v>5786.3639999999996</v>
@@ -2663,7 +2661,7 @@
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
-      <c r="N29" s="49"/>
+      <c r="N29" s="52"/>
       <c r="O29" s="9">
         <f t="shared" si="1"/>
         <v>5836.3639999999996</v>
@@ -2702,7 +2700,7 @@
       <c r="K30" s="16"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="50" t="s">
+      <c r="N30" s="53" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="9">
@@ -2751,7 +2749,7 @@
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="50"/>
+      <c r="N31" s="53"/>
       <c r="O31" s="9">
         <f t="shared" si="1"/>
         <v>5966.3639999999996</v>
@@ -2800,7 +2798,7 @@
         <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N32" s="50"/>
+      <c r="N32" s="53"/>
       <c r="O32" s="9">
         <f t="shared" si="1"/>
         <v>6616.3639999999996</v>
@@ -2850,7 +2848,7 @@
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
-      <c r="N33" s="50"/>
+      <c r="N33" s="53"/>
       <c r="O33" s="9">
         <f t="shared" si="1"/>
         <v>6666.3639999999996</v>
@@ -2891,7 +2889,7 @@
       <c r="K34" s="16"/>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
-      <c r="N34" s="49" t="s">
+      <c r="N34" s="52" t="s">
         <v>29</v>
       </c>
       <c r="O34" s="9">
@@ -2938,7 +2936,7 @@
       </c>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
-      <c r="N35" s="50"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="9">
         <f t="shared" si="1"/>
         <v>8766.3639999999996</v>
@@ -2986,7 +2984,7 @@
         <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
         <v>8.489399932042134E-2</v>
       </c>
-      <c r="N36" s="50"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="9">
         <f t="shared" si="1"/>
         <v>9126.3639999999996</v>
@@ -3034,7 +3032,7 @@
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
-      <c r="N37" s="50"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="9">
         <f t="shared" si="1"/>
         <v>9226.3639999999996</v>
@@ -3076,7 +3074,7 @@
       <c r="K38" s="16"/>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
-      <c r="N38" s="48" t="s">
+      <c r="N38" s="54" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="9">
@@ -3128,7 +3126,7 @@
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
-      <c r="N39" s="49"/>
+      <c r="N39" s="52"/>
       <c r="O39" s="9">
         <f t="shared" si="1"/>
         <v>9326.3639999999996</v>
@@ -3176,7 +3174,7 @@
         <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
         <v>8.489399932042134E-2</v>
       </c>
-      <c r="N40" s="49"/>
+      <c r="N40" s="52"/>
       <c r="O40" s="9">
         <f t="shared" si="1"/>
         <v>9926.3639999999996</v>
@@ -3224,7 +3222,7 @@
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
-      <c r="N41" s="49"/>
+      <c r="N41" s="52"/>
       <c r="O41" s="9">
         <f t="shared" si="1"/>
         <v>9976.3639999999996</v>
@@ -3264,7 +3262,7 @@
       <c r="K42" s="16"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
-      <c r="N42" s="49" t="s">
+      <c r="N42" s="52" t="s">
         <v>29</v>
       </c>
       <c r="O42" s="9">
@@ -3314,7 +3312,7 @@
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
-      <c r="N43" s="50"/>
+      <c r="N43" s="53"/>
       <c r="O43" s="9">
         <f t="shared" si="1"/>
         <v>12876.364</v>
@@ -3362,7 +3360,7 @@
         <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
         <v>6.7017017007350174E-2</v>
       </c>
-      <c r="N44" s="50"/>
+      <c r="N44" s="53"/>
       <c r="O44" s="9">
         <f t="shared" si="1"/>
         <v>13076.364</v>
@@ -3410,7 +3408,7 @@
       </c>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
-      <c r="N45" s="50"/>
+      <c r="N45" s="53"/>
       <c r="O45" s="9">
         <f t="shared" si="1"/>
         <v>13176.364</v>
@@ -3450,7 +3448,7 @@
       <c r="K46" s="16"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="48" t="s">
+      <c r="N46" s="54" t="s">
         <v>27</v>
       </c>
       <c r="O46" s="9">
@@ -3500,7 +3498,7 @@
       </c>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="49"/>
+      <c r="N47" s="52"/>
       <c r="O47" s="9">
         <f t="shared" si="1"/>
         <v>13676.364</v>
@@ -3548,7 +3546,7 @@
         <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
         <v>1.2735433231396533E-2</v>
       </c>
-      <c r="N48" s="49"/>
+      <c r="N48" s="52"/>
       <c r="O48" s="9">
         <f t="shared" si="1"/>
         <v>13876.364</v>
@@ -3596,7 +3594,7 @@
       </c>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="49"/>
+      <c r="N49" s="52"/>
       <c r="O49" s="9">
         <f t="shared" si="1"/>
         <v>13976.364</v>
@@ -3635,7 +3633,7 @@
       <c r="K50" s="16"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="49" t="s">
+      <c r="N50" s="52" t="s">
         <v>29</v>
       </c>
       <c r="O50" s="9">
@@ -3684,7 +3682,7 @@
       </c>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="50"/>
+      <c r="N51" s="53"/>
       <c r="O51" s="9">
         <f t="shared" si="1"/>
         <v>14176.364</v>
@@ -3733,7 +3731,7 @@
         <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
         <v>0.10591384580585378</v>
       </c>
-      <c r="N52" s="50"/>
+      <c r="N52" s="53"/>
       <c r="O52" s="9">
         <f t="shared" si="1"/>
         <v>16576.364000000001</v>
@@ -3782,7 +3780,7 @@
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
-      <c r="N53" s="50"/>
+      <c r="N53" s="53"/>
       <c r="O53" s="9">
         <f t="shared" si="1"/>
         <v>16676.364000000001</v>
@@ -3823,7 +3821,7 @@
       <c r="K54" s="16"/>
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
-      <c r="N54" s="48" t="s">
+      <c r="N54" s="54" t="s">
         <v>29</v>
       </c>
       <c r="O54" s="9">
@@ -3873,7 +3871,7 @@
       </c>
       <c r="L55" s="31"/>
       <c r="M55" s="31"/>
-      <c r="N55" s="48"/>
+      <c r="N55" s="54"/>
       <c r="O55" s="9">
         <f t="shared" si="1"/>
         <v>18776.364000000001</v>
@@ -3921,7 +3919,7 @@
         <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
         <v>8.9838023972227163E-2</v>
       </c>
-      <c r="N56" s="48"/>
+      <c r="N56" s="54"/>
       <c r="O56" s="9">
         <f t="shared" si="1"/>
         <v>19576.364000000001</v>
@@ -3969,7 +3967,7 @@
       </c>
       <c r="L57" s="31"/>
       <c r="M57" s="31"/>
-      <c r="N57" s="48"/>
+      <c r="N57" s="54"/>
       <c r="O57" s="9">
         <f t="shared" si="1"/>
         <v>19676.364000000001</v>
@@ -4009,7 +4007,7 @@
       <c r="K58" s="16"/>
       <c r="L58" s="31"/>
       <c r="M58" s="31"/>
-      <c r="N58" s="49" t="s">
+      <c r="N58" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O58" s="9">
@@ -4059,7 +4057,7 @@
       </c>
       <c r="L59" s="31"/>
       <c r="M59" s="31"/>
-      <c r="N59" s="49"/>
+      <c r="N59" s="52"/>
       <c r="O59" s="9">
         <f t="shared" si="1"/>
         <v>20006.364000000001</v>
@@ -4107,7 +4105,7 @@
         <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
         <v>5.2416625094910296E-2</v>
       </c>
-      <c r="N60" s="49"/>
+      <c r="N60" s="52"/>
       <c r="O60" s="9">
         <f t="shared" si="1"/>
         <v>20106.364000000001</v>
@@ -4155,7 +4153,7 @@
       </c>
       <c r="L61" s="31"/>
       <c r="M61" s="31"/>
-      <c r="N61" s="49"/>
+      <c r="N61" s="52"/>
       <c r="O61" s="9">
         <f t="shared" si="1"/>
         <v>20186.364000000001</v>
@@ -4195,7 +4193,7 @@
       <c r="K62" s="16"/>
       <c r="L62" s="31"/>
       <c r="M62" s="31"/>
-      <c r="N62" s="48" t="s">
+      <c r="N62" s="54" t="s">
         <v>27</v>
       </c>
       <c r="O62" s="9">
@@ -4245,7 +4243,7 @@
       </c>
       <c r="L63" s="31"/>
       <c r="M63" s="31"/>
-      <c r="N63" s="48"/>
+      <c r="N63" s="54"/>
       <c r="O63" s="9">
         <f t="shared" si="1"/>
         <v>22836.364000000001</v>
@@ -4293,7 +4291,7 @@
         <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
         <v>3.9314135487849393E-2</v>
       </c>
-      <c r="N64" s="48"/>
+      <c r="N64" s="54"/>
       <c r="O64" s="9">
         <f t="shared" si="1"/>
         <v>24836.364000000001</v>
@@ -4340,7 +4338,7 @@
       </c>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
-      <c r="N65" s="48"/>
+      <c r="N65" s="54"/>
       <c r="O65" s="9">
         <f t="shared" si="1"/>
         <v>24986.364000000001</v>
@@ -4371,7 +4369,7 @@
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" ref="I66:I85" si="5">C66</f>
+        <f t="shared" ref="I66:I84" si="5">C66</f>
         <v>2000</v>
       </c>
       <c r="J66" s="12">
@@ -4380,7 +4378,7 @@
       <c r="K66" s="16"/>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
-      <c r="N66" s="49" t="s">
+      <c r="N66" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O66" s="9">
@@ -4430,7 +4428,7 @@
       </c>
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
-      <c r="N67" s="49"/>
+      <c r="N67" s="52"/>
       <c r="O67" s="9">
         <f t="shared" si="1"/>
         <v>27086.364000000001</v>
@@ -4478,7 +4476,7 @@
         <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
         <v>5.2403291761576959E-2</v>
       </c>
-      <c r="N68" s="49"/>
+      <c r="N68" s="52"/>
       <c r="O68" s="9">
         <f t="shared" si="1"/>
         <v>27986.364000000001</v>
@@ -4526,7 +4524,7 @@
       </c>
       <c r="L69" s="31"/>
       <c r="M69" s="31"/>
-      <c r="N69" s="49"/>
+      <c r="N69" s="52"/>
       <c r="O69" s="9">
         <f t="shared" ref="O69:O84" si="6">O68+C69</f>
         <v>28086.364000000001</v>
@@ -4566,7 +4564,7 @@
       <c r="K70" s="16"/>
       <c r="L70" s="31"/>
       <c r="M70" s="31"/>
-      <c r="N70" s="48" t="s">
+      <c r="N70" s="54" t="s">
         <v>27</v>
       </c>
       <c r="O70" s="9">
@@ -4616,7 +4614,7 @@
       </c>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="48"/>
+      <c r="N71" s="54"/>
       <c r="O71" s="9">
         <f t="shared" si="6"/>
         <v>28506.364000000001</v>
@@ -4664,7 +4662,7 @@
         <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
         <v>3.1441975056946174E-2</v>
       </c>
-      <c r="N72" s="48"/>
+      <c r="N72" s="54"/>
       <c r="O72" s="9">
         <f t="shared" si="6"/>
         <v>29306.364000000001</v>
@@ -4712,7 +4710,7 @@
       </c>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
-      <c r="N73" s="48"/>
+      <c r="N73" s="54"/>
       <c r="O73" s="9">
         <f t="shared" si="6"/>
         <v>29426.364000000001</v>
@@ -4752,7 +4750,7 @@
       <c r="K74" s="16"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
-      <c r="N74" s="49" t="s">
+      <c r="N74" s="52" t="s">
         <v>29</v>
       </c>
       <c r="O74" s="9">
@@ -4802,7 +4800,7 @@
       </c>
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
-      <c r="N75" s="49"/>
+      <c r="N75" s="52"/>
       <c r="O75" s="9">
         <f t="shared" si="6"/>
         <v>30006.364000000001</v>
@@ -4850,7 +4848,7 @@
         <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
         <v>0.12093092970620324</v>
       </c>
-      <c r="N76" s="49"/>
+      <c r="N76" s="52"/>
       <c r="O76" s="9">
         <f t="shared" si="6"/>
         <v>31206.364000000001</v>
@@ -4898,7 +4896,7 @@
       </c>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
-      <c r="N77" s="49"/>
+      <c r="N77" s="52"/>
       <c r="O77" s="9">
         <f t="shared" si="6"/>
         <v>31286.364000000001</v>
@@ -4938,7 +4936,7 @@
       <c r="K78" s="16"/>
       <c r="L78" s="31"/>
       <c r="M78" s="31"/>
-      <c r="N78" s="48" t="s">
+      <c r="N78" s="54" t="s">
         <v>29</v>
       </c>
       <c r="O78" s="9">
@@ -4988,7 +4986,7 @@
       </c>
       <c r="L79" s="31"/>
       <c r="M79" s="31"/>
-      <c r="N79" s="48"/>
+      <c r="N79" s="54"/>
       <c r="O79" s="9">
         <f t="shared" si="6"/>
         <v>31416.364000000001</v>
@@ -5036,7 +5034,7 @@
         <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N80" s="48"/>
+      <c r="N80" s="54"/>
       <c r="O80" s="9">
         <f t="shared" si="6"/>
         <v>31816.364000000001</v>
@@ -5084,7 +5082,7 @@
       </c>
       <c r="L81" s="31"/>
       <c r="M81" s="31"/>
-      <c r="N81" s="48"/>
+      <c r="N81" s="54"/>
       <c r="O81" s="9">
         <f t="shared" si="6"/>
         <v>31896.364000000001</v>
@@ -5126,7 +5124,7 @@
       <c r="K82" s="16"/>
       <c r="L82" s="31"/>
       <c r="M82" s="31"/>
-      <c r="N82" s="49" t="s">
+      <c r="N82" s="52" t="s">
         <v>29</v>
       </c>
       <c r="O82" s="9">
@@ -5173,7 +5171,7 @@
       </c>
       <c r="L83" s="31"/>
       <c r="M83" s="31"/>
-      <c r="N83" s="49"/>
+      <c r="N83" s="52"/>
       <c r="O83" s="9">
         <f t="shared" si="6"/>
         <v>33946.364000000001</v>
@@ -5221,7 +5219,7 @@
         <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
         <v>0</v>
       </c>
-      <c r="N84" s="49"/>
+      <c r="N84" s="52"/>
       <c r="O84" s="9">
         <f t="shared" si="6"/>
         <v>33996.364000000001</v>
@@ -5269,7 +5267,7 @@
       </c>
       <c r="L85" s="31"/>
       <c r="M85" s="31"/>
-      <c r="N85" s="49"/>
+      <c r="N85" s="52"/>
       <c r="O85" s="9">
         <f>O84+D85</f>
         <v>83996.364000000001</v>
@@ -5641,16 +5639,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
     <mergeCell ref="N82:N85"/>
     <mergeCell ref="N42:N45"/>
     <mergeCell ref="N46:N49"/>
@@ -5662,6 +5650,16 @@
     <mergeCell ref="N70:N73"/>
     <mergeCell ref="N74:N77"/>
     <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5778,7 +5776,7 @@
       <c r="K2" s="37"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="9">
@@ -5845,7 +5843,7 @@
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-      <c r="N3" s="49"/>
+      <c r="N3" s="52"/>
       <c r="O3" s="9">
         <f>O2+C3</f>
         <v>327.5</v>
@@ -5910,7 +5908,7 @@
         <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
         <v>3.3523440060742586E-2</v>
       </c>
-      <c r="N4" s="49"/>
+      <c r="N4" s="52"/>
       <c r="O4" s="9">
         <f>O3+C4</f>
         <v>466.39300000000003</v>
@@ -5974,7 +5972,7 @@
       </c>
       <c r="L5" s="31"/>
       <c r="M5" s="31"/>
-      <c r="N5" s="49"/>
+      <c r="N5" s="52"/>
       <c r="O5" s="9">
         <f t="shared" ref="O5:O68" si="1">O4+C5</f>
         <v>493.89300000000003</v>
@@ -6028,7 +6026,7 @@
       <c r="K6" s="38"/>
       <c r="L6" s="31"/>
       <c r="M6" s="31"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="53" t="s">
         <v>29</v>
       </c>
       <c r="O6" s="9">
@@ -6095,7 +6093,7 @@
       </c>
       <c r="L7" s="31"/>
       <c r="M7" s="31"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="53"/>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
         <v>786.39300000000003</v>
@@ -6160,7 +6158,7 @@
         <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
         <v>7.7364861678636737E-2</v>
       </c>
-      <c r="N8" s="50"/>
+      <c r="N8" s="53"/>
       <c r="O8" s="9">
         <f t="shared" si="1"/>
         <v>1351.567</v>
@@ -6223,7 +6221,7 @@
       </c>
       <c r="L9" s="31"/>
       <c r="M9" s="31"/>
-      <c r="N9" s="50"/>
+      <c r="N9" s="53"/>
       <c r="O9" s="9">
         <f t="shared" si="1"/>
         <v>1394.067</v>
@@ -6278,7 +6276,7 @@
       <c r="K10" s="38"/>
       <c r="L10" s="31"/>
       <c r="M10" s="31"/>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="9">
@@ -6345,7 +6343,7 @@
       </c>
       <c r="L11" s="31"/>
       <c r="M11" s="31"/>
-      <c r="N11" s="49"/>
+      <c r="N11" s="52"/>
       <c r="O11" s="9">
         <f t="shared" si="1"/>
         <v>1481.567</v>
@@ -6409,7 +6407,7 @@
         <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
         <v>9.1445745620207047E-2</v>
       </c>
-      <c r="N12" s="49"/>
+      <c r="N12" s="52"/>
       <c r="O12" s="9">
         <f t="shared" si="1"/>
         <v>1738.864</v>
@@ -6473,7 +6471,7 @@
       </c>
       <c r="L13" s="31"/>
       <c r="M13" s="31"/>
-      <c r="N13" s="49"/>
+      <c r="N13" s="52"/>
       <c r="O13" s="9">
         <f t="shared" si="1"/>
         <v>1776.364</v>
@@ -6530,7 +6528,7 @@
       <c r="K14" s="16"/>
       <c r="L14" s="31"/>
       <c r="M14" s="31"/>
-      <c r="N14" s="50" t="s">
+      <c r="N14" s="53" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="9">
@@ -6597,7 +6595,7 @@
       </c>
       <c r="L15" s="31"/>
       <c r="M15" s="31"/>
-      <c r="N15" s="50"/>
+      <c r="N15" s="53"/>
       <c r="O15" s="9">
         <f t="shared" si="1"/>
         <v>2806.364</v>
@@ -6662,7 +6660,7 @@
         <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
         <v>0.11179813353580861</v>
       </c>
-      <c r="N16" s="50"/>
+      <c r="N16" s="53"/>
       <c r="O16" s="9">
         <f t="shared" si="1"/>
         <v>3606.364</v>
@@ -6726,7 +6724,7 @@
       </c>
       <c r="L17" s="31"/>
       <c r="M17" s="31"/>
-      <c r="N17" s="50"/>
+      <c r="N17" s="53"/>
       <c r="O17" s="9">
         <f t="shared" si="1"/>
         <v>3686.364</v>
@@ -6782,7 +6780,7 @@
       <c r="K18" s="16"/>
       <c r="L18" s="31"/>
       <c r="M18" s="31"/>
-      <c r="N18" s="49" t="s">
+      <c r="N18" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O18" s="9">
@@ -6848,7 +6846,7 @@
       </c>
       <c r="L19" s="31"/>
       <c r="M19" s="31"/>
-      <c r="N19" s="49"/>
+      <c r="N19" s="52"/>
       <c r="O19" s="9">
         <f t="shared" si="1"/>
         <v>3836.364</v>
@@ -6911,7 +6909,7 @@
         <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
         <v>8.3851933485189795E-2</v>
       </c>
-      <c r="N20" s="49"/>
+      <c r="N20" s="52"/>
       <c r="O20" s="9">
         <f t="shared" si="1"/>
         <v>3986.364</v>
@@ -6973,7 +6971,7 @@
       </c>
       <c r="L21" s="31"/>
       <c r="M21" s="31"/>
-      <c r="N21" s="49"/>
+      <c r="N21" s="52"/>
       <c r="O21" s="9">
         <f t="shared" si="1"/>
         <v>4086.364</v>
@@ -7020,7 +7018,7 @@
       <c r="K22" s="16"/>
       <c r="L22" s="31"/>
       <c r="M22" s="31"/>
-      <c r="N22" s="50" t="s">
+      <c r="N22" s="53" t="s">
         <v>29</v>
       </c>
       <c r="O22" s="9">
@@ -7072,7 +7070,7 @@
       </c>
       <c r="L23" s="31"/>
       <c r="M23" s="31"/>
-      <c r="N23" s="50"/>
+      <c r="N23" s="53"/>
       <c r="O23" s="9">
         <f t="shared" si="1"/>
         <v>4436.3639999999996</v>
@@ -7121,7 +7119,7 @@
         <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
         <v>3.9307468821182724E-2</v>
       </c>
-      <c r="N24" s="50"/>
+      <c r="N24" s="53"/>
       <c r="O24" s="9">
         <f t="shared" si="1"/>
         <v>5036.3639999999996</v>
@@ -7170,7 +7168,7 @@
       </c>
       <c r="L25" s="31"/>
       <c r="M25" s="31"/>
-      <c r="N25" s="50"/>
+      <c r="N25" s="53"/>
       <c r="O25" s="9">
         <f t="shared" si="1"/>
         <v>5186.3639999999996</v>
@@ -7211,7 +7209,7 @@
       <c r="K26" s="16"/>
       <c r="L26" s="31"/>
       <c r="M26" s="31"/>
-      <c r="N26" s="49" t="s">
+      <c r="N26" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O26" s="9">
@@ -7264,7 +7262,7 @@
       </c>
       <c r="L27" s="31"/>
       <c r="M27" s="31"/>
-      <c r="N27" s="49"/>
+      <c r="N27" s="52"/>
       <c r="O27" s="9">
         <f t="shared" si="1"/>
         <v>5286.3639999999996</v>
@@ -7315,7 +7313,7 @@
         <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N28" s="49"/>
+      <c r="N28" s="52"/>
       <c r="O28" s="9">
         <f t="shared" si="1"/>
         <v>5786.3639999999996</v>
@@ -7368,7 +7366,7 @@
       </c>
       <c r="L29" s="31"/>
       <c r="M29" s="31"/>
-      <c r="N29" s="49"/>
+      <c r="N29" s="52"/>
       <c r="O29" s="9">
         <f t="shared" si="1"/>
         <v>5836.3639999999996</v>
@@ -7409,7 +7407,7 @@
       <c r="K30" s="16"/>
       <c r="L30" s="31"/>
       <c r="M30" s="31"/>
-      <c r="N30" s="50" t="s">
+      <c r="N30" s="53" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="9">
@@ -7460,7 +7458,7 @@
       </c>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
-      <c r="N31" s="50"/>
+      <c r="N31" s="53"/>
       <c r="O31" s="9">
         <f t="shared" si="1"/>
         <v>5966.3639999999996</v>
@@ -7511,7 +7509,7 @@
         <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N32" s="50"/>
+      <c r="N32" s="53"/>
       <c r="O32" s="9">
         <f t="shared" si="1"/>
         <v>6616.3639999999996</v>
@@ -7565,7 +7563,7 @@
       </c>
       <c r="L33" s="31"/>
       <c r="M33" s="31"/>
-      <c r="N33" s="50"/>
+      <c r="N33" s="53"/>
       <c r="O33" s="9">
         <f t="shared" si="1"/>
         <v>6666.3639999999996</v>
@@ -7608,7 +7606,7 @@
       <c r="K34" s="16"/>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
-      <c r="N34" s="49" t="s">
+      <c r="N34" s="52" t="s">
         <v>29</v>
       </c>
       <c r="O34" s="9">
@@ -7660,7 +7658,7 @@
       </c>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
-      <c r="N35" s="50"/>
+      <c r="N35" s="53"/>
       <c r="O35" s="9">
         <f t="shared" si="1"/>
         <v>8766.3639999999996</v>
@@ -7713,7 +7711,7 @@
         <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
         <v>8.489399932042134E-2</v>
       </c>
-      <c r="N36" s="50"/>
+      <c r="N36" s="53"/>
       <c r="O36" s="9">
         <f t="shared" si="1"/>
         <v>9126.3639999999996</v>
@@ -7766,7 +7764,7 @@
       </c>
       <c r="L37" s="31"/>
       <c r="M37" s="31"/>
-      <c r="N37" s="50"/>
+      <c r="N37" s="53"/>
       <c r="O37" s="9">
         <f t="shared" si="1"/>
         <v>9226.3639999999996</v>
@@ -7813,7 +7811,7 @@
       <c r="K38" s="16"/>
       <c r="L38" s="31"/>
       <c r="M38" s="31"/>
-      <c r="N38" s="48" t="s">
+      <c r="N38" s="54" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="9">
@@ -7870,7 +7868,7 @@
       </c>
       <c r="L39" s="31"/>
       <c r="M39" s="31"/>
-      <c r="N39" s="49"/>
+      <c r="N39" s="52"/>
       <c r="O39" s="9">
         <f t="shared" si="1"/>
         <v>9326.3639999999996</v>
@@ -7923,7 +7921,7 @@
         <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
         <v>8.489399932042134E-2</v>
       </c>
-      <c r="N40" s="49"/>
+      <c r="N40" s="52"/>
       <c r="O40" s="9">
         <f t="shared" si="1"/>
         <v>9926.3639999999996</v>
@@ -7976,7 +7974,7 @@
       </c>
       <c r="L41" s="31"/>
       <c r="M41" s="31"/>
-      <c r="N41" s="49"/>
+      <c r="N41" s="52"/>
       <c r="O41" s="9">
         <f t="shared" si="1"/>
         <v>9976.3639999999996</v>
@@ -8021,7 +8019,7 @@
       <c r="K42" s="16"/>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
-      <c r="N42" s="49" t="s">
+      <c r="N42" s="52" t="s">
         <v>29</v>
       </c>
       <c r="O42" s="9">
@@ -8076,7 +8074,7 @@
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
-      <c r="N43" s="50"/>
+      <c r="N43" s="53"/>
       <c r="O43" s="9">
         <f t="shared" si="1"/>
         <v>12876.364</v>
@@ -8129,7 +8127,7 @@
         <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
         <v>6.7017017007350174E-2</v>
       </c>
-      <c r="N44" s="50"/>
+      <c r="N44" s="53"/>
       <c r="O44" s="9">
         <f t="shared" si="1"/>
         <v>13076.364</v>
@@ -8182,7 +8180,7 @@
       </c>
       <c r="L45" s="31"/>
       <c r="M45" s="31"/>
-      <c r="N45" s="50"/>
+      <c r="N45" s="53"/>
       <c r="O45" s="9">
         <f t="shared" si="1"/>
         <v>13176.364</v>
@@ -8227,7 +8225,7 @@
       <c r="K46" s="16"/>
       <c r="L46" s="29"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="48" t="s">
+      <c r="N46" s="54" t="s">
         <v>27</v>
       </c>
       <c r="O46" s="9">
@@ -8282,7 +8280,7 @@
       </c>
       <c r="L47" s="29"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="49"/>
+      <c r="N47" s="52"/>
       <c r="O47" s="9">
         <f t="shared" si="1"/>
         <v>13676.364</v>
@@ -8335,7 +8333,7 @@
         <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
         <v>1.2735433231396533E-2</v>
       </c>
-      <c r="N48" s="49"/>
+      <c r="N48" s="52"/>
       <c r="O48" s="9">
         <f t="shared" si="1"/>
         <v>13876.364</v>
@@ -8388,7 +8386,7 @@
       </c>
       <c r="L49" s="29"/>
       <c r="M49" s="29"/>
-      <c r="N49" s="49"/>
+      <c r="N49" s="52"/>
       <c r="O49" s="9">
         <f t="shared" si="1"/>
         <v>13976.364</v>
@@ -8429,7 +8427,7 @@
       <c r="K50" s="16"/>
       <c r="L50" s="29"/>
       <c r="M50" s="29"/>
-      <c r="N50" s="49" t="s">
+      <c r="N50" s="52" t="s">
         <v>29</v>
       </c>
       <c r="O50" s="9">
@@ -8480,7 +8478,7 @@
       </c>
       <c r="L51" s="29"/>
       <c r="M51" s="29"/>
-      <c r="N51" s="50"/>
+      <c r="N51" s="53"/>
       <c r="O51" s="9">
         <f t="shared" si="1"/>
         <v>14176.364</v>
@@ -8531,7 +8529,7 @@
         <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
         <v>0.10591384580585378</v>
       </c>
-      <c r="N52" s="50"/>
+      <c r="N52" s="53"/>
       <c r="O52" s="9">
         <f t="shared" si="1"/>
         <v>16576.364000000001</v>
@@ -8584,7 +8582,7 @@
       </c>
       <c r="L53" s="31"/>
       <c r="M53" s="31"/>
-      <c r="N53" s="50"/>
+      <c r="N53" s="53"/>
       <c r="O53" s="9">
         <f t="shared" si="1"/>
         <v>16676.364000000001</v>
@@ -8627,7 +8625,7 @@
       <c r="K54" s="16"/>
       <c r="L54" s="31"/>
       <c r="M54" s="31"/>
-      <c r="N54" s="48" t="s">
+      <c r="N54" s="54" t="s">
         <v>29</v>
       </c>
       <c r="O54" s="9">
@@ -8682,7 +8680,7 @@
       </c>
       <c r="L55" s="31"/>
       <c r="M55" s="31"/>
-      <c r="N55" s="48"/>
+      <c r="N55" s="54"/>
       <c r="O55" s="9">
         <f t="shared" si="1"/>
         <v>18776.364000000001</v>
@@ -8735,7 +8733,7 @@
         <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
         <v>8.9838023972227163E-2</v>
       </c>
-      <c r="N56" s="48"/>
+      <c r="N56" s="54"/>
       <c r="O56" s="9">
         <f t="shared" si="1"/>
         <v>19576.364000000001</v>
@@ -8788,7 +8786,7 @@
       </c>
       <c r="L57" s="31"/>
       <c r="M57" s="31"/>
-      <c r="N57" s="48"/>
+      <c r="N57" s="54"/>
       <c r="O57" s="9">
         <f t="shared" si="1"/>
         <v>19676.364000000001</v>
@@ -8833,7 +8831,7 @@
       <c r="K58" s="16"/>
       <c r="L58" s="31"/>
       <c r="M58" s="31"/>
-      <c r="N58" s="49" t="s">
+      <c r="N58" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O58" s="9">
@@ -8888,7 +8886,7 @@
       </c>
       <c r="L59" s="31"/>
       <c r="M59" s="31"/>
-      <c r="N59" s="49"/>
+      <c r="N59" s="52"/>
       <c r="O59" s="9">
         <f t="shared" si="1"/>
         <v>20006.364000000001</v>
@@ -8941,7 +8939,7 @@
         <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
         <v>5.2416625094910296E-2</v>
       </c>
-      <c r="N60" s="49"/>
+      <c r="N60" s="52"/>
       <c r="O60" s="9">
         <f t="shared" si="1"/>
         <v>20106.364000000001</v>
@@ -8994,7 +8992,7 @@
       </c>
       <c r="L61" s="31"/>
       <c r="M61" s="31"/>
-      <c r="N61" s="49"/>
+      <c r="N61" s="52"/>
       <c r="O61" s="9">
         <f t="shared" si="1"/>
         <v>20186.364000000001</v>
@@ -9039,7 +9037,7 @@
       <c r="K62" s="16"/>
       <c r="L62" s="31"/>
       <c r="M62" s="31"/>
-      <c r="N62" s="48" t="s">
+      <c r="N62" s="54" t="s">
         <v>27</v>
       </c>
       <c r="O62" s="9">
@@ -9094,7 +9092,7 @@
       </c>
       <c r="L63" s="31"/>
       <c r="M63" s="31"/>
-      <c r="N63" s="48"/>
+      <c r="N63" s="54"/>
       <c r="O63" s="9">
         <f t="shared" si="1"/>
         <v>22836.364000000001</v>
@@ -9147,7 +9145,7 @@
         <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
         <v>3.9314135487849393E-2</v>
       </c>
-      <c r="N64" s="48"/>
+      <c r="N64" s="54"/>
       <c r="O64" s="9">
         <f t="shared" si="1"/>
         <v>24836.364000000001</v>
@@ -9199,7 +9197,7 @@
       </c>
       <c r="L65" s="31"/>
       <c r="M65" s="31"/>
-      <c r="N65" s="48"/>
+      <c r="N65" s="54"/>
       <c r="O65" s="9">
         <f t="shared" si="1"/>
         <v>24986.364000000001</v>
@@ -9235,7 +9233,7 @@
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" ref="I66:I85" si="5">C66</f>
+        <f t="shared" ref="I66:I84" si="5">C66</f>
         <v>2000</v>
       </c>
       <c r="J66" s="12">
@@ -9244,7 +9242,7 @@
       <c r="K66" s="16"/>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
-      <c r="N66" s="49" t="s">
+      <c r="N66" s="52" t="s">
         <v>27</v>
       </c>
       <c r="O66" s="9">
@@ -9299,7 +9297,7 @@
       </c>
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
-      <c r="N67" s="49"/>
+      <c r="N67" s="52"/>
       <c r="O67" s="9">
         <f t="shared" si="1"/>
         <v>27086.364000000001</v>
@@ -9352,7 +9350,7 @@
         <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
         <v>5.2403291761576959E-2</v>
       </c>
-      <c r="N68" s="49"/>
+      <c r="N68" s="52"/>
       <c r="O68" s="9">
         <f t="shared" si="1"/>
         <v>27986.364000000001</v>
@@ -9405,7 +9403,7 @@
       </c>
       <c r="L69" s="31"/>
       <c r="M69" s="31"/>
-      <c r="N69" s="49"/>
+      <c r="N69" s="52"/>
       <c r="O69" s="9">
         <f t="shared" ref="O69:O84" si="6">O68+C69</f>
         <v>28086.364000000001</v>
@@ -9450,7 +9448,7 @@
       <c r="K70" s="16"/>
       <c r="L70" s="31"/>
       <c r="M70" s="31"/>
-      <c r="N70" s="48" t="s">
+      <c r="N70" s="54" t="s">
         <v>27</v>
       </c>
       <c r="O70" s="9">
@@ -9505,7 +9503,7 @@
       </c>
       <c r="L71" s="29"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="48"/>
+      <c r="N71" s="54"/>
       <c r="O71" s="9">
         <f t="shared" si="6"/>
         <v>28506.364000000001</v>
@@ -9558,7 +9556,7 @@
         <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
         <v>3.1441975056946174E-2</v>
       </c>
-      <c r="N72" s="48"/>
+      <c r="N72" s="54"/>
       <c r="O72" s="9">
         <f t="shared" si="6"/>
         <v>29306.364000000001</v>
@@ -9611,7 +9609,7 @@
       </c>
       <c r="L73" s="29"/>
       <c r="M73" s="29"/>
-      <c r="N73" s="48"/>
+      <c r="N73" s="54"/>
       <c r="O73" s="9">
         <f t="shared" si="6"/>
         <v>29426.364000000001</v>
@@ -9656,7 +9654,7 @@
       <c r="K74" s="16"/>
       <c r="L74" s="29"/>
       <c r="M74" s="29"/>
-      <c r="N74" s="49" t="s">
+      <c r="N74" s="52" t="s">
         <v>29</v>
       </c>
       <c r="O74" s="9">
@@ -9711,7 +9709,7 @@
       </c>
       <c r="L75" s="29"/>
       <c r="M75" s="29"/>
-      <c r="N75" s="49"/>
+      <c r="N75" s="52"/>
       <c r="O75" s="9">
         <f t="shared" si="6"/>
         <v>30006.364000000001</v>
@@ -9764,7 +9762,7 @@
         <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
         <v>0.12093092970620324</v>
       </c>
-      <c r="N76" s="49"/>
+      <c r="N76" s="52"/>
       <c r="O76" s="9">
         <f t="shared" si="6"/>
         <v>31206.364000000001</v>
@@ -9817,7 +9815,7 @@
       </c>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
-      <c r="N77" s="49"/>
+      <c r="N77" s="52"/>
       <c r="O77" s="9">
         <f t="shared" si="6"/>
         <v>31286.364000000001</v>
@@ -9862,7 +9860,7 @@
       <c r="K78" s="16"/>
       <c r="L78" s="31"/>
       <c r="M78" s="31"/>
-      <c r="N78" s="48" t="s">
+      <c r="N78" s="54" t="s">
         <v>29</v>
       </c>
       <c r="O78" s="9">
@@ -9917,7 +9915,7 @@
       </c>
       <c r="L79" s="31"/>
       <c r="M79" s="31"/>
-      <c r="N79" s="48"/>
+      <c r="N79" s="54"/>
       <c r="O79" s="9">
         <f t="shared" si="6"/>
         <v>31416.364000000001</v>
@@ -9970,7 +9968,7 @@
         <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
         <v>0.1257679002277847</v>
       </c>
-      <c r="N80" s="48"/>
+      <c r="N80" s="54"/>
       <c r="O80" s="9">
         <f t="shared" si="6"/>
         <v>31816.364000000001</v>
@@ -10023,7 +10021,7 @@
       </c>
       <c r="L81" s="31"/>
       <c r="M81" s="31"/>
-      <c r="N81" s="48"/>
+      <c r="N81" s="54"/>
       <c r="O81" s="9">
         <f t="shared" si="6"/>
         <v>31896.364000000001</v>
@@ -10070,7 +10068,7 @@
       <c r="K82" s="16"/>
       <c r="L82" s="31"/>
       <c r="M82" s="31"/>
-      <c r="N82" s="49" t="s">
+      <c r="N82" s="52" t="s">
         <v>29</v>
       </c>
       <c r="O82" s="9">
@@ -10122,7 +10120,7 @@
       </c>
       <c r="L83" s="31"/>
       <c r="M83" s="31"/>
-      <c r="N83" s="49"/>
+      <c r="N83" s="52"/>
       <c r="O83" s="9">
         <f t="shared" si="6"/>
         <v>33946.364000000001</v>
@@ -10175,7 +10173,7 @@
         <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
         <v>0</v>
       </c>
-      <c r="N84" s="49"/>
+      <c r="N84" s="52"/>
       <c r="O84" s="9">
         <f t="shared" si="6"/>
         <v>33996.364000000001</v>
@@ -10228,7 +10226,7 @@
       </c>
       <c r="L85" s="31"/>
       <c r="M85" s="31"/>
-      <c r="N85" s="49"/>
+      <c r="N85" s="52"/>
       <c r="O85" s="9">
         <f>O84+D85</f>
         <v>83996.364000000001</v>
@@ -10246,6 +10244,18 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N46:N49"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
+    <mergeCell ref="N42:N45"/>
     <mergeCell ref="N74:N77"/>
     <mergeCell ref="N78:N81"/>
     <mergeCell ref="N82:N85"/>
@@ -10255,18 +10265,6 @@
     <mergeCell ref="N62:N65"/>
     <mergeCell ref="N66:N69"/>
     <mergeCell ref="N70:N73"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N46:N49"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
-    <mergeCell ref="N22:N25"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10370,7 +10368,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="52" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10414,7 +10412,7 @@
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
-      <c r="N3" s="49"/>
+      <c r="N3" s="52"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -10455,7 +10453,7 @@
         <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
         <v>-2.4405599392574098E-3</v>
       </c>
-      <c r="N4" s="49"/>
+      <c r="N4" s="52"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -10495,7 +10493,7 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="49"/>
+      <c r="N5" s="52"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -10524,7 +10522,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="50" t="s">
+      <c r="N6" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10566,7 +10564,7 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="50"/>
+      <c r="N7" s="53"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -10607,7 +10605,7 @@
         <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
         <v>-2.5551383213632678E-3</v>
       </c>
-      <c r="N8" s="50"/>
+      <c r="N8" s="53"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -10647,7 +10645,7 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="50"/>
+      <c r="N9" s="53"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -10676,7 +10674,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="49" t="s">
+      <c r="N10" s="52" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10718,7 +10716,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="49"/>
+      <c r="N11" s="52"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -10759,7 +10757,7 @@
         <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
         <v>1.1525745620207042E-2</v>
       </c>
-      <c r="N12" s="49"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -10799,7 +10797,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="49"/>
+      <c r="N13" s="52"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -10830,7 +10828,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="50" t="s">
+      <c r="N14" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10871,7 +10869,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="50"/>
+      <c r="N15" s="53"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -10912,7 +10910,7 @@
         <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
         <v>3.8531466869141953E-2</v>
       </c>
-      <c r="N16" s="50"/>
+      <c r="N16" s="53"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -10952,7 +10950,7 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="50"/>
+      <c r="N17" s="53"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -10983,7 +10981,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="49" t="s">
+      <c r="N18" s="52" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11024,7 +11022,7 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="49"/>
+      <c r="N19" s="52"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -11063,7 +11061,7 @@
         <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
         <v>5.1091562737275734E-2</v>
       </c>
-      <c r="N20" s="49"/>
+      <c r="N20" s="52"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -11102,7 +11100,7 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="49"/>
+      <c r="N21" s="52"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -11131,7 +11129,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-      <c r="N22" s="50" t="s">
+      <c r="N22" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11172,7 +11170,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-      <c r="N23" s="50"/>
+      <c r="N23" s="53"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -11211,7 +11209,7 @@
         <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
         <v>3.9327468821182723E-2</v>
       </c>
-      <c r="N24" s="50"/>
+      <c r="N24" s="53"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
@@ -11251,7 +11249,7 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="50"/>
+      <c r="N25" s="53"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -11280,7 +11278,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="49" t="s">
+      <c r="N26" s="52" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11321,7 +11319,7 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="49"/>
+      <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
@@ -11362,7 +11360,7 @@
         <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
         <v>0.20765234337779359</v>
       </c>
-      <c r="N28" s="49"/>
+      <c r="N28" s="52"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
@@ -11405,7 +11403,7 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="49"/>
+      <c r="N29" s="52"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -11434,7 +11432,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="50" t="s">
+      <c r="N30" s="53" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11475,7 +11473,7 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="50"/>
+      <c r="N31" s="53"/>
     </row>
     <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25">
@@ -11516,7 +11514,7 @@
         <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
         <v>0.22403552048594069</v>
       </c>
-      <c r="N32" s="50"/>
+      <c r="N32" s="53"/>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
@@ -11558,7 +11556,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="50"/>
+      <c r="N33" s="53"/>
     </row>
     <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -11589,7 +11587,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="49" t="s">
+      <c r="N34" s="52" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11630,7 +11628,7 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="50"/>
+      <c r="N35" s="53"/>
     </row>
     <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -11669,7 +11667,7 @@
         <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
         <v>2.4947332653754678E-2</v>
       </c>
-      <c r="N36" s="50"/>
+      <c r="N36" s="53"/>
     </row>
     <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -11709,7 +11707,7 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="50"/>
+      <c r="N37" s="53"/>
     </row>
     <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
@@ -11740,7 +11738,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="48" t="s">
+      <c r="N38" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11781,7 +11779,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="49"/>
+      <c r="N39" s="52"/>
     </row>
     <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
@@ -11820,7 +11818,7 @@
         <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
         <v>3.8531161842448383E-2</v>
       </c>
-      <c r="N40" s="49"/>
+      <c r="N40" s="52"/>
     </row>
     <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
@@ -11860,7 +11858,7 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="49"/>
+      <c r="N41" s="52"/>
     </row>
     <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -11889,7 +11887,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="49" t="s">
+      <c r="N42" s="52" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11930,7 +11928,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="50"/>
+      <c r="N43" s="53"/>
     </row>
     <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -11969,7 +11967,7 @@
         <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
         <v>2.9461337869156605E-2</v>
       </c>
-      <c r="N44" s="50"/>
+      <c r="N44" s="53"/>
     </row>
     <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -12009,7 +12007,7 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="50"/>
+      <c r="N45" s="53"/>
     </row>
     <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
@@ -12038,7 +12036,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="48" t="s">
+      <c r="N46" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12079,7 +12077,7 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="49"/>
+      <c r="N47" s="52"/>
     </row>
     <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -12118,7 +12116,7 @@
         <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
         <v>-2.4269012471526914E-2</v>
       </c>
-      <c r="N48" s="49"/>
+      <c r="N48" s="52"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -12158,7 +12156,7 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="49"/>
+      <c r="N49" s="52"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
@@ -12187,7 +12185,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="49" t="s">
+      <c r="N50" s="52" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12228,7 +12226,7 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="50"/>
+      <c r="N51" s="53"/>
     </row>
     <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
@@ -12269,7 +12267,7 @@
         <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
         <v>0.1166373441059136</v>
       </c>
-      <c r="N52" s="50"/>
+      <c r="N52" s="53"/>
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
@@ -12312,7 +12310,7 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="50"/>
+      <c r="N53" s="53"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
@@ -12341,7 +12339,7 @@
       <c r="K54" s="15"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="50" t="s">
+      <c r="N54" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12382,7 +12380,7 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="50"/>
+      <c r="N55" s="53"/>
     </row>
     <row r="56" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="25">
@@ -12423,7 +12421,7 @@
         <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
         <v>0.10974650037964118</v>
       </c>
-      <c r="N56" s="50"/>
+      <c r="N56" s="53"/>
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
@@ -12466,7 +12464,7 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="50"/>
+      <c r="N57" s="53"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
@@ -12495,7 +12493,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="49" t="s">
+      <c r="N58" s="52" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12536,7 +12534,7 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="50"/>
+      <c r="N59" s="53"/>
     </row>
     <row r="60" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
@@ -12577,7 +12575,7 @@
         <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
         <v>4.9818928842600835E-2</v>
       </c>
-      <c r="N60" s="50"/>
+      <c r="N60" s="53"/>
       <c r="O60" s="23"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
@@ -12620,7 +12618,7 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="50"/>
+      <c r="N61" s="53"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
@@ -12649,7 +12647,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="48" t="s">
+      <c r="N62" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12690,7 +12688,7 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="49"/>
+      <c r="N63" s="52"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
@@ -12729,7 +12727,7 @@
         <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
         <v>2.8672651687715683E-2</v>
       </c>
-      <c r="N64" s="49"/>
+      <c r="N64" s="52"/>
     </row>
     <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
@@ -12769,7 +12767,7 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="49"/>
+      <c r="N65" s="52"/>
     </row>
     <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
@@ -12800,7 +12798,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="49" t="s">
+      <c r="N66" s="52" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12841,7 +12839,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
-      <c r="N67" s="50"/>
+      <c r="N67" s="53"/>
     </row>
     <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -12880,7 +12878,7 @@
         <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
         <v>3.6558023972227162E-2</v>
       </c>
-      <c r="N68" s="50"/>
+      <c r="N68" s="53"/>
     </row>
     <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
@@ -12920,7 +12918,7 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
-      <c r="N69" s="50"/>
+      <c r="N69" s="53"/>
     </row>
     <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
@@ -12949,7 +12947,7 @@
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
-      <c r="N70" s="48" t="s">
+      <c r="N70" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12990,7 +12988,7 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
-      <c r="N71" s="49"/>
+      <c r="N71" s="52"/>
     </row>
     <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
@@ -13029,7 +13027,7 @@
         <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
         <v>-1.0036214231479833E-2</v>
       </c>
-      <c r="N72" s="49"/>
+      <c r="N72" s="52"/>
     </row>
     <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
@@ -13069,7 +13067,7 @@
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-      <c r="N73" s="49"/>
+      <c r="N73" s="52"/>
     </row>
     <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
@@ -13098,7 +13096,7 @@
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="49" t="s">
+      <c r="N74" s="52" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13139,7 +13137,7 @@
       </c>
       <c r="L75" s="15"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="49"/>
+      <c r="N75" s="52"/>
     </row>
     <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
@@ -13178,7 +13176,7 @@
         <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
         <v>-1.5204691609720496E-2</v>
       </c>
-      <c r="N76" s="49"/>
+      <c r="N76" s="52"/>
     </row>
     <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
@@ -13217,7 +13215,7 @@
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="49"/>
+      <c r="N77" s="52"/>
     </row>
     <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
@@ -13246,7 +13244,7 @@
       <c r="K78" s="15"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
-      <c r="N78" s="48" t="s">
+      <c r="N78" s="54" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13287,7 +13285,7 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
-      <c r="N79" s="49"/>
+      <c r="N79" s="52"/>
     </row>
     <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
@@ -13326,7 +13324,7 @@
         <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
         <v>-2.4193827340276544E-2</v>
       </c>
-      <c r="N80" s="49"/>
+      <c r="N80" s="52"/>
     </row>
     <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
@@ -13366,7 +13364,7 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
-      <c r="N81" s="49"/>
+      <c r="N81" s="52"/>
     </row>
     <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
@@ -13395,7 +13393,7 @@
       <c r="K82" s="15"/>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
-      <c r="N82" s="49" t="s">
+      <c r="N82" s="52" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13436,7 +13434,7 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
-      <c r="N83" s="49"/>
+      <c r="N83" s="52"/>
     </row>
     <row r="84" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
@@ -13475,7 +13473,7 @@
         <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
         <v>-1.5204691609720496E-2</v>
       </c>
-      <c r="N84" s="49"/>
+      <c r="N84" s="52"/>
     </row>
     <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
@@ -13515,7 +13513,7 @@
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
-      <c r="N85" s="49"/>
+      <c r="N85" s="52"/>
     </row>
     <row r="86" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
@@ -13544,7 +13542,7 @@
       <c r="K86" s="15"/>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
-      <c r="N86" s="50" t="s">
+      <c r="N86" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13585,7 +13583,7 @@
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="16"/>
-      <c r="N87" s="50"/>
+      <c r="N87" s="53"/>
     </row>
     <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
@@ -13624,7 +13622,7 @@
         <f>(G88/3.6)^2/(ABS(D88)*9.81)-ABS(J88)/1500</f>
         <v>3.9030863298617297E-2</v>
       </c>
-      <c r="N88" s="50"/>
+      <c r="N88" s="53"/>
     </row>
     <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
@@ -13664,7 +13662,7 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
-      <c r="N89" s="50"/>
+      <c r="N89" s="53"/>
     </row>
     <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
@@ -13693,7 +13691,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
-      <c r="N90" s="49" t="s">
+      <c r="N90" s="52" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13734,7 +13732,7 @@
       </c>
       <c r="L91" s="16"/>
       <c r="M91" s="16"/>
-      <c r="N91" s="50"/>
+      <c r="N91" s="53"/>
     </row>
     <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
@@ -13773,7 +13771,7 @@
         <f>(G92/3.6)^2/(ABS(D92)*9.81)-ABS(J92)/1500</f>
         <v>3.8206583523153925E-2</v>
       </c>
-      <c r="N92" s="50"/>
+      <c r="N92" s="53"/>
     </row>
     <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
@@ -13813,7 +13811,7 @@
       </c>
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
-      <c r="N93" s="50"/>
+      <c r="N93" s="53"/>
     </row>
     <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
@@ -13844,7 +13842,7 @@
       <c r="K94" s="15"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
-      <c r="N94" s="48" t="s">
+      <c r="N94" s="54" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13865,7 +13863,7 @@
         <f>D96</f>
         <v>50000</v>
       </c>
-      <c r="F95" s="50" t="s">
+      <c r="F95" s="53" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="8">
@@ -13887,7 +13885,7 @@
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="16"/>
-      <c r="N95" s="50"/>
+      <c r="N95" s="53"/>
     </row>
     <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
@@ -13903,7 +13901,7 @@
         <v>50000</v>
       </c>
       <c r="E96" s="15"/>
-      <c r="F96" s="50"/>
+      <c r="F96" s="53"/>
       <c r="G96" s="8">
         <v>200</v>
       </c>
@@ -13926,7 +13924,7 @@
         <f>(G96/3.6)^2/(ABS(D96)*9.81)-ABS(J96)/1500</f>
         <v>6.2923950113892351E-3</v>
       </c>
-      <c r="N96" s="50"/>
+      <c r="N96" s="53"/>
     </row>
     <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
@@ -13946,7 +13944,7 @@
       <c r="E97" s="4">
         <v>0</v>
       </c>
-      <c r="F97" s="50"/>
+      <c r="F97" s="53"/>
       <c r="G97" s="8">
         <v>200</v>
       </c>
@@ -13966,16 +13964,17 @@
       </c>
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
-      <c r="N97" s="50"/>
+      <c r="N97" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="N94:N97"/>
     <mergeCell ref="N70:N73"/>
     <mergeCell ref="N26:N29"/>
     <mergeCell ref="N30:N33"/>
@@ -13988,13 +13987,12 @@
     <mergeCell ref="N58:N61"/>
     <mergeCell ref="N62:N65"/>
     <mergeCell ref="N66:N69"/>
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/跨线运行SPCK曲线定义组.xlsx
+++ b/docs/跨线运行SPCK曲线定义组.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ResearchDocuments\ROS2WithSPCK\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20EEFBCE-46C9-4D78-B524-0EEB21668302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBC0853F-0AF6-4B34-8313-CC6FECCAEF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12180" yWindow="150" windowWidth="28695" windowHeight="31650" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="32040" xr2:uid="{755BE186-2FEE-4D60-85AE-26A93F5970A5}"/>
   </bookViews>
   <sheets>
     <sheet name="自定义线路" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'原人工拟合曲线-欠超高过大'!$A$1:$N$97</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">自定义线路!$A$1:$N$85</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">自定义线路!$A$1:$V$85</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="70">
   <si>
     <t>线路分段</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -266,6 +266,103 @@
     <t>超高段备注</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>最小半径 ↓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>虹桥地铁站 站前直线 ●</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国家会展中心始发 ●</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已越过虹桥2号航站楼 ●</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中春路 站前直线 ●</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>春申站 站前直线 ●</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>松江站 站前直线 ●</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">虚拟接驳线，变相区 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>〒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">道岔变道至沪苏湖高铁 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>╅</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">最小半径 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>R</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>↓</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>竖曲线分段 里程</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +373,7 @@
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,8 +441,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -418,6 +533,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -461,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -552,9 +673,6 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="7" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -562,9 +680,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -603,9 +718,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -625,6 +737,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,14 +1104,14 @@
     <col min="9" max="9" width="8.625" style="5" customWidth="1"/>
     <col min="10" max="10" width="11.375" style="14" customWidth="1"/>
     <col min="11" max="11" width="9.875" style="14" customWidth="1"/>
-    <col min="12" max="12" width="10.25" style="35" customWidth="1"/>
-    <col min="13" max="13" width="15.375" style="35" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="33" customWidth="1"/>
+    <col min="13" max="13" width="16.25" style="33" customWidth="1"/>
     <col min="14" max="14" width="10.125" style="5" customWidth="1"/>
     <col min="15" max="15" width="18.625" style="5" customWidth="1"/>
     <col min="16" max="16" width="15.25" style="5" customWidth="1"/>
     <col min="17" max="17" width="9.25" style="5" customWidth="1"/>
     <col min="19" max="19" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.125" style="43" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.125" style="41" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="9.125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18.5" customWidth="1"/>
   </cols>
@@ -1036,7 +1163,7 @@
         <v>34</v>
       </c>
       <c r="P1" s="11" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="Q1" s="11" t="s">
         <v>43</v>
@@ -1069,7 +1196,9 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="15"/>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G2" s="9">
         <v>80</v>
       </c>
@@ -1083,33 +1212,33 @@
       <c r="J2" s="12">
         <v>0</v>
       </c>
-      <c r="K2" s="37"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="9">
         <v>300</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="55">
         <f>C2</f>
         <v>300</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="44">
         <v>1</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="51">
+      <c r="S2" s="48">
         <v>4086.364</v>
       </c>
-      <c r="T2" s="45">
-        <v>0</v>
-      </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="41" t="s">
+      <c r="T2" s="43">
+        <v>0</v>
+      </c>
+      <c r="U2" s="43"/>
+      <c r="V2" s="39" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1153,29 +1282,29 @@
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-      <c r="N3" s="52"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="9">
         <f>O2+C3</f>
         <v>327.5</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="55">
         <f>P2+C3</f>
         <v>327.5</v>
       </c>
-      <c r="Q3" s="48">
+      <c r="Q3" s="45">
         <v>2</v>
       </c>
-      <c r="R3" s="49" t="s">
+      <c r="R3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="49">
+      <c r="S3" s="46">
         <v>5</v>
       </c>
-      <c r="T3" s="50">
-        <v>0</v>
-      </c>
-      <c r="U3" s="50"/>
-      <c r="V3" s="49" t="s">
+      <c r="T3" s="47">
+        <v>0</v>
+      </c>
+      <c r="U3" s="47"/>
+      <c r="V3" s="46" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1193,7 +1322,7 @@
         <v>-1500</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9">
@@ -1209,41 +1338,41 @@
       <c r="J4" s="22">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="18">
-        <f>G4*G4/ABS(D4)*11.8-ABS(J4)</f>
-        <v>50.292666666666669</v>
-      </c>
-      <c r="M4" s="18">
-        <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
-        <v>3.3523440060742586E-2</v>
-      </c>
-      <c r="N4" s="52"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="31">
+        <f>G4*G4/ABS(D4)*11.8-ABS(J4*1000)</f>
+        <v>-3.6533333333333289</v>
+      </c>
+      <c r="M4" s="31">
+        <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4*1000)/1500</f>
+        <v>-2.4405599392574098E-3</v>
+      </c>
+      <c r="N4" s="49"/>
       <c r="O4" s="9">
         <f>O3+C4</f>
         <v>466.39300000000003</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="55">
         <f>P3+C4</f>
         <v>466.39300000000003</v>
       </c>
-      <c r="Q4" s="48">
+      <c r="Q4" s="45">
         <v>3</v>
       </c>
-      <c r="R4" s="49" t="s">
+      <c r="R4" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="49">
+      <c r="S4" s="46">
         <v>20</v>
       </c>
-      <c r="T4" s="50">
-        <v>0</v>
-      </c>
-      <c r="U4" s="50">
+      <c r="T4" s="47">
+        <v>0</v>
+      </c>
+      <c r="U4" s="47">
         <f>T5</f>
         <v>0.05</v>
       </c>
-      <c r="V4" s="49"/>
+      <c r="V4" s="46"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -1280,32 +1409,32 @@
       <c r="K5" s="22">
         <v>0</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="52"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="9">
         <f t="shared" ref="O5:O68" si="1">O4+C5</f>
         <v>493.89300000000003</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="55">
         <f t="shared" ref="P5:P21" si="2">P4+C5</f>
         <v>493.89300000000003</v>
       </c>
-      <c r="Q5" s="48">
+      <c r="Q5" s="45">
         <v>4</v>
       </c>
-      <c r="R5" s="49" t="s">
+      <c r="R5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="49">
+      <c r="S5" s="46">
         <v>150</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5" s="47">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
-      <c r="U5" s="50"/>
-      <c r="V5" s="49"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -1314,7 +1443,7 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="54">
         <v>250</v>
       </c>
       <c r="D6" s="15"/>
@@ -1326,44 +1455,44 @@
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="54">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J6" s="39">
-        <v>0</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="53" t="s">
+      <c r="J6" s="37">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="50" t="s">
         <v>29</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="1"/>
         <v>743.89300000000003</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="55">
         <f t="shared" si="2"/>
         <v>743.89300000000003</v>
       </c>
-      <c r="Q6" s="48">
+      <c r="Q6" s="45">
         <v>5</v>
       </c>
-      <c r="R6" s="49" t="s">
+      <c r="R6" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="49">
+      <c r="S6" s="46">
         <v>20</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6" s="47">
         <f>T5</f>
         <v>0.05</v>
       </c>
-      <c r="U6" s="50">
-        <v>0</v>
-      </c>
-      <c r="V6" s="49"/>
+      <c r="U6" s="47">
+        <v>0</v>
+      </c>
+      <c r="V6" s="46"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -1394,38 +1523,38 @@
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="J7" s="39">
-        <v>0</v>
-      </c>
-      <c r="K7" s="39">
+      <c r="J7" s="37">
+        <v>0</v>
+      </c>
+      <c r="K7" s="37">
         <f>J8</f>
         <v>0.12</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="53"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
         <v>786.39300000000003</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="55">
         <f t="shared" si="2"/>
         <v>786.39300000000003</v>
       </c>
-      <c r="Q7" s="48">
+      <c r="Q7" s="45">
         <v>6</v>
       </c>
-      <c r="R7" s="49" t="s">
+      <c r="R7" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="49">
+      <c r="S7" s="46">
         <v>5</v>
       </c>
-      <c r="T7" s="50">
-        <v>0</v>
-      </c>
-      <c r="U7" s="50"/>
-      <c r="V7" s="49" t="s">
+      <c r="T7" s="47">
+        <v>0</v>
+      </c>
+      <c r="U7" s="47"/>
+      <c r="V7" s="46" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1443,7 +1572,7 @@
         <v>650</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="9">
@@ -1456,41 +1585,41 @@
         <f t="shared" si="0"/>
         <v>565.17399999999998</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="37">
         <v>0.12</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="33">
-        <f>G8*G8/ABS(D8)*11.8-ABS(J8)</f>
-        <v>116.06461538461539</v>
-      </c>
-      <c r="M8" s="33">
-        <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
-        <v>7.7364861678636737E-2</v>
-      </c>
-      <c r="N8" s="53"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="32">
+        <f>G8*G8/ABS(D8)*11.8-ABS(J8*1000)</f>
+        <v>-3.8153846153846018</v>
+      </c>
+      <c r="M8" s="32">
+        <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8*1000)/1500</f>
+        <v>-2.5551383213632678E-3</v>
+      </c>
+      <c r="N8" s="50"/>
       <c r="O8" s="9">
         <f t="shared" si="1"/>
         <v>1351.567</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="55">
         <f t="shared" si="2"/>
         <v>1351.567</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="44">
         <v>7</v>
       </c>
-      <c r="R8" s="41" t="s">
+      <c r="R8" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="51">
+      <c r="S8" s="48">
         <v>2380</v>
       </c>
-      <c r="T8" s="45">
-        <v>0</v>
-      </c>
-      <c r="U8" s="45"/>
-      <c r="V8" s="41" t="s">
+      <c r="T8" s="43">
+        <v>0</v>
+      </c>
+      <c r="U8" s="43"/>
+      <c r="V8" s="39" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1523,37 +1652,37 @@
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="37">
         <v>0.12</v>
       </c>
-      <c r="K9" s="39">
-        <v>0</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="53"/>
+      <c r="K9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="9">
         <f t="shared" si="1"/>
         <v>1394.067</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="55">
         <f t="shared" si="2"/>
         <v>1394.067</v>
       </c>
-      <c r="Q9" s="48">
+      <c r="Q9" s="45">
         <v>8</v>
       </c>
-      <c r="R9" s="49" t="s">
+      <c r="R9" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="49">
+      <c r="S9" s="46">
         <v>50</v>
       </c>
-      <c r="T9" s="50">
-        <v>0</v>
-      </c>
-      <c r="U9" s="50"/>
-      <c r="V9" s="49" t="s">
+      <c r="T9" s="47">
+        <v>0</v>
+      </c>
+      <c r="U9" s="47"/>
+      <c r="V9" s="46" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1564,7 +1693,7 @@
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="53">
         <v>50</v>
       </c>
       <c r="D10" s="6"/>
@@ -1576,44 +1705,44 @@
       <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="53">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J10" s="12">
         <v>0</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="52" t="s">
+      <c r="K10" s="36"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="1"/>
         <v>1444.067</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="55">
         <f t="shared" si="2"/>
         <v>1444.067</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q10" s="45">
         <v>9</v>
       </c>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="49">
+      <c r="S10" s="46">
         <v>50</v>
       </c>
-      <c r="T10" s="50">
-        <v>0</v>
-      </c>
-      <c r="U10" s="50">
+      <c r="T10" s="47">
+        <v>0</v>
+      </c>
+      <c r="U10" s="47">
         <f>T11</f>
         <v>0.03</v>
       </c>
-      <c r="V10" s="49"/>
+      <c r="V10" s="46"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -1651,32 +1780,32 @@
         <f>J12</f>
         <v>-0.12</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="52"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="9">
         <f t="shared" si="1"/>
         <v>1481.567</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="55">
         <f t="shared" si="2"/>
         <v>1481.567</v>
       </c>
-      <c r="Q11" s="48">
+      <c r="Q11" s="45">
         <v>10</v>
       </c>
-      <c r="R11" s="49" t="s">
+      <c r="R11" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="49">
+      <c r="S11" s="46">
         <v>650</v>
       </c>
-      <c r="T11" s="50">
+      <c r="T11" s="47">
         <f>30/1000</f>
         <v>0.03</v>
       </c>
-      <c r="U11" s="50"/>
-      <c r="V11" s="49"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="46"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -1692,7 +1821,7 @@
         <v>-550</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="9">
@@ -1708,41 +1837,41 @@
       <c r="J12" s="22">
         <v>-0.12</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="32">
-        <f>G12*G12/ABS(D12)*11.8-ABS(J12)</f>
-        <v>137.18909090909091</v>
-      </c>
-      <c r="M12" s="32">
-        <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
-        <v>9.1445745620207047E-2</v>
-      </c>
-      <c r="N12" s="52"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="31">
+        <f t="shared" ref="L12:L43" si="3">G12*G12/ABS(D12)*11.8-ABS(J12*1000)</f>
+        <v>17.309090909090912</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" ref="M12:M21" si="4">(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12*1000)/1500</f>
+        <v>1.1525745620207042E-2</v>
+      </c>
+      <c r="N12" s="49"/>
       <c r="O12" s="9">
         <f t="shared" si="1"/>
         <v>1738.864</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="55">
         <f t="shared" si="2"/>
         <v>1738.864</v>
       </c>
-      <c r="Q12" s="48">
+      <c r="Q12" s="45">
         <v>11</v>
       </c>
-      <c r="R12" s="49" t="s">
+      <c r="R12" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="49">
+      <c r="S12" s="46">
         <v>50</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12" s="47">
         <f>T11</f>
         <v>0.03</v>
       </c>
-      <c r="U12" s="50">
-        <v>0</v>
-      </c>
-      <c r="V12" s="49"/>
+      <c r="U12" s="47">
+        <v>0</v>
+      </c>
+      <c r="V12" s="46"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -1779,31 +1908,31 @@
       <c r="K13" s="22">
         <v>0</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="52"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="49"/>
       <c r="O13" s="9">
         <f t="shared" si="1"/>
         <v>1776.364</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="55">
         <f t="shared" si="2"/>
         <v>1776.364</v>
       </c>
-      <c r="Q13" s="48">
+      <c r="Q13" s="45">
         <v>12</v>
       </c>
-      <c r="R13" s="49" t="s">
+      <c r="R13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="49">
+      <c r="S13" s="46">
         <v>1200</v>
       </c>
-      <c r="T13" s="50">
-        <v>0</v>
-      </c>
-      <c r="U13" s="50"/>
-      <c r="V13" s="49" t="s">
+      <c r="T13" s="47">
+        <v>0</v>
+      </c>
+      <c r="U13" s="47"/>
+      <c r="V13" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1820,7 +1949,7 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="4" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="G14" s="9">
         <v>80</v>
@@ -1836,33 +1965,33 @@
         <v>0</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="53" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="50" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="1"/>
         <v>2726.364</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="55">
         <f t="shared" si="2"/>
         <v>2726.364</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="44">
         <v>13</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="51">
+      <c r="S14" s="48">
         <v>23230</v>
       </c>
-      <c r="T14" s="45">
-        <v>0</v>
-      </c>
-      <c r="U14" s="45"/>
-      <c r="V14" s="41" t="s">
+      <c r="T14" s="43">
+        <v>0</v>
+      </c>
+      <c r="U14" s="43"/>
+      <c r="V14" s="39" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1903,31 +2032,31 @@
         <f>J16</f>
         <v>0.1</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="53"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="9">
         <f t="shared" si="1"/>
         <v>2806.364</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="55">
         <f t="shared" si="2"/>
         <v>2806.364</v>
       </c>
-      <c r="Q15" s="48">
+      <c r="Q15" s="45">
         <v>14</v>
       </c>
-      <c r="R15" s="49" t="s">
+      <c r="R15" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="49">
+      <c r="S15" s="46">
         <v>50</v>
       </c>
-      <c r="T15" s="50">
-        <v>0</v>
-      </c>
-      <c r="U15" s="50"/>
-      <c r="V15" s="49" t="s">
+      <c r="T15" s="47">
+        <v>0</v>
+      </c>
+      <c r="U15" s="47"/>
+      <c r="V15" s="46" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1946,7 +2075,7 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="4" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="G16" s="9">
         <v>80</v>
@@ -1962,40 +2091,40 @@
         <v>0.1</v>
       </c>
       <c r="K16" s="16"/>
-      <c r="L16" s="33">
-        <f>G16*G16/ABS(D16)*11.8-ABS(J16)</f>
-        <v>167.72222222222223</v>
-      </c>
-      <c r="M16" s="33">
-        <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
-        <v>0.11179813353580861</v>
-      </c>
-      <c r="N16" s="53"/>
+      <c r="L16" s="32">
+        <f t="shared" ref="L16:L47" si="5">G16*G16/ABS(D16)*11.8-ABS(J16*1000)</f>
+        <v>67.822222222222223</v>
+      </c>
+      <c r="M16" s="32">
+        <f t="shared" ref="M16:M21" si="6">(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16*1000)/1500</f>
+        <v>4.5198133535808621E-2</v>
+      </c>
+      <c r="N16" s="50"/>
       <c r="O16" s="9">
         <f t="shared" si="1"/>
         <v>3606.364</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="55">
         <f t="shared" si="2"/>
         <v>3606.364</v>
       </c>
-      <c r="Q16" s="48">
+      <c r="Q16" s="45">
         <v>15</v>
       </c>
-      <c r="R16" s="49" t="s">
+      <c r="R16" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="49">
+      <c r="S16" s="46">
         <v>50</v>
       </c>
-      <c r="T16" s="50">
-        <v>0</v>
-      </c>
-      <c r="U16" s="50">
+      <c r="T16" s="47">
+        <v>0</v>
+      </c>
+      <c r="U16" s="47">
         <f>T17</f>
         <v>-0.03</v>
       </c>
-      <c r="V16" s="49"/>
+      <c r="V16" s="46"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -2015,7 +2144,9 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="4" t="s">
+        <v>68</v>
+      </c>
       <c r="G17" s="9">
         <v>80</v>
       </c>
@@ -2032,32 +2163,32 @@
       <c r="K17" s="13">
         <v>0</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="53"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="9">
         <f t="shared" si="1"/>
         <v>3686.364</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="55">
         <f t="shared" si="2"/>
         <v>3686.364</v>
       </c>
-      <c r="Q17" s="48">
+      <c r="Q17" s="45">
         <v>16</v>
       </c>
-      <c r="R17" s="49" t="s">
+      <c r="R17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="49">
+      <c r="S17" s="46">
         <v>650</v>
       </c>
-      <c r="T17" s="50">
+      <c r="T17" s="47">
         <f>-30/1000</f>
         <v>-0.03</v>
       </c>
-      <c r="U17" s="50"/>
-      <c r="V17" s="49"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="46"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -2072,7 +2203,7 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="3" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="G18" s="9">
         <v>80</v>
@@ -2088,36 +2219,36 @@
         <v>0</v>
       </c>
       <c r="K18" s="16"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="52" t="s">
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="1"/>
         <v>3736.364</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="55">
         <f t="shared" si="2"/>
         <v>3736.364</v>
       </c>
-      <c r="Q18" s="48">
+      <c r="Q18" s="45">
         <v>17</v>
       </c>
-      <c r="R18" s="49" t="s">
+      <c r="R18" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="49">
+      <c r="S18" s="46">
         <v>50</v>
       </c>
-      <c r="T18" s="50">
+      <c r="T18" s="47">
         <f>T17</f>
         <v>-0.03</v>
       </c>
-      <c r="U18" s="50">
-        <v>0</v>
-      </c>
-      <c r="V18" s="49"/>
+      <c r="U18" s="47">
+        <v>0</v>
+      </c>
+      <c r="V18" s="46"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -2154,31 +2285,31 @@
         <f>J20</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="52"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="49"/>
       <c r="O19" s="9">
         <f t="shared" si="1"/>
         <v>3836.364</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="55">
         <f t="shared" si="2"/>
         <v>3836.364</v>
       </c>
-      <c r="Q19" s="48">
+      <c r="Q19" s="45">
         <v>18</v>
       </c>
-      <c r="R19" s="49" t="s">
+      <c r="R19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S19" s="49">
+      <c r="S19" s="46">
         <v>1200</v>
       </c>
-      <c r="T19" s="50">
-        <v>0</v>
-      </c>
-      <c r="U19" s="50"/>
-      <c r="V19" s="49" t="s">
+      <c r="T19" s="47">
+        <v>0</v>
+      </c>
+      <c r="U19" s="47"/>
+      <c r="V19" s="46" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2211,37 +2342,37 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K20" s="16"/>
-      <c r="L20" s="32">
-        <f>G20*G20/ABS(D20)*11.8-ABS(J20)</f>
-        <v>125.79666666666668</v>
-      </c>
-      <c r="M20" s="32">
-        <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
-        <v>8.3851933485189795E-2</v>
-      </c>
-      <c r="N20" s="52"/>
+      <c r="L20" s="31">
+        <f t="shared" ref="L20:L51" si="7">G20*G20/ABS(D20)*11.8-ABS(J20*1000)</f>
+        <v>55.866666666666674</v>
+      </c>
+      <c r="M20" s="31">
+        <f t="shared" ref="M20:M45" si="8">(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20*1000)/1500</f>
+        <v>3.7231933485189793E-2</v>
+      </c>
+      <c r="N20" s="49"/>
       <c r="O20" s="9">
         <f t="shared" si="1"/>
         <v>3986.364</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="55">
         <f t="shared" si="2"/>
         <v>3986.364</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="44">
         <v>19</v>
       </c>
-      <c r="R20" s="41" t="s">
+      <c r="R20" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="51">
+      <c r="S20" s="48">
         <v>150</v>
       </c>
-      <c r="T20" s="45">
-        <v>0</v>
-      </c>
-      <c r="U20" s="45"/>
-      <c r="V20" s="41" t="s">
+      <c r="T20" s="43">
+        <v>0</v>
+      </c>
+      <c r="U20" s="43"/>
+      <c r="V20" s="39" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2279,21 +2410,21 @@
       <c r="K21" s="12">
         <v>0</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="52"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="9">
         <f t="shared" si="1"/>
         <v>4086.364</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="56">
         <f t="shared" si="2"/>
         <v>4086.364</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="42"/>
+      <c r="T21" s="40"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
     </row>
@@ -2326,9 +2457,9 @@
         <v>0</v>
       </c>
       <c r="K22" s="16"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="53" t="s">
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="50" t="s">
         <v>29</v>
       </c>
       <c r="O22" s="9">
@@ -2339,7 +2470,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="42"/>
+      <c r="T22" s="40"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
@@ -2377,14 +2508,14 @@
         <f>J24</f>
         <v>0.03</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="53"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="9">
         <f t="shared" si="1"/>
         <v>4436.3639999999996</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="55">
         <f>C23</f>
         <v>150</v>
       </c>
@@ -2418,20 +2549,20 @@
         <v>0.03</v>
       </c>
       <c r="K24" s="16"/>
-      <c r="L24" s="33">
-        <f>G24*G24/ABS(D24)*11.8-ABS(J24)</f>
-        <v>58.97</v>
-      </c>
-      <c r="M24" s="33">
-        <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
-        <v>3.9307468821182724E-2</v>
-      </c>
-      <c r="N24" s="53"/>
+      <c r="L24" s="32">
+        <f t="shared" ref="L24:L55" si="9">G24*G24/ABS(D24)*11.8-ABS(J24*1000)</f>
+        <v>29</v>
+      </c>
+      <c r="M24" s="32">
+        <f t="shared" ref="M24:M45" si="10">(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24*1000)/1500</f>
+        <v>1.9327468821182723E-2</v>
+      </c>
+      <c r="N24" s="50"/>
       <c r="O24" s="9">
         <f t="shared" si="1"/>
         <v>5036.3639999999996</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="55">
         <f>P23+C24</f>
         <v>750</v>
       </c>
@@ -2471,14 +2602,14 @@
       <c r="K25" s="13">
         <v>0</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="53"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="50"/>
       <c r="O25" s="9">
         <f t="shared" si="1"/>
         <v>5186.3639999999996</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="55">
         <f>P24+C25</f>
         <v>900</v>
       </c>
@@ -2510,16 +2641,16 @@
         <v>0</v>
       </c>
       <c r="K26" s="16"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="52" t="s">
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="1"/>
         <v>5236.3639999999996</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="55">
         <f>P25+C26</f>
         <v>950</v>
       </c>
@@ -2561,15 +2692,15 @@
         <f>J28</f>
         <v>-0.12</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="52"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="49"/>
       <c r="O27" s="9">
         <f t="shared" si="1"/>
         <v>5286.3639999999996</v>
       </c>
-      <c r="P27" s="6">
-        <f t="shared" ref="P27:P33" si="3">P26+C27</f>
+      <c r="P27" s="55">
+        <f t="shared" ref="P27:P33" si="11">P26+C27</f>
         <v>1000</v>
       </c>
     </row>
@@ -2604,25 +2735,25 @@
         <v>-0.12</v>
       </c>
       <c r="K28" s="12"/>
-      <c r="L28" s="32">
-        <f>G28*G28/ABS(D28)*11.8-ABS(J28)</f>
-        <v>188.68</v>
-      </c>
-      <c r="M28" s="32">
-        <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
-        <v>0.1257679002277847</v>
-      </c>
-      <c r="N28" s="52"/>
+      <c r="L28" s="31">
+        <f t="shared" ref="L28:L59" si="12">G28*G28/ABS(D28)*11.8-ABS(J28*1000)</f>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="M28" s="31">
+        <f t="shared" ref="M28:M45" si="13">(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28*1000)/1500</f>
+        <v>4.5847900227784691E-2</v>
+      </c>
+      <c r="N28" s="49"/>
       <c r="O28" s="9">
         <f t="shared" si="1"/>
         <v>5786.3639999999996</v>
       </c>
-      <c r="P28" s="6">
-        <f t="shared" si="3"/>
+      <c r="P28" s="55">
+        <f t="shared" si="11"/>
         <v>1500</v>
       </c>
       <c r="Q28" s="23"/>
-      <c r="T28" s="44"/>
+      <c r="T28" s="42"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
@@ -2659,15 +2790,15 @@
       <c r="K29" s="12">
         <v>0</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="52"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="49"/>
       <c r="O29" s="9">
         <f t="shared" si="1"/>
         <v>5836.3639999999996</v>
       </c>
-      <c r="P29" s="6">
-        <f t="shared" si="3"/>
+      <c r="P29" s="55">
+        <f t="shared" si="11"/>
         <v>1550</v>
       </c>
     </row>
@@ -2698,17 +2829,17 @@
         <v>0</v>
       </c>
       <c r="K30" s="16"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="53" t="s">
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="50" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="1"/>
         <v>5916.3639999999996</v>
       </c>
-      <c r="P30" s="6">
-        <f t="shared" si="3"/>
+      <c r="P30" s="55">
+        <f t="shared" si="11"/>
         <v>1630</v>
       </c>
     </row>
@@ -2747,15 +2878,15 @@
         <f>J32</f>
         <v>-0.12</v>
       </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="53"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="50"/>
       <c r="O31" s="9">
         <f t="shared" si="1"/>
         <v>5966.3639999999996</v>
       </c>
-      <c r="P31" s="6">
-        <f t="shared" si="3"/>
+      <c r="P31" s="55">
+        <f t="shared" si="11"/>
         <v>1680</v>
       </c>
     </row>
@@ -2789,26 +2920,26 @@
       <c r="J32" s="13">
         <v>-0.12</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="34">
-        <f>G32*G32/ABS(D32)*11.8-ABS(J32)</f>
-        <v>188.68</v>
-      </c>
-      <c r="M32" s="34">
-        <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
-        <v>0.1257679002277847</v>
-      </c>
-      <c r="N32" s="53"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="32">
+        <f t="shared" ref="L32:L63" si="14">G32*G32/ABS(D32)*11.8-ABS(J32*1000)</f>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="M32" s="32">
+        <f t="shared" ref="M32:M45" si="15">(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32*1000)/1500</f>
+        <v>4.5847900227784691E-2</v>
+      </c>
+      <c r="N32" s="50"/>
       <c r="O32" s="9">
         <f t="shared" si="1"/>
         <v>6616.3639999999996</v>
       </c>
-      <c r="P32" s="6">
-        <f t="shared" si="3"/>
+      <c r="P32" s="55">
+        <f t="shared" si="11"/>
         <v>2330</v>
       </c>
       <c r="Q32" s="23"/>
-      <c r="T32" s="44"/>
+      <c r="T32" s="42"/>
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
@@ -2846,15 +2977,15 @@
       <c r="K33" s="13">
         <v>0</v>
       </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="53"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="50"/>
       <c r="O33" s="9">
         <f t="shared" si="1"/>
         <v>6666.3639999999996</v>
       </c>
-      <c r="P33" s="47">
-        <f t="shared" si="3"/>
+      <c r="P33" s="56">
+        <f t="shared" si="11"/>
         <v>2380</v>
       </c>
     </row>
@@ -2871,7 +3002,7 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="G34" s="7">
         <v>180</v>
@@ -2887,9 +3018,9 @@
         <v>0</v>
       </c>
       <c r="K34" s="16"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="52" t="s">
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O34" s="9">
@@ -2897,7 +3028,7 @@
         <v>8666.3639999999996</v>
       </c>
       <c r="P34" s="6"/>
-      <c r="T34" s="42"/>
+      <c r="T34" s="40"/>
     </row>
     <row r="35" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
@@ -2917,7 +3048,7 @@
         <v>3000</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="36">
+      <c r="G35" s="34">
         <v>180</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -2934,18 +3065,18 @@
         <f>J36</f>
         <v>0.08</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="53"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="50"/>
       <c r="O35" s="9">
         <f t="shared" si="1"/>
         <v>8766.3639999999996</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="55">
         <f>C35</f>
         <v>100</v>
       </c>
-      <c r="T35" s="42"/>
+      <c r="T35" s="40"/>
     </row>
     <row r="36" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -2962,7 +3093,7 @@
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="36">
+      <c r="G36" s="34">
         <v>180</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -2976,24 +3107,24 @@
         <v>0.08</v>
       </c>
       <c r="K36" s="16"/>
-      <c r="L36" s="32">
-        <f>G36*G36/ABS(D36)*11.8-ABS(J36)</f>
-        <v>127.36000000000001</v>
-      </c>
-      <c r="M36" s="32">
-        <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
-        <v>8.489399932042134E-2</v>
-      </c>
-      <c r="N36" s="53"/>
+      <c r="L36" s="31">
+        <f t="shared" ref="L36:L67" si="16">G36*G36/ABS(D36)*11.8-ABS(J36*1000)</f>
+        <v>47.440000000000012</v>
+      </c>
+      <c r="M36" s="31">
+        <f t="shared" ref="M36:M45" si="17">(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36*1000)/1500</f>
+        <v>3.1613999320421339E-2</v>
+      </c>
+      <c r="N36" s="50"/>
       <c r="O36" s="9">
         <f t="shared" si="1"/>
         <v>9126.3639999999996</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="55">
         <f>P35+C36</f>
         <v>460</v>
       </c>
-      <c r="T36" s="42"/>
+      <c r="T36" s="40"/>
     </row>
     <row r="37" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -3014,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="36">
+      <c r="G37" s="34">
         <v>180</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -3030,18 +3161,18 @@
       <c r="K37" s="12">
         <v>0</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="53"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="50"/>
       <c r="O37" s="9">
         <f t="shared" si="1"/>
         <v>9226.3639999999996</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="55">
         <f>P36+C37</f>
         <v>560</v>
       </c>
-      <c r="T37" s="42"/>
+      <c r="T37" s="40"/>
     </row>
     <row r="38" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
@@ -3056,9 +3187,9 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="36">
+        <v>67</v>
+      </c>
+      <c r="G38" s="34">
         <v>180</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -3072,20 +3203,20 @@
         <v>0</v>
       </c>
       <c r="K38" s="16"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="54" t="s">
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="51" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="9">
         <f t="shared" si="1"/>
         <v>9276.3639999999996</v>
       </c>
-      <c r="P38" s="6">
-        <f t="shared" ref="P38:P81" si="4">P37+C38</f>
+      <c r="P38" s="55">
+        <f t="shared" ref="P38:P81" si="18">P37+C38</f>
         <v>610</v>
       </c>
-      <c r="T38" s="42"/>
+      <c r="T38" s="40"/>
     </row>
     <row r="39" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
@@ -3107,7 +3238,7 @@
       <c r="F39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="34">
         <v>180</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -3124,18 +3255,18 @@
         <f>J40</f>
         <v>-0.08</v>
       </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="52"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="49"/>
       <c r="O39" s="9">
         <f t="shared" si="1"/>
         <v>9326.3639999999996</v>
       </c>
-      <c r="P39" s="6">
-        <f t="shared" si="4"/>
+      <c r="P39" s="55">
+        <f t="shared" si="18"/>
         <v>660</v>
       </c>
-      <c r="T39" s="42"/>
+      <c r="T39" s="40"/>
     </row>
     <row r="40" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
@@ -3152,7 +3283,7 @@
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="36">
+      <c r="G40" s="34">
         <v>180</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -3166,24 +3297,24 @@
         <v>-0.08</v>
       </c>
       <c r="K40" s="16"/>
-      <c r="L40" s="33">
-        <f>G40*G40/ABS(D40)*11.8-ABS(J40)</f>
-        <v>127.36000000000001</v>
-      </c>
-      <c r="M40" s="33">
-        <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
-        <v>8.489399932042134E-2</v>
-      </c>
-      <c r="N40" s="52"/>
+      <c r="L40" s="32">
+        <f t="shared" ref="L40:L85" si="19">G40*G40/ABS(D40)*11.8-ABS(J40*1000)</f>
+        <v>47.440000000000012</v>
+      </c>
+      <c r="M40" s="32">
+        <f t="shared" ref="M40:M45" si="20">(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40*1000)/1500</f>
+        <v>3.1613999320421339E-2</v>
+      </c>
+      <c r="N40" s="49"/>
       <c r="O40" s="9">
         <f t="shared" si="1"/>
         <v>9926.3639999999996</v>
       </c>
-      <c r="P40" s="6">
-        <f t="shared" si="4"/>
+      <c r="P40" s="55">
+        <f t="shared" si="18"/>
         <v>1260</v>
       </c>
-      <c r="T40" s="42"/>
+      <c r="T40" s="40"/>
     </row>
     <row r="41" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
@@ -3204,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="36">
+      <c r="G41" s="34">
         <v>180</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -3220,18 +3351,18 @@
       <c r="K41" s="13">
         <v>0</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="52"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="49"/>
       <c r="O41" s="9">
         <f t="shared" si="1"/>
         <v>9976.3639999999996</v>
       </c>
-      <c r="P41" s="6">
-        <f t="shared" si="4"/>
+      <c r="P41" s="55">
+        <f t="shared" si="18"/>
         <v>1310</v>
       </c>
-      <c r="T41" s="42"/>
+      <c r="T41" s="40"/>
     </row>
     <row r="42" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -3246,7 +3377,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="36">
+      <c r="G42" s="34">
         <v>180</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -3260,20 +3391,20 @@
         <v>0</v>
       </c>
       <c r="K42" s="16"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="52" t="s">
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="1"/>
         <v>12776.364</v>
       </c>
-      <c r="P42" s="6">
-        <f t="shared" si="4"/>
+      <c r="P42" s="55">
+        <f t="shared" si="18"/>
         <v>4110</v>
       </c>
-      <c r="T42" s="42"/>
+      <c r="T42" s="40"/>
     </row>
     <row r="43" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
@@ -3293,7 +3424,7 @@
         <v>3800</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="36">
+      <c r="G43" s="34">
         <v>180</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -3310,18 +3441,18 @@
         <f>J44</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="53"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="50"/>
       <c r="O43" s="9">
         <f t="shared" si="1"/>
         <v>12876.364</v>
       </c>
-      <c r="P43" s="6">
-        <f t="shared" si="4"/>
+      <c r="P43" s="55">
+        <f t="shared" si="18"/>
         <v>4210</v>
       </c>
-      <c r="T43" s="42"/>
+      <c r="T43" s="40"/>
     </row>
     <row r="44" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -3338,7 +3469,7 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="36">
+      <c r="G44" s="34">
         <v>180</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -3352,24 +3483,24 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K44" s="16"/>
-      <c r="L44" s="32">
-        <f>G44*G44/ABS(D44)*11.8-ABS(J44)</f>
-        <v>100.54052631578949</v>
-      </c>
-      <c r="M44" s="32">
-        <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
-        <v>6.7017017007350174E-2</v>
-      </c>
-      <c r="N44" s="53"/>
+      <c r="L44" s="31">
+        <f t="shared" ref="L44:L85" si="21">G44*G44/ABS(D44)*11.8-ABS(J44*1000)</f>
+        <v>30.610526315789485</v>
+      </c>
+      <c r="M44" s="31">
+        <f t="shared" si="13"/>
+        <v>2.0397017007350172E-2</v>
+      </c>
+      <c r="N44" s="50"/>
       <c r="O44" s="9">
         <f t="shared" si="1"/>
         <v>13076.364</v>
       </c>
-      <c r="P44" s="6">
-        <f t="shared" si="4"/>
+      <c r="P44" s="55">
+        <f t="shared" si="18"/>
         <v>4410</v>
       </c>
-      <c r="T44" s="42"/>
+      <c r="T44" s="40"/>
     </row>
     <row r="45" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -3390,7 +3521,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="36">
+      <c r="G45" s="34">
         <v>180</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -3406,18 +3537,18 @@
       <c r="K45" s="12">
         <v>0</v>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="53"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="50"/>
       <c r="O45" s="9">
         <f t="shared" si="1"/>
         <v>13176.364</v>
       </c>
-      <c r="P45" s="6">
-        <f t="shared" si="4"/>
+      <c r="P45" s="55">
+        <f t="shared" si="18"/>
         <v>4510</v>
       </c>
-      <c r="T45" s="42"/>
+      <c r="T45" s="40"/>
     </row>
     <row r="46" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
@@ -3432,7 +3563,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="36">
+      <c r="G46" s="34">
         <v>180</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -3446,20 +3577,20 @@
         <v>0</v>
       </c>
       <c r="K46" s="16"/>
-      <c r="L46" s="29"/>
+      <c r="L46" s="30"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="54" t="s">
+      <c r="N46" s="51" t="s">
         <v>27</v>
       </c>
       <c r="O46" s="9">
         <f t="shared" si="1"/>
         <v>13576.364</v>
       </c>
-      <c r="P46" s="6">
-        <f t="shared" si="4"/>
+      <c r="P46" s="55">
+        <f t="shared" si="18"/>
         <v>4910</v>
       </c>
-      <c r="T46" s="42"/>
+      <c r="T46" s="40"/>
     </row>
     <row r="47" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
@@ -3479,7 +3610,7 @@
         <v>-20000</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="36">
+      <c r="G47" s="34">
         <v>180</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -3496,18 +3627,18 @@
         <f>J48</f>
         <v>-0.01</v>
       </c>
-      <c r="L47" s="29"/>
+      <c r="L47" s="30"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="52"/>
+      <c r="N47" s="49"/>
       <c r="O47" s="9">
         <f t="shared" si="1"/>
         <v>13676.364</v>
       </c>
-      <c r="P47" s="6">
-        <f t="shared" si="4"/>
+      <c r="P47" s="55">
+        <f t="shared" si="18"/>
         <v>5010</v>
       </c>
-      <c r="T47" s="42"/>
+      <c r="T47" s="40"/>
     </row>
     <row r="48" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -3524,7 +3655,7 @@
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="36">
+      <c r="G48" s="34">
         <v>180</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -3538,24 +3669,24 @@
         <v>-0.01</v>
       </c>
       <c r="K48" s="16"/>
-      <c r="L48" s="30">
-        <f>G48*G48/ABS(D48)*11.8-ABS(J48)</f>
-        <v>19.106000000000002</v>
-      </c>
-      <c r="M48" s="30">
-        <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
-        <v>1.2735433231396533E-2</v>
-      </c>
-      <c r="N48" s="52"/>
+      <c r="L48" s="32">
+        <f t="shared" ref="L48:L85" si="22">G48*G48/ABS(D48)*11.8-ABS(J48*1000)</f>
+        <v>9.1160000000000032</v>
+      </c>
+      <c r="M48" s="31">
+        <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48*1000)/1500</f>
+        <v>6.0754332313965329E-3</v>
+      </c>
+      <c r="N48" s="49"/>
       <c r="O48" s="9">
         <f t="shared" si="1"/>
         <v>13876.364</v>
       </c>
-      <c r="P48" s="6">
-        <f t="shared" si="4"/>
+      <c r="P48" s="55">
+        <f t="shared" si="18"/>
         <v>5210</v>
       </c>
-      <c r="T48" s="42"/>
+      <c r="T48" s="40"/>
     </row>
     <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -3576,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="36">
+      <c r="G49" s="34">
         <v>180</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -3592,15 +3723,15 @@
       <c r="K49" s="13">
         <v>0</v>
       </c>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="52"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="49"/>
       <c r="O49" s="9">
         <f t="shared" si="1"/>
         <v>13976.364</v>
       </c>
-      <c r="P49" s="6">
-        <f t="shared" si="4"/>
+      <c r="P49" s="55">
+        <f t="shared" si="18"/>
         <v>5310</v>
       </c>
     </row>
@@ -3632,16 +3763,16 @@
       </c>
       <c r="K50" s="16"/>
       <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="52" t="s">
+      <c r="M50" s="30"/>
+      <c r="N50" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O50" s="9">
         <f t="shared" si="1"/>
         <v>14076.364</v>
       </c>
-      <c r="P50" s="6">
-        <f t="shared" si="4"/>
+      <c r="P50" s="55">
+        <f t="shared" si="18"/>
         <v>5410</v>
       </c>
     </row>
@@ -3681,14 +3812,14 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="53"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="50"/>
       <c r="O51" s="9">
         <f t="shared" si="1"/>
         <v>14176.364</v>
       </c>
-      <c r="P51" s="6">
-        <f t="shared" si="4"/>
+      <c r="P51" s="55">
+        <f t="shared" si="18"/>
         <v>5510</v>
       </c>
     </row>
@@ -3723,25 +3854,25 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="K52" s="16"/>
-      <c r="L52" s="32">
-        <f>G52*G52/ABS(D52)*11.8-ABS(J52)</f>
-        <v>158.89447368421054</v>
+      <c r="L52" s="31">
+        <f t="shared" ref="L52:L85" si="23">G52*G52/ABS(D52)*11.8-ABS(J52*1000)</f>
+        <v>63.989473684210537</v>
       </c>
       <c r="M52" s="32">
-        <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
-        <v>0.10591384580585378</v>
-      </c>
-      <c r="N52" s="53"/>
+        <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52*1000)/1500</f>
+        <v>4.2643845805853772E-2</v>
+      </c>
+      <c r="N52" s="50"/>
       <c r="O52" s="9">
         <f t="shared" si="1"/>
         <v>16576.364000000001</v>
       </c>
-      <c r="P52" s="6">
-        <f t="shared" si="4"/>
+      <c r="P52" s="55">
+        <f t="shared" si="18"/>
         <v>7910</v>
       </c>
       <c r="Q52" s="23"/>
-      <c r="T52" s="44"/>
+      <c r="T52" s="42"/>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
@@ -3778,15 +3909,15 @@
       <c r="K53" s="12">
         <v>0</v>
       </c>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="53"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="50"/>
       <c r="O53" s="9">
         <f t="shared" si="1"/>
         <v>16676.364000000001</v>
       </c>
-      <c r="P53" s="6">
-        <f t="shared" si="4"/>
+      <c r="P53" s="55">
+        <f t="shared" si="18"/>
         <v>8010</v>
       </c>
     </row>
@@ -3803,9 +3934,9 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="36">
+        <v>64</v>
+      </c>
+      <c r="G54" s="34">
         <v>200</v>
       </c>
       <c r="H54" s="10" t="s">
@@ -3819,20 +3950,20 @@
         <v>0</v>
       </c>
       <c r="K54" s="16"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="54" t="s">
+      <c r="L54" s="30"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="51" t="s">
         <v>29</v>
       </c>
       <c r="O54" s="9">
         <f t="shared" si="1"/>
         <v>18676.364000000001</v>
       </c>
-      <c r="P54" s="6">
-        <f t="shared" si="4"/>
+      <c r="P54" s="55">
+        <f t="shared" si="18"/>
         <v>10010</v>
       </c>
-      <c r="T54" s="42"/>
+      <c r="T54" s="40"/>
     </row>
     <row r="55" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
@@ -3852,7 +3983,7 @@
         <v>3500</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="36">
+      <c r="G55" s="34">
         <v>200</v>
       </c>
       <c r="H55" s="10" t="s">
@@ -3869,18 +4000,18 @@
         <f>J56</f>
         <v>0.08</v>
       </c>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="54"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="51"/>
       <c r="O55" s="9">
         <f t="shared" si="1"/>
         <v>18776.364000000001</v>
       </c>
-      <c r="P55" s="6">
-        <f t="shared" si="4"/>
+      <c r="P55" s="55">
+        <f t="shared" si="18"/>
         <v>10110</v>
       </c>
-      <c r="T55" s="42"/>
+      <c r="T55" s="40"/>
     </row>
     <row r="56" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
@@ -3897,7 +4028,7 @@
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="36">
+      <c r="G56" s="34">
         <v>200</v>
       </c>
       <c r="H56" s="10" t="s">
@@ -3911,24 +4042,24 @@
         <v>0.08</v>
       </c>
       <c r="K56" s="16"/>
-      <c r="L56" s="33">
-        <f>G56*G56/ABS(D56)*11.8-ABS(J56)</f>
-        <v>134.77714285714285</v>
-      </c>
-      <c r="M56" s="33">
-        <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
-        <v>8.9838023972227163E-2</v>
-      </c>
-      <c r="N56" s="54"/>
+      <c r="L56" s="32">
+        <f t="shared" ref="L56:L85" si="24">G56*G56/ABS(D56)*11.8-ABS(J56*1000)</f>
+        <v>54.857142857142861</v>
+      </c>
+      <c r="M56" s="31">
+        <f t="shared" ref="M56:M65" si="25">(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56*1000)/1500</f>
+        <v>3.6558023972227162E-2</v>
+      </c>
+      <c r="N56" s="51"/>
       <c r="O56" s="9">
         <f t="shared" si="1"/>
         <v>19576.364000000001</v>
       </c>
-      <c r="P56" s="6">
-        <f t="shared" si="4"/>
+      <c r="P56" s="55">
+        <f t="shared" si="18"/>
         <v>10910</v>
       </c>
-      <c r="T56" s="42"/>
+      <c r="T56" s="40"/>
     </row>
     <row r="57" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
@@ -3949,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="36">
+      <c r="G57" s="34">
         <v>200</v>
       </c>
       <c r="H57" s="10" t="s">
@@ -3965,18 +4096,18 @@
       <c r="K57" s="18">
         <v>0</v>
       </c>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="54"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="51"/>
       <c r="O57" s="9">
         <f t="shared" si="1"/>
         <v>19676.364000000001</v>
       </c>
-      <c r="P57" s="6">
-        <f t="shared" si="4"/>
+      <c r="P57" s="55">
+        <f t="shared" si="18"/>
         <v>11010</v>
       </c>
-      <c r="T57" s="42"/>
+      <c r="T57" s="40"/>
     </row>
     <row r="58" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
@@ -3991,7 +4122,7 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="36">
+      <c r="G58" s="34">
         <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -4005,20 +4136,20 @@
         <v>0</v>
       </c>
       <c r="K58" s="16"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="52" t="s">
+      <c r="L58" s="29"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O58" s="9">
         <f t="shared" si="1"/>
         <v>19926.364000000001</v>
       </c>
-      <c r="P58" s="6">
-        <f t="shared" si="4"/>
+      <c r="P58" s="55">
+        <f t="shared" si="18"/>
         <v>11260</v>
       </c>
-      <c r="T58" s="42"/>
+      <c r="T58" s="40"/>
     </row>
     <row r="59" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
@@ -4038,7 +4169,7 @@
         <v>-6000</v>
       </c>
       <c r="F59" s="15"/>
-      <c r="G59" s="36">
+      <c r="G59" s="34">
         <v>200</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -4055,18 +4186,18 @@
         <f>J60</f>
         <v>-0.03</v>
       </c>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="52"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="49"/>
       <c r="O59" s="9">
         <f t="shared" si="1"/>
         <v>20006.364000000001</v>
       </c>
-      <c r="P59" s="6">
-        <f t="shared" si="4"/>
+      <c r="P59" s="55">
+        <f t="shared" si="18"/>
         <v>11340</v>
       </c>
-      <c r="T59" s="42"/>
+      <c r="T59" s="40"/>
     </row>
     <row r="60" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
@@ -4083,7 +4214,7 @@
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="36">
+      <c r="G60" s="34">
         <v>200</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -4097,24 +4228,24 @@
         <v>-0.03</v>
       </c>
       <c r="K60" s="16"/>
-      <c r="L60" s="32">
-        <f>G60*G60/ABS(D60)*11.8-ABS(J60)</f>
-        <v>78.63666666666667</v>
+      <c r="L60" s="31">
+        <f t="shared" ref="L60:L85" si="26">G60*G60/ABS(D60)*11.8-ABS(J60*1000)</f>
+        <v>48.666666666666671</v>
       </c>
       <c r="M60" s="32">
-        <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
-        <v>5.2416625094910296E-2</v>
-      </c>
-      <c r="N60" s="52"/>
+        <f t="shared" ref="M60:M65" si="27">(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60*1000)/1500</f>
+        <v>3.2436625094910299E-2</v>
+      </c>
+      <c r="N60" s="49"/>
       <c r="O60" s="9">
         <f t="shared" si="1"/>
         <v>20106.364000000001</v>
       </c>
-      <c r="P60" s="6">
-        <f t="shared" si="4"/>
+      <c r="P60" s="55">
+        <f t="shared" si="18"/>
         <v>11440</v>
       </c>
-      <c r="T60" s="42"/>
+      <c r="T60" s="40"/>
     </row>
     <row r="61" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
@@ -4135,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="15"/>
-      <c r="G61" s="36">
+      <c r="G61" s="34">
         <v>200</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -4151,18 +4282,18 @@
       <c r="K61" s="12">
         <v>0</v>
       </c>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="52"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="49"/>
       <c r="O61" s="9">
         <f t="shared" si="1"/>
         <v>20186.364000000001</v>
       </c>
-      <c r="P61" s="6">
-        <f t="shared" si="4"/>
+      <c r="P61" s="55">
+        <f t="shared" si="18"/>
         <v>11520</v>
       </c>
-      <c r="T61" s="42"/>
+      <c r="T61" s="40"/>
     </row>
     <row r="62" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
@@ -4177,7 +4308,7 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="36">
+      <c r="G62" s="34">
         <v>200</v>
       </c>
       <c r="H62" s="10" t="s">
@@ -4191,20 +4322,20 @@
         <v>0</v>
       </c>
       <c r="K62" s="16"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="54" t="s">
+      <c r="L62" s="30"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="51" t="s">
         <v>27</v>
       </c>
       <c r="O62" s="9">
         <f t="shared" si="1"/>
         <v>22686.364000000001</v>
       </c>
-      <c r="P62" s="6">
-        <f t="shared" si="4"/>
+      <c r="P62" s="55">
+        <f t="shared" si="18"/>
         <v>14020</v>
       </c>
-      <c r="T62" s="42"/>
+      <c r="T62" s="40"/>
     </row>
     <row r="63" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
@@ -4224,7 +4355,7 @@
         <v>-8000</v>
       </c>
       <c r="F63" s="15"/>
-      <c r="G63" s="36">
+      <c r="G63" s="34">
         <v>200</v>
       </c>
       <c r="H63" s="10" t="s">
@@ -4241,18 +4372,18 @@
         <f>J64</f>
         <v>-0.02</v>
       </c>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="54"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="51"/>
       <c r="O63" s="9">
         <f t="shared" si="1"/>
         <v>22836.364000000001</v>
       </c>
-      <c r="P63" s="6">
-        <f t="shared" si="4"/>
+      <c r="P63" s="55">
+        <f t="shared" si="18"/>
         <v>14170</v>
       </c>
-      <c r="T63" s="42"/>
+      <c r="T63" s="40"/>
     </row>
     <row r="64" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
@@ -4269,7 +4400,7 @@
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
-      <c r="G64" s="36">
+      <c r="G64" s="34">
         <v>200</v>
       </c>
       <c r="H64" s="10" t="s">
@@ -4283,24 +4414,24 @@
         <v>-0.02</v>
       </c>
       <c r="K64" s="16"/>
-      <c r="L64" s="33">
-        <f>G64*G64/ABS(D64)*11.8-ABS(J64)</f>
-        <v>58.98</v>
-      </c>
-      <c r="M64" s="33">
-        <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
-        <v>3.9314135487849393E-2</v>
-      </c>
-      <c r="N64" s="54"/>
+      <c r="L64" s="32">
+        <f t="shared" ref="L64:L85" si="28">G64*G64/ABS(D64)*11.8-ABS(J64*1000)</f>
+        <v>39</v>
+      </c>
+      <c r="M64" s="31">
+        <f t="shared" ref="M64:M77" si="29">(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64*1000)/1500</f>
+        <v>2.5994135487849387E-2</v>
+      </c>
+      <c r="N64" s="51"/>
       <c r="O64" s="9">
         <f t="shared" si="1"/>
         <v>24836.364000000001</v>
       </c>
-      <c r="P64" s="6">
-        <f t="shared" si="4"/>
+      <c r="P64" s="55">
+        <f t="shared" si="18"/>
         <v>16170</v>
       </c>
-      <c r="T64" s="42"/>
+      <c r="T64" s="40"/>
     </row>
     <row r="65" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="10">
@@ -4320,7 +4451,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="15"/>
-      <c r="G65" s="36">
+      <c r="G65" s="34">
         <v>200</v>
       </c>
       <c r="H65" s="10" t="s">
@@ -4336,18 +4467,18 @@
       <c r="K65" s="18">
         <v>0</v>
       </c>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="54"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="51"/>
       <c r="O65" s="9">
         <f t="shared" si="1"/>
         <v>24986.364000000001</v>
       </c>
-      <c r="P65" s="6">
-        <f t="shared" si="4"/>
+      <c r="P65" s="55">
+        <f t="shared" si="18"/>
         <v>16320</v>
       </c>
-      <c r="T65" s="42"/>
+      <c r="T65" s="40"/>
     </row>
     <row r="66" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
@@ -4362,34 +4493,34 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
-      <c r="G66" s="36">
+      <c r="G66" s="34">
         <v>200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" ref="I66:I84" si="5">C66</f>
+        <f t="shared" ref="I66:I84" si="30">C66</f>
         <v>2000</v>
       </c>
       <c r="J66" s="12">
         <v>0</v>
       </c>
       <c r="K66" s="16"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="52" t="s">
+      <c r="L66" s="29"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O66" s="9">
         <f t="shared" si="1"/>
         <v>26986.364000000001</v>
       </c>
-      <c r="P66" s="6">
-        <f t="shared" si="4"/>
+      <c r="P66" s="55">
+        <f t="shared" si="18"/>
         <v>18320</v>
       </c>
-      <c r="T66" s="42"/>
+      <c r="T66" s="40"/>
     </row>
     <row r="67" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
@@ -4409,14 +4540,14 @@
         <v>-6000</v>
       </c>
       <c r="F67" s="15"/>
-      <c r="G67" s="36">
+      <c r="G67" s="34">
         <v>200</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="J67" s="12">
@@ -4426,18 +4557,18 @@
         <f>J68</f>
         <v>-0.05</v>
       </c>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="52"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="49"/>
       <c r="O67" s="9">
         <f t="shared" si="1"/>
         <v>27086.364000000001</v>
       </c>
-      <c r="P67" s="6">
-        <f t="shared" si="4"/>
+      <c r="P67" s="55">
+        <f t="shared" si="18"/>
         <v>18420</v>
       </c>
-      <c r="T67" s="42"/>
+      <c r="T67" s="40"/>
     </row>
     <row r="68" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -4454,38 +4585,38 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="15"/>
-      <c r="G68" s="36">
+      <c r="G68" s="34">
         <v>200</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>900</v>
       </c>
       <c r="J68" s="12">
         <v>-0.05</v>
       </c>
       <c r="K68" s="16"/>
-      <c r="L68" s="32">
-        <f>G68*G68/ABS(D68)*11.8-ABS(J68)</f>
-        <v>78.616666666666674</v>
+      <c r="L68" s="31">
+        <f t="shared" ref="L68:L85" si="31">G68*G68/ABS(D68)*11.8-ABS(J68*1000)</f>
+        <v>28.666666666666671</v>
       </c>
       <c r="M68" s="32">
-        <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
-        <v>5.2403291761576959E-2</v>
-      </c>
-      <c r="N68" s="52"/>
+        <f t="shared" ref="M68:M77" si="32">(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68*1000)/1500</f>
+        <v>1.9103291761576963E-2</v>
+      </c>
+      <c r="N68" s="49"/>
       <c r="O68" s="9">
         <f t="shared" si="1"/>
         <v>27986.364000000001</v>
       </c>
-      <c r="P68" s="6">
-        <f t="shared" si="4"/>
+      <c r="P68" s="55">
+        <f t="shared" si="18"/>
         <v>19320</v>
       </c>
-      <c r="T68" s="42"/>
+      <c r="T68" s="40"/>
     </row>
     <row r="69" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
@@ -4506,14 +4637,14 @@
         <v>0</v>
       </c>
       <c r="F69" s="15"/>
-      <c r="G69" s="36">
+      <c r="G69" s="34">
         <v>200</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="J69" s="12">
@@ -4522,18 +4653,18 @@
       <c r="K69" s="12">
         <v>0</v>
       </c>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="52"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="49"/>
       <c r="O69" s="9">
-        <f t="shared" ref="O69:O84" si="6">O68+C69</f>
+        <f t="shared" ref="O69:O84" si="33">O68+C69</f>
         <v>28086.364000000001</v>
       </c>
-      <c r="P69" s="6">
-        <f t="shared" si="4"/>
+      <c r="P69" s="55">
+        <f t="shared" si="18"/>
         <v>19420</v>
       </c>
-      <c r="T69" s="42"/>
+      <c r="T69" s="40"/>
     </row>
     <row r="70" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="10">
@@ -4548,34 +4679,34 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
-      <c r="G70" s="36">
+      <c r="G70" s="34">
         <v>200</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>300</v>
       </c>
       <c r="J70" s="13">
         <v>0</v>
       </c>
       <c r="K70" s="16"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="54" t="s">
+      <c r="L70" s="30"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="51" t="s">
         <v>27</v>
       </c>
       <c r="O70" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>28386.364000000001</v>
       </c>
-      <c r="P70" s="6">
-        <f t="shared" si="4"/>
+      <c r="P70" s="55">
+        <f t="shared" si="18"/>
         <v>19720</v>
       </c>
-      <c r="T70" s="42"/>
+      <c r="T70" s="40"/>
     </row>
     <row r="71" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="10">
@@ -4595,14 +4726,14 @@
         <v>-10000</v>
       </c>
       <c r="F71" s="15"/>
-      <c r="G71" s="36">
+      <c r="G71" s="34">
         <v>200</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>120</v>
       </c>
       <c r="J71" s="18">
@@ -4612,18 +4743,18 @@
         <f>J72</f>
         <v>-0.03</v>
       </c>
-      <c r="L71" s="29"/>
+      <c r="L71" s="30"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="54"/>
+      <c r="N71" s="51"/>
       <c r="O71" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>28506.364000000001</v>
       </c>
-      <c r="P71" s="6">
-        <f t="shared" si="4"/>
+      <c r="P71" s="55">
+        <f t="shared" si="18"/>
         <v>19840</v>
       </c>
-      <c r="T71" s="42"/>
+      <c r="T71" s="40"/>
     </row>
     <row r="72" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="10">
@@ -4640,38 +4771,38 @@
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="36">
+      <c r="G72" s="34">
         <v>200</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="J72" s="18">
         <v>-0.03</v>
       </c>
       <c r="K72" s="16"/>
-      <c r="L72" s="30">
-        <f>G72*G72/ABS(D72)*11.8-ABS(J72)</f>
-        <v>47.17</v>
-      </c>
-      <c r="M72" s="30">
-        <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
-        <v>3.1441975056946174E-2</v>
-      </c>
-      <c r="N72" s="54"/>
+      <c r="L72" s="32">
+        <f t="shared" ref="L72:L85" si="34">G72*G72/ABS(D72)*11.8-ABS(J72*1000)</f>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="M72" s="31">
+        <f t="shared" ref="M72:M77" si="35">(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72*1000)/1500</f>
+        <v>1.1461975056946173E-2</v>
+      </c>
+      <c r="N72" s="51"/>
       <c r="O72" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>29306.364000000001</v>
       </c>
-      <c r="P72" s="6">
-        <f t="shared" si="4"/>
+      <c r="P72" s="55">
+        <f t="shared" si="18"/>
         <v>20640</v>
       </c>
-      <c r="T72" s="42"/>
+      <c r="T72" s="40"/>
     </row>
     <row r="73" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="10">
@@ -4692,14 +4823,14 @@
         <v>0</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="36">
+      <c r="G73" s="34">
         <v>200</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>120</v>
       </c>
       <c r="J73" s="18">
@@ -4708,18 +4839,18 @@
       <c r="K73" s="18">
         <v>0</v>
       </c>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="54"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="51"/>
       <c r="O73" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>29426.364000000001</v>
       </c>
-      <c r="P73" s="6">
-        <f t="shared" si="4"/>
+      <c r="P73" s="55">
+        <f t="shared" si="18"/>
         <v>20760</v>
       </c>
-      <c r="T73" s="42"/>
+      <c r="T73" s="40"/>
     </row>
     <row r="74" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
@@ -4734,14 +4865,14 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
-      <c r="G74" s="36">
+      <c r="G74" s="34">
         <v>200</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="J74" s="12">
@@ -4749,19 +4880,19 @@
       </c>
       <c r="K74" s="16"/>
       <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="52" t="s">
+      <c r="M74" s="30"/>
+      <c r="N74" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O74" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>29926.364000000001</v>
       </c>
-      <c r="P74" s="6">
-        <f t="shared" si="4"/>
+      <c r="P74" s="55">
+        <f t="shared" si="18"/>
         <v>21260</v>
       </c>
-      <c r="T74" s="42"/>
+      <c r="T74" s="40"/>
     </row>
     <row r="75" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
@@ -4781,14 +4912,14 @@
         <v>2600</v>
       </c>
       <c r="F75" s="15"/>
-      <c r="G75" s="36">
+      <c r="G75" s="34">
         <v>200</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="J75" s="12">
@@ -4799,17 +4930,17 @@
         <v>0.115</v>
       </c>
       <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="52"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="49"/>
       <c r="O75" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>30006.364000000001</v>
       </c>
-      <c r="P75" s="6">
-        <f t="shared" si="4"/>
+      <c r="P75" s="55">
+        <f t="shared" si="18"/>
         <v>21340</v>
       </c>
-      <c r="T75" s="42"/>
+      <c r="T75" s="40"/>
     </row>
     <row r="76" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
@@ -4826,38 +4957,38 @@
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
-      <c r="G76" s="36">
+      <c r="G76" s="34">
         <v>200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1200</v>
       </c>
       <c r="J76" s="12">
         <v>0.115</v>
       </c>
       <c r="K76" s="16"/>
-      <c r="L76" s="32">
-        <f>G76*G76/ABS(D76)*11.8-ABS(J76)</f>
-        <v>181.42346153846154</v>
+      <c r="L76" s="31">
+        <f t="shared" ref="L76:L85" si="36">G76*G76/ABS(D76)*11.8-ABS(J76*1000)</f>
+        <v>66.538461538461547</v>
       </c>
       <c r="M76" s="32">
-        <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
-        <v>0.12093092970620324</v>
-      </c>
-      <c r="N76" s="52"/>
+        <f t="shared" ref="M76:M77" si="37">(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76*1000)/1500</f>
+        <v>4.434092970620325E-2</v>
+      </c>
+      <c r="N76" s="49"/>
       <c r="O76" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31206.364000000001</v>
       </c>
-      <c r="P76" s="6">
-        <f t="shared" si="4"/>
+      <c r="P76" s="55">
+        <f t="shared" si="18"/>
         <v>22540</v>
       </c>
-      <c r="T76" s="42"/>
+      <c r="T76" s="40"/>
     </row>
     <row r="77" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
@@ -4878,14 +5009,14 @@
         <v>0</v>
       </c>
       <c r="F77" s="15"/>
-      <c r="G77" s="36">
+      <c r="G77" s="34">
         <v>200</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="J77" s="12">
@@ -4894,18 +5025,18 @@
       <c r="K77" s="12">
         <v>0</v>
       </c>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="52"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="49"/>
       <c r="O77" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31286.364000000001</v>
       </c>
-      <c r="P77" s="6">
-        <f t="shared" si="4"/>
+      <c r="P77" s="55">
+        <f t="shared" si="18"/>
         <v>22620</v>
       </c>
-      <c r="T77" s="42"/>
+      <c r="T77" s="40"/>
     </row>
     <row r="78" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="10">
@@ -4920,34 +5051,34 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="36">
+      <c r="G78" s="34">
         <v>200</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="J78" s="13">
         <v>0</v>
       </c>
       <c r="K78" s="16"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="54" t="s">
+      <c r="L78" s="30"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="51" t="s">
         <v>29</v>
       </c>
       <c r="O78" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31336.364000000001</v>
       </c>
-      <c r="P78" s="6">
-        <f t="shared" si="4"/>
+      <c r="P78" s="55">
+        <f t="shared" si="18"/>
         <v>22670</v>
       </c>
-      <c r="T78" s="42"/>
+      <c r="T78" s="40"/>
     </row>
     <row r="79" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="10">
@@ -4967,14 +5098,14 @@
         <v>2500</v>
       </c>
       <c r="F79" s="15"/>
-      <c r="G79" s="36">
+      <c r="G79" s="34">
         <v>200</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="J79" s="18">
@@ -4984,18 +5115,18 @@
         <f>J80</f>
         <v>0.12</v>
       </c>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="54"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="51"/>
       <c r="O79" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31416.364000000001</v>
       </c>
-      <c r="P79" s="6">
-        <f t="shared" si="4"/>
+      <c r="P79" s="55">
+        <f t="shared" si="18"/>
         <v>22750</v>
       </c>
-      <c r="T79" s="42"/>
+      <c r="T79" s="40"/>
     </row>
     <row r="80" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="10">
@@ -5012,38 +5143,38 @@
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
-      <c r="G80" s="36">
+      <c r="G80" s="34">
         <v>200</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="J80" s="18">
         <v>0.12</v>
       </c>
       <c r="K80" s="16"/>
-      <c r="L80" s="33">
-        <f>G80*G80/ABS(D80)*11.8-ABS(J80)</f>
-        <v>188.68</v>
-      </c>
-      <c r="M80" s="33">
-        <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
-        <v>0.1257679002277847</v>
-      </c>
-      <c r="N80" s="54"/>
+      <c r="L80" s="32">
+        <f>G80*G80/ABS(D80)*11.8-ABS(J80*1000)</f>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="M80" s="31">
+        <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80*1000)/1500</f>
+        <v>4.5847900227784691E-2</v>
+      </c>
+      <c r="N80" s="51"/>
       <c r="O80" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31816.364000000001</v>
       </c>
-      <c r="P80" s="6">
-        <f t="shared" si="4"/>
+      <c r="P80" s="55">
+        <f t="shared" si="18"/>
         <v>23150</v>
       </c>
-      <c r="T80" s="42"/>
+      <c r="T80" s="40"/>
     </row>
     <row r="81" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="10">
@@ -5064,14 +5195,14 @@
         <v>0</v>
       </c>
       <c r="F81" s="15"/>
-      <c r="G81" s="36">
+      <c r="G81" s="34">
         <v>200</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="J81" s="18">
@@ -5080,18 +5211,18 @@
       <c r="K81" s="18">
         <v>0</v>
       </c>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="54"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="51"/>
       <c r="O81" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31896.364000000001</v>
       </c>
-      <c r="P81" s="47">
-        <f t="shared" si="4"/>
+      <c r="P81" s="56">
+        <f t="shared" si="18"/>
         <v>23230</v>
       </c>
-      <c r="T81" s="42"/>
+      <c r="T81" s="40"/>
     </row>
     <row r="82" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
@@ -5106,33 +5237,33 @@
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="36">
+        <v>65</v>
+      </c>
+      <c r="G82" s="34">
         <v>200</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2000</v>
       </c>
       <c r="J82" s="12">
         <v>0</v>
       </c>
       <c r="K82" s="16"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="52" t="s">
+      <c r="L82" s="29"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O82" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>33896.364000000001</v>
       </c>
       <c r="P82" s="6"/>
-      <c r="T82" s="42"/>
+      <c r="T82" s="40"/>
     </row>
     <row r="83" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
@@ -5152,14 +5283,14 @@
         <v>50000</v>
       </c>
       <c r="F83" s="15"/>
-      <c r="G83" s="36">
+      <c r="G83" s="34">
         <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="J83" s="12">
@@ -5169,18 +5300,18 @@
         <f>J84</f>
         <v>0</v>
       </c>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="52"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="49"/>
       <c r="O83" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>33946.364000000001</v>
       </c>
-      <c r="P83" s="6">
+      <c r="P83" s="55">
         <f>C83</f>
         <v>50</v>
       </c>
-      <c r="T83" s="42"/>
+      <c r="T83" s="40"/>
     </row>
     <row r="84" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
@@ -5197,38 +5328,38 @@
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
-      <c r="G84" s="36">
+      <c r="G84" s="34">
         <v>0</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="J84" s="12">
         <v>0</v>
       </c>
       <c r="K84" s="16"/>
-      <c r="L84" s="32">
-        <f>G84*G84/ABS(D84)*11.8-ABS(J84)</f>
+      <c r="L84" s="31">
+        <f t="shared" ref="L84:L85" si="38">G84*G84/ABS(D84)*11.8-ABS(J84*1000)</f>
         <v>0</v>
       </c>
       <c r="M84" s="32">
-        <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
-        <v>0</v>
-      </c>
-      <c r="N84" s="52"/>
+        <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84*1000)/1500</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="49"/>
       <c r="O84" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>33996.364000000001</v>
       </c>
-      <c r="P84" s="6">
+      <c r="P84" s="55">
         <f>P83+C84</f>
         <v>100</v>
       </c>
-      <c r="T84" s="42"/>
+      <c r="T84" s="40"/>
     </row>
     <row r="85" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
@@ -5249,7 +5380,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="15"/>
-      <c r="G85" s="36">
+      <c r="G85" s="34">
         <v>0</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -5265,25 +5396,25 @@
       <c r="K85" s="12">
         <v>0</v>
       </c>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="52"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="49"/>
       <c r="O85" s="9">
         <f>O84+D85</f>
         <v>83996.364000000001</v>
       </c>
-      <c r="P85" s="47">
+      <c r="P85" s="56">
         <f>P84+C85</f>
         <v>150</v>
       </c>
-      <c r="T85" s="42"/>
+      <c r="T85" s="40"/>
     </row>
     <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="40"/>
-      <c r="K86" s="40"/>
+      <c r="J86" s="38"/>
+      <c r="K86" s="38"/>
       <c r="N86" s="1"/>
       <c r="O86" s="1"/>
     </row>
@@ -5291,8 +5422,8 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="40"/>
-      <c r="K87" s="40"/>
+      <c r="J87" s="38"/>
+      <c r="K87" s="38"/>
       <c r="N87" s="1"/>
       <c r="O87" s="1"/>
     </row>
@@ -5300,8 +5431,8 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="40"/>
-      <c r="K88" s="40"/>
+      <c r="J88" s="38"/>
+      <c r="K88" s="38"/>
       <c r="N88" s="1"/>
       <c r="O88" s="1"/>
     </row>
@@ -5309,8 +5440,8 @@
       <c r="G89" s="1"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="40"/>
-      <c r="K89" s="40"/>
+      <c r="J89" s="38"/>
+      <c r="K89" s="38"/>
       <c r="N89" s="1"/>
       <c r="O89" s="1"/>
     </row>
@@ -5318,8 +5449,8 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="40"/>
-      <c r="K90" s="40"/>
+      <c r="J90" s="38"/>
+      <c r="K90" s="38"/>
       <c r="N90" s="1"/>
       <c r="O90" s="1"/>
     </row>
@@ -5327,8 +5458,8 @@
       <c r="G91" s="1"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="40"/>
-      <c r="K91" s="40"/>
+      <c r="J91" s="38"/>
+      <c r="K91" s="38"/>
       <c r="N91" s="1"/>
       <c r="O91" s="1"/>
     </row>
@@ -5336,8 +5467,8 @@
       <c r="G92" s="1"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="40"/>
-      <c r="K92" s="40"/>
+      <c r="J92" s="38"/>
+      <c r="K92" s="38"/>
       <c r="N92" s="1"/>
       <c r="O92" s="1"/>
     </row>
@@ -5345,43 +5476,43 @@
       <c r="G93" s="1"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="40"/>
-      <c r="K93" s="40"/>
+      <c r="J93" s="38"/>
+      <c r="K93" s="38"/>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
     <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I94" s="1"/>
-      <c r="J94" s="40"/>
-      <c r="K94" s="40"/>
+      <c r="J94" s="38"/>
+      <c r="K94" s="38"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
     </row>
     <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I95" s="1"/>
-      <c r="J95" s="40"/>
-      <c r="K95" s="40"/>
+      <c r="J95" s="38"/>
+      <c r="K95" s="38"/>
       <c r="N95" s="1"/>
       <c r="O95" s="1"/>
     </row>
     <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="I96" s="1"/>
-      <c r="J96" s="40"/>
-      <c r="K96" s="40"/>
+      <c r="J96" s="38"/>
+      <c r="K96" s="38"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
     </row>
     <row r="97" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I97" s="1"/>
-      <c r="J97" s="40"/>
-      <c r="K97" s="40"/>
+      <c r="J97" s="38"/>
+      <c r="K97" s="38"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
     </row>
     <row r="98" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I98" s="1"/>
-      <c r="J98" s="40"/>
-      <c r="K98" s="40"/>
+      <c r="J98" s="38"/>
+      <c r="K98" s="38"/>
       <c r="N98" s="1"/>
       <c r="O98" s="1"/>
     </row>
@@ -5639,6 +5770,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N26:N29"/>
+    <mergeCell ref="N30:N33"/>
+    <mergeCell ref="N34:N37"/>
+    <mergeCell ref="N38:N41"/>
     <mergeCell ref="N82:N85"/>
     <mergeCell ref="N42:N45"/>
     <mergeCell ref="N46:N49"/>
@@ -5650,16 +5791,6 @@
     <mergeCell ref="N70:N73"/>
     <mergeCell ref="N74:N77"/>
     <mergeCell ref="N78:N81"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N26:N29"/>
-    <mergeCell ref="N30:N33"/>
-    <mergeCell ref="N34:N37"/>
-    <mergeCell ref="N38:N41"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5670,16 +5801,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D550FADC-50E6-46E8-AA1D-7BBB001274F1}">
   <dimension ref="A1:V85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V85"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="18.875" customWidth="1"/>
+    <col min="1" max="22" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -5759,7 +5890,9 @@
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
-      <c r="F2" s="15"/>
+      <c r="F2" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="G2" s="9">
         <v>80</v>
       </c>
@@ -5773,33 +5906,33 @@
       <c r="J2" s="12">
         <v>0</v>
       </c>
-      <c r="K2" s="37"/>
+      <c r="K2" s="35"/>
       <c r="L2" s="29"/>
       <c r="M2" s="29"/>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O2" s="9">
         <v>300</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="55">
         <f>C2</f>
         <v>300</v>
       </c>
-      <c r="Q2" s="46">
+      <c r="Q2" s="44">
         <v>1</v>
       </c>
-      <c r="R2" s="41" t="s">
+      <c r="R2" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S2" s="41">
+      <c r="S2" s="48">
         <v>4086.364</v>
       </c>
-      <c r="T2" s="45">
-        <v>0</v>
-      </c>
-      <c r="U2" s="45"/>
-      <c r="V2" s="41" t="s">
+      <c r="T2" s="43">
+        <v>0</v>
+      </c>
+      <c r="U2" s="43"/>
+      <c r="V2" s="39" t="s">
         <v>45</v>
       </c>
     </row>
@@ -5843,29 +5976,29 @@
       </c>
       <c r="L3" s="29"/>
       <c r="M3" s="29"/>
-      <c r="N3" s="52"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="9">
         <f>O2+C3</f>
         <v>327.5</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="55">
         <f>P2+C3</f>
         <v>327.5</v>
       </c>
-      <c r="Q3" s="46">
+      <c r="Q3" s="45">
         <v>2</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="41">
+      <c r="S3" s="46">
         <v>5</v>
       </c>
-      <c r="T3" s="45">
-        <v>0</v>
-      </c>
-      <c r="U3" s="45"/>
-      <c r="V3" s="41" t="s">
+      <c r="T3" s="47">
+        <v>0</v>
+      </c>
+      <c r="U3" s="47"/>
+      <c r="V3" s="46" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5883,7 +6016,7 @@
         <v>-1500</v>
       </c>
       <c r="E4" s="15"/>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G4" s="9">
@@ -5899,41 +6032,41 @@
       <c r="J4" s="22">
         <v>-5.3999999999999999E-2</v>
       </c>
-      <c r="K4" s="38"/>
-      <c r="L4" s="18">
-        <f>G4*G4/ABS(D4)*11.8-ABS(J4)</f>
-        <v>50.292666666666669</v>
-      </c>
-      <c r="M4" s="18">
-        <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
-        <v>3.3523440060742586E-2</v>
-      </c>
-      <c r="N4" s="52"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="31">
+        <f>G4*G4/ABS(D4)*11.8-ABS(J4*1000)</f>
+        <v>-3.6533333333333289</v>
+      </c>
+      <c r="M4" s="31">
+        <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4*1000)/1500</f>
+        <v>-2.4405599392574098E-3</v>
+      </c>
+      <c r="N4" s="49"/>
       <c r="O4" s="9">
         <f>O3+C4</f>
         <v>466.39300000000003</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="55">
         <f>P3+C4</f>
         <v>466.39300000000003</v>
       </c>
-      <c r="Q4" s="46">
+      <c r="Q4" s="45">
         <v>3</v>
       </c>
-      <c r="R4" s="41" t="s">
+      <c r="R4" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="41">
+      <c r="S4" s="46">
         <v>20</v>
       </c>
-      <c r="T4" s="45">
-        <v>0</v>
-      </c>
-      <c r="U4" s="45">
+      <c r="T4" s="47">
+        <v>0</v>
+      </c>
+      <c r="U4" s="47">
         <f>T5</f>
         <v>0.05</v>
       </c>
-      <c r="V4" s="41"/>
+      <c r="V4" s="46"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -5970,32 +6103,32 @@
       <c r="K5" s="22">
         <v>0</v>
       </c>
-      <c r="L5" s="31"/>
-      <c r="M5" s="31"/>
-      <c r="N5" s="52"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="9">
         <f t="shared" ref="O5:O68" si="1">O4+C5</f>
         <v>493.89300000000003</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5" s="55">
         <f t="shared" ref="P5:P21" si="2">P4+C5</f>
         <v>493.89300000000003</v>
       </c>
-      <c r="Q5" s="46">
+      <c r="Q5" s="45">
         <v>4</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="R5" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="41">
+      <c r="S5" s="46">
         <v>150</v>
       </c>
-      <c r="T5" s="45">
+      <c r="T5" s="47">
         <f>50/1000</f>
         <v>0.05</v>
       </c>
-      <c r="U5" s="45"/>
-      <c r="V5" s="41"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="46"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -6004,7 +6137,7 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="54">
         <v>250</v>
       </c>
       <c r="D6" s="15"/>
@@ -6016,44 +6149,44 @@
       <c r="H6" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I6" s="25">
+      <c r="I6" s="54">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="J6" s="39">
-        <v>0</v>
-      </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="53" t="s">
+      <c r="J6" s="37">
+        <v>0</v>
+      </c>
+      <c r="K6" s="36"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="50" t="s">
         <v>29</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="1"/>
         <v>743.89300000000003</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="55">
         <f t="shared" si="2"/>
         <v>743.89300000000003</v>
       </c>
-      <c r="Q6" s="46">
+      <c r="Q6" s="45">
         <v>5</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S6" s="41">
+      <c r="S6" s="46">
         <v>20</v>
       </c>
-      <c r="T6" s="45">
+      <c r="T6" s="47">
         <f>T5</f>
         <v>0.05</v>
       </c>
-      <c r="U6" s="45">
-        <v>0</v>
-      </c>
-      <c r="V6" s="41"/>
+      <c r="U6" s="47">
+        <v>0</v>
+      </c>
+      <c r="V6" s="46"/>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
@@ -6084,38 +6217,38 @@
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="J7" s="39">
-        <v>0</v>
-      </c>
-      <c r="K7" s="39">
+      <c r="J7" s="37">
+        <v>0</v>
+      </c>
+      <c r="K7" s="37">
         <f>J8</f>
         <v>0.12</v>
       </c>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="53"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="50"/>
       <c r="O7" s="9">
         <f t="shared" si="1"/>
         <v>786.39300000000003</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="55">
         <f t="shared" si="2"/>
         <v>786.39300000000003</v>
       </c>
-      <c r="Q7" s="46">
+      <c r="Q7" s="45">
         <v>6</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="R7" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="41">
+      <c r="S7" s="46">
         <v>5</v>
       </c>
-      <c r="T7" s="45">
-        <v>0</v>
-      </c>
-      <c r="U7" s="45"/>
-      <c r="V7" s="41" t="s">
+      <c r="T7" s="47">
+        <v>0</v>
+      </c>
+      <c r="U7" s="47"/>
+      <c r="V7" s="46" t="s">
         <v>47</v>
       </c>
     </row>
@@ -6133,7 +6266,7 @@
         <v>650</v>
       </c>
       <c r="E8" s="15"/>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="25" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="9">
@@ -6146,41 +6279,41 @@
         <f t="shared" si="0"/>
         <v>565.17399999999998</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="37">
         <v>0.12</v>
       </c>
-      <c r="K8" s="38"/>
-      <c r="L8" s="33">
-        <f>G8*G8/ABS(D8)*11.8-ABS(J8)</f>
-        <v>116.06461538461539</v>
-      </c>
-      <c r="M8" s="33">
-        <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
-        <v>7.7364861678636737E-2</v>
-      </c>
-      <c r="N8" s="53"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="32">
+        <f>G8*G8/ABS(D8)*11.8-ABS(J8*1000)</f>
+        <v>-3.8153846153846018</v>
+      </c>
+      <c r="M8" s="32">
+        <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8*1000)/1500</f>
+        <v>-2.5551383213632678E-3</v>
+      </c>
+      <c r="N8" s="50"/>
       <c r="O8" s="9">
         <f t="shared" si="1"/>
         <v>1351.567</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="55">
         <f t="shared" si="2"/>
         <v>1351.567</v>
       </c>
-      <c r="Q8" s="46">
+      <c r="Q8" s="44">
         <v>7</v>
       </c>
-      <c r="R8" s="41" t="s">
+      <c r="R8" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="41">
+      <c r="S8" s="48">
         <v>2380</v>
       </c>
-      <c r="T8" s="45">
-        <v>0</v>
-      </c>
-      <c r="U8" s="45"/>
-      <c r="V8" s="41" t="s">
+      <c r="T8" s="43">
+        <v>0</v>
+      </c>
+      <c r="U8" s="43"/>
+      <c r="V8" s="39" t="s">
         <v>48</v>
       </c>
     </row>
@@ -6213,37 +6346,37 @@
         <f t="shared" si="0"/>
         <v>42.5</v>
       </c>
-      <c r="J9" s="39">
+      <c r="J9" s="37">
         <v>0.12</v>
       </c>
-      <c r="K9" s="39">
-        <v>0</v>
-      </c>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="53"/>
+      <c r="K9" s="37">
+        <v>0</v>
+      </c>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="50"/>
       <c r="O9" s="9">
         <f t="shared" si="1"/>
         <v>1394.067</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="55">
         <f t="shared" si="2"/>
         <v>1394.067</v>
       </c>
-      <c r="Q9" s="46">
+      <c r="Q9" s="45">
         <v>8</v>
       </c>
-      <c r="R9" s="41" t="s">
+      <c r="R9" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="41">
+      <c r="S9" s="46">
         <v>50</v>
       </c>
-      <c r="T9" s="45">
-        <v>0</v>
-      </c>
-      <c r="U9" s="45"/>
-      <c r="V9" s="41" t="s">
+      <c r="T9" s="47">
+        <v>0</v>
+      </c>
+      <c r="U9" s="47"/>
+      <c r="V9" s="46" t="s">
         <v>49</v>
       </c>
     </row>
@@ -6254,7 +6387,7 @@
       <c r="B10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="53">
         <v>50</v>
       </c>
       <c r="D10" s="6"/>
@@ -6266,44 +6399,44 @@
       <c r="H10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="19">
+      <c r="I10" s="53">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="J10" s="12">
         <v>0</v>
       </c>
-      <c r="K10" s="38"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="52" t="s">
+      <c r="K10" s="36"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="1"/>
         <v>1444.067</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="55">
         <f t="shared" si="2"/>
         <v>1444.067</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="45">
         <v>9</v>
       </c>
-      <c r="R10" s="41" t="s">
+      <c r="R10" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S10" s="41">
+      <c r="S10" s="46">
         <v>50</v>
       </c>
-      <c r="T10" s="45">
-        <v>0</v>
-      </c>
-      <c r="U10" s="45">
+      <c r="T10" s="47">
+        <v>0</v>
+      </c>
+      <c r="U10" s="47">
         <f>T11</f>
         <v>0.03</v>
       </c>
-      <c r="V10" s="41"/>
+      <c r="V10" s="46"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
@@ -6341,32 +6474,32 @@
         <f>J12</f>
         <v>-0.12</v>
       </c>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="52"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="49"/>
       <c r="O11" s="9">
         <f t="shared" si="1"/>
         <v>1481.567</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="55">
         <f t="shared" si="2"/>
         <v>1481.567</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="45">
         <v>10</v>
       </c>
-      <c r="R11" s="41" t="s">
+      <c r="R11" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="46">
         <v>650</v>
       </c>
-      <c r="T11" s="45">
+      <c r="T11" s="47">
         <f>30/1000</f>
         <v>0.03</v>
       </c>
-      <c r="U11" s="45"/>
-      <c r="V11" s="41"/>
+      <c r="U11" s="47"/>
+      <c r="V11" s="46"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -6382,7 +6515,7 @@
         <v>-550</v>
       </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="19" t="s">
         <v>9</v>
       </c>
       <c r="G12" s="9">
@@ -6398,41 +6531,41 @@
       <c r="J12" s="22">
         <v>-0.12</v>
       </c>
-      <c r="K12" s="38"/>
-      <c r="L12" s="32">
-        <f>G12*G12/ABS(D12)*11.8-ABS(J12)</f>
-        <v>137.18909090909091</v>
-      </c>
-      <c r="M12" s="32">
-        <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
-        <v>9.1445745620207047E-2</v>
-      </c>
-      <c r="N12" s="52"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="31">
+        <f t="shared" ref="L12:L43" si="3">G12*G12/ABS(D12)*11.8-ABS(J12*1000)</f>
+        <v>17.309090909090912</v>
+      </c>
+      <c r="M12" s="31">
+        <f t="shared" ref="M12:M21" si="4">(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12*1000)/1500</f>
+        <v>1.1525745620207042E-2</v>
+      </c>
+      <c r="N12" s="49"/>
       <c r="O12" s="9">
         <f t="shared" si="1"/>
         <v>1738.864</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="55">
         <f t="shared" si="2"/>
         <v>1738.864</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="45">
         <v>11</v>
       </c>
-      <c r="R12" s="41" t="s">
+      <c r="R12" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S12" s="41">
+      <c r="S12" s="46">
         <v>50</v>
       </c>
-      <c r="T12" s="45">
+      <c r="T12" s="47">
         <f>T11</f>
         <v>0.03</v>
       </c>
-      <c r="U12" s="45">
-        <v>0</v>
-      </c>
-      <c r="V12" s="41"/>
+      <c r="U12" s="47">
+        <v>0</v>
+      </c>
+      <c r="V12" s="46"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -6469,31 +6602,31 @@
       <c r="K13" s="22">
         <v>0</v>
       </c>
-      <c r="L13" s="31"/>
-      <c r="M13" s="31"/>
-      <c r="N13" s="52"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="49"/>
       <c r="O13" s="9">
         <f t="shared" si="1"/>
         <v>1776.364</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13" s="55">
         <f t="shared" si="2"/>
         <v>1776.364</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="45">
         <v>12</v>
       </c>
-      <c r="R13" s="41" t="s">
+      <c r="R13" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S13" s="41">
+      <c r="S13" s="46">
         <v>1200</v>
       </c>
-      <c r="T13" s="45">
-        <v>0</v>
-      </c>
-      <c r="U13" s="45"/>
-      <c r="V13" s="41" t="s">
+      <c r="T13" s="47">
+        <v>0</v>
+      </c>
+      <c r="U13" s="47"/>
+      <c r="V13" s="46" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6510,10 +6643,10 @@
       <c r="D14" s="15"/>
       <c r="E14" s="15"/>
       <c r="F14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G14" s="9">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="G14" s="52">
+        <v>60</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>21</v>
@@ -6526,33 +6659,33 @@
         <v>0</v>
       </c>
       <c r="K14" s="16"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="53" t="s">
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="50" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="1"/>
         <v>2726.364</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="55">
         <f t="shared" si="2"/>
         <v>2726.364</v>
       </c>
-      <c r="Q14" s="46">
+      <c r="Q14" s="44">
         <v>13</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S14" s="41">
+      <c r="S14" s="48">
         <v>23230</v>
       </c>
-      <c r="T14" s="45">
-        <v>0</v>
-      </c>
-      <c r="U14" s="45"/>
-      <c r="V14" s="41" t="s">
+      <c r="T14" s="43">
+        <v>0</v>
+      </c>
+      <c r="U14" s="43"/>
+      <c r="V14" s="39" t="s">
         <v>51</v>
       </c>
     </row>
@@ -6576,8 +6709,8 @@
       <c r="F15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="9">
-        <v>80</v>
+      <c r="G15" s="52">
+        <v>60</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>22</v>
@@ -6593,31 +6726,31 @@
         <f>J16</f>
         <v>0.1</v>
       </c>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="53"/>
+      <c r="L15" s="30"/>
+      <c r="M15" s="30"/>
+      <c r="N15" s="50"/>
       <c r="O15" s="9">
         <f t="shared" si="1"/>
         <v>2806.364</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="55">
         <f t="shared" si="2"/>
         <v>2806.364</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="45">
         <v>14</v>
       </c>
-      <c r="R15" s="41" t="s">
+      <c r="R15" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S15" s="41">
+      <c r="S15" s="46">
         <v>50</v>
       </c>
-      <c r="T15" s="45">
-        <v>0</v>
-      </c>
-      <c r="U15" s="45"/>
-      <c r="V15" s="41" t="s">
+      <c r="T15" s="47">
+        <v>0</v>
+      </c>
+      <c r="U15" s="47"/>
+      <c r="V15" s="46" t="s">
         <v>52</v>
       </c>
     </row>
@@ -6636,10 +6769,10 @@
       </c>
       <c r="E16" s="15"/>
       <c r="F16" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="9">
-        <v>80</v>
+        <v>66</v>
+      </c>
+      <c r="G16" s="52">
+        <v>60</v>
       </c>
       <c r="H16" s="4" t="s">
         <v>21</v>
@@ -6652,40 +6785,40 @@
         <v>0.1</v>
       </c>
       <c r="K16" s="16"/>
-      <c r="L16" s="33">
-        <f>G16*G16/ABS(D16)*11.8-ABS(J16)</f>
-        <v>167.72222222222223</v>
-      </c>
-      <c r="M16" s="33">
-        <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
-        <v>0.11179813353580861</v>
-      </c>
-      <c r="N16" s="53"/>
+      <c r="L16" s="32">
+        <f t="shared" ref="L16:L47" si="5">G16*G16/ABS(D16)*11.8-ABS(J16*1000)</f>
+        <v>-5.5999999999999943</v>
+      </c>
+      <c r="M16" s="32">
+        <f t="shared" ref="M16:M21" si="6">(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16*1000)/1500</f>
+        <v>-3.7427165527743056E-3</v>
+      </c>
+      <c r="N16" s="50"/>
       <c r="O16" s="9">
         <f t="shared" si="1"/>
         <v>3606.364</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="55">
         <f t="shared" si="2"/>
         <v>3606.364</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="45">
         <v>15</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S16" s="41">
+      <c r="S16" s="46">
         <v>50</v>
       </c>
-      <c r="T16" s="45">
-        <v>0</v>
-      </c>
-      <c r="U16" s="45">
+      <c r="T16" s="47">
+        <v>0</v>
+      </c>
+      <c r="U16" s="47">
         <f>T17</f>
         <v>-0.03</v>
       </c>
-      <c r="V16" s="41"/>
+      <c r="V16" s="46"/>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -6705,9 +6838,11 @@
       <c r="E17" s="4">
         <v>0</v>
       </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="9">
-        <v>80</v>
+      <c r="F17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G17" s="52">
+        <v>60</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>22</v>
@@ -6722,32 +6857,32 @@
       <c r="K17" s="13">
         <v>0</v>
       </c>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="53"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="50"/>
       <c r="O17" s="9">
         <f t="shared" si="1"/>
         <v>3686.364</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17" s="55">
         <f t="shared" si="2"/>
         <v>3686.364</v>
       </c>
-      <c r="Q17" s="46">
+      <c r="Q17" s="45">
         <v>16</v>
       </c>
-      <c r="R17" s="41" t="s">
+      <c r="R17" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="41">
+      <c r="S17" s="46">
         <v>650</v>
       </c>
-      <c r="T17" s="45">
+      <c r="T17" s="47">
         <f>-30/1000</f>
         <v>-0.03</v>
       </c>
-      <c r="U17" s="45"/>
-      <c r="V17" s="41"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="46"/>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -6762,10 +6897,10 @@
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
       <c r="F18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G18" s="9">
-        <v>80</v>
+        <v>62</v>
+      </c>
+      <c r="G18" s="52">
+        <v>60</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>21</v>
@@ -6778,36 +6913,36 @@
         <v>0</v>
       </c>
       <c r="K18" s="16"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="52" t="s">
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="1"/>
         <v>3736.364</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="55">
         <f t="shared" si="2"/>
         <v>3736.364</v>
       </c>
-      <c r="Q18" s="46">
+      <c r="Q18" s="45">
         <v>17</v>
       </c>
-      <c r="R18" s="41" t="s">
+      <c r="R18" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="S18" s="41">
+      <c r="S18" s="46">
         <v>50</v>
       </c>
-      <c r="T18" s="45">
+      <c r="T18" s="47">
         <f>T17</f>
         <v>-0.03</v>
       </c>
-      <c r="U18" s="45">
-        <v>0</v>
-      </c>
-      <c r="V18" s="41"/>
+      <c r="U18" s="47">
+        <v>0</v>
+      </c>
+      <c r="V18" s="46"/>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
@@ -6827,8 +6962,8 @@
         <v>-600</v>
       </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="9">
-        <v>80</v>
+      <c r="G19" s="52">
+        <v>60</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>22</v>
@@ -6844,31 +6979,31 @@
         <f>J20</f>
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="L19" s="31"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="52"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="49"/>
       <c r="O19" s="9">
         <f t="shared" si="1"/>
         <v>3836.364</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="55">
         <f t="shared" si="2"/>
         <v>3836.364</v>
       </c>
-      <c r="Q19" s="46">
+      <c r="Q19" s="45">
         <v>18</v>
       </c>
-      <c r="R19" s="41" t="s">
+      <c r="R19" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="S19" s="41">
+      <c r="S19" s="46">
         <v>1200</v>
       </c>
-      <c r="T19" s="45">
-        <v>0</v>
-      </c>
-      <c r="U19" s="45"/>
-      <c r="V19" s="41" t="s">
+      <c r="T19" s="47">
+        <v>0</v>
+      </c>
+      <c r="U19" s="47"/>
+      <c r="V19" s="46" t="s">
         <v>53</v>
       </c>
     </row>
@@ -6887,8 +7022,8 @@
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
-      <c r="G20" s="9">
-        <v>80</v>
+      <c r="G20" s="52">
+        <v>60</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>21</v>
@@ -6901,37 +7036,37 @@
         <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K20" s="16"/>
-      <c r="L20" s="32">
-        <f>G20*G20/ABS(D20)*11.8-ABS(J20)</f>
-        <v>125.79666666666668</v>
-      </c>
-      <c r="M20" s="32">
-        <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
-        <v>8.3851933485189795E-2</v>
-      </c>
-      <c r="N20" s="52"/>
+      <c r="L20" s="31">
+        <f t="shared" ref="L20:L51" si="7">G20*G20/ABS(D20)*11.8-ABS(J20*1000)</f>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="M20" s="31">
+        <f t="shared" ref="M20:M45" si="8">(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20*1000)/1500</f>
+        <v>5.2629591875260479E-4</v>
+      </c>
+      <c r="N20" s="49"/>
       <c r="O20" s="9">
         <f t="shared" si="1"/>
         <v>3986.364</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="55">
         <f t="shared" si="2"/>
         <v>3986.364</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="44">
         <v>19</v>
       </c>
-      <c r="R20" s="41" t="s">
+      <c r="R20" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="S20" s="41">
+      <c r="S20" s="48">
         <v>150</v>
       </c>
-      <c r="T20" s="45">
-        <v>0</v>
-      </c>
-      <c r="U20" s="45"/>
-      <c r="V20" s="41" t="s">
+      <c r="T20" s="43">
+        <v>0</v>
+      </c>
+      <c r="U20" s="43"/>
+      <c r="V20" s="39" t="s">
         <v>54</v>
       </c>
     </row>
@@ -6953,8 +7088,8 @@
         <v>0</v>
       </c>
       <c r="F21" s="15"/>
-      <c r="G21" s="9">
-        <v>80</v>
+      <c r="G21" s="52">
+        <v>60</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>22</v>
@@ -6969,21 +7104,21 @@
       <c r="K21" s="12">
         <v>0</v>
       </c>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="52"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="49"/>
       <c r="O21" s="9">
         <f t="shared" si="1"/>
         <v>4086.364</v>
       </c>
-      <c r="P21" s="47">
+      <c r="P21" s="56">
         <f t="shared" si="2"/>
         <v>4086.364</v>
       </c>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
-      <c r="T21" s="42"/>
+      <c r="T21" s="40"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
     </row>
@@ -7016,9 +7151,9 @@
         <v>0</v>
       </c>
       <c r="K22" s="16"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="53" t="s">
+      <c r="L22" s="30"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="50" t="s">
         <v>29</v>
       </c>
       <c r="O22" s="9">
@@ -7029,7 +7164,7 @@
       <c r="Q22" s="1"/>
       <c r="R22" s="1"/>
       <c r="S22" s="1"/>
-      <c r="T22" s="42"/>
+      <c r="T22" s="40"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
@@ -7068,19 +7203,19 @@
         <f>J24</f>
         <v>0.03</v>
       </c>
-      <c r="L23" s="31"/>
-      <c r="M23" s="31"/>
-      <c r="N23" s="53"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="30"/>
+      <c r="N23" s="50"/>
       <c r="O23" s="9">
         <f t="shared" si="1"/>
         <v>4436.3639999999996</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23" s="55">
         <f>C23</f>
         <v>150</v>
       </c>
       <c r="Q23" s="5"/>
-      <c r="T23" s="43"/>
+      <c r="T23" s="41"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -7111,25 +7246,25 @@
         <v>0.03</v>
       </c>
       <c r="K24" s="16"/>
-      <c r="L24" s="33">
-        <f>G24*G24/ABS(D24)*11.8-ABS(J24)</f>
-        <v>58.97</v>
-      </c>
-      <c r="M24" s="33">
-        <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
-        <v>3.9307468821182724E-2</v>
-      </c>
-      <c r="N24" s="53"/>
+      <c r="L24" s="32">
+        <f t="shared" ref="L24:L55" si="9">G24*G24/ABS(D24)*11.8-ABS(J24*1000)</f>
+        <v>29</v>
+      </c>
+      <c r="M24" s="32">
+        <f t="shared" ref="M24:M45" si="10">(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24*1000)/1500</f>
+        <v>1.9327468821182723E-2</v>
+      </c>
+      <c r="N24" s="50"/>
       <c r="O24" s="9">
         <f t="shared" si="1"/>
         <v>5036.3639999999996</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24" s="55">
         <f>P23+C24</f>
         <v>750</v>
       </c>
       <c r="Q24" s="5"/>
-      <c r="T24" s="43"/>
+      <c r="T24" s="41"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
@@ -7166,19 +7301,19 @@
       <c r="K25" s="13">
         <v>0</v>
       </c>
-      <c r="L25" s="31"/>
-      <c r="M25" s="31"/>
-      <c r="N25" s="53"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="30"/>
+      <c r="N25" s="50"/>
       <c r="O25" s="9">
         <f t="shared" si="1"/>
         <v>5186.3639999999996</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25" s="55">
         <f>P24+C25</f>
         <v>900</v>
       </c>
       <c r="Q25" s="5"/>
-      <c r="T25" s="43"/>
+      <c r="T25" s="41"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -7207,21 +7342,21 @@
         <v>0</v>
       </c>
       <c r="K26" s="16"/>
-      <c r="L26" s="31"/>
-      <c r="M26" s="31"/>
-      <c r="N26" s="52" t="s">
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="1"/>
         <v>5236.3639999999996</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26" s="55">
         <f>P25+C26</f>
         <v>950</v>
       </c>
       <c r="Q26" s="5"/>
-      <c r="T26" s="43"/>
+      <c r="T26" s="41"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
@@ -7260,19 +7395,19 @@
         <f>J28</f>
         <v>-0.12</v>
       </c>
-      <c r="L27" s="31"/>
-      <c r="M27" s="31"/>
-      <c r="N27" s="52"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="49"/>
       <c r="O27" s="9">
         <f t="shared" si="1"/>
         <v>5286.3639999999996</v>
       </c>
-      <c r="P27" s="6">
-        <f t="shared" ref="P27:P33" si="3">P26+C27</f>
+      <c r="P27" s="55">
+        <f t="shared" ref="P27:P33" si="11">P26+C27</f>
         <v>1000</v>
       </c>
       <c r="Q27" s="5"/>
-      <c r="T27" s="43"/>
+      <c r="T27" s="41"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
@@ -7305,27 +7440,27 @@
         <v>-0.12</v>
       </c>
       <c r="K28" s="12"/>
-      <c r="L28" s="32">
-        <f>G28*G28/ABS(D28)*11.8-ABS(J28)</f>
-        <v>188.68</v>
-      </c>
-      <c r="M28" s="32">
-        <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
-        <v>0.1257679002277847</v>
-      </c>
-      <c r="N28" s="52"/>
+      <c r="L28" s="31">
+        <f t="shared" ref="L28:L59" si="12">G28*G28/ABS(D28)*11.8-ABS(J28*1000)</f>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="M28" s="31">
+        <f t="shared" ref="M28:M45" si="13">(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28*1000)/1500</f>
+        <v>4.5847900227784691E-2</v>
+      </c>
+      <c r="N28" s="49"/>
       <c r="O28" s="9">
         <f t="shared" si="1"/>
         <v>5786.3639999999996</v>
       </c>
-      <c r="P28" s="6">
-        <f t="shared" si="3"/>
+      <c r="P28" s="55">
+        <f t="shared" si="11"/>
         <v>1500</v>
       </c>
       <c r="Q28" s="23"/>
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
-      <c r="T28" s="44"/>
+      <c r="T28" s="42"/>
       <c r="U28" s="24"/>
       <c r="V28" s="24"/>
     </row>
@@ -7364,19 +7499,19 @@
       <c r="K29" s="12">
         <v>0</v>
       </c>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="52"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="49"/>
       <c r="O29" s="9">
         <f t="shared" si="1"/>
         <v>5836.3639999999996</v>
       </c>
-      <c r="P29" s="6">
-        <f t="shared" si="3"/>
+      <c r="P29" s="55">
+        <f t="shared" si="11"/>
         <v>1550</v>
       </c>
       <c r="Q29" s="5"/>
-      <c r="T29" s="43"/>
+      <c r="T29" s="41"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -7405,21 +7540,21 @@
         <v>0</v>
       </c>
       <c r="K30" s="16"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="53" t="s">
+      <c r="L30" s="30"/>
+      <c r="M30" s="30"/>
+      <c r="N30" s="50" t="s">
         <v>27</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="1"/>
         <v>5916.3639999999996</v>
       </c>
-      <c r="P30" s="6">
-        <f t="shared" si="3"/>
+      <c r="P30" s="55">
+        <f t="shared" si="11"/>
         <v>1630</v>
       </c>
       <c r="Q30" s="5"/>
-      <c r="T30" s="43"/>
+      <c r="T30" s="41"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
@@ -7456,19 +7591,19 @@
         <f>J32</f>
         <v>-0.12</v>
       </c>
-      <c r="L31" s="31"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="53"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="50"/>
       <c r="O31" s="9">
         <f t="shared" si="1"/>
         <v>5966.3639999999996</v>
       </c>
-      <c r="P31" s="6">
-        <f t="shared" si="3"/>
+      <c r="P31" s="55">
+        <f t="shared" si="11"/>
         <v>1680</v>
       </c>
       <c r="Q31" s="5"/>
-      <c r="T31" s="43"/>
+      <c r="T31" s="41"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
@@ -7500,28 +7635,28 @@
       <c r="J32" s="13">
         <v>-0.12</v>
       </c>
-      <c r="K32" s="38"/>
-      <c r="L32" s="34">
-        <f>G32*G32/ABS(D32)*11.8-ABS(J32)</f>
-        <v>188.68</v>
-      </c>
-      <c r="M32" s="34">
-        <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
-        <v>0.1257679002277847</v>
-      </c>
-      <c r="N32" s="53"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="32">
+        <f t="shared" ref="L32:L63" si="14">G32*G32/ABS(D32)*11.8-ABS(J32*1000)</f>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="M32" s="32">
+        <f t="shared" ref="M32:M45" si="15">(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32*1000)/1500</f>
+        <v>4.5847900227784691E-2</v>
+      </c>
+      <c r="N32" s="50"/>
       <c r="O32" s="9">
         <f t="shared" si="1"/>
         <v>6616.3639999999996</v>
       </c>
-      <c r="P32" s="6">
-        <f t="shared" si="3"/>
+      <c r="P32" s="55">
+        <f t="shared" si="11"/>
         <v>2330</v>
       </c>
       <c r="Q32" s="23"/>
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
-      <c r="T32" s="44"/>
+      <c r="T32" s="42"/>
       <c r="U32" s="24"/>
       <c r="V32" s="24"/>
     </row>
@@ -7561,19 +7696,19 @@
       <c r="K33" s="13">
         <v>0</v>
       </c>
-      <c r="L33" s="31"/>
-      <c r="M33" s="31"/>
-      <c r="N33" s="53"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="50"/>
       <c r="O33" s="9">
         <f t="shared" si="1"/>
         <v>6666.3639999999996</v>
       </c>
-      <c r="P33" s="47">
-        <f t="shared" si="3"/>
+      <c r="P33" s="56">
+        <f t="shared" si="11"/>
         <v>2380</v>
       </c>
       <c r="Q33" s="5"/>
-      <c r="T33" s="43"/>
+      <c r="T33" s="41"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -7588,7 +7723,7 @@
       <c r="D34" s="15"/>
       <c r="E34" s="15"/>
       <c r="F34" s="3" t="s">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="G34" s="7">
         <v>180</v>
@@ -7604,9 +7739,9 @@
         <v>0</v>
       </c>
       <c r="K34" s="16"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="31"/>
-      <c r="N34" s="52" t="s">
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O34" s="9">
@@ -7617,7 +7752,7 @@
       <c r="Q34" s="5"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="42"/>
+      <c r="T34" s="40"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
     </row>
@@ -7639,7 +7774,7 @@
         <v>3000</v>
       </c>
       <c r="F35" s="15"/>
-      <c r="G35" s="36">
+      <c r="G35" s="34">
         <v>180</v>
       </c>
       <c r="H35" s="3" t="s">
@@ -7656,21 +7791,21 @@
         <f>J36</f>
         <v>0.08</v>
       </c>
-      <c r="L35" s="31"/>
-      <c r="M35" s="31"/>
-      <c r="N35" s="53"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="50"/>
       <c r="O35" s="9">
         <f t="shared" si="1"/>
         <v>8766.3639999999996</v>
       </c>
-      <c r="P35" s="6">
+      <c r="P35" s="55">
         <f>C35</f>
         <v>100</v>
       </c>
       <c r="Q35" s="5"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="42"/>
+      <c r="T35" s="40"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
     </row>
@@ -7689,7 +7824,7 @@
       </c>
       <c r="E36" s="15"/>
       <c r="F36" s="15"/>
-      <c r="G36" s="36">
+      <c r="G36" s="34">
         <v>180</v>
       </c>
       <c r="H36" s="3" t="s">
@@ -7703,27 +7838,27 @@
         <v>0.08</v>
       </c>
       <c r="K36" s="16"/>
-      <c r="L36" s="32">
-        <f>G36*G36/ABS(D36)*11.8-ABS(J36)</f>
-        <v>127.36000000000001</v>
-      </c>
-      <c r="M36" s="32">
-        <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
-        <v>8.489399932042134E-2</v>
-      </c>
-      <c r="N36" s="53"/>
+      <c r="L36" s="31">
+        <f t="shared" ref="L36:L67" si="16">G36*G36/ABS(D36)*11.8-ABS(J36*1000)</f>
+        <v>47.440000000000012</v>
+      </c>
+      <c r="M36" s="31">
+        <f t="shared" ref="M36:M45" si="17">(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36*1000)/1500</f>
+        <v>3.1613999320421339E-2</v>
+      </c>
+      <c r="N36" s="50"/>
       <c r="O36" s="9">
         <f t="shared" si="1"/>
         <v>9126.3639999999996</v>
       </c>
-      <c r="P36" s="6">
+      <c r="P36" s="55">
         <f>P35+C36</f>
         <v>460</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="42"/>
+      <c r="T36" s="40"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
     </row>
@@ -7746,7 +7881,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="15"/>
-      <c r="G37" s="36">
+      <c r="G37" s="34">
         <v>180</v>
       </c>
       <c r="H37" s="3" t="s">
@@ -7762,21 +7897,21 @@
       <c r="K37" s="12">
         <v>0</v>
       </c>
-      <c r="L37" s="31"/>
-      <c r="M37" s="31"/>
-      <c r="N37" s="53"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="30"/>
+      <c r="N37" s="50"/>
       <c r="O37" s="9">
         <f t="shared" si="1"/>
         <v>9226.3639999999996</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37" s="55">
         <f>P36+C37</f>
         <v>560</v>
       </c>
       <c r="Q37" s="5"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="42"/>
+      <c r="T37" s="40"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
     </row>
@@ -7793,9 +7928,9 @@
       <c r="D38" s="15"/>
       <c r="E38" s="15"/>
       <c r="F38" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="36">
+        <v>67</v>
+      </c>
+      <c r="G38" s="34">
         <v>180</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -7809,23 +7944,23 @@
         <v>0</v>
       </c>
       <c r="K38" s="16"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="31"/>
-      <c r="N38" s="54" t="s">
+      <c r="L38" s="30"/>
+      <c r="M38" s="30"/>
+      <c r="N38" s="51" t="s">
         <v>27</v>
       </c>
       <c r="O38" s="9">
         <f t="shared" si="1"/>
         <v>9276.3639999999996</v>
       </c>
-      <c r="P38" s="6">
-        <f t="shared" ref="P38:P81" si="4">P37+C38</f>
+      <c r="P38" s="55">
+        <f t="shared" ref="P38:P81" si="18">P37+C38</f>
         <v>610</v>
       </c>
       <c r="Q38" s="5"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="42"/>
+      <c r="T38" s="40"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
     </row>
@@ -7849,7 +7984,7 @@
       <c r="F39" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G39" s="36">
+      <c r="G39" s="34">
         <v>180</v>
       </c>
       <c r="H39" s="4" t="s">
@@ -7866,21 +8001,21 @@
         <f>J40</f>
         <v>-0.08</v>
       </c>
-      <c r="L39" s="31"/>
-      <c r="M39" s="31"/>
-      <c r="N39" s="52"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="49"/>
       <c r="O39" s="9">
         <f t="shared" si="1"/>
         <v>9326.3639999999996</v>
       </c>
-      <c r="P39" s="6">
-        <f t="shared" si="4"/>
+      <c r="P39" s="55">
+        <f t="shared" si="18"/>
         <v>660</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="42"/>
+      <c r="T39" s="40"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
     </row>
@@ -7899,7 +8034,7 @@
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="15"/>
-      <c r="G40" s="36">
+      <c r="G40" s="34">
         <v>180</v>
       </c>
       <c r="H40" s="4" t="s">
@@ -7913,27 +8048,27 @@
         <v>-0.08</v>
       </c>
       <c r="K40" s="16"/>
-      <c r="L40" s="33">
-        <f>G40*G40/ABS(D40)*11.8-ABS(J40)</f>
-        <v>127.36000000000001</v>
-      </c>
-      <c r="M40" s="33">
-        <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
-        <v>8.489399932042134E-2</v>
-      </c>
-      <c r="N40" s="52"/>
+      <c r="L40" s="32">
+        <f t="shared" ref="L40:L85" si="19">G40*G40/ABS(D40)*11.8-ABS(J40*1000)</f>
+        <v>47.440000000000012</v>
+      </c>
+      <c r="M40" s="32">
+        <f t="shared" ref="M40:M45" si="20">(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40*1000)/1500</f>
+        <v>3.1613999320421339E-2</v>
+      </c>
+      <c r="N40" s="49"/>
       <c r="O40" s="9">
         <f t="shared" si="1"/>
         <v>9926.3639999999996</v>
       </c>
-      <c r="P40" s="6">
-        <f t="shared" si="4"/>
+      <c r="P40" s="55">
+        <f t="shared" si="18"/>
         <v>1260</v>
       </c>
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
-      <c r="T40" s="42"/>
+      <c r="T40" s="40"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
     </row>
@@ -7956,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="15"/>
-      <c r="G41" s="36">
+      <c r="G41" s="34">
         <v>180</v>
       </c>
       <c r="H41" s="4" t="s">
@@ -7972,21 +8107,21 @@
       <c r="K41" s="13">
         <v>0</v>
       </c>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="52"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="49"/>
       <c r="O41" s="9">
         <f t="shared" si="1"/>
         <v>9976.3639999999996</v>
       </c>
-      <c r="P41" s="6">
-        <f t="shared" si="4"/>
+      <c r="P41" s="55">
+        <f t="shared" si="18"/>
         <v>1310</v>
       </c>
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
-      <c r="T41" s="42"/>
+      <c r="T41" s="40"/>
       <c r="U41" s="5"/>
       <c r="V41" s="5"/>
     </row>
@@ -8003,7 +8138,7 @@
       <c r="D42" s="15"/>
       <c r="E42" s="15"/>
       <c r="F42" s="15"/>
-      <c r="G42" s="36">
+      <c r="G42" s="34">
         <v>180</v>
       </c>
       <c r="H42" s="3" t="s">
@@ -8017,23 +8152,23 @@
         <v>0</v>
       </c>
       <c r="K42" s="16"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="31"/>
-      <c r="N42" s="52" t="s">
+      <c r="L42" s="29"/>
+      <c r="M42" s="29"/>
+      <c r="N42" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="1"/>
         <v>12776.364</v>
       </c>
-      <c r="P42" s="6">
-        <f t="shared" si="4"/>
+      <c r="P42" s="55">
+        <f t="shared" si="18"/>
         <v>4110</v>
       </c>
       <c r="Q42" s="5"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
-      <c r="T42" s="42"/>
+      <c r="T42" s="40"/>
       <c r="U42" s="5"/>
       <c r="V42" s="5"/>
     </row>
@@ -8055,7 +8190,7 @@
         <v>3800</v>
       </c>
       <c r="F43" s="15"/>
-      <c r="G43" s="36">
+      <c r="G43" s="34">
         <v>180</v>
       </c>
       <c r="H43" s="3" t="s">
@@ -8072,21 +8207,21 @@
         <f>J44</f>
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="L43" s="31"/>
-      <c r="M43" s="31"/>
-      <c r="N43" s="53"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="50"/>
       <c r="O43" s="9">
         <f t="shared" si="1"/>
         <v>12876.364</v>
       </c>
-      <c r="P43" s="6">
-        <f t="shared" si="4"/>
+      <c r="P43" s="55">
+        <f t="shared" si="18"/>
         <v>4210</v>
       </c>
       <c r="Q43" s="5"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="42"/>
+      <c r="T43" s="40"/>
       <c r="U43" s="5"/>
       <c r="V43" s="5"/>
     </row>
@@ -8105,7 +8240,7 @@
       </c>
       <c r="E44" s="15"/>
       <c r="F44" s="15"/>
-      <c r="G44" s="36">
+      <c r="G44" s="34">
         <v>180</v>
       </c>
       <c r="H44" s="3" t="s">
@@ -8119,27 +8254,27 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K44" s="16"/>
-      <c r="L44" s="32">
-        <f>G44*G44/ABS(D44)*11.8-ABS(J44)</f>
-        <v>100.54052631578949</v>
-      </c>
-      <c r="M44" s="32">
-        <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
-        <v>6.7017017007350174E-2</v>
-      </c>
-      <c r="N44" s="53"/>
+      <c r="L44" s="31">
+        <f t="shared" ref="L44:L85" si="21">G44*G44/ABS(D44)*11.8-ABS(J44*1000)</f>
+        <v>30.610526315789485</v>
+      </c>
+      <c r="M44" s="31">
+        <f t="shared" si="13"/>
+        <v>2.0397017007350172E-2</v>
+      </c>
+      <c r="N44" s="50"/>
       <c r="O44" s="9">
         <f t="shared" si="1"/>
         <v>13076.364</v>
       </c>
-      <c r="P44" s="6">
-        <f t="shared" si="4"/>
+      <c r="P44" s="55">
+        <f t="shared" si="18"/>
         <v>4410</v>
       </c>
       <c r="Q44" s="5"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="42"/>
+      <c r="T44" s="40"/>
       <c r="U44" s="5"/>
       <c r="V44" s="5"/>
     </row>
@@ -8162,7 +8297,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="15"/>
-      <c r="G45" s="36">
+      <c r="G45" s="34">
         <v>180</v>
       </c>
       <c r="H45" s="3" t="s">
@@ -8178,21 +8313,21 @@
       <c r="K45" s="12">
         <v>0</v>
       </c>
-      <c r="L45" s="31"/>
-      <c r="M45" s="31"/>
-      <c r="N45" s="53"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
+      <c r="N45" s="50"/>
       <c r="O45" s="9">
         <f t="shared" si="1"/>
         <v>13176.364</v>
       </c>
-      <c r="P45" s="6">
-        <f t="shared" si="4"/>
+      <c r="P45" s="55">
+        <f t="shared" si="18"/>
         <v>4510</v>
       </c>
       <c r="Q45" s="5"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="42"/>
+      <c r="T45" s="40"/>
       <c r="U45" s="5"/>
       <c r="V45" s="5"/>
     </row>
@@ -8209,7 +8344,7 @@
       <c r="D46" s="15"/>
       <c r="E46" s="15"/>
       <c r="F46" s="15"/>
-      <c r="G46" s="36">
+      <c r="G46" s="34">
         <v>180</v>
       </c>
       <c r="H46" s="4" t="s">
@@ -8223,23 +8358,23 @@
         <v>0</v>
       </c>
       <c r="K46" s="16"/>
-      <c r="L46" s="29"/>
+      <c r="L46" s="30"/>
       <c r="M46" s="29"/>
-      <c r="N46" s="54" t="s">
+      <c r="N46" s="51" t="s">
         <v>27</v>
       </c>
       <c r="O46" s="9">
         <f t="shared" si="1"/>
         <v>13576.364</v>
       </c>
-      <c r="P46" s="6">
-        <f t="shared" si="4"/>
+      <c r="P46" s="55">
+        <f t="shared" si="18"/>
         <v>4910</v>
       </c>
       <c r="Q46" s="5"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="T46" s="42"/>
+      <c r="T46" s="40"/>
       <c r="U46" s="5"/>
       <c r="V46" s="5"/>
     </row>
@@ -8261,7 +8396,7 @@
         <v>-20000</v>
       </c>
       <c r="F47" s="15"/>
-      <c r="G47" s="36">
+      <c r="G47" s="34">
         <v>180</v>
       </c>
       <c r="H47" s="4" t="s">
@@ -8278,21 +8413,21 @@
         <f>J48</f>
         <v>-0.01</v>
       </c>
-      <c r="L47" s="29"/>
+      <c r="L47" s="30"/>
       <c r="M47" s="29"/>
-      <c r="N47" s="52"/>
+      <c r="N47" s="49"/>
       <c r="O47" s="9">
         <f t="shared" si="1"/>
         <v>13676.364</v>
       </c>
-      <c r="P47" s="6">
-        <f t="shared" si="4"/>
+      <c r="P47" s="55">
+        <f t="shared" si="18"/>
         <v>5010</v>
       </c>
       <c r="Q47" s="5"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="42"/>
+      <c r="T47" s="40"/>
       <c r="U47" s="5"/>
       <c r="V47" s="5"/>
     </row>
@@ -8311,7 +8446,7 @@
       </c>
       <c r="E48" s="15"/>
       <c r="F48" s="15"/>
-      <c r="G48" s="36">
+      <c r="G48" s="34">
         <v>180</v>
       </c>
       <c r="H48" s="4" t="s">
@@ -8325,27 +8460,27 @@
         <v>-0.01</v>
       </c>
       <c r="K48" s="16"/>
-      <c r="L48" s="30">
-        <f>G48*G48/ABS(D48)*11.8-ABS(J48)</f>
-        <v>19.106000000000002</v>
-      </c>
-      <c r="M48" s="30">
-        <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
-        <v>1.2735433231396533E-2</v>
-      </c>
-      <c r="N48" s="52"/>
+      <c r="L48" s="32">
+        <f t="shared" ref="L48:L85" si="22">G48*G48/ABS(D48)*11.8-ABS(J48*1000)</f>
+        <v>9.1160000000000032</v>
+      </c>
+      <c r="M48" s="31">
+        <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48*1000)/1500</f>
+        <v>6.0754332313965329E-3</v>
+      </c>
+      <c r="N48" s="49"/>
       <c r="O48" s="9">
         <f t="shared" si="1"/>
         <v>13876.364</v>
       </c>
-      <c r="P48" s="6">
-        <f t="shared" si="4"/>
+      <c r="P48" s="55">
+        <f t="shared" si="18"/>
         <v>5210</v>
       </c>
       <c r="Q48" s="5"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
-      <c r="T48" s="42"/>
+      <c r="T48" s="40"/>
       <c r="U48" s="5"/>
       <c r="V48" s="5"/>
     </row>
@@ -8368,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="F49" s="15"/>
-      <c r="G49" s="36">
+      <c r="G49" s="34">
         <v>180</v>
       </c>
       <c r="H49" s="4" t="s">
@@ -8384,19 +8519,19 @@
       <c r="K49" s="13">
         <v>0</v>
       </c>
-      <c r="L49" s="29"/>
-      <c r="M49" s="29"/>
-      <c r="N49" s="52"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="30"/>
+      <c r="N49" s="49"/>
       <c r="O49" s="9">
         <f t="shared" si="1"/>
         <v>13976.364</v>
       </c>
-      <c r="P49" s="6">
-        <f t="shared" si="4"/>
+      <c r="P49" s="55">
+        <f t="shared" si="18"/>
         <v>5310</v>
       </c>
       <c r="Q49" s="5"/>
-      <c r="T49" s="43"/>
+      <c r="T49" s="41"/>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
@@ -8426,20 +8561,20 @@
       </c>
       <c r="K50" s="16"/>
       <c r="L50" s="29"/>
-      <c r="M50" s="29"/>
-      <c r="N50" s="52" t="s">
+      <c r="M50" s="30"/>
+      <c r="N50" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O50" s="9">
         <f t="shared" si="1"/>
         <v>14076.364</v>
       </c>
-      <c r="P50" s="6">
-        <f t="shared" si="4"/>
+      <c r="P50" s="55">
+        <f t="shared" si="18"/>
         <v>5410</v>
       </c>
       <c r="Q50" s="5"/>
-      <c r="T50" s="43"/>
+      <c r="T50" s="41"/>
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
@@ -8477,18 +8612,18 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="L51" s="29"/>
-      <c r="M51" s="29"/>
-      <c r="N51" s="53"/>
+      <c r="M51" s="30"/>
+      <c r="N51" s="50"/>
       <c r="O51" s="9">
         <f t="shared" si="1"/>
         <v>14176.364</v>
       </c>
-      <c r="P51" s="6">
-        <f t="shared" si="4"/>
+      <c r="P51" s="55">
+        <f t="shared" si="18"/>
         <v>5510</v>
       </c>
       <c r="Q51" s="5"/>
-      <c r="T51" s="43"/>
+      <c r="T51" s="41"/>
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
@@ -8521,27 +8656,27 @@
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="K52" s="16"/>
-      <c r="L52" s="32">
-        <f>G52*G52/ABS(D52)*11.8-ABS(J52)</f>
-        <v>158.89447368421054</v>
+      <c r="L52" s="31">
+        <f t="shared" ref="L52:L85" si="23">G52*G52/ABS(D52)*11.8-ABS(J52*1000)</f>
+        <v>63.989473684210537</v>
       </c>
       <c r="M52" s="32">
-        <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
-        <v>0.10591384580585378</v>
-      </c>
-      <c r="N52" s="53"/>
+        <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52*1000)/1500</f>
+        <v>4.2643845805853772E-2</v>
+      </c>
+      <c r="N52" s="50"/>
       <c r="O52" s="9">
         <f t="shared" si="1"/>
         <v>16576.364000000001</v>
       </c>
-      <c r="P52" s="6">
-        <f t="shared" si="4"/>
+      <c r="P52" s="55">
+        <f t="shared" si="18"/>
         <v>7910</v>
       </c>
       <c r="Q52" s="23"/>
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
-      <c r="T52" s="44"/>
+      <c r="T52" s="42"/>
       <c r="U52" s="24"/>
       <c r="V52" s="24"/>
     </row>
@@ -8580,19 +8715,19 @@
       <c r="K53" s="12">
         <v>0</v>
       </c>
-      <c r="L53" s="31"/>
-      <c r="M53" s="31"/>
-      <c r="N53" s="53"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="30"/>
+      <c r="N53" s="50"/>
       <c r="O53" s="9">
         <f t="shared" si="1"/>
         <v>16676.364000000001</v>
       </c>
-      <c r="P53" s="6">
-        <f t="shared" si="4"/>
+      <c r="P53" s="55">
+        <f t="shared" si="18"/>
         <v>8010</v>
       </c>
       <c r="Q53" s="5"/>
-      <c r="T53" s="43"/>
+      <c r="T53" s="41"/>
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
@@ -8607,9 +8742,9 @@
       <c r="D54" s="15"/>
       <c r="E54" s="15"/>
       <c r="F54" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="36">
+        <v>64</v>
+      </c>
+      <c r="G54" s="34">
         <v>200</v>
       </c>
       <c r="H54" s="10" t="s">
@@ -8623,23 +8758,23 @@
         <v>0</v>
       </c>
       <c r="K54" s="16"/>
-      <c r="L54" s="31"/>
-      <c r="M54" s="31"/>
-      <c r="N54" s="54" t="s">
+      <c r="L54" s="30"/>
+      <c r="M54" s="29"/>
+      <c r="N54" s="51" t="s">
         <v>29</v>
       </c>
       <c r="O54" s="9">
         <f t="shared" si="1"/>
         <v>18676.364000000001</v>
       </c>
-      <c r="P54" s="6">
-        <f t="shared" si="4"/>
+      <c r="P54" s="55">
+        <f t="shared" si="18"/>
         <v>10010</v>
       </c>
       <c r="Q54" s="5"/>
       <c r="R54" s="5"/>
       <c r="S54" s="5"/>
-      <c r="T54" s="42"/>
+      <c r="T54" s="40"/>
       <c r="U54" s="5"/>
       <c r="V54" s="5"/>
     </row>
@@ -8661,7 +8796,7 @@
         <v>3500</v>
       </c>
       <c r="F55" s="15"/>
-      <c r="G55" s="36">
+      <c r="G55" s="34">
         <v>200</v>
       </c>
       <c r="H55" s="10" t="s">
@@ -8678,21 +8813,21 @@
         <f>J56</f>
         <v>0.08</v>
       </c>
-      <c r="L55" s="31"/>
-      <c r="M55" s="31"/>
-      <c r="N55" s="54"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="29"/>
+      <c r="N55" s="51"/>
       <c r="O55" s="9">
         <f t="shared" si="1"/>
         <v>18776.364000000001</v>
       </c>
-      <c r="P55" s="6">
-        <f t="shared" si="4"/>
+      <c r="P55" s="55">
+        <f t="shared" si="18"/>
         <v>10110</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="5"/>
       <c r="S55" s="5"/>
-      <c r="T55" s="42"/>
+      <c r="T55" s="40"/>
       <c r="U55" s="5"/>
       <c r="V55" s="5"/>
     </row>
@@ -8711,7 +8846,7 @@
       </c>
       <c r="E56" s="15"/>
       <c r="F56" s="15"/>
-      <c r="G56" s="36">
+      <c r="G56" s="34">
         <v>200</v>
       </c>
       <c r="H56" s="10" t="s">
@@ -8725,27 +8860,27 @@
         <v>0.08</v>
       </c>
       <c r="K56" s="16"/>
-      <c r="L56" s="33">
-        <f>G56*G56/ABS(D56)*11.8-ABS(J56)</f>
-        <v>134.77714285714285</v>
-      </c>
-      <c r="M56" s="33">
-        <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
-        <v>8.9838023972227163E-2</v>
-      </c>
-      <c r="N56" s="54"/>
+      <c r="L56" s="32">
+        <f t="shared" ref="L56:L85" si="24">G56*G56/ABS(D56)*11.8-ABS(J56*1000)</f>
+        <v>54.857142857142861</v>
+      </c>
+      <c r="M56" s="31">
+        <f t="shared" ref="M56:M65" si="25">(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56*1000)/1500</f>
+        <v>3.6558023972227162E-2</v>
+      </c>
+      <c r="N56" s="51"/>
       <c r="O56" s="9">
         <f t="shared" si="1"/>
         <v>19576.364000000001</v>
       </c>
-      <c r="P56" s="6">
-        <f t="shared" si="4"/>
+      <c r="P56" s="55">
+        <f t="shared" si="18"/>
         <v>10910</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5"/>
       <c r="S56" s="5"/>
-      <c r="T56" s="42"/>
+      <c r="T56" s="40"/>
       <c r="U56" s="5"/>
       <c r="V56" s="5"/>
     </row>
@@ -8768,7 +8903,7 @@
         <v>0</v>
       </c>
       <c r="F57" s="15"/>
-      <c r="G57" s="36">
+      <c r="G57" s="34">
         <v>200</v>
       </c>
       <c r="H57" s="10" t="s">
@@ -8784,21 +8919,21 @@
       <c r="K57" s="18">
         <v>0</v>
       </c>
-      <c r="L57" s="31"/>
-      <c r="M57" s="31"/>
-      <c r="N57" s="54"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="30"/>
+      <c r="N57" s="51"/>
       <c r="O57" s="9">
         <f t="shared" si="1"/>
         <v>19676.364000000001</v>
       </c>
-      <c r="P57" s="6">
-        <f t="shared" si="4"/>
+      <c r="P57" s="55">
+        <f t="shared" si="18"/>
         <v>11010</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
       <c r="S57" s="5"/>
-      <c r="T57" s="42"/>
+      <c r="T57" s="40"/>
       <c r="U57" s="5"/>
       <c r="V57" s="5"/>
     </row>
@@ -8815,7 +8950,7 @@
       <c r="D58" s="15"/>
       <c r="E58" s="15"/>
       <c r="F58" s="15"/>
-      <c r="G58" s="36">
+      <c r="G58" s="34">
         <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
@@ -8829,23 +8964,23 @@
         <v>0</v>
       </c>
       <c r="K58" s="16"/>
-      <c r="L58" s="31"/>
-      <c r="M58" s="31"/>
-      <c r="N58" s="52" t="s">
+      <c r="L58" s="29"/>
+      <c r="M58" s="30"/>
+      <c r="N58" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O58" s="9">
         <f t="shared" si="1"/>
         <v>19926.364000000001</v>
       </c>
-      <c r="P58" s="6">
-        <f t="shared" si="4"/>
+      <c r="P58" s="55">
+        <f t="shared" si="18"/>
         <v>11260</v>
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="5"/>
       <c r="S58" s="5"/>
-      <c r="T58" s="42"/>
+      <c r="T58" s="40"/>
       <c r="U58" s="5"/>
       <c r="V58" s="5"/>
     </row>
@@ -8867,7 +9002,7 @@
         <v>-6000</v>
       </c>
       <c r="F59" s="15"/>
-      <c r="G59" s="36">
+      <c r="G59" s="34">
         <v>200</v>
       </c>
       <c r="H59" s="3" t="s">
@@ -8884,21 +9019,21 @@
         <f>J60</f>
         <v>-0.03</v>
       </c>
-      <c r="L59" s="31"/>
-      <c r="M59" s="31"/>
-      <c r="N59" s="52"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="30"/>
+      <c r="N59" s="49"/>
       <c r="O59" s="9">
         <f t="shared" si="1"/>
         <v>20006.364000000001</v>
       </c>
-      <c r="P59" s="6">
-        <f t="shared" si="4"/>
+      <c r="P59" s="55">
+        <f t="shared" si="18"/>
         <v>11340</v>
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
       <c r="S59" s="5"/>
-      <c r="T59" s="42"/>
+      <c r="T59" s="40"/>
       <c r="U59" s="5"/>
       <c r="V59" s="5"/>
     </row>
@@ -8917,7 +9052,7 @@
       </c>
       <c r="E60" s="15"/>
       <c r="F60" s="15"/>
-      <c r="G60" s="36">
+      <c r="G60" s="34">
         <v>200</v>
       </c>
       <c r="H60" s="3" t="s">
@@ -8931,27 +9066,27 @@
         <v>-0.03</v>
       </c>
       <c r="K60" s="16"/>
-      <c r="L60" s="32">
-        <f>G60*G60/ABS(D60)*11.8-ABS(J60)</f>
-        <v>78.63666666666667</v>
+      <c r="L60" s="31">
+        <f t="shared" ref="L60:L85" si="26">G60*G60/ABS(D60)*11.8-ABS(J60*1000)</f>
+        <v>48.666666666666671</v>
       </c>
       <c r="M60" s="32">
-        <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
-        <v>5.2416625094910296E-2</v>
-      </c>
-      <c r="N60" s="52"/>
+        <f t="shared" ref="M60:M65" si="27">(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60*1000)/1500</f>
+        <v>3.2436625094910299E-2</v>
+      </c>
+      <c r="N60" s="49"/>
       <c r="O60" s="9">
         <f t="shared" si="1"/>
         <v>20106.364000000001</v>
       </c>
-      <c r="P60" s="6">
-        <f t="shared" si="4"/>
+      <c r="P60" s="55">
+        <f t="shared" si="18"/>
         <v>11440</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
       <c r="S60" s="5"/>
-      <c r="T60" s="42"/>
+      <c r="T60" s="40"/>
       <c r="U60" s="5"/>
       <c r="V60" s="5"/>
     </row>
@@ -8974,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="F61" s="15"/>
-      <c r="G61" s="36">
+      <c r="G61" s="34">
         <v>200</v>
       </c>
       <c r="H61" s="3" t="s">
@@ -8990,21 +9125,21 @@
       <c r="K61" s="12">
         <v>0</v>
       </c>
-      <c r="L61" s="31"/>
-      <c r="M61" s="31"/>
-      <c r="N61" s="52"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="30"/>
+      <c r="N61" s="49"/>
       <c r="O61" s="9">
         <f t="shared" si="1"/>
         <v>20186.364000000001</v>
       </c>
-      <c r="P61" s="6">
-        <f t="shared" si="4"/>
+      <c r="P61" s="55">
+        <f t="shared" si="18"/>
         <v>11520</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
       <c r="S61" s="5"/>
-      <c r="T61" s="42"/>
+      <c r="T61" s="40"/>
       <c r="U61" s="5"/>
       <c r="V61" s="5"/>
     </row>
@@ -9021,7 +9156,7 @@
       <c r="D62" s="15"/>
       <c r="E62" s="15"/>
       <c r="F62" s="15"/>
-      <c r="G62" s="36">
+      <c r="G62" s="34">
         <v>200</v>
       </c>
       <c r="H62" s="10" t="s">
@@ -9035,23 +9170,23 @@
         <v>0</v>
       </c>
       <c r="K62" s="16"/>
-      <c r="L62" s="31"/>
-      <c r="M62" s="31"/>
-      <c r="N62" s="54" t="s">
+      <c r="L62" s="30"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="51" t="s">
         <v>27</v>
       </c>
       <c r="O62" s="9">
         <f t="shared" si="1"/>
         <v>22686.364000000001</v>
       </c>
-      <c r="P62" s="6">
-        <f t="shared" si="4"/>
+      <c r="P62" s="55">
+        <f t="shared" si="18"/>
         <v>14020</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5"/>
       <c r="S62" s="5"/>
-      <c r="T62" s="42"/>
+      <c r="T62" s="40"/>
       <c r="U62" s="5"/>
       <c r="V62" s="5"/>
     </row>
@@ -9073,7 +9208,7 @@
         <v>-8000</v>
       </c>
       <c r="F63" s="15"/>
-      <c r="G63" s="36">
+      <c r="G63" s="34">
         <v>200</v>
       </c>
       <c r="H63" s="10" t="s">
@@ -9090,21 +9225,21 @@
         <f>J64</f>
         <v>-0.02</v>
       </c>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="54"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="51"/>
       <c r="O63" s="9">
         <f t="shared" si="1"/>
         <v>22836.364000000001</v>
       </c>
-      <c r="P63" s="6">
-        <f t="shared" si="4"/>
+      <c r="P63" s="55">
+        <f t="shared" si="18"/>
         <v>14170</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
       <c r="S63" s="5"/>
-      <c r="T63" s="42"/>
+      <c r="T63" s="40"/>
       <c r="U63" s="5"/>
       <c r="V63" s="5"/>
     </row>
@@ -9123,7 +9258,7 @@
       </c>
       <c r="E64" s="15"/>
       <c r="F64" s="15"/>
-      <c r="G64" s="36">
+      <c r="G64" s="34">
         <v>200</v>
       </c>
       <c r="H64" s="10" t="s">
@@ -9137,27 +9272,27 @@
         <v>-0.02</v>
       </c>
       <c r="K64" s="16"/>
-      <c r="L64" s="33">
-        <f>G64*G64/ABS(D64)*11.8-ABS(J64)</f>
-        <v>58.98</v>
-      </c>
-      <c r="M64" s="33">
-        <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
-        <v>3.9314135487849393E-2</v>
-      </c>
-      <c r="N64" s="54"/>
+      <c r="L64" s="32">
+        <f t="shared" ref="L64:L85" si="28">G64*G64/ABS(D64)*11.8-ABS(J64*1000)</f>
+        <v>39</v>
+      </c>
+      <c r="M64" s="31">
+        <f t="shared" ref="M64:M77" si="29">(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64*1000)/1500</f>
+        <v>2.5994135487849387E-2</v>
+      </c>
+      <c r="N64" s="51"/>
       <c r="O64" s="9">
         <f t="shared" si="1"/>
         <v>24836.364000000001</v>
       </c>
-      <c r="P64" s="6">
-        <f t="shared" si="4"/>
+      <c r="P64" s="55">
+        <f t="shared" si="18"/>
         <v>16170</v>
       </c>
       <c r="Q64" s="5"/>
       <c r="R64" s="5"/>
       <c r="S64" s="5"/>
-      <c r="T64" s="42"/>
+      <c r="T64" s="40"/>
       <c r="U64" s="5"/>
       <c r="V64" s="5"/>
     </row>
@@ -9179,7 +9314,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="15"/>
-      <c r="G65" s="36">
+      <c r="G65" s="34">
         <v>200</v>
       </c>
       <c r="H65" s="10" t="s">
@@ -9195,21 +9330,21 @@
       <c r="K65" s="18">
         <v>0</v>
       </c>
-      <c r="L65" s="31"/>
-      <c r="M65" s="31"/>
-      <c r="N65" s="54"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="30"/>
+      <c r="N65" s="51"/>
       <c r="O65" s="9">
         <f t="shared" si="1"/>
         <v>24986.364000000001</v>
       </c>
-      <c r="P65" s="6">
-        <f t="shared" si="4"/>
+      <c r="P65" s="55">
+        <f t="shared" si="18"/>
         <v>16320</v>
       </c>
       <c r="Q65" s="5"/>
       <c r="R65" s="5"/>
       <c r="S65" s="5"/>
-      <c r="T65" s="42"/>
+      <c r="T65" s="40"/>
       <c r="U65" s="5"/>
       <c r="V65" s="5"/>
     </row>
@@ -9226,37 +9361,37 @@
       <c r="D66" s="15"/>
       <c r="E66" s="15"/>
       <c r="F66" s="15"/>
-      <c r="G66" s="36">
+      <c r="G66" s="34">
         <v>200</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I66" s="3">
-        <f t="shared" ref="I66:I84" si="5">C66</f>
+        <f t="shared" ref="I66:I84" si="30">C66</f>
         <v>2000</v>
       </c>
       <c r="J66" s="12">
         <v>0</v>
       </c>
       <c r="K66" s="16"/>
-      <c r="L66" s="31"/>
-      <c r="M66" s="31"/>
-      <c r="N66" s="52" t="s">
+      <c r="L66" s="29"/>
+      <c r="M66" s="30"/>
+      <c r="N66" s="49" t="s">
         <v>27</v>
       </c>
       <c r="O66" s="9">
         <f t="shared" si="1"/>
         <v>26986.364000000001</v>
       </c>
-      <c r="P66" s="6">
-        <f t="shared" si="4"/>
+      <c r="P66" s="55">
+        <f t="shared" si="18"/>
         <v>18320</v>
       </c>
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
       <c r="S66" s="5"/>
-      <c r="T66" s="42"/>
+      <c r="T66" s="40"/>
       <c r="U66" s="5"/>
       <c r="V66" s="5"/>
     </row>
@@ -9278,14 +9413,14 @@
         <v>-6000</v>
       </c>
       <c r="F67" s="15"/>
-      <c r="G67" s="36">
+      <c r="G67" s="34">
         <v>200</v>
       </c>
       <c r="H67" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="J67" s="12">
@@ -9295,21 +9430,21 @@
         <f>J68</f>
         <v>-0.05</v>
       </c>
-      <c r="L67" s="31"/>
-      <c r="M67" s="31"/>
-      <c r="N67" s="52"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="30"/>
+      <c r="N67" s="49"/>
       <c r="O67" s="9">
         <f t="shared" si="1"/>
         <v>27086.364000000001</v>
       </c>
-      <c r="P67" s="6">
-        <f t="shared" si="4"/>
+      <c r="P67" s="55">
+        <f t="shared" si="18"/>
         <v>18420</v>
       </c>
       <c r="Q67" s="5"/>
       <c r="R67" s="5"/>
       <c r="S67" s="5"/>
-      <c r="T67" s="42"/>
+      <c r="T67" s="40"/>
       <c r="U67" s="5"/>
       <c r="V67" s="5"/>
     </row>
@@ -9328,41 +9463,41 @@
       </c>
       <c r="E68" s="3"/>
       <c r="F68" s="15"/>
-      <c r="G68" s="36">
+      <c r="G68" s="34">
         <v>200</v>
       </c>
       <c r="H68" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I68" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>900</v>
       </c>
       <c r="J68" s="12">
         <v>-0.05</v>
       </c>
       <c r="K68" s="16"/>
-      <c r="L68" s="32">
-        <f>G68*G68/ABS(D68)*11.8-ABS(J68)</f>
-        <v>78.616666666666674</v>
+      <c r="L68" s="31">
+        <f t="shared" ref="L68:L85" si="31">G68*G68/ABS(D68)*11.8-ABS(J68*1000)</f>
+        <v>28.666666666666671</v>
       </c>
       <c r="M68" s="32">
-        <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
-        <v>5.2403291761576959E-2</v>
-      </c>
-      <c r="N68" s="52"/>
+        <f t="shared" ref="M68:M77" si="32">(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68*1000)/1500</f>
+        <v>1.9103291761576963E-2</v>
+      </c>
+      <c r="N68" s="49"/>
       <c r="O68" s="9">
         <f t="shared" si="1"/>
         <v>27986.364000000001</v>
       </c>
-      <c r="P68" s="6">
-        <f t="shared" si="4"/>
+      <c r="P68" s="55">
+        <f t="shared" si="18"/>
         <v>19320</v>
       </c>
       <c r="Q68" s="5"/>
       <c r="R68" s="5"/>
       <c r="S68" s="5"/>
-      <c r="T68" s="42"/>
+      <c r="T68" s="40"/>
       <c r="U68" s="5"/>
       <c r="V68" s="5"/>
     </row>
@@ -9385,14 +9520,14 @@
         <v>0</v>
       </c>
       <c r="F69" s="15"/>
-      <c r="G69" s="36">
+      <c r="G69" s="34">
         <v>200</v>
       </c>
       <c r="H69" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I69" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>100</v>
       </c>
       <c r="J69" s="12">
@@ -9401,21 +9536,21 @@
       <c r="K69" s="12">
         <v>0</v>
       </c>
-      <c r="L69" s="31"/>
-      <c r="M69" s="31"/>
-      <c r="N69" s="52"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="30"/>
+      <c r="N69" s="49"/>
       <c r="O69" s="9">
-        <f t="shared" ref="O69:O84" si="6">O68+C69</f>
+        <f t="shared" ref="O69:O84" si="33">O68+C69</f>
         <v>28086.364000000001</v>
       </c>
-      <c r="P69" s="6">
-        <f t="shared" si="4"/>
+      <c r="P69" s="55">
+        <f t="shared" si="18"/>
         <v>19420</v>
       </c>
       <c r="Q69" s="5"/>
       <c r="R69" s="5"/>
       <c r="S69" s="5"/>
-      <c r="T69" s="42"/>
+      <c r="T69" s="40"/>
       <c r="U69" s="5"/>
       <c r="V69" s="5"/>
     </row>
@@ -9432,37 +9567,37 @@
       <c r="D70" s="15"/>
       <c r="E70" s="15"/>
       <c r="F70" s="15"/>
-      <c r="G70" s="36">
+      <c r="G70" s="34">
         <v>200</v>
       </c>
       <c r="H70" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I70" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>300</v>
       </c>
       <c r="J70" s="13">
         <v>0</v>
       </c>
       <c r="K70" s="16"/>
-      <c r="L70" s="31"/>
-      <c r="M70" s="31"/>
-      <c r="N70" s="54" t="s">
+      <c r="L70" s="30"/>
+      <c r="M70" s="29"/>
+      <c r="N70" s="51" t="s">
         <v>27</v>
       </c>
       <c r="O70" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>28386.364000000001</v>
       </c>
-      <c r="P70" s="6">
-        <f t="shared" si="4"/>
+      <c r="P70" s="55">
+        <f t="shared" si="18"/>
         <v>19720</v>
       </c>
       <c r="Q70" s="5"/>
       <c r="R70" s="5"/>
       <c r="S70" s="5"/>
-      <c r="T70" s="42"/>
+      <c r="T70" s="40"/>
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
     </row>
@@ -9484,14 +9619,14 @@
         <v>-10000</v>
       </c>
       <c r="F71" s="15"/>
-      <c r="G71" s="36">
+      <c r="G71" s="34">
         <v>200</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I71" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>120</v>
       </c>
       <c r="J71" s="18">
@@ -9501,21 +9636,21 @@
         <f>J72</f>
         <v>-0.03</v>
       </c>
-      <c r="L71" s="29"/>
+      <c r="L71" s="30"/>
       <c r="M71" s="29"/>
-      <c r="N71" s="54"/>
+      <c r="N71" s="51"/>
       <c r="O71" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>28506.364000000001</v>
       </c>
-      <c r="P71" s="6">
-        <f t="shared" si="4"/>
+      <c r="P71" s="55">
+        <f t="shared" si="18"/>
         <v>19840</v>
       </c>
       <c r="Q71" s="5"/>
       <c r="R71" s="5"/>
       <c r="S71" s="5"/>
-      <c r="T71" s="42"/>
+      <c r="T71" s="40"/>
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
     </row>
@@ -9534,41 +9669,41 @@
       </c>
       <c r="E72" s="15"/>
       <c r="F72" s="15"/>
-      <c r="G72" s="36">
+      <c r="G72" s="34">
         <v>200</v>
       </c>
       <c r="H72" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I72" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>800</v>
       </c>
       <c r="J72" s="18">
         <v>-0.03</v>
       </c>
       <c r="K72" s="16"/>
-      <c r="L72" s="30">
-        <f>G72*G72/ABS(D72)*11.8-ABS(J72)</f>
-        <v>47.17</v>
-      </c>
-      <c r="M72" s="30">
-        <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
-        <v>3.1441975056946174E-2</v>
-      </c>
-      <c r="N72" s="54"/>
+      <c r="L72" s="32">
+        <f t="shared" ref="L72:L85" si="34">G72*G72/ABS(D72)*11.8-ABS(J72*1000)</f>
+        <v>17.200000000000003</v>
+      </c>
+      <c r="M72" s="31">
+        <f t="shared" ref="M72:M77" si="35">(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72*1000)/1500</f>
+        <v>1.1461975056946173E-2</v>
+      </c>
+      <c r="N72" s="51"/>
       <c r="O72" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>29306.364000000001</v>
       </c>
-      <c r="P72" s="6">
-        <f t="shared" si="4"/>
+      <c r="P72" s="55">
+        <f t="shared" si="18"/>
         <v>20640</v>
       </c>
       <c r="Q72" s="5"/>
       <c r="R72" s="5"/>
       <c r="S72" s="5"/>
-      <c r="T72" s="42"/>
+      <c r="T72" s="40"/>
       <c r="U72" s="5"/>
       <c r="V72" s="5"/>
     </row>
@@ -9591,14 +9726,14 @@
         <v>0</v>
       </c>
       <c r="F73" s="15"/>
-      <c r="G73" s="36">
+      <c r="G73" s="34">
         <v>200</v>
       </c>
       <c r="H73" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I73" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>120</v>
       </c>
       <c r="J73" s="18">
@@ -9607,21 +9742,21 @@
       <c r="K73" s="18">
         <v>0</v>
       </c>
-      <c r="L73" s="29"/>
-      <c r="M73" s="29"/>
-      <c r="N73" s="54"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="30"/>
+      <c r="N73" s="51"/>
       <c r="O73" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>29426.364000000001</v>
       </c>
-      <c r="P73" s="6">
-        <f t="shared" si="4"/>
+      <c r="P73" s="55">
+        <f t="shared" si="18"/>
         <v>20760</v>
       </c>
       <c r="Q73" s="5"/>
       <c r="R73" s="5"/>
       <c r="S73" s="5"/>
-      <c r="T73" s="42"/>
+      <c r="T73" s="40"/>
       <c r="U73" s="5"/>
       <c r="V73" s="5"/>
     </row>
@@ -9638,14 +9773,14 @@
       <c r="D74" s="15"/>
       <c r="E74" s="15"/>
       <c r="F74" s="15"/>
-      <c r="G74" s="36">
+      <c r="G74" s="34">
         <v>200</v>
       </c>
       <c r="H74" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I74" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>500</v>
       </c>
       <c r="J74" s="12">
@@ -9653,22 +9788,22 @@
       </c>
       <c r="K74" s="16"/>
       <c r="L74" s="29"/>
-      <c r="M74" s="29"/>
-      <c r="N74" s="52" t="s">
+      <c r="M74" s="30"/>
+      <c r="N74" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O74" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>29926.364000000001</v>
       </c>
-      <c r="P74" s="6">
-        <f t="shared" si="4"/>
+      <c r="P74" s="55">
+        <f t="shared" si="18"/>
         <v>21260</v>
       </c>
       <c r="Q74" s="5"/>
       <c r="R74" s="5"/>
       <c r="S74" s="5"/>
-      <c r="T74" s="42"/>
+      <c r="T74" s="40"/>
       <c r="U74" s="5"/>
       <c r="V74" s="5"/>
     </row>
@@ -9690,14 +9825,14 @@
         <v>2600</v>
       </c>
       <c r="F75" s="15"/>
-      <c r="G75" s="36">
+      <c r="G75" s="34">
         <v>200</v>
       </c>
       <c r="H75" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I75" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="J75" s="12">
@@ -9708,20 +9843,20 @@
         <v>0.115</v>
       </c>
       <c r="L75" s="29"/>
-      <c r="M75" s="29"/>
-      <c r="N75" s="52"/>
+      <c r="M75" s="30"/>
+      <c r="N75" s="49"/>
       <c r="O75" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>30006.364000000001</v>
       </c>
-      <c r="P75" s="6">
-        <f t="shared" si="4"/>
+      <c r="P75" s="55">
+        <f t="shared" si="18"/>
         <v>21340</v>
       </c>
       <c r="Q75" s="5"/>
       <c r="R75" s="5"/>
       <c r="S75" s="5"/>
-      <c r="T75" s="42"/>
+      <c r="T75" s="40"/>
       <c r="U75" s="5"/>
       <c r="V75" s="5"/>
     </row>
@@ -9740,41 +9875,41 @@
       </c>
       <c r="E76" s="15"/>
       <c r="F76" s="15"/>
-      <c r="G76" s="36">
+      <c r="G76" s="34">
         <v>200</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I76" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>1200</v>
       </c>
       <c r="J76" s="12">
         <v>0.115</v>
       </c>
       <c r="K76" s="16"/>
-      <c r="L76" s="32">
-        <f>G76*G76/ABS(D76)*11.8-ABS(J76)</f>
-        <v>181.42346153846154</v>
+      <c r="L76" s="31">
+        <f t="shared" ref="L76:L85" si="36">G76*G76/ABS(D76)*11.8-ABS(J76*1000)</f>
+        <v>66.538461538461547</v>
       </c>
       <c r="M76" s="32">
-        <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
-        <v>0.12093092970620324</v>
-      </c>
-      <c r="N76" s="52"/>
+        <f t="shared" ref="M76:M77" si="37">(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76*1000)/1500</f>
+        <v>4.434092970620325E-2</v>
+      </c>
+      <c r="N76" s="49"/>
       <c r="O76" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31206.364000000001</v>
       </c>
-      <c r="P76" s="6">
-        <f t="shared" si="4"/>
+      <c r="P76" s="55">
+        <f t="shared" si="18"/>
         <v>22540</v>
       </c>
       <c r="Q76" s="5"/>
       <c r="R76" s="5"/>
       <c r="S76" s="5"/>
-      <c r="T76" s="42"/>
+      <c r="T76" s="40"/>
       <c r="U76" s="5"/>
       <c r="V76" s="5"/>
     </row>
@@ -9797,14 +9932,14 @@
         <v>0</v>
       </c>
       <c r="F77" s="15"/>
-      <c r="G77" s="36">
+      <c r="G77" s="34">
         <v>200</v>
       </c>
       <c r="H77" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I77" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="J77" s="12">
@@ -9813,21 +9948,21 @@
       <c r="K77" s="12">
         <v>0</v>
       </c>
-      <c r="L77" s="31"/>
-      <c r="M77" s="31"/>
-      <c r="N77" s="52"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="30"/>
+      <c r="N77" s="49"/>
       <c r="O77" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31286.364000000001</v>
       </c>
-      <c r="P77" s="6">
-        <f t="shared" si="4"/>
+      <c r="P77" s="55">
+        <f t="shared" si="18"/>
         <v>22620</v>
       </c>
       <c r="Q77" s="5"/>
       <c r="R77" s="5"/>
       <c r="S77" s="5"/>
-      <c r="T77" s="42"/>
+      <c r="T77" s="40"/>
       <c r="U77" s="5"/>
       <c r="V77" s="5"/>
     </row>
@@ -9844,37 +9979,37 @@
       <c r="D78" s="15"/>
       <c r="E78" s="15"/>
       <c r="F78" s="15"/>
-      <c r="G78" s="36">
+      <c r="G78" s="34">
         <v>200</v>
       </c>
       <c r="H78" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I78" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="J78" s="13">
         <v>0</v>
       </c>
       <c r="K78" s="16"/>
-      <c r="L78" s="31"/>
-      <c r="M78" s="31"/>
-      <c r="N78" s="54" t="s">
+      <c r="L78" s="30"/>
+      <c r="M78" s="29"/>
+      <c r="N78" s="51" t="s">
         <v>29</v>
       </c>
       <c r="O78" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31336.364000000001</v>
       </c>
-      <c r="P78" s="6">
-        <f t="shared" si="4"/>
+      <c r="P78" s="55">
+        <f t="shared" si="18"/>
         <v>22670</v>
       </c>
       <c r="Q78" s="5"/>
       <c r="R78" s="5"/>
       <c r="S78" s="5"/>
-      <c r="T78" s="42"/>
+      <c r="T78" s="40"/>
       <c r="U78" s="5"/>
       <c r="V78" s="5"/>
     </row>
@@ -9896,14 +10031,14 @@
         <v>2500</v>
       </c>
       <c r="F79" s="15"/>
-      <c r="G79" s="36">
+      <c r="G79" s="34">
         <v>200</v>
       </c>
       <c r="H79" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I79" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="J79" s="18">
@@ -9913,21 +10048,21 @@
         <f>J80</f>
         <v>0.12</v>
       </c>
-      <c r="L79" s="31"/>
-      <c r="M79" s="31"/>
-      <c r="N79" s="54"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="29"/>
+      <c r="N79" s="51"/>
       <c r="O79" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31416.364000000001</v>
       </c>
-      <c r="P79" s="6">
-        <f t="shared" si="4"/>
+      <c r="P79" s="55">
+        <f t="shared" si="18"/>
         <v>22750</v>
       </c>
       <c r="Q79" s="5"/>
       <c r="R79" s="5"/>
       <c r="S79" s="5"/>
-      <c r="T79" s="42"/>
+      <c r="T79" s="40"/>
       <c r="U79" s="5"/>
       <c r="V79" s="5"/>
     </row>
@@ -9946,41 +10081,41 @@
       </c>
       <c r="E80" s="15"/>
       <c r="F80" s="15"/>
-      <c r="G80" s="36">
+      <c r="G80" s="34">
         <v>200</v>
       </c>
       <c r="H80" s="10" t="s">
         <v>21</v>
       </c>
       <c r="I80" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>400</v>
       </c>
       <c r="J80" s="18">
         <v>0.12</v>
       </c>
       <c r="K80" s="16"/>
-      <c r="L80" s="33">
-        <f>G80*G80/ABS(D80)*11.8-ABS(J80)</f>
-        <v>188.68</v>
-      </c>
-      <c r="M80" s="33">
-        <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
-        <v>0.1257679002277847</v>
-      </c>
-      <c r="N80" s="54"/>
+      <c r="L80" s="32">
+        <f>G80*G80/ABS(D80)*11.8-ABS(J80*1000)</f>
+        <v>68.800000000000011</v>
+      </c>
+      <c r="M80" s="31">
+        <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80*1000)/1500</f>
+        <v>4.5847900227784691E-2</v>
+      </c>
+      <c r="N80" s="51"/>
       <c r="O80" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31816.364000000001</v>
       </c>
-      <c r="P80" s="6">
-        <f t="shared" si="4"/>
+      <c r="P80" s="55">
+        <f t="shared" si="18"/>
         <v>23150</v>
       </c>
       <c r="Q80" s="5"/>
       <c r="R80" s="5"/>
       <c r="S80" s="5"/>
-      <c r="T80" s="42"/>
+      <c r="T80" s="40"/>
       <c r="U80" s="5"/>
       <c r="V80" s="5"/>
     </row>
@@ -10003,14 +10138,14 @@
         <v>0</v>
       </c>
       <c r="F81" s="15"/>
-      <c r="G81" s="36">
+      <c r="G81" s="34">
         <v>200</v>
       </c>
       <c r="H81" s="10" t="s">
         <v>22</v>
       </c>
       <c r="I81" s="10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>80</v>
       </c>
       <c r="J81" s="18">
@@ -10019,21 +10154,21 @@
       <c r="K81" s="18">
         <v>0</v>
       </c>
-      <c r="L81" s="31"/>
-      <c r="M81" s="31"/>
-      <c r="N81" s="54"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="30"/>
+      <c r="N81" s="51"/>
       <c r="O81" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>31896.364000000001</v>
       </c>
-      <c r="P81" s="47">
-        <f t="shared" si="4"/>
+      <c r="P81" s="56">
+        <f t="shared" si="18"/>
         <v>23230</v>
       </c>
       <c r="Q81" s="5"/>
       <c r="R81" s="5"/>
       <c r="S81" s="5"/>
-      <c r="T81" s="42"/>
+      <c r="T81" s="40"/>
       <c r="U81" s="5"/>
       <c r="V81" s="5"/>
     </row>
@@ -10050,36 +10185,36 @@
       <c r="D82" s="15"/>
       <c r="E82" s="15"/>
       <c r="F82" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G82" s="36">
+        <v>65</v>
+      </c>
+      <c r="G82" s="34">
         <v>200</v>
       </c>
       <c r="H82" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I82" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>2000</v>
       </c>
       <c r="J82" s="12">
         <v>0</v>
       </c>
       <c r="K82" s="16"/>
-      <c r="L82" s="31"/>
-      <c r="M82" s="31"/>
-      <c r="N82" s="52" t="s">
+      <c r="L82" s="29"/>
+      <c r="M82" s="30"/>
+      <c r="N82" s="49" t="s">
         <v>29</v>
       </c>
       <c r="O82" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>33896.364000000001</v>
       </c>
       <c r="P82" s="6"/>
       <c r="Q82" s="5"/>
       <c r="R82" s="5"/>
       <c r="S82" s="5"/>
-      <c r="T82" s="42"/>
+      <c r="T82" s="40"/>
       <c r="U82" s="5"/>
       <c r="V82" s="5"/>
     </row>
@@ -10101,14 +10236,14 @@
         <v>50000</v>
       </c>
       <c r="F83" s="15"/>
-      <c r="G83" s="36">
+      <c r="G83" s="34">
         <v>0</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>22</v>
       </c>
       <c r="I83" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="J83" s="12">
@@ -10118,21 +10253,21 @@
         <f>J84</f>
         <v>0</v>
       </c>
-      <c r="L83" s="31"/>
-      <c r="M83" s="31"/>
-      <c r="N83" s="52"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="30"/>
+      <c r="N83" s="49"/>
       <c r="O83" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>33946.364000000001</v>
       </c>
-      <c r="P83" s="6">
+      <c r="P83" s="55">
         <f>C83</f>
         <v>50</v>
       </c>
       <c r="Q83" s="5"/>
       <c r="R83" s="5"/>
       <c r="S83" s="5"/>
-      <c r="T83" s="42"/>
+      <c r="T83" s="40"/>
       <c r="U83" s="5"/>
       <c r="V83" s="5"/>
     </row>
@@ -10151,41 +10286,41 @@
       </c>
       <c r="E84" s="15"/>
       <c r="F84" s="15"/>
-      <c r="G84" s="36">
+      <c r="G84" s="34">
         <v>0</v>
       </c>
       <c r="H84" s="3" t="s">
         <v>21</v>
       </c>
       <c r="I84" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="30"/>
         <v>50</v>
       </c>
       <c r="J84" s="12">
         <v>0</v>
       </c>
       <c r="K84" s="16"/>
-      <c r="L84" s="32">
-        <f>G84*G84/ABS(D84)*11.8-ABS(J84)</f>
+      <c r="L84" s="31">
+        <f t="shared" ref="L84:L85" si="38">G84*G84/ABS(D84)*11.8-ABS(J84*1000)</f>
         <v>0</v>
       </c>
       <c r="M84" s="32">
-        <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
-        <v>0</v>
-      </c>
-      <c r="N84" s="52"/>
+        <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84*1000)/1500</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="49"/>
       <c r="O84" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="33"/>
         <v>33996.364000000001</v>
       </c>
-      <c r="P84" s="6">
+      <c r="P84" s="55">
         <f>P83+C84</f>
         <v>100</v>
       </c>
       <c r="Q84" s="5"/>
       <c r="R84" s="5"/>
       <c r="S84" s="5"/>
-      <c r="T84" s="42"/>
+      <c r="T84" s="40"/>
       <c r="U84" s="5"/>
       <c r="V84" s="5"/>
     </row>
@@ -10208,7 +10343,7 @@
         <v>0</v>
       </c>
       <c r="F85" s="15"/>
-      <c r="G85" s="36">
+      <c r="G85" s="34">
         <v>0</v>
       </c>
       <c r="H85" s="3" t="s">
@@ -10224,26 +10359,35 @@
       <c r="K85" s="12">
         <v>0</v>
       </c>
-      <c r="L85" s="31"/>
-      <c r="M85" s="31"/>
-      <c r="N85" s="52"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="30"/>
+      <c r="N85" s="49"/>
       <c r="O85" s="9">
         <f>O84+D85</f>
         <v>83996.364000000001</v>
       </c>
-      <c r="P85" s="47">
-        <f>P84+D85</f>
-        <v>50100</v>
+      <c r="P85" s="56">
+        <f>P84+C85</f>
+        <v>150</v>
       </c>
       <c r="Q85" s="5"/>
       <c r="R85" s="5"/>
       <c r="S85" s="5"/>
-      <c r="T85" s="42"/>
+      <c r="T85" s="40"/>
       <c r="U85" s="5"/>
       <c r="V85" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="N50:N53"/>
+    <mergeCell ref="N54:N57"/>
+    <mergeCell ref="N58:N61"/>
+    <mergeCell ref="N62:N65"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="N70:N73"/>
     <mergeCell ref="N46:N49"/>
     <mergeCell ref="N2:N5"/>
     <mergeCell ref="N6:N9"/>
@@ -10256,15 +10400,6 @@
     <mergeCell ref="N34:N37"/>
     <mergeCell ref="N38:N41"/>
     <mergeCell ref="N42:N45"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="N50:N53"/>
-    <mergeCell ref="N54:N57"/>
-    <mergeCell ref="N58:N61"/>
-    <mergeCell ref="N62:N65"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N70:N73"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10368,7 +10503,7 @@
       <c r="K2" s="6"/>
       <c r="L2" s="17"/>
       <c r="M2" s="17"/>
-      <c r="N2" s="52" t="s">
+      <c r="N2" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10412,7 +10547,7 @@
       </c>
       <c r="L3" s="16"/>
       <c r="M3" s="16"/>
-      <c r="N3" s="52"/>
+      <c r="N3" s="49"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
@@ -10453,7 +10588,7 @@
         <f>(G4/3.6)^2/(ABS(D4)*9.81)-ABS(J4)/1500</f>
         <v>-2.4405599392574098E-3</v>
       </c>
-      <c r="N4" s="52"/>
+      <c r="N4" s="49"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
@@ -10493,7 +10628,7 @@
       </c>
       <c r="L5" s="16"/>
       <c r="M5" s="16"/>
-      <c r="N5" s="52"/>
+      <c r="N5" s="49"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
@@ -10522,7 +10657,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16"/>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10564,7 +10699,7 @@
       </c>
       <c r="L7" s="16"/>
       <c r="M7" s="16"/>
-      <c r="N7" s="53"/>
+      <c r="N7" s="50"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
@@ -10605,7 +10740,7 @@
         <f>(G8/3.6)^2/(ABS(D8)*9.81)-ABS(J8)/1500</f>
         <v>-2.5551383213632678E-3</v>
       </c>
-      <c r="N8" s="53"/>
+      <c r="N8" s="50"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
@@ -10645,7 +10780,7 @@
       </c>
       <c r="L9" s="16"/>
       <c r="M9" s="16"/>
-      <c r="N9" s="53"/>
+      <c r="N9" s="50"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -10674,7 +10809,7 @@
       <c r="K10" s="15"/>
       <c r="L10" s="16"/>
       <c r="M10" s="16"/>
-      <c r="N10" s="52" t="s">
+      <c r="N10" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -10716,7 +10851,7 @@
       </c>
       <c r="L11" s="16"/>
       <c r="M11" s="16"/>
-      <c r="N11" s="52"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
@@ -10757,7 +10892,7 @@
         <f>(G12/3.6)^2/(ABS(D12)*9.81)-ABS(J12)/1500</f>
         <v>1.1525745620207042E-2</v>
       </c>
-      <c r="N12" s="52"/>
+      <c r="N12" s="49"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
@@ -10797,7 +10932,7 @@
       </c>
       <c r="L13" s="16"/>
       <c r="M13" s="16"/>
-      <c r="N13" s="52"/>
+      <c r="N13" s="49"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
@@ -10828,7 +10963,7 @@
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
       <c r="M14" s="16"/>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -10869,7 +11004,7 @@
       </c>
       <c r="L15" s="16"/>
       <c r="M15" s="16"/>
-      <c r="N15" s="53"/>
+      <c r="N15" s="50"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
@@ -10910,7 +11045,7 @@
         <f>(G16/3.6)^2/(ABS(D16)*9.81)-ABS(J16)/1500</f>
         <v>3.8531466869141953E-2</v>
       </c>
-      <c r="N16" s="53"/>
+      <c r="N16" s="50"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
@@ -10950,7 +11085,7 @@
       </c>
       <c r="L17" s="16"/>
       <c r="M17" s="16"/>
-      <c r="N17" s="53"/>
+      <c r="N17" s="50"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
@@ -10981,7 +11116,7 @@
       <c r="K18" s="15"/>
       <c r="L18" s="16"/>
       <c r="M18" s="16"/>
-      <c r="N18" s="52" t="s">
+      <c r="N18" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11022,7 +11157,7 @@
       </c>
       <c r="L19" s="16"/>
       <c r="M19" s="16"/>
-      <c r="N19" s="52"/>
+      <c r="N19" s="49"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
@@ -11061,7 +11196,7 @@
         <f>(G20/3.6)^2/(ABS(D20)*9.81)-ABS(J20)/1500</f>
         <v>5.1091562737275734E-2</v>
       </c>
-      <c r="N20" s="52"/>
+      <c r="N20" s="49"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
@@ -11100,7 +11235,7 @@
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="16"/>
-      <c r="N21" s="52"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
@@ -11129,7 +11264,7 @@
       <c r="K22" s="15"/>
       <c r="L22" s="16"/>
       <c r="M22" s="16"/>
-      <c r="N22" s="53" t="s">
+      <c r="N22" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11170,7 +11305,7 @@
       </c>
       <c r="L23" s="16"/>
       <c r="M23" s="16"/>
-      <c r="N23" s="53"/>
+      <c r="N23" s="50"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -11209,7 +11344,7 @@
         <f>(G24/3.6)^2/(ABS(D24)*9.81)-ABS(J24)/1500</f>
         <v>3.9327468821182723E-2</v>
       </c>
-      <c r="N24" s="53"/>
+      <c r="N24" s="50"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
@@ -11249,7 +11384,7 @@
       </c>
       <c r="L25" s="16"/>
       <c r="M25" s="16"/>
-      <c r="N25" s="53"/>
+      <c r="N25" s="50"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
@@ -11278,7 +11413,7 @@
       <c r="K26" s="15"/>
       <c r="L26" s="16"/>
       <c r="M26" s="16"/>
-      <c r="N26" s="52" t="s">
+      <c r="N26" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11319,7 +11454,7 @@
       </c>
       <c r="L27" s="16"/>
       <c r="M27" s="16"/>
-      <c r="N27" s="52"/>
+      <c r="N27" s="49"/>
     </row>
     <row r="28" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="19">
@@ -11360,7 +11495,7 @@
         <f>(G28/3.6)^2/(ABS(D28)*9.81)-ABS(J28)/1500</f>
         <v>0.20765234337779359</v>
       </c>
-      <c r="N28" s="52"/>
+      <c r="N28" s="49"/>
       <c r="O28" s="23"/>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
@@ -11403,7 +11538,7 @@
       </c>
       <c r="L29" s="16"/>
       <c r="M29" s="16"/>
-      <c r="N29" s="52"/>
+      <c r="N29" s="49"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
@@ -11432,7 +11567,7 @@
       <c r="K30" s="15"/>
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
-      <c r="N30" s="53" t="s">
+      <c r="N30" s="50" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11473,7 +11608,7 @@
       </c>
       <c r="L31" s="16"/>
       <c r="M31" s="16"/>
-      <c r="N31" s="53"/>
+      <c r="N31" s="50"/>
     </row>
     <row r="32" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="25">
@@ -11514,7 +11649,7 @@
         <f>(G32/3.6)^2/(ABS(D32)*9.81)-ABS(J32)/1500</f>
         <v>0.22403552048594069</v>
       </c>
-      <c r="N32" s="53"/>
+      <c r="N32" s="50"/>
       <c r="O32" s="23"/>
       <c r="P32" s="23"/>
       <c r="Q32" s="23"/>
@@ -11556,7 +11691,7 @@
       </c>
       <c r="L33" s="16"/>
       <c r="M33" s="16"/>
-      <c r="N33" s="53"/>
+      <c r="N33" s="50"/>
     </row>
     <row r="34" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
@@ -11587,7 +11722,7 @@
       <c r="K34" s="15"/>
       <c r="L34" s="16"/>
       <c r="M34" s="16"/>
-      <c r="N34" s="52" t="s">
+      <c r="N34" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11628,7 +11763,7 @@
       </c>
       <c r="L35" s="16"/>
       <c r="M35" s="16"/>
-      <c r="N35" s="53"/>
+      <c r="N35" s="50"/>
     </row>
     <row r="36" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
@@ -11667,7 +11802,7 @@
         <f>(G36/3.6)^2/(ABS(D36)*9.81)-ABS(J36)/1500</f>
         <v>2.4947332653754678E-2</v>
       </c>
-      <c r="N36" s="53"/>
+      <c r="N36" s="50"/>
     </row>
     <row r="37" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
@@ -11707,7 +11842,7 @@
       </c>
       <c r="L37" s="16"/>
       <c r="M37" s="16"/>
-      <c r="N37" s="53"/>
+      <c r="N37" s="50"/>
     </row>
     <row r="38" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
@@ -11738,7 +11873,7 @@
       <c r="K38" s="15"/>
       <c r="L38" s="16"/>
       <c r="M38" s="16"/>
-      <c r="N38" s="54" t="s">
+      <c r="N38" s="51" t="s">
         <v>27</v>
       </c>
     </row>
@@ -11779,7 +11914,7 @@
       </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
-      <c r="N39" s="52"/>
+      <c r="N39" s="49"/>
     </row>
     <row r="40" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
@@ -11818,7 +11953,7 @@
         <f>(G40/3.6)^2/(ABS(D40)*9.81)-ABS(J40)/1500</f>
         <v>3.8531161842448383E-2</v>
       </c>
-      <c r="N40" s="52"/>
+      <c r="N40" s="49"/>
     </row>
     <row r="41" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
@@ -11858,7 +11993,7 @@
       </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
-      <c r="N41" s="52"/>
+      <c r="N41" s="49"/>
     </row>
     <row r="42" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
@@ -11887,7 +12022,7 @@
       <c r="K42" s="15"/>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
-      <c r="N42" s="52" t="s">
+      <c r="N42" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -11928,7 +12063,7 @@
       </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
-      <c r="N43" s="53"/>
+      <c r="N43" s="50"/>
     </row>
     <row r="44" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
@@ -11967,7 +12102,7 @@
         <f>(G44/3.6)^2/(ABS(D44)*9.81)-ABS(J44)/1500</f>
         <v>2.9461337869156605E-2</v>
       </c>
-      <c r="N44" s="53"/>
+      <c r="N44" s="50"/>
     </row>
     <row r="45" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -12007,7 +12142,7 @@
       </c>
       <c r="L45" s="16"/>
       <c r="M45" s="16"/>
-      <c r="N45" s="53"/>
+      <c r="N45" s="50"/>
     </row>
     <row r="46" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
@@ -12036,7 +12171,7 @@
       <c r="K46" s="15"/>
       <c r="L46" s="16"/>
       <c r="M46" s="16"/>
-      <c r="N46" s="54" t="s">
+      <c r="N46" s="51" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12077,7 +12212,7 @@
       </c>
       <c r="L47" s="16"/>
       <c r="M47" s="16"/>
-      <c r="N47" s="52"/>
+      <c r="N47" s="49"/>
     </row>
     <row r="48" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
@@ -12116,7 +12251,7 @@
         <f>(G48/3.6)^2/(ABS(D48)*9.81)-ABS(J48)/1500</f>
         <v>-2.4269012471526914E-2</v>
       </c>
-      <c r="N48" s="52"/>
+      <c r="N48" s="49"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
@@ -12156,7 +12291,7 @@
       </c>
       <c r="L49" s="16"/>
       <c r="M49" s="16"/>
-      <c r="N49" s="52"/>
+      <c r="N49" s="49"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
@@ -12185,7 +12320,7 @@
       <c r="K50" s="15"/>
       <c r="L50" s="16"/>
       <c r="M50" s="16"/>
-      <c r="N50" s="52" t="s">
+      <c r="N50" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12226,7 +12361,7 @@
       </c>
       <c r="L51" s="16"/>
       <c r="M51" s="16"/>
-      <c r="N51" s="53"/>
+      <c r="N51" s="50"/>
     </row>
     <row r="52" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="19">
@@ -12267,7 +12402,7 @@
         <f>(G52/3.6)^2/(ABS(D52)*9.81)-ABS(J52)/1500</f>
         <v>0.1166373441059136</v>
       </c>
-      <c r="N52" s="53"/>
+      <c r="N52" s="50"/>
       <c r="O52" s="23"/>
       <c r="P52" s="23"/>
       <c r="Q52" s="23"/>
@@ -12310,7 +12445,7 @@
       </c>
       <c r="L53" s="16"/>
       <c r="M53" s="16"/>
-      <c r="N53" s="53"/>
+      <c r="N53" s="50"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
@@ -12339,7 +12474,7 @@
       <c r="K54" s="15"/>
       <c r="L54" s="16"/>
       <c r="M54" s="16"/>
-      <c r="N54" s="53" t="s">
+      <c r="N54" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12380,7 +12515,7 @@
       </c>
       <c r="L55" s="16"/>
       <c r="M55" s="16"/>
-      <c r="N55" s="53"/>
+      <c r="N55" s="50"/>
     </row>
     <row r="56" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="25">
@@ -12421,7 +12556,7 @@
         <f>(G56/3.6)^2/(ABS(D56)*9.81)-ABS(J56)/1500</f>
         <v>0.10974650037964118</v>
       </c>
-      <c r="N56" s="53"/>
+      <c r="N56" s="50"/>
       <c r="O56" s="23"/>
       <c r="P56" s="23"/>
       <c r="Q56" s="23"/>
@@ -12464,7 +12599,7 @@
       </c>
       <c r="L57" s="16"/>
       <c r="M57" s="16"/>
-      <c r="N57" s="53"/>
+      <c r="N57" s="50"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
@@ -12493,7 +12628,7 @@
       <c r="K58" s="15"/>
       <c r="L58" s="16"/>
       <c r="M58" s="16"/>
-      <c r="N58" s="52" t="s">
+      <c r="N58" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12534,7 +12669,7 @@
       </c>
       <c r="L59" s="16"/>
       <c r="M59" s="16"/>
-      <c r="N59" s="53"/>
+      <c r="N59" s="50"/>
     </row>
     <row r="60" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="19">
@@ -12575,7 +12710,7 @@
         <f>(G60/3.6)^2/(ABS(D60)*9.81)-ABS(J60)/1500</f>
         <v>4.9818928842600835E-2</v>
       </c>
-      <c r="N60" s="53"/>
+      <c r="N60" s="50"/>
       <c r="O60" s="23"/>
       <c r="P60" s="23"/>
       <c r="Q60" s="23"/>
@@ -12618,7 +12753,7 @@
       </c>
       <c r="L61" s="16"/>
       <c r="M61" s="16"/>
-      <c r="N61" s="53"/>
+      <c r="N61" s="50"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
@@ -12647,7 +12782,7 @@
       <c r="K62" s="15"/>
       <c r="L62" s="16"/>
       <c r="M62" s="16"/>
-      <c r="N62" s="54" t="s">
+      <c r="N62" s="51" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12688,7 +12823,7 @@
       </c>
       <c r="L63" s="16"/>
       <c r="M63" s="16"/>
-      <c r="N63" s="52"/>
+      <c r="N63" s="49"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
@@ -12727,7 +12862,7 @@
         <f>(G64/3.6)^2/(ABS(D64)*9.81)-ABS(J64)/1500</f>
         <v>2.8672651687715683E-2</v>
       </c>
-      <c r="N64" s="52"/>
+      <c r="N64" s="49"/>
     </row>
     <row r="65" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
@@ -12767,7 +12902,7 @@
       </c>
       <c r="L65" s="16"/>
       <c r="M65" s="16"/>
-      <c r="N65" s="52"/>
+      <c r="N65" s="49"/>
     </row>
     <row r="66" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
@@ -12798,7 +12933,7 @@
       <c r="K66" s="3"/>
       <c r="L66" s="16"/>
       <c r="M66" s="16"/>
-      <c r="N66" s="52" t="s">
+      <c r="N66" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -12839,7 +12974,7 @@
       </c>
       <c r="L67" s="16"/>
       <c r="M67" s="16"/>
-      <c r="N67" s="53"/>
+      <c r="N67" s="50"/>
     </row>
     <row r="68" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
@@ -12878,7 +13013,7 @@
         <f>(G68/3.6)^2/(ABS(D68)*9.81)-ABS(J68)/1500</f>
         <v>3.6558023972227162E-2</v>
       </c>
-      <c r="N68" s="53"/>
+      <c r="N68" s="50"/>
     </row>
     <row r="69" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
@@ -12918,7 +13053,7 @@
       </c>
       <c r="L69" s="16"/>
       <c r="M69" s="16"/>
-      <c r="N69" s="53"/>
+      <c r="N69" s="50"/>
     </row>
     <row r="70" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
@@ -12947,7 +13082,7 @@
       <c r="K70" s="15"/>
       <c r="L70" s="16"/>
       <c r="M70" s="16"/>
-      <c r="N70" s="54" t="s">
+      <c r="N70" s="51" t="s">
         <v>27</v>
       </c>
     </row>
@@ -12988,7 +13123,7 @@
       </c>
       <c r="L71" s="16"/>
       <c r="M71" s="16"/>
-      <c r="N71" s="52"/>
+      <c r="N71" s="49"/>
     </row>
     <row r="72" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
@@ -13027,7 +13162,7 @@
         <f>(G72/3.6)^2/(ABS(D72)*9.81)-ABS(J72)/1500</f>
         <v>-1.0036214231479833E-2</v>
       </c>
-      <c r="N72" s="52"/>
+      <c r="N72" s="49"/>
     </row>
     <row r="73" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
@@ -13067,7 +13202,7 @@
       </c>
       <c r="L73" s="16"/>
       <c r="M73" s="16"/>
-      <c r="N73" s="52"/>
+      <c r="N73" s="49"/>
     </row>
     <row r="74" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
@@ -13096,7 +13231,7 @@
       <c r="K74" s="15"/>
       <c r="L74" s="16"/>
       <c r="M74" s="16"/>
-      <c r="N74" s="52" t="s">
+      <c r="N74" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13137,7 +13272,7 @@
       </c>
       <c r="L75" s="15"/>
       <c r="M75" s="16"/>
-      <c r="N75" s="52"/>
+      <c r="N75" s="49"/>
     </row>
     <row r="76" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
@@ -13176,7 +13311,7 @@
         <f>(G76/3.6)^2/(ABS(D76)*9.81)-ABS(J76)/1500</f>
         <v>-1.5204691609720496E-2</v>
       </c>
-      <c r="N76" s="52"/>
+      <c r="N76" s="49"/>
     </row>
     <row r="77" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
@@ -13215,7 +13350,7 @@
       </c>
       <c r="L77" s="16"/>
       <c r="M77" s="16"/>
-      <c r="N77" s="52"/>
+      <c r="N77" s="49"/>
     </row>
     <row r="78" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
@@ -13244,7 +13379,7 @@
       <c r="K78" s="15"/>
       <c r="L78" s="16"/>
       <c r="M78" s="16"/>
-      <c r="N78" s="54" t="s">
+      <c r="N78" s="51" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13285,7 +13420,7 @@
       </c>
       <c r="L79" s="16"/>
       <c r="M79" s="16"/>
-      <c r="N79" s="52"/>
+      <c r="N79" s="49"/>
     </row>
     <row r="80" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
@@ -13324,7 +13459,7 @@
         <f>(G80/3.6)^2/(ABS(D80)*9.81)-ABS(J80)/1500</f>
         <v>-2.4193827340276544E-2</v>
       </c>
-      <c r="N80" s="52"/>
+      <c r="N80" s="49"/>
     </row>
     <row r="81" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
@@ -13364,7 +13499,7 @@
       </c>
       <c r="L81" s="16"/>
       <c r="M81" s="16"/>
-      <c r="N81" s="52"/>
+      <c r="N81" s="49"/>
     </row>
     <row r="82" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
@@ -13393,7 +13528,7 @@
       <c r="K82" s="15"/>
       <c r="L82" s="16"/>
       <c r="M82" s="16"/>
-      <c r="N82" s="52" t="s">
+      <c r="N82" s="49" t="s">
         <v>27</v>
       </c>
     </row>
@@ -13434,7 +13569,7 @@
       </c>
       <c r="L83" s="16"/>
       <c r="M83" s="16"/>
-      <c r="N83" s="52"/>
+      <c r="N83" s="49"/>
     </row>
     <row r="84" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
@@ -13473,7 +13608,7 @@
         <f>(G84/3.6)^2/(ABS(D84)*9.81)-ABS(J84)/1500</f>
         <v>-1.5204691609720496E-2</v>
       </c>
-      <c r="N84" s="52"/>
+      <c r="N84" s="49"/>
     </row>
     <row r="85" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
@@ -13513,7 +13648,7 @@
       </c>
       <c r="L85" s="16"/>
       <c r="M85" s="16"/>
-      <c r="N85" s="52"/>
+      <c r="N85" s="49"/>
     </row>
     <row r="86" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
@@ -13542,7 +13677,7 @@
       <c r="K86" s="15"/>
       <c r="L86" s="16"/>
       <c r="M86" s="16"/>
-      <c r="N86" s="53" t="s">
+      <c r="N86" s="50" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13583,7 +13718,7 @@
       </c>
       <c r="L87" s="16"/>
       <c r="M87" s="16"/>
-      <c r="N87" s="53"/>
+      <c r="N87" s="50"/>
     </row>
     <row r="88" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
@@ -13622,7 +13757,7 @@
         <f>(G88/3.6)^2/(ABS(D88)*9.81)-ABS(J88)/1500</f>
         <v>3.9030863298617297E-2</v>
       </c>
-      <c r="N88" s="53"/>
+      <c r="N88" s="50"/>
     </row>
     <row r="89" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
@@ -13662,7 +13797,7 @@
       </c>
       <c r="L89" s="16"/>
       <c r="M89" s="16"/>
-      <c r="N89" s="53"/>
+      <c r="N89" s="50"/>
     </row>
     <row r="90" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
@@ -13691,7 +13826,7 @@
       <c r="K90" s="15"/>
       <c r="L90" s="16"/>
       <c r="M90" s="16"/>
-      <c r="N90" s="52" t="s">
+      <c r="N90" s="49" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13732,7 +13867,7 @@
       </c>
       <c r="L91" s="16"/>
       <c r="M91" s="16"/>
-      <c r="N91" s="53"/>
+      <c r="N91" s="50"/>
     </row>
     <row r="92" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
@@ -13771,7 +13906,7 @@
         <f>(G92/3.6)^2/(ABS(D92)*9.81)-ABS(J92)/1500</f>
         <v>3.8206583523153925E-2</v>
       </c>
-      <c r="N92" s="53"/>
+      <c r="N92" s="50"/>
     </row>
     <row r="93" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
@@ -13811,7 +13946,7 @@
       </c>
       <c r="L93" s="16"/>
       <c r="M93" s="16"/>
-      <c r="N93" s="53"/>
+      <c r="N93" s="50"/>
     </row>
     <row r="94" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
@@ -13842,7 +13977,7 @@
       <c r="K94" s="15"/>
       <c r="L94" s="16"/>
       <c r="M94" s="16"/>
-      <c r="N94" s="54" t="s">
+      <c r="N94" s="51" t="s">
         <v>29</v>
       </c>
     </row>
@@ -13863,7 +13998,7 @@
         <f>D96</f>
         <v>50000</v>
       </c>
-      <c r="F95" s="53" t="s">
+      <c r="F95" s="50" t="s">
         <v>17</v>
       </c>
       <c r="G95" s="8">
@@ -13885,7 +14020,7 @@
       </c>
       <c r="L95" s="16"/>
       <c r="M95" s="16"/>
-      <c r="N95" s="53"/>
+      <c r="N95" s="50"/>
     </row>
     <row r="96" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
@@ -13901,7 +14036,7 @@
         <v>50000</v>
       </c>
       <c r="E96" s="15"/>
-      <c r="F96" s="53"/>
+      <c r="F96" s="50"/>
       <c r="G96" s="8">
         <v>200</v>
       </c>
@@ -13924,7 +14059,7 @@
         <f>(G96/3.6)^2/(ABS(D96)*9.81)-ABS(J96)/1500</f>
         <v>6.2923950113892351E-3</v>
       </c>
-      <c r="N96" s="53"/>
+      <c r="N96" s="50"/>
     </row>
     <row r="97" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
@@ -13944,7 +14079,7 @@
       <c r="E97" s="4">
         <v>0</v>
       </c>
-      <c r="F97" s="53"/>
+      <c r="F97" s="50"/>
       <c r="G97" s="8">
         <v>200</v>
       </c>
@@ -13964,17 +14099,16 @@
       </c>
       <c r="L97" s="16"/>
       <c r="M97" s="16"/>
-      <c r="N97" s="53"/>
+      <c r="N97" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F95:F97"/>
-    <mergeCell ref="N74:N77"/>
-    <mergeCell ref="N78:N81"/>
-    <mergeCell ref="N82:N85"/>
-    <mergeCell ref="N86:N89"/>
-    <mergeCell ref="N90:N93"/>
-    <mergeCell ref="N94:N97"/>
+    <mergeCell ref="N22:N25"/>
+    <mergeCell ref="N2:N5"/>
+    <mergeCell ref="N6:N9"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="N14:N17"/>
+    <mergeCell ref="N18:N21"/>
     <mergeCell ref="N70:N73"/>
     <mergeCell ref="N26:N29"/>
     <mergeCell ref="N30:N33"/>
@@ -13987,12 +14121,13 @@
     <mergeCell ref="N58:N61"/>
     <mergeCell ref="N62:N65"/>
     <mergeCell ref="N66:N69"/>
-    <mergeCell ref="N22:N25"/>
-    <mergeCell ref="N2:N5"/>
-    <mergeCell ref="N6:N9"/>
-    <mergeCell ref="N10:N13"/>
-    <mergeCell ref="N14:N17"/>
-    <mergeCell ref="N18:N21"/>
+    <mergeCell ref="F95:F97"/>
+    <mergeCell ref="N74:N77"/>
+    <mergeCell ref="N78:N81"/>
+    <mergeCell ref="N82:N85"/>
+    <mergeCell ref="N86:N89"/>
+    <mergeCell ref="N90:N93"/>
+    <mergeCell ref="N94:N97"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
